--- a/prot/356379915/Переход трубопровода через р. Енисей/Трехосные_КД_ПП/1067.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/Трехосные_КД_ПП/1067.xlsx
@@ -7564,7 +7564,7 @@
         <v>0.09000000000000002</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0006875186587278445</v>
+        <v>0.000797229082992926</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>0.15</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.0008326614866815007</v>
+        <v>0.0006812684891030459</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -7591,28 +7591,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03476937653675712</v>
+        <v>0.03490161105638619</v>
       </c>
       <c r="G87" t="n">
-        <v>0.00157299695434771</v>
+        <v>0.001628890953302487</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0.05894454846283505</v>
+        <v>0.05712536613081751</v>
       </c>
       <c r="K87" t="n">
-        <v>0.001631060740332313</v>
+        <v>0.001577287380904275</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0.1759807621135332</v>
+        <v>0.1589672704285072</v>
       </c>
       <c r="N87" t="n">
-        <v>0.001792445296743706</v>
+        <v>0.001639997462600715</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -7621,7 +7621,7 @@
         <v>0.2759807621135332</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.002042653792683983</v>
+        <v>0.001671262194014168</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -7643,13 +7643,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.03645066088718368</v>
+        <v>0.0366516512377572</v>
       </c>
       <c r="G88" t="n">
-        <v>0.002359495431521566</v>
+        <v>0.002443336429953731</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.004092703183046848</v>
+        <v>-0.003276341119816671</v>
       </c>
       <c r="J88" t="n">
         <v>0.07598076211353315</v>
@@ -7658,25 +7658,25 @@
         <v>0.002530650173625918</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.001079716010544775</v>
+        <v>-0.003707054459623492</v>
       </c>
       <c r="M88" t="n">
-        <v>0.1836801402381224</v>
+        <v>0.1759807621135332</v>
       </c>
       <c r="N88" t="n">
-        <v>0.002422965767978979</v>
+        <v>0.002078473801543234</v>
       </c>
       <c r="O88" t="n">
-        <v>-0.004021267799360102</v>
+        <v>-0.004493442315228633</v>
       </c>
       <c r="P88" t="n">
-        <v>0.2836601620287078</v>
+        <v>0.2879075333622736</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.002456502445855272</v>
+        <v>0.002375469400082453</v>
       </c>
       <c r="R88" t="n">
-        <v>-0.003747769288226367</v>
+        <v>-0.001190038089647299</v>
       </c>
     </row>
     <row r="89">
@@ -7697,40 +7697,40 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03801002306132276</v>
+        <v>0.03824743670239721</v>
       </c>
       <c r="G89" t="n">
-        <v>0.003145993908695421</v>
+        <v>0.003257781906604975</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.004092703183046848</v>
+        <v>-0.003276668721168518</v>
       </c>
       <c r="J89" t="n">
-        <v>0.07915623874944337</v>
+        <v>0.07922105575011544</v>
       </c>
       <c r="K89" t="n">
-        <v>0.003262121480664625</v>
+        <v>0.003154574761808551</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.001079716010544775</v>
+        <v>-0.003707054459623492</v>
       </c>
       <c r="M89" t="n">
-        <v>0.1927671410555068</v>
+        <v>0.18927833210951</v>
       </c>
       <c r="N89" t="n">
-        <v>0.003230621023971972</v>
+        <v>0.003279994925201429</v>
       </c>
       <c r="O89" t="n">
-        <v>-0.004021267799360102</v>
+        <v>-0.004493442315228633</v>
       </c>
       <c r="P89" t="n">
-        <v>0.2980038229106309</v>
+        <v>0.3003107426265995</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.003275336594473695</v>
+        <v>0.003167292533443271</v>
       </c>
       <c r="R89" t="n">
-        <v>-0.003747769288226367</v>
+        <v>-0.001190038089647299</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
@@ -7743,40 +7743,40 @@
         <v/>
       </c>
       <c r="F90" t="n">
-        <v>0.03943450888718677</v>
+        <v>0.0396887540402635</v>
       </c>
       <c r="G90" t="n">
-        <v>0.003932492385869276</v>
+        <v>0.004072227383256219</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.004092703183046848</v>
+        <v>-0.003276341119816671</v>
       </c>
       <c r="J90" t="n">
-        <v>0.08242719347485856</v>
+        <v>0.08303759755584512</v>
       </c>
       <c r="K90" t="n">
-        <v>0.004077651850830782</v>
+        <v>0.003943218452260688</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.001079716010544775</v>
+        <v>-0.003707054459623492</v>
       </c>
       <c r="M90" t="n">
-        <v>0.2011135127178409</v>
+        <v>0.1975825668122707</v>
       </c>
       <c r="N90" t="n">
-        <v>0.004038276279964965</v>
+        <v>0.004099993656501787</v>
       </c>
       <c r="O90" t="n">
-        <v>-0.004021267799360102</v>
+        <v>-0.004493442315228633</v>
       </c>
       <c r="P90" t="n">
-        <v>0.3111977227332197</v>
+        <v>0.3114809179852124</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.004094170743092119</v>
+        <v>0.003959115666804089</v>
       </c>
       <c r="R90" t="n">
-        <v>-0.003747769288226367</v>
+        <v>-0.001190038089647299</v>
       </c>
     </row>
     <row r="91">
@@ -7786,40 +7786,40 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.04074239152975897</v>
+        <v>0.0410212354359113</v>
       </c>
       <c r="G91" t="n">
-        <v>0.004718990863043131</v>
+        <v>0.004886672859907462</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.004092703183046848</v>
+        <v>-0.003276668721168518</v>
       </c>
       <c r="J91" t="n">
-        <v>0.08541500885730789</v>
+        <v>0.08653273027878801</v>
       </c>
       <c r="K91" t="n">
-        <v>0.004893182220996938</v>
+        <v>0.004731862142712826</v>
       </c>
       <c r="L91" t="n">
-        <v>-0.001079716010544775</v>
+        <v>-0.003707054459623492</v>
       </c>
       <c r="M91" t="n">
-        <v>0.2087586037335966</v>
+        <v>0.2049938769486664</v>
       </c>
       <c r="N91" t="n">
-        <v>0.004845931535957958</v>
+        <v>0.004919992387802143</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.004021267799360102</v>
+        <v>-0.004493442315228633</v>
       </c>
       <c r="P91" t="n">
-        <v>0.3231874521891995</v>
+        <v>0.321973428772262</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.004913004891710543</v>
+        <v>0.004750938800164906</v>
       </c>
       <c r="R91" t="n">
-        <v>-0.003747769288226367</v>
+        <v>-0.001190038089647299</v>
       </c>
     </row>
     <row r="92">
@@ -7831,40 +7831,40 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0419463469472923</v>
+        <v>0.04223984710792519</v>
       </c>
       <c r="G92" t="n">
-        <v>0.005505489340216985</v>
+        <v>0.005701118336558705</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.003836810594604998</v>
+        <v>-0.003594898386102129</v>
       </c>
       <c r="J92" t="n">
-        <v>0.08820294859184467</v>
+        <v>0.08976143421064899</v>
       </c>
       <c r="K92" t="n">
-        <v>0.005708712591163095</v>
+        <v>0.005520505833164963</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.00113149450573297</v>
+        <v>-0.003663809863120298</v>
       </c>
       <c r="M92" t="n">
-        <v>0.2156686288854687</v>
+        <v>0.2119713692931974</v>
       </c>
       <c r="N92" t="n">
-        <v>0.005653586791950951</v>
+        <v>0.005739991119102501</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.003917290997225456</v>
+        <v>-0.004221213318388258</v>
       </c>
       <c r="P92" t="n">
-        <v>0.3340850585638901</v>
+        <v>0.3313334412387926</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.005731839040328967</v>
+        <v>0.005542761933525725</v>
       </c>
       <c r="R92" t="n">
-        <v>-0.003520902774972288</v>
+        <v>-0.001380250883903495</v>
       </c>
     </row>
     <row r="93">
@@ -7877,154 +7877,154 @@
         <v/>
       </c>
       <c r="F93" t="n">
-        <v>0.04306629384401491</v>
+        <v>0.0433452974656938</v>
       </c>
       <c r="G93" t="n">
-        <v>0.006291987817390841</v>
+        <v>0.006515563813209949</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.003836810594604998</v>
+        <v>-0.003594898386102129</v>
       </c>
       <c r="J93" t="n">
-        <v>0.09068247899167141</v>
+        <v>0.09273975636640251</v>
       </c>
       <c r="K93" t="n">
-        <v>0.006524242961329251</v>
+        <v>0.006309149523617101</v>
       </c>
       <c r="L93" t="n">
-        <v>-0.00113149450573297</v>
+        <v>-0.003663809863120298</v>
       </c>
       <c r="M93" t="n">
-        <v>0.2219907294795787</v>
+        <v>0.2181964880903546</v>
       </c>
       <c r="N93" t="n">
-        <v>0.006461242047943944</v>
+        <v>0.006559989850402859</v>
       </c>
       <c r="O93" t="n">
-        <v>-0.003917290997225456</v>
+        <v>-0.004221213318388258</v>
       </c>
       <c r="P93" t="n">
-        <v>0.3443048883237988</v>
+        <v>0.340134486276067</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.006550673188947391</v>
+        <v>0.006334585066886543</v>
       </c>
       <c r="R93" t="n">
-        <v>-0.003520902774972288</v>
+        <v>-0.001380250883903495</v>
       </c>
     </row>
     <row r="94">
       <c r="F94" t="n">
-        <v>0.04406764730603651</v>
+        <v>0.04432396805597504</v>
       </c>
       <c r="G94" t="n">
-        <v>0.007078486294564697</v>
+        <v>0.007330009289861193</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.003836810594604998</v>
+        <v>-0.00359525783999535</v>
       </c>
       <c r="J94" t="n">
-        <v>0.09297934467172732</v>
+        <v>0.0954399603749093</v>
       </c>
       <c r="K94" t="n">
-        <v>0.007339773331495407</v>
+        <v>0.007097793214069239</v>
       </c>
       <c r="L94" t="n">
-        <v>-0.00113149450573297</v>
+        <v>-0.003663809863120298</v>
       </c>
       <c r="M94" t="n">
-        <v>0.2277663367509639</v>
+        <v>0.2239239767093423</v>
       </c>
       <c r="N94" t="n">
-        <v>0.007268897303936936</v>
+        <v>0.007379988581703216</v>
       </c>
       <c r="O94" t="n">
-        <v>-0.003917290997225456</v>
+        <v>-0.004221213318388258</v>
       </c>
       <c r="P94" t="n">
-        <v>0.3534390817398624</v>
+        <v>0.3479041108713412</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.007369507337565815</v>
+        <v>0.00712640820024736</v>
       </c>
       <c r="R94" t="n">
-        <v>-0.003520902774972288</v>
+        <v>-0.001380250883903495</v>
       </c>
     </row>
     <row r="95">
       <c r="F95" t="n">
-        <v>0.04496244889046249</v>
+        <v>0.04521735064302688</v>
       </c>
       <c r="G95" t="n">
-        <v>0.007864984771738552</v>
+        <v>0.008144454766512437</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.003836810594604998</v>
+        <v>-0.003594538932208909</v>
       </c>
       <c r="J95" t="n">
-        <v>0.09506702872591453</v>
+        <v>0.09790514607889635</v>
       </c>
       <c r="K95" t="n">
-        <v>0.008155303701661563</v>
+        <v>0.007886436904521376</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.00113149450573297</v>
+        <v>-0.003663809863120298</v>
       </c>
       <c r="M95" t="n">
-        <v>0.2330748278478547</v>
+        <v>0.2290053728275592</v>
       </c>
       <c r="N95" t="n">
-        <v>0.00807655255992993</v>
+        <v>0.008199987313003573</v>
       </c>
       <c r="O95" t="n">
-        <v>-0.003917290997225456</v>
+        <v>-0.004221213318388258</v>
       </c>
       <c r="P95" t="n">
-        <v>0.3616622781247926</v>
+        <v>0.3550494780152086</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.008188341486184239</v>
+        <v>0.007918231333608179</v>
       </c>
       <c r="R95" t="n">
-        <v>-0.003520902774972288</v>
+        <v>-0.0016939216343669</v>
       </c>
     </row>
     <row r="96">
       <c r="F96" t="n">
-        <v>0.0457844673073738</v>
+        <v>0.04601899020492257</v>
       </c>
       <c r="G96" t="n">
-        <v>0.008651483248912406</v>
+        <v>0.008958900243163681</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.003441530042030071</v>
+        <v>-0.003817343804210871</v>
       </c>
       <c r="J96" t="n">
-        <v>0.09694578120242846</v>
+        <v>0.1001804908938727</v>
       </c>
       <c r="K96" t="n">
-        <v>0.00897083407182772</v>
+        <v>0.008675080594973513</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.001241247020973741</v>
+        <v>-0.003576863602579798</v>
       </c>
       <c r="M96" t="n">
-        <v>0.237803270460816</v>
+        <v>0.2336659490996957</v>
       </c>
       <c r="N96" t="n">
-        <v>0.008884207815922923</v>
+        <v>0.009019986044303931</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.003739360524737656</v>
+        <v>-0.003736816097233686</v>
       </c>
       <c r="P96" t="n">
-        <v>0.3692185141966333</v>
+        <v>0.3614446266282795</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.009007175634802663</v>
+        <v>0.008710054466968997</v>
       </c>
       <c r="R96" t="n">
-        <v>-0.003119167122878885</v>
+        <v>-0.0016939216343669</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
@@ -8038,7160 +8038,7160 @@
         <v/>
       </c>
       <c r="F97" t="n">
-        <v>0.04651868615040835</v>
+        <v>0.04674327373983325</v>
       </c>
       <c r="G97" t="n">
-        <v>0.009437981726086262</v>
+        <v>0.009773345719814924</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.003441530042030071</v>
+        <v>-0.003817343804210871</v>
       </c>
       <c r="J97" t="n">
-        <v>0.09861517863720544</v>
+        <v>0.1022367002691126</v>
       </c>
       <c r="K97" t="n">
-        <v>0.009786364441993876</v>
+        <v>0.009463724285425652</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.001241247020973741</v>
+        <v>-0.003576863602579798</v>
       </c>
       <c r="M97" t="n">
-        <v>0.2420665699876883</v>
+        <v>0.2379075016536381</v>
       </c>
       <c r="N97" t="n">
-        <v>0.009691863071915916</v>
+        <v>0.009839984775604287</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.003739360524737656</v>
+        <v>-0.003736816097233686</v>
       </c>
       <c r="P97" t="n">
-        <v>0.3757971080944007</v>
+        <v>0.3670176095664909</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.009826009783421087</v>
+        <v>0.009501877600329812</v>
       </c>
       <c r="R97" t="n">
-        <v>-0.003119167122878885</v>
+        <v>-0.0016939216343669</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04720694861802883</v>
+        <v>0.04737589093643408</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01022448020326012</v>
+        <v>0.01058779119646617</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.003441530042030071</v>
+        <v>-0.003817725538591292</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1001343483952755</v>
+        <v>0.1040728240657439</v>
       </c>
       <c r="K98" t="n">
-        <v>0.01060189481216003</v>
+        <v>0.01025236797587779</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.001241247020973741</v>
+        <v>-0.003576863602579798</v>
       </c>
       <c r="M98" t="n">
-        <v>0.2459040710028794</v>
+        <v>0.2416122838278361</v>
       </c>
       <c r="N98" t="n">
-        <v>0.01049951832790891</v>
+        <v>0.01065998350690465</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.003739360524737656</v>
+        <v>-0.003736816097233686</v>
       </c>
       <c r="P98" t="n">
-        <v>0.3819566587054524</v>
+        <v>0.3723771904341334</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.01064484393203951</v>
+        <v>0.01029370073369063</v>
       </c>
       <c r="R98" t="n">
-        <v>-0.003119167122878885</v>
+        <v>-0.0016939216343669</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04779042839736444</v>
+        <v>0.04795287273491767</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01101097868043397</v>
+        <v>0.01140223667311741</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.003441530042030071</v>
+        <v>-0.003818107272971714</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1015187986776799</v>
+        <v>0.1058119702980112</v>
       </c>
       <c r="K99" t="n">
-        <v>0.01141742518232619</v>
+        <v>0.01104101166632993</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.001241247020973741</v>
+        <v>-0.003576863602579798</v>
       </c>
       <c r="M99" t="n">
-        <v>0.2493551180807975</v>
+        <v>0.2450519307691981</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0113071735839019</v>
+        <v>0.011479982238205</v>
       </c>
       <c r="O99" t="n">
-        <v>-0.003739360524737656</v>
+        <v>-0.003736816097233686</v>
       </c>
       <c r="P99" t="n">
-        <v>0.3873823888429567</v>
+        <v>0.3768333212607422</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.01146367808065793</v>
+        <v>0.01108552386705145</v>
       </c>
       <c r="R99" t="n">
-        <v>-0.003119167122878885</v>
+        <v>-0.0016939216343669</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04833287307722969</v>
+        <v>0.0484670635604044</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01179747715760783</v>
+        <v>0.01221668214976866</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.002976768931881564</v>
+        <v>-0.003963636875612241</v>
       </c>
       <c r="J100" t="n">
-        <v>0.102768666533382</v>
+        <v>0.107314297345304</v>
       </c>
       <c r="K100" t="n">
-        <v>0.01223295555249235</v>
+        <v>0.01182965535678206</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.001392169399032778</v>
+        <v>-0.003469729422489508</v>
       </c>
       <c r="M100" t="n">
-        <v>0.2524590557958503</v>
+        <v>0.2480681284754087</v>
       </c>
       <c r="N100" t="n">
-        <v>0.01211482883989489</v>
+        <v>0.01229998096950536</v>
       </c>
       <c r="O100" t="n">
-        <v>-0.003526307666076261</v>
+        <v>-0.003158660547728332</v>
       </c>
       <c r="P100" t="n">
-        <v>0.392452901456401</v>
+        <v>0.3811256182186881</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.01228251222927636</v>
+        <v>0.01187734700041227</v>
       </c>
       <c r="R100" t="n">
-        <v>-0.00263688487185409</v>
+        <v>-0.002066820246508039</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04879641305891969</v>
+        <v>0.04891826829039928</v>
       </c>
       <c r="G101" t="n">
-        <v>0.01258397563478168</v>
+        <v>0.0130311276264199</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.002976768931881564</v>
+        <v>-0.003963240551557085</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1039143419634052</v>
+        <v>0.1087196283807419</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0130484859226585</v>
+        <v>0.0126182990472342</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.001392169399032778</v>
+        <v>-0.003469729422489508</v>
       </c>
       <c r="M101" t="n">
-        <v>0.2551741857809954</v>
+        <v>0.2509374250216422</v>
       </c>
       <c r="N101" t="n">
-        <v>0.01292248409588789</v>
+        <v>0.01311997970080572</v>
       </c>
       <c r="O101" t="n">
-        <v>-0.003526307666076261</v>
+        <v>-0.003158660547728332</v>
       </c>
       <c r="P101" t="n">
-        <v>0.3968447903807562</v>
+        <v>0.384932585870328</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.01310134637789478</v>
+        <v>0.01266917013377309</v>
       </c>
       <c r="R101" t="n">
-        <v>-0.00263688487185409</v>
+        <v>-0.002066820246508039</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04923855720085079</v>
+        <v>0.04930613361265749</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01337047411195554</v>
+        <v>0.01384557310307114</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.002976768931881564</v>
+        <v>-0.003964033199667397</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1049711312749615</v>
+        <v>0.1099802680268056</v>
       </c>
       <c r="K102" t="n">
-        <v>0.01386401629282466</v>
+        <v>0.01340694273768634</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.001392169399032778</v>
+        <v>-0.003469729422489508</v>
       </c>
       <c r="M102" t="n">
-        <v>0.2578237556557132</v>
+        <v>0.2533376527717567</v>
       </c>
       <c r="N102" t="n">
-        <v>0.01373013935188088</v>
+        <v>0.01393997843210608</v>
       </c>
       <c r="O102" t="n">
-        <v>-0.003526307666076261</v>
+        <v>-0.003158660547728332</v>
       </c>
       <c r="P102" t="n">
-        <v>0.4010052361141502</v>
+        <v>0.3881149128646515</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.01392018052651321</v>
+        <v>0.0134609932671339</v>
       </c>
       <c r="R102" t="n">
-        <v>-0.00263688487185409</v>
+        <v>-0.002066820246508039</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04961350941553212</v>
+        <v>0.04967499428020811</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01415697258912939</v>
+        <v>0.01466001857972239</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.002976768931881564</v>
+        <v>-0.00396284422750193</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1058763488434297</v>
+        <v>0.1111270247063275</v>
       </c>
       <c r="K103" t="n">
-        <v>0.01467954666299081</v>
+        <v>0.01419558642813848</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.001392169399032778</v>
+        <v>-0.003363093925692537</v>
       </c>
       <c r="M103" t="n">
-        <v>0.2600406544424521</v>
+        <v>0.2556680333527975</v>
       </c>
       <c r="N103" t="n">
-        <v>0.01453779460787387</v>
+        <v>0.01475997716340643</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.003526307666076261</v>
+        <v>-0.003158660547728332</v>
       </c>
       <c r="P103" t="n">
-        <v>0.4046054730293506</v>
+        <v>0.391363458529061</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.01473901467513163</v>
+        <v>0.01425281640049472</v>
       </c>
       <c r="R103" t="n">
-        <v>-0.00263688487185409</v>
+        <v>-0.002066820246508039</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04996436205398953</v>
+        <v>0.04999487829012362</v>
       </c>
       <c r="G104" t="n">
-        <v>0.01494347106630325</v>
+        <v>0.01547446405637363</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.002521993269573048</v>
+        <v>-0.004045701716330705</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1067379588215912</v>
+        <v>0.1121587595364517</v>
       </c>
       <c r="K104" t="n">
-        <v>0.01549507703315697</v>
+        <v>0.01498423011859061</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.001567457482675773</v>
+        <v>-0.003363093925692537</v>
       </c>
       <c r="M104" t="n">
-        <v>0.2621493895766098</v>
+        <v>0.2577243508267029</v>
       </c>
       <c r="N104" t="n">
-        <v>0.01534544986386687</v>
+        <v>0.01557997589470679</v>
       </c>
       <c r="O104" t="n">
-        <v>-0.003316963705420829</v>
+        <v>-0.002602465131945749</v>
       </c>
       <c r="P104" t="n">
-        <v>0.4078344184102519</v>
+        <v>0.3940928513795821</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.01555784882375005</v>
+        <v>0.01504463953385554</v>
       </c>
       <c r="R104" t="n">
-        <v>-0.002168378561805834</v>
+        <v>-0.002436251090084871</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.05025962517253451</v>
+        <v>0.05031046139770621</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0157299695434771</v>
+        <v>0.01628890953302487</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.002521993269573048</v>
+        <v>-0.004046915548228794</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1075242192503058</v>
+        <v>0.1131555094266219</v>
       </c>
       <c r="K105" t="n">
-        <v>0.01631060740332313</v>
+        <v>0.01577287380904275</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.001567457482675773</v>
+        <v>-0.003363093925692537</v>
       </c>
       <c r="M105" t="n">
-        <v>0.2641077532570871</v>
+        <v>0.2595021964324041</v>
       </c>
       <c r="N105" t="n">
-        <v>0.01615310511985986</v>
+        <v>0.01639997462600715</v>
       </c>
       <c r="O105" t="n">
-        <v>-0.003316963705420829</v>
+        <v>-0.002602465131945749</v>
       </c>
       <c r="P105" t="n">
-        <v>0.4110161735866563</v>
+        <v>0.3967411457885383</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.01637668297236848</v>
+        <v>0.01583646266721636</v>
       </c>
       <c r="R105" t="n">
-        <v>-0.002168378561805834</v>
+        <v>-0.002436251090084871</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.05055031292146269</v>
+        <v>0.05058386540220241</v>
       </c>
       <c r="G106" t="n">
-        <v>0.01651646802065096</v>
+        <v>0.01710335500967612</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.002521993269573048</v>
+        <v>-0.004046915548228794</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1083290516668192</v>
+        <v>0.1140183650401161</v>
       </c>
       <c r="K106" t="n">
-        <v>0.01712613777348929</v>
+        <v>0.01656151749949489</v>
       </c>
       <c r="L106" t="n">
-        <v>-0.001567457482675773</v>
+        <v>-0.003363093925692537</v>
       </c>
       <c r="M106" t="n">
-        <v>0.2659966816328405</v>
+        <v>0.2614079456591754</v>
       </c>
       <c r="N106" t="n">
-        <v>0.01696076037585285</v>
+        <v>0.01721997335730751</v>
       </c>
       <c r="O106" t="n">
-        <v>-0.003316963705420829</v>
+        <v>-0.002602465131945749</v>
       </c>
       <c r="P106" t="n">
-        <v>0.4140148536137934</v>
+        <v>0.3991685254399119</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.0171955171209869</v>
+        <v>0.01662828580057717</v>
       </c>
       <c r="R106" t="n">
-        <v>-0.002168378561805834</v>
+        <v>-0.002436251090084871</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.05081987764303148</v>
+        <v>0.05086756529189535</v>
       </c>
       <c r="G107" t="n">
-        <v>0.01730296649782481</v>
+        <v>0.01791780048632736</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.002521993269573048</v>
+        <v>-0.004046510937596098</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1090093131891067</v>
+        <v>0.1148767616209526</v>
       </c>
       <c r="K107" t="n">
-        <v>0.01794166814365544</v>
+        <v>0.01735016118994703</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.001567457482675773</v>
+        <v>-0.003363093925692537</v>
       </c>
       <c r="M107" t="n">
-        <v>0.2678142749641404</v>
+        <v>0.2629868878677392</v>
       </c>
       <c r="N107" t="n">
-        <v>0.01776841563184585</v>
+        <v>0.01803997208860786</v>
       </c>
       <c r="O107" t="n">
-        <v>-0.003316963705420829</v>
+        <v>-0.00218522451594679</v>
       </c>
       <c r="P107" t="n">
-        <v>0.416690932487836</v>
+        <v>0.4013625128945194</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.01801435126960533</v>
+        <v>0.01742010893393799</v>
       </c>
       <c r="R107" t="n">
-        <v>-0.002168378561805834</v>
+        <v>-0.002737038350559547</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.05105144340339397</v>
+        <v>0.05110812115565028</v>
       </c>
       <c r="G108" t="n">
-        <v>0.01808946497499867</v>
+        <v>0.0187322459629786</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.002138191768759493</v>
+        <v>-0.004084932597922109</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1097224700369649</v>
+        <v>0.1156636919950328</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0187571985138216</v>
+        <v>0.01813880488039916</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.001750307114668418</v>
+        <v>-0.003279811129992452</v>
       </c>
       <c r="M108" t="n">
-        <v>0.2694320745776787</v>
+        <v>0.2647713980285392</v>
       </c>
       <c r="N108" t="n">
-        <v>0.01857607088783884</v>
+        <v>0.01885997081990822</v>
       </c>
       <c r="O108" t="n">
-        <v>-0.00315015992695092</v>
+        <v>-0.00218522451594679</v>
       </c>
       <c r="P108" t="n">
-        <v>0.4195041663026737</v>
+        <v>0.4036365905605279</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.01883318541822375</v>
+        <v>0.01821193206729881</v>
       </c>
       <c r="R108" t="n">
-        <v>-0.001807970732642047</v>
+        <v>-0.002737038350559547</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.05129651855108574</v>
+        <v>0.05137345443305575</v>
       </c>
       <c r="G109" t="n">
-        <v>0.01887596345217252</v>
+        <v>0.01954669143962985</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.002138191768759493</v>
+        <v>-0.00408615820026172</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1104360315595645</v>
+        <v>0.1164603340995569</v>
       </c>
       <c r="K109" t="n">
-        <v>0.01957272888398775</v>
+        <v>0.0189274485708513</v>
       </c>
       <c r="L109" t="n">
-        <v>-0.001750307114668418</v>
+        <v>-0.003279811129992452</v>
       </c>
       <c r="M109" t="n">
-        <v>0.2712664286796969</v>
+        <v>0.2663859029967015</v>
       </c>
       <c r="N109" t="n">
-        <v>0.01938372614383183</v>
+        <v>0.01967996955120857</v>
       </c>
       <c r="O109" t="n">
-        <v>-0.00315015992695092</v>
+        <v>-0.00218522451594679</v>
       </c>
       <c r="P109" t="n">
-        <v>0.42218145233602</v>
+        <v>0.4060455151030796</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.01965201956684217</v>
+        <v>0.01900375520065962</v>
       </c>
       <c r="R109" t="n">
-        <v>-0.001807970732642047</v>
+        <v>-0.002737038350559547</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.05153830415160084</v>
+        <v>0.0516710187827586</v>
       </c>
       <c r="G110" t="n">
-        <v>0.01966246192934638</v>
+        <v>0.02036113691628109</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.002138191768759493</v>
+        <v>-0.004084932597922109</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1111649963237325</v>
+        <v>0.1171986227511671</v>
       </c>
       <c r="K110" t="n">
-        <v>0.02038825925415391</v>
+        <v>0.01971609226130344</v>
       </c>
       <c r="L110" t="n">
-        <v>-0.001750307114668418</v>
+        <v>-0.003279811129992452</v>
       </c>
       <c r="M110" t="n">
-        <v>0.2729786201740799</v>
+        <v>0.2681170011636045</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02019138139982482</v>
+        <v>0.02049996828250893</v>
       </c>
       <c r="O110" t="n">
-        <v>-0.00315015992695092</v>
+        <v>-0.00218522451594679</v>
       </c>
       <c r="P110" t="n">
-        <v>0.4251866955626905</v>
+        <v>0.4083149443770124</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.0204708537154606</v>
+        <v>0.01979557833402044</v>
       </c>
       <c r="R110" t="n">
-        <v>-0.001807970732642047</v>
+        <v>-0.002737038350559547</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.05178274733813509</v>
+        <v>0.05194673142981823</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02044896040652023</v>
+        <v>0.02117558239293233</v>
       </c>
       <c r="H111" t="n">
-        <v>-0.002138191768759493</v>
+        <v>-0.00408615820026172</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1119567510076862</v>
+        <v>0.1179937311456175</v>
       </c>
       <c r="K111" t="n">
-        <v>0.02120378962432007</v>
+        <v>0.02050473595175558</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.001750307114668418</v>
+        <v>-0.003279811129992452</v>
       </c>
       <c r="M111" t="n">
-        <v>0.2749881913140585</v>
+        <v>0.2698355965405607</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02099903665581782</v>
+        <v>0.02131996701380929</v>
       </c>
       <c r="O111" t="n">
-        <v>-0.00315015992695092</v>
+        <v>-0.00218522451594679</v>
       </c>
       <c r="P111" t="n">
-        <v>0.4280415320156382</v>
+        <v>0.4108264726548204</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.02128968786407902</v>
+        <v>0.02058740146738126</v>
       </c>
       <c r="R111" t="n">
-        <v>-0.001807970732642047</v>
+        <v>-0.002737038350559547</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.05202039508389941</v>
+        <v>0.05226143728821236</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02123545888369409</v>
+        <v>0.02199002786958358</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.001913040977647179</v>
+        <v>-0.004096769781095125</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1127779534653971</v>
+        <v>0.1187939257961987</v>
       </c>
       <c r="K112" t="n">
-        <v>0.02201931999448623</v>
+        <v>0.02129337964220772</v>
       </c>
       <c r="L112" t="n">
-        <v>-0.001923914137776405</v>
+        <v>-0.00324365583410314</v>
       </c>
       <c r="M112" t="n">
-        <v>0.2769105121062687</v>
+        <v>0.271704882021607</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02180669191181081</v>
+        <v>0.02213996574510965</v>
       </c>
       <c r="O112" t="n">
-        <v>-0.003064727614846093</v>
+        <v>-0.002024195868568403</v>
       </c>
       <c r="P112" t="n">
-        <v>0.4311434772640836</v>
+        <v>0.4133696870835319</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.02210852201269745</v>
+        <v>0.02137922460074208</v>
       </c>
       <c r="R112" t="n">
-        <v>-0.001649983924270659</v>
+        <v>-0.002905659669591421</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.05227249789677559</v>
+        <v>0.05261477931440956</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02202195736086794</v>
+        <v>0.02280447334623482</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.001913040977647179</v>
+        <v>-0.004096769781095125</v>
       </c>
       <c r="J113" t="n">
-        <v>0.113643378930957</v>
+        <v>0.119664929923633</v>
       </c>
       <c r="K113" t="n">
-        <v>0.02283485036465238</v>
+        <v>0.02208202333265985</v>
       </c>
       <c r="L113" t="n">
-        <v>-0.001923914137776405</v>
+        <v>-0.00324365583410314</v>
       </c>
       <c r="M113" t="n">
-        <v>0.2791250754264051</v>
+        <v>0.2736779534572423</v>
       </c>
       <c r="N113" t="n">
-        <v>0.0226143471678038</v>
+        <v>0.02295996447641</v>
       </c>
       <c r="O113" t="n">
-        <v>-0.003064727614846093</v>
+        <v>-0.002024195868568403</v>
       </c>
       <c r="P113" t="n">
-        <v>0.4343486930407658</v>
+        <v>0.4162627958006601</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.02292735616131587</v>
+        <v>0.0221710477341029</v>
       </c>
       <c r="R113" t="n">
-        <v>-0.001649983924270659</v>
+        <v>-0.002905659669591421</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05255275305095521</v>
+        <v>0.05300545759727541</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0228084558380418</v>
+        <v>0.02361891882288607</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.001913040977647179</v>
+        <v>-0.004096360186036027</v>
       </c>
       <c r="J114" t="n">
-        <v>0.114567769395482</v>
+        <v>0.1204859194962921</v>
       </c>
       <c r="K114" t="n">
-        <v>0.02365038073481854</v>
+        <v>0.02287066702311199</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.001923914137776405</v>
+        <v>-0.00324365583410314</v>
       </c>
       <c r="M114" t="n">
-        <v>0.2814575166225144</v>
+        <v>0.2758142455205332</v>
       </c>
       <c r="N114" t="n">
-        <v>0.0234220024237968</v>
+        <v>0.02377996320771036</v>
       </c>
       <c r="O114" t="n">
-        <v>-0.003064727614846093</v>
+        <v>-0.002024195868568403</v>
       </c>
       <c r="P114" t="n">
-        <v>0.4379751937614895</v>
+        <v>0.4192263547467729</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.02374619030993429</v>
+        <v>0.02296287086746372</v>
       </c>
       <c r="R114" t="n">
-        <v>-0.001649983924270659</v>
+        <v>-0.002905659669591421</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="A115" s="52" t="n"/>
       <c r="B115" s="52" t="n"/>
       <c r="F115" t="n">
-        <v>0.05285162028125378</v>
+        <v>0.05338893464938336</v>
       </c>
       <c r="G115" t="n">
-        <v>0.02359495431521565</v>
+        <v>0.02443336429953731</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.001913040977647179</v>
+        <v>-0.00409595059097693</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1155421292381494</v>
+        <v>0.1213919827122948</v>
       </c>
       <c r="K115" t="n">
-        <v>0.02446591110498469</v>
+        <v>0.02365931071356413</v>
       </c>
       <c r="L115" t="n">
-        <v>-0.001923914137776405</v>
+        <v>-0.00324365583410314</v>
       </c>
       <c r="M115" t="n">
-        <v>0.2840246565142311</v>
+        <v>0.2777131455504819</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02422965767978979</v>
+        <v>0.02459996193901072</v>
       </c>
       <c r="O115" t="n">
-        <v>-0.003064727614846093</v>
+        <v>-0.002069181402649656</v>
       </c>
       <c r="P115" t="n">
-        <v>0.441434692162549</v>
+        <v>0.4225366389969136</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.02456502445855271</v>
+        <v>0.02375469400082453</v>
       </c>
       <c r="R115" t="n">
-        <v>-0.001649983924270659</v>
+        <v>-0.002905659669591421</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05316968149614099</v>
+        <v>0.05377934332446811</v>
       </c>
       <c r="G116" t="n">
-        <v>0.02438145279238951</v>
+        <v>0.02524780977618855</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.001889894429715754</v>
+        <v>-0.004095559688841437</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1165936998591345</v>
+        <v>0.1222250914471337</v>
       </c>
       <c r="K116" t="n">
-        <v>0.02528144147515085</v>
+        <v>0.02444795440401627</v>
       </c>
       <c r="L116" t="n">
-        <v>-0.002082105979649614</v>
+        <v>-0.003275288501865323</v>
       </c>
       <c r="M116" t="n">
-        <v>0.2864316378156807</v>
+        <v>0.2796754977147123</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02503731293578278</v>
+        <v>0.02541996067031108</v>
       </c>
       <c r="O116" t="n">
-        <v>-0.003072794768579705</v>
+        <v>-0.002069181402649656</v>
       </c>
       <c r="P116" t="n">
-        <v>0.4449116514239474</v>
+        <v>0.4259001154946864</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.02538385860717114</v>
+        <v>0.02454651713418535</v>
       </c>
       <c r="R116" t="n">
-        <v>-0.001677657012401854</v>
+        <v>-0.002894637520486762</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05349445107383532</v>
+        <v>0.05413753133351964</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02516795126956337</v>
+        <v>0.0260622552528398</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.001889894429715754</v>
+        <v>-0.004095969203858818</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1176350647806035</v>
+        <v>0.1230195536753417</v>
       </c>
       <c r="K117" t="n">
-        <v>0.026096971845317</v>
+        <v>0.0252365980944684</v>
       </c>
       <c r="L117" t="n">
-        <v>-0.002082105979649614</v>
+        <v>-0.003275288501865323</v>
       </c>
       <c r="M117" t="n">
-        <v>0.2888496231757722</v>
+        <v>0.2814897098873033</v>
       </c>
       <c r="N117" t="n">
-        <v>0.02584496819177578</v>
+        <v>0.02623995940161144</v>
       </c>
       <c r="O117" t="n">
-        <v>-0.003072794768579705</v>
+        <v>-0.002069181402649656</v>
       </c>
       <c r="P117" t="n">
-        <v>0.4485454946904753</v>
+        <v>0.429389400248395</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.02620269275578956</v>
+        <v>0.02533834026754617</v>
       </c>
       <c r="R117" t="n">
-        <v>-0.001677657012401854</v>
+        <v>-0.002894637520486762</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="A118" s="82" t="n"/>
       <c r="F118" t="n">
-        <v>0.05378696530965157</v>
+        <v>0.05449515791874172</v>
       </c>
       <c r="G118" t="n">
-        <v>0.02595444974673722</v>
+        <v>0.02687670072949104</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.001889894429715754</v>
+        <v>-0.004095150173824054</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1186135871834528</v>
+        <v>0.1237929687881355</v>
       </c>
       <c r="K118" t="n">
-        <v>0.02691250221548316</v>
+        <v>0.02602524178492054</v>
       </c>
       <c r="L118" t="n">
-        <v>-0.002082105979649614</v>
+        <v>-0.003275288501865323</v>
       </c>
       <c r="M118" t="n">
-        <v>0.2911448538655863</v>
+        <v>0.2832871152829507</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02665262344776876</v>
+        <v>0.02705995813291179</v>
       </c>
       <c r="O118" t="n">
-        <v>-0.003072794768579705</v>
+        <v>-0.002069181402649656</v>
       </c>
       <c r="P118" t="n">
-        <v>0.4517765333033961</v>
+        <v>0.4325997775365544</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.02702152690440798</v>
+        <v>0.02613016340090699</v>
       </c>
       <c r="R118" t="n">
-        <v>-0.001677657012401854</v>
+        <v>-0.002894637520486762</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.05409466201842873</v>
+        <v>0.05487648290495934</v>
       </c>
       <c r="G119" t="n">
-        <v>0.02674094822391107</v>
+        <v>0.02769114620614228</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.001889894429715754</v>
+        <v>-0.004094740658806671</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1196789837984234</v>
+        <v>0.1245981691996927</v>
       </c>
       <c r="K119" t="n">
-        <v>0.02772803258564932</v>
+        <v>0.02681388547537268</v>
       </c>
       <c r="L119" t="n">
-        <v>-0.002082105979649614</v>
+        <v>-0.003275288501865323</v>
       </c>
       <c r="M119" t="n">
-        <v>0.2935799161213081</v>
+        <v>0.2851141995413863</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02746027870376176</v>
+        <v>0.02787995686421215</v>
       </c>
       <c r="O119" t="n">
-        <v>-0.003072794768579705</v>
+        <v>-0.002069181402649656</v>
       </c>
       <c r="P119" t="n">
-        <v>0.4550920076557677</v>
+        <v>0.435667351843387</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.02784036105302641</v>
+        <v>0.02692198653426781</v>
       </c>
       <c r="R119" t="n">
-        <v>-0.001677657012401854</v>
+        <v>-0.002894637520486762</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="A120" s="82" t="n"/>
       <c r="F120" t="n">
-        <v>0.05437837604782592</v>
+        <v>0.05521794955439503</v>
       </c>
       <c r="G120" t="n">
-        <v>0.02752744670108493</v>
+        <v>0.02850559168279353</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.001943941977978201</v>
+        <v>-0.004092938755332874</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1206945047477187</v>
+        <v>0.1253311053056302</v>
       </c>
       <c r="K120" t="n">
-        <v>0.02854356295581548</v>
+        <v>0.02760252916582482</v>
       </c>
       <c r="L120" t="n">
-        <v>-0.002247961986550913</v>
+        <v>-0.003375095316913514</v>
       </c>
       <c r="M120" t="n">
-        <v>0.2959325537503146</v>
+        <v>0.286799732278466</v>
       </c>
       <c r="N120" t="n">
-        <v>0.02826793395975475</v>
+        <v>0.0286999555955125</v>
       </c>
       <c r="O120" t="n">
-        <v>-0.003122077225595808</v>
+        <v>-0.002190169718452343</v>
       </c>
       <c r="P120" t="n">
-        <v>0.458492605561947</v>
+        <v>0.4387308106617733</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.02865919520164484</v>
+        <v>0.02771380966762862</v>
       </c>
       <c r="R120" t="n">
-        <v>-0.001764505054224545</v>
+        <v>-0.002752705227728093</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="A121" s="82" t="n"/>
       <c r="F121" t="n">
-        <v>0.05464615933795671</v>
+        <v>0.05555155101410181</v>
       </c>
       <c r="G121" t="n">
-        <v>0.02831394517825879</v>
+        <v>0.02932003715944477</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.001943941977978201</v>
+        <v>-0.004092938755332874</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1217433424700711</v>
+        <v>0.1260619826430093</v>
       </c>
       <c r="K121" t="n">
-        <v>0.02935909332598163</v>
+        <v>0.02839117285627695</v>
       </c>
       <c r="L121" t="n">
-        <v>-0.002247961986550913</v>
+        <v>-0.003375095316913514</v>
       </c>
       <c r="M121" t="n">
-        <v>0.2981103133528286</v>
+        <v>0.2884328148602947</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02907558921574774</v>
+        <v>0.02951995432681286</v>
       </c>
       <c r="O121" t="n">
-        <v>-0.003122077225595808</v>
+        <v>-0.002190169718452343</v>
       </c>
       <c r="P121" t="n">
-        <v>0.4614808600491712</v>
+        <v>0.4415854506023839</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.02947802935026326</v>
+        <v>0.02850563280098944</v>
       </c>
       <c r="R121" t="n">
-        <v>-0.001764505054224545</v>
+        <v>-0.002752705227728093</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05492216171408012</v>
+        <v>0.05587747911203759</v>
       </c>
       <c r="G122" t="n">
-        <v>0.02910044365543264</v>
+        <v>0.03013448263609602</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.001943941977978201</v>
+        <v>-0.004092120249432399</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1227379955571019</v>
+        <v>0.1267738021493928</v>
       </c>
       <c r="K122" t="n">
-        <v>0.03017462369614779</v>
+        <v>0.02917981654672909</v>
       </c>
       <c r="L122" t="n">
-        <v>-0.002247961986550913</v>
+        <v>-0.003375095316913514</v>
       </c>
       <c r="M122" t="n">
-        <v>0.3002891870468115</v>
+        <v>0.2899718984393558</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02988324447174074</v>
+        <v>0.03033995305811322</v>
       </c>
       <c r="O122" t="n">
-        <v>-0.003122077225595808</v>
+        <v>-0.002190169718452343</v>
       </c>
       <c r="P122" t="n">
-        <v>0.4648368848624422</v>
+        <v>0.4446481382972279</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.03029686349888168</v>
+        <v>0.02929745593435026</v>
       </c>
       <c r="R122" t="n">
-        <v>-0.001764505054224545</v>
+        <v>-0.002752705227728093</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05515870006912189</v>
+        <v>0.05622841046757054</v>
       </c>
       <c r="G123" t="n">
-        <v>0.02988694213260649</v>
+        <v>0.03094892811274726</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.001943941977978201</v>
+        <v>-0.004092938755332874</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1238148226258599</v>
+        <v>0.1274315312327667</v>
       </c>
       <c r="K123" t="n">
-        <v>0.03099015406631394</v>
+        <v>0.02996846023718122</v>
       </c>
       <c r="L123" t="n">
-        <v>-0.002247961986550913</v>
+        <v>-0.003375095316913514</v>
       </c>
       <c r="M123" t="n">
-        <v>0.3025582307845586</v>
+        <v>0.2914631127078506</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03069089972773373</v>
+        <v>0.03115995178941358</v>
       </c>
       <c r="O123" t="n">
-        <v>-0.003122077225595808</v>
+        <v>-0.002190169718452343</v>
       </c>
       <c r="P123" t="n">
-        <v>0.4677754266324533</v>
+        <v>0.4473662676367909</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.03111569764750011</v>
+        <v>0.03008927906771108</v>
       </c>
       <c r="R123" t="n">
-        <v>-0.001764505054224545</v>
+        <v>-0.002752705227728093</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="A124" s="82" t="n"/>
       <c r="B124" s="82" t="n"/>
       <c r="F124" t="n">
-        <v>0.05543614663430408</v>
+        <v>0.05652338846373473</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03067344060978035</v>
+        <v>0.0317633735893985</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.002051081005107497</v>
+        <v>-0.004089852590437473</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1248162944909733</v>
+        <v>0.1281064718651863</v>
       </c>
       <c r="K124" t="n">
-        <v>0.0318056844364801</v>
+        <v>0.03075710392763336</v>
       </c>
       <c r="L124" t="n">
-        <v>-0.002421819957088711</v>
+        <v>-0.003525561898923884</v>
       </c>
       <c r="M124" t="n">
-        <v>0.3045989990249572</v>
+        <v>0.2929532104626649</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03149855498372672</v>
+        <v>0.03197995052071394</v>
       </c>
       <c r="O124" t="n">
-        <v>-0.003199786510544688</v>
+        <v>-0.002367102142733587</v>
       </c>
       <c r="P124" t="n">
-        <v>0.4707951557183609</v>
+        <v>0.4502284821651823</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.03193453179611853</v>
+        <v>0.03088110220107189</v>
       </c>
       <c r="R124" t="n">
-        <v>-0.001893029561542233</v>
+        <v>-0.002526855858915639</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05565840978823273</v>
+        <v>0.05686024670450542</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03145993908695421</v>
+        <v>0.03257781906604975</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.002051081005107497</v>
+        <v>-0.00409067056095556</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1258449352012297</v>
+        <v>0.1287994863147493</v>
       </c>
       <c r="K125" t="n">
-        <v>0.03262121480664625</v>
+        <v>0.03154574761808551</v>
       </c>
       <c r="L125" t="n">
-        <v>-0.002421819957088711</v>
+        <v>-0.003525561898923884</v>
       </c>
       <c r="M125" t="n">
-        <v>0.3067722181427113</v>
+        <v>0.2944895224960648</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03230621023971972</v>
+        <v>0.03279994925201429</v>
       </c>
       <c r="O125" t="n">
-        <v>-0.003199786510544688</v>
+        <v>-0.002367102142733587</v>
       </c>
       <c r="P125" t="n">
-        <v>0.4737518321209376</v>
+        <v>0.4530985584793689</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.03275336594473695</v>
+        <v>0.03167292533443272</v>
       </c>
       <c r="R125" t="n">
-        <v>-0.001893029561542233</v>
+        <v>-0.002526855858915639</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05591430711967606</v>
+        <v>0.05714115153870249</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03224643756412806</v>
+        <v>0.03339226454270099</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.002051081005107497</v>
+        <v>-0.004089852590437473</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1268288818152565</v>
+        <v>0.1294575892998255</v>
       </c>
       <c r="K126" t="n">
-        <v>0.03343674517681241</v>
+        <v>0.03233439130853764</v>
       </c>
       <c r="L126" t="n">
-        <v>-0.002421819957088711</v>
+        <v>-0.003525561898923884</v>
       </c>
       <c r="M126" t="n">
-        <v>0.3087570986024051</v>
+        <v>0.2957632710917995</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03311386549571271</v>
+        <v>0.03361994798331465</v>
       </c>
       <c r="O126" t="n">
-        <v>-0.003199786510544688</v>
+        <v>-0.002367102142733587</v>
       </c>
       <c r="P126" t="n">
-        <v>0.4767168190456337</v>
+        <v>0.4557674643431613</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.03357220009335538</v>
+        <v>0.03246474846779353</v>
       </c>
       <c r="R126" t="n">
-        <v>-0.001893029561542233</v>
+        <v>-0.002526855858915639</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="A127" s="83" t="n"/>
       <c r="B127" s="83" t="n"/>
       <c r="F127" t="n">
-        <v>0.05613142716905772</v>
+        <v>0.05744819676550452</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03303293604130192</v>
+        <v>0.03420671001935224</v>
       </c>
       <c r="H127" t="n">
-        <v>-0.002051081005107497</v>
+        <v>-0.004085046001997395</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1278369153978025</v>
+        <v>0.1300810409321964</v>
       </c>
       <c r="K127" t="n">
-        <v>0.03425227554697857</v>
+        <v>0.03312303499898978</v>
       </c>
       <c r="L127" t="n">
-        <v>-0.002601960757267473</v>
+        <v>-0.003525561898923884</v>
       </c>
       <c r="M127" t="n">
-        <v>0.310780069278841</v>
+        <v>0.2972220001734545</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0339215207517057</v>
+        <v>0.03443994671461501</v>
       </c>
       <c r="O127" t="n">
-        <v>-0.003199786510544688</v>
+        <v>-0.002367102142733587</v>
       </c>
       <c r="P127" t="n">
-        <v>0.4794708220360473</v>
+        <v>0.4581646488610088</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.0343910342419738</v>
+        <v>0.03325657160115435</v>
       </c>
       <c r="R127" t="n">
-        <v>-0.001893029561542233</v>
+        <v>-0.002526855858915639</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="A128" s="83" t="n"/>
       <c r="B128" s="83" t="n"/>
       <c r="F128" t="n">
-        <v>0.0563667086262482</v>
+        <v>0.05775710641936155</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03381943451847577</v>
+        <v>0.03502115549600348</v>
       </c>
       <c r="H128" t="n">
-        <v>-0.0021935398811962</v>
+        <v>-0.00408545446575122</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1287784947127961</v>
+        <v>0.130688176681617</v>
       </c>
       <c r="K128" t="n">
-        <v>0.03506780591714473</v>
+        <v>0.03391167868944191</v>
       </c>
       <c r="L128" t="n">
-        <v>-0.002601960757267473</v>
+        <v>-0.003709520139544406</v>
       </c>
       <c r="M128" t="n">
-        <v>0.3127476414060041</v>
+        <v>0.2986010798021222</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0347291760076987</v>
+        <v>0.03525994544591536</v>
       </c>
       <c r="O128" t="n">
-        <v>-0.003295706529578103</v>
+        <v>-0.002582428689531143</v>
       </c>
       <c r="P128" t="n">
-        <v>0.4821573100752422</v>
+        <v>0.4607161618356493</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.03520986839059223</v>
+        <v>0.03404839473451517</v>
       </c>
       <c r="R128" t="n">
-        <v>-0.002046540955796729</v>
+        <v>-0.002259835961449038</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05658797732220123</v>
+        <v>0.05804324593837546</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03460593299564962</v>
+        <v>0.03583560097265472</v>
       </c>
       <c r="H129" t="n">
-        <v>-0.0021935398811962</v>
+        <v>-0.004084637538243572</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1297588517124517</v>
+        <v>0.1312432052159837</v>
       </c>
       <c r="K129" t="n">
-        <v>0.03588333628731088</v>
+        <v>0.03470032237989405</v>
       </c>
       <c r="L129" t="n">
-        <v>-0.002601960757267473</v>
+        <v>-0.003709520139544406</v>
       </c>
       <c r="M129" t="n">
-        <v>0.3144718633501306</v>
+        <v>0.2997675993175079</v>
       </c>
       <c r="N129" t="n">
-        <v>0.03553683126369169</v>
+        <v>0.03607994417721572</v>
       </c>
       <c r="O129" t="n">
-        <v>-0.003295706529578103</v>
+        <v>-0.002582428689531143</v>
       </c>
       <c r="P129" t="n">
-        <v>0.4849219866976808</v>
+        <v>0.4632121888529961</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.03602870253921065</v>
+        <v>0.03484021786787599</v>
       </c>
       <c r="R129" t="n">
-        <v>-0.002046540955796729</v>
+        <v>-0.002259835961449038</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="A130" s="83" t="n"/>
       <c r="F130" t="n">
-        <v>0.05681178588652227</v>
+        <v>0.05832329450811786</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03539243147282348</v>
+        <v>0.03665004644930597</v>
       </c>
       <c r="H130" t="n">
-        <v>-0.0021935398811962</v>
+        <v>-0.004085046001997395</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1306686933576984</v>
+        <v>0.1318371478707683</v>
       </c>
       <c r="K130" t="n">
-        <v>0.03669886665747703</v>
+        <v>0.03548896607034619</v>
       </c>
       <c r="L130" t="n">
-        <v>-0.002601960757267473</v>
+        <v>-0.003709520139544406</v>
       </c>
       <c r="M130" t="n">
-        <v>0.3162748511893044</v>
+        <v>0.3011735517134225</v>
       </c>
       <c r="N130" t="n">
-        <v>0.03634448651968468</v>
+        <v>0.03689994290851608</v>
       </c>
       <c r="O130" t="n">
-        <v>-0.003295706529578103</v>
+        <v>-0.002582428689531143</v>
       </c>
       <c r="P130" t="n">
-        <v>0.4874701271452589</v>
+        <v>0.4656546034006854</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.03684753668782907</v>
+        <v>0.0356320410012368</v>
       </c>
       <c r="R130" t="n">
-        <v>-0.002046540955796729</v>
+        <v>-0.002259835961449038</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="A131" s="83" t="n"/>
       <c r="B131" s="83" t="n"/>
       <c r="F131" t="n">
-        <v>0.05701385155249401</v>
+        <v>0.05858072552970136</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03617892994999734</v>
+        <v>0.03746449192595721</v>
       </c>
       <c r="H131" t="n">
-        <v>-0.002357247212577798</v>
+        <v>-0.004084229074489748</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1316325675524901</v>
+        <v>0.1324162617215731</v>
       </c>
       <c r="K131" t="n">
-        <v>0.0375143970276432</v>
+        <v>0.03627760976079833</v>
       </c>
       <c r="L131" t="n">
-        <v>-0.002601960757267473</v>
+        <v>-0.003709520139544406</v>
       </c>
       <c r="M131" t="n">
-        <v>0.318109294165908</v>
+        <v>0.3023713170019567</v>
       </c>
       <c r="N131" t="n">
-        <v>0.03715214177567767</v>
+        <v>0.03771994163981644</v>
       </c>
       <c r="O131" t="n">
-        <v>-0.003295706529578103</v>
+        <v>-0.002582428689531143</v>
       </c>
       <c r="P131" t="n">
-        <v>0.4901689259173792</v>
+        <v>0.4681170906754206</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.0376663708364475</v>
+        <v>0.03642386413459762</v>
       </c>
       <c r="R131" t="n">
-        <v>-0.002046540955796729</v>
+        <v>-0.002259835961449038</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05721075181934312</v>
+        <v>0.0588491071632297</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03696542842717119</v>
+        <v>0.03827893740260845</v>
       </c>
       <c r="H132" t="n">
-        <v>-0.002357247212577798</v>
+        <v>-0.004081759520306791</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1325220680300661</v>
+        <v>0.1329627070285886</v>
       </c>
       <c r="K132" t="n">
-        <v>0.03832992739780935</v>
+        <v>0.03706625345125047</v>
       </c>
       <c r="L132" t="n">
-        <v>-0.002786665253091664</v>
+        <v>-0.003907162139893544</v>
       </c>
       <c r="M132" t="n">
-        <v>0.3196922280651056</v>
+        <v>0.3036339807256496</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03795979703167067</v>
+        <v>0.0385399403711168</v>
       </c>
       <c r="O132" t="n">
-        <v>-0.003399621188847812</v>
+        <v>-0.002818624380058233</v>
       </c>
       <c r="P132" t="n">
-        <v>0.4925737901646409</v>
+        <v>0.4705301806646054</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.03848520498506593</v>
+        <v>0.03721568726795844</v>
       </c>
       <c r="R132" t="n">
-        <v>-0.002208349658429846</v>
+        <v>-0.001992874010268791</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05741098841053913</v>
+        <v>0.0591287899839015</v>
       </c>
       <c r="G133" t="n">
-        <v>0.03775192690434505</v>
+        <v>0.0390933828792597</v>
       </c>
       <c r="H133" t="n">
-        <v>-0.002357247212577798</v>
+        <v>-0.004080535237307299</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1334446875611002</v>
+        <v>0.1334767771542208</v>
       </c>
       <c r="K133" t="n">
-        <v>0.0391454577679755</v>
+        <v>0.03785489714170261</v>
       </c>
       <c r="L133" t="n">
-        <v>-0.002786665253091664</v>
+        <v>-0.003907162139893544</v>
       </c>
       <c r="M133" t="n">
-        <v>0.3213966335572833</v>
+        <v>0.3047373415339246</v>
       </c>
       <c r="N133" t="n">
-        <v>0.03876745228766366</v>
+        <v>0.03935993910241715</v>
       </c>
       <c r="O133" t="n">
-        <v>-0.003399621188847812</v>
+        <v>-0.002818624380058233</v>
       </c>
       <c r="P133" t="n">
-        <v>0.4949047036199586</v>
+        <v>0.4726789071021678</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.03930403913368435</v>
+        <v>0.03800751040131925</v>
       </c>
       <c r="R133" t="n">
-        <v>-0.002208349658429846</v>
+        <v>-0.001992874010268791</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05762314120597944</v>
+        <v>0.0593863702187433</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0385384253815189</v>
+        <v>0.03990782835591095</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.002357247212577798</v>
+        <v>-0.004080943331640463</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1342520510250436</v>
+        <v>0.1340139669368025</v>
       </c>
       <c r="K134" t="n">
-        <v>0.03996098813814166</v>
+        <v>0.03864354083215474</v>
       </c>
       <c r="L134" t="n">
-        <v>-0.002786665253091664</v>
+        <v>-0.003907162139893544</v>
       </c>
       <c r="M134" t="n">
-        <v>0.3229385399737772</v>
+        <v>0.3060019183831897</v>
       </c>
       <c r="N134" t="n">
-        <v>0.03957510754365665</v>
+        <v>0.04017993783371751</v>
       </c>
       <c r="O134" t="n">
-        <v>-0.003399621188847812</v>
+        <v>-0.002818624380058233</v>
       </c>
       <c r="P134" t="n">
-        <v>0.4974593113120076</v>
+        <v>0.4749981064582328</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.04012287328230277</v>
+        <v>0.03879933353468007</v>
       </c>
       <c r="R134" t="n">
-        <v>-0.002208349658429846</v>
+        <v>-0.001992874010268791</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05780618018496076</v>
+        <v>0.05962188285883455</v>
       </c>
       <c r="G135" t="n">
-        <v>0.03932492385869275</v>
+        <v>0.04072227383256218</v>
       </c>
       <c r="H135" t="n">
-        <v>-0.002357247212577798</v>
+        <v>-0.004081759520306791</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1351077425403392</v>
+        <v>0.134482799595961</v>
       </c>
       <c r="K135" t="n">
-        <v>0.04077651850830782</v>
+        <v>0.03943218452260688</v>
       </c>
       <c r="L135" t="n">
-        <v>-0.00297421431056575</v>
+        <v>-0.003907162139893544</v>
       </c>
       <c r="M135" t="n">
-        <v>0.3243623317743345</v>
+        <v>0.3071116062216097</v>
       </c>
       <c r="N135" t="n">
-        <v>0.04038276279964965</v>
+        <v>0.04099993656501786</v>
       </c>
       <c r="O135" t="n">
-        <v>-0.003501314394505574</v>
+        <v>-0.002818624380058233</v>
       </c>
       <c r="P135" t="n">
-        <v>0.4997143452471798</v>
+        <v>0.4772007812396525</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.0409417074309212</v>
+        <v>0.03959115666804089</v>
       </c>
       <c r="R135" t="n">
-        <v>-0.002208349658429846</v>
+        <v>-0.001992874010268791</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05798509071036744</v>
+        <v>0.0598862905801091</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04011142233586661</v>
+        <v>0.04153671930921343</v>
       </c>
       <c r="H136" t="n">
-        <v>-0.002537154649667717</v>
+        <v>-0.004074661248783407</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1359180575338184</v>
+        <v>0.1349757728089627</v>
       </c>
       <c r="K136" t="n">
-        <v>0.04159204887847397</v>
+        <v>0.04022082821305902</v>
       </c>
       <c r="L136" t="n">
-        <v>-0.00297421431056575</v>
+        <v>-0.004103130980159305</v>
       </c>
       <c r="M136" t="n">
-        <v>0.3258557665724596</v>
+        <v>0.3082052751753939</v>
       </c>
       <c r="N136" t="n">
-        <v>0.04119041805564264</v>
+        <v>0.04181993529631822</v>
       </c>
       <c r="O136" t="n">
-        <v>-0.003501314394505574</v>
+        <v>-0.003056012067283118</v>
       </c>
       <c r="P136" t="n">
-        <v>0.5017416493858055</v>
+        <v>0.4794340163476766</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.04176054157953962</v>
+        <v>0.04038297980140171</v>
       </c>
       <c r="R136" t="n">
-        <v>-0.002361766090883394</v>
+        <v>-0.001769909741216958</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05819340297970822</v>
+        <v>0.06010347620284972</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04089792081304047</v>
+        <v>0.04235116478586467</v>
       </c>
       <c r="H137" t="n">
-        <v>-0.002537154649667717</v>
+        <v>-0.004075068714908286</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1366996812247337</v>
+        <v>0.1354380027041673</v>
       </c>
       <c r="K137" t="n">
-        <v>0.04240757924864013</v>
+        <v>0.04100947190351115</v>
       </c>
       <c r="L137" t="n">
-        <v>-0.00297421431056575</v>
+        <v>-0.004103130980159305</v>
       </c>
       <c r="M137" t="n">
-        <v>0.3271793887340069</v>
+        <v>0.3092853731909101</v>
       </c>
       <c r="N137" t="n">
-        <v>0.04199807331163563</v>
+        <v>0.04263993402761859</v>
       </c>
       <c r="O137" t="n">
-        <v>-0.003501314394505574</v>
+        <v>-0.003056012067283118</v>
       </c>
       <c r="P137" t="n">
-        <v>0.5039909672472614</v>
+        <v>0.4815540252209499</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.04257937572815804</v>
+        <v>0.04117480293476252</v>
       </c>
       <c r="R137" t="n">
-        <v>-0.002361766090883394</v>
+        <v>-0.001769909741216958</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05836490688745611</v>
+        <v>0.06035008442162378</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04168441929021433</v>
+        <v>0.04316561026251592</v>
       </c>
       <c r="H138" t="n">
-        <v>-0.002537154649667717</v>
+        <v>-0.004074661248783407</v>
       </c>
       <c r="J138" t="n">
-        <v>0.137432126697352</v>
+        <v>0.1359069909052323</v>
       </c>
       <c r="K138" t="n">
-        <v>0.04322310961880629</v>
+        <v>0.04179811559396329</v>
       </c>
       <c r="L138" t="n">
-        <v>-0.00297421431056575</v>
+        <v>-0.004103130980159305</v>
       </c>
       <c r="M138" t="n">
-        <v>0.3283781103374341</v>
+        <v>0.3104003918807963</v>
       </c>
       <c r="N138" t="n">
-        <v>0.04280572856762863</v>
+        <v>0.04345993275891893</v>
       </c>
       <c r="O138" t="n">
-        <v>-0.003501314394505574</v>
+        <v>-0.003056012067283118</v>
       </c>
       <c r="P138" t="n">
-        <v>0.5060099523716612</v>
+        <v>0.4835620455954082</v>
       </c>
       <c r="Q138" t="n">
-        <v>0.04339820987677646</v>
+        <v>0.04196662606812335</v>
       </c>
       <c r="R138" t="n">
-        <v>-0.002361766090883394</v>
+        <v>-0.001769909741216958</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05854976578859857</v>
+        <v>0.06057523890545585</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04247091776738818</v>
+        <v>0.04398005573916716</v>
       </c>
       <c r="H139" t="n">
-        <v>-0.002537154649667717</v>
+        <v>-0.004069844685708</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1381510703959155</v>
+        <v>0.1364019736737192</v>
       </c>
       <c r="K139" t="n">
-        <v>0.04403863998897245</v>
+        <v>0.04258675928441543</v>
       </c>
       <c r="L139" t="n">
-        <v>-0.00297421431056575</v>
+        <v>-0.004103130980159305</v>
       </c>
       <c r="M139" t="n">
-        <v>0.3294494538846804</v>
+        <v>0.3115069539275472</v>
       </c>
       <c r="N139" t="n">
-        <v>0.04361338382362162</v>
+        <v>0.0442799314902193</v>
       </c>
       <c r="O139" t="n">
-        <v>-0.003501314394505574</v>
+        <v>-0.003056012067283118</v>
       </c>
       <c r="P139" t="n">
-        <v>0.5079476516186276</v>
+        <v>0.4857535805930308</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.04421704402539489</v>
+        <v>0.04275844920148416</v>
       </c>
       <c r="R139" t="n">
-        <v>-0.002361766090883394</v>
+        <v>-0.001769909741216958</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05871486042939193</v>
+        <v>0.06083047816368862</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04325741624456203</v>
+        <v>0.04479450121581841</v>
       </c>
       <c r="H140" t="n">
-        <v>-0.002716886043145884</v>
+        <v>-0.004069844685708</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1388549861965492</v>
+        <v>0.1368489442324395</v>
       </c>
       <c r="K140" t="n">
-        <v>0.0448541703591386</v>
+        <v>0.04337540297486757</v>
       </c>
       <c r="L140" t="n">
-        <v>-0.003162888795694194</v>
+        <v>-0.004279102421150005</v>
       </c>
       <c r="M140" t="n">
-        <v>0.3305832239508593</v>
+        <v>0.3126537679179663</v>
       </c>
       <c r="N140" t="n">
-        <v>0.04442103907961461</v>
+        <v>0.04509993022151965</v>
       </c>
       <c r="O140" t="n">
-        <v>-0.003590570052703148</v>
+        <v>-0.003276416251715779</v>
       </c>
       <c r="P140" t="n">
-        <v>0.5095748682679005</v>
+        <v>0.4877635151239125</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.04503587817401331</v>
+        <v>0.04355027233484498</v>
       </c>
       <c r="R140" t="n">
-        <v>-0.002490100674599185</v>
+        <v>-0.001633401997944466</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.0588771213562256</v>
+        <v>0.06103022469329545</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04404391472173588</v>
+        <v>0.04560894669246964</v>
       </c>
       <c r="H141" t="n">
-        <v>-0.002716886043145884</v>
+        <v>-0.004069844685708</v>
       </c>
       <c r="J141" t="n">
-        <v>0.13954232727694</v>
+        <v>0.1372855449613038</v>
       </c>
       <c r="K141" t="n">
-        <v>0.04566970072930476</v>
+        <v>0.04416404666531971</v>
       </c>
       <c r="L141" t="n">
-        <v>-0.003162888795694194</v>
+        <v>-0.004279102421150005</v>
       </c>
       <c r="M141" t="n">
-        <v>0.331537452791238</v>
+        <v>0.3137972311028938</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0452286943356076</v>
+        <v>0.04591992895282001</v>
       </c>
       <c r="O141" t="n">
-        <v>-0.003590570052703148</v>
+        <v>-0.003276416251715779</v>
       </c>
       <c r="P141" t="n">
-        <v>0.5114978444290154</v>
+        <v>0.4895925171434822</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.04585471232263174</v>
+        <v>0.0443420954682058</v>
       </c>
       <c r="R141" t="n">
-        <v>-0.002490100674599185</v>
+        <v>-0.001633401997944466</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05903680769791695</v>
+        <v>0.06126915207279698</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04483041319890974</v>
+        <v>0.04642339216912089</v>
       </c>
       <c r="H142" t="n">
-        <v>-0.002716886043145884</v>
+        <v>-0.004070251670176571</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1401544894346649</v>
+        <v>0.1377310024699077</v>
       </c>
       <c r="K142" t="n">
-        <v>0.04648523109947091</v>
+        <v>0.04495269035577185</v>
       </c>
       <c r="L142" t="n">
-        <v>-0.003162888795694194</v>
+        <v>-0.004279102421150005</v>
       </c>
       <c r="M142" t="n">
-        <v>0.3324541886509157</v>
+        <v>0.3148003323091065</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0460363495916006</v>
+        <v>0.04673992768412037</v>
       </c>
       <c r="O142" t="n">
-        <v>-0.003590570052703148</v>
+        <v>-0.003276416251715779</v>
       </c>
       <c r="P142" t="n">
-        <v>0.5132600193923788</v>
+        <v>0.4915379086300383</v>
       </c>
       <c r="Q142" t="n">
-        <v>0.04667354647125016</v>
+        <v>0.04513391860156662</v>
       </c>
       <c r="R142" t="n">
-        <v>-0.002490100674599185</v>
+        <v>-0.001633401997944466</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05920259958202583</v>
+        <v>0.06146994948129694</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04561691167608359</v>
+        <v>0.04723783764577213</v>
       </c>
       <c r="H143" t="n">
-        <v>-0.002892162923129008</v>
+        <v>-0.00406943770123943</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1406893636173192</v>
+        <v>0.1381106549168442</v>
       </c>
       <c r="K143" t="n">
-        <v>0.04730076146963708</v>
+        <v>0.04574133404622398</v>
       </c>
       <c r="L143" t="n">
-        <v>-0.003350969574481462</v>
+        <v>-0.004418819434273006</v>
       </c>
       <c r="M143" t="n">
-        <v>0.3333609806429397</v>
+        <v>0.3158974998834351</v>
       </c>
       <c r="N143" t="n">
-        <v>0.04684400484759359</v>
+        <v>0.04755992641542072</v>
       </c>
       <c r="O143" t="n">
-        <v>-0.003590570052703148</v>
+        <v>-0.003276416251715779</v>
       </c>
       <c r="P143" t="n">
-        <v>0.5146301484413331</v>
+        <v>0.4934540400601997</v>
       </c>
       <c r="Q143" t="n">
-        <v>0.04749238061986858</v>
+        <v>0.04592574173492743</v>
       </c>
       <c r="R143" t="n">
-        <v>-0.002490100674599185</v>
+        <v>-0.001633401997944466</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05936636758552557</v>
+        <v>0.06168456272377349</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04640341015325745</v>
+        <v>0.04805228312242338</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.002892162923129008</v>
+        <v>-0.004067277390000143</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1412596212661528</v>
+        <v>0.1385377008009394</v>
       </c>
       <c r="K144" t="n">
-        <v>0.04811629183980323</v>
+        <v>0.04652997773667612</v>
       </c>
       <c r="L144" t="n">
-        <v>-0.003350969574481462</v>
+        <v>-0.004418819434273006</v>
       </c>
       <c r="M144" t="n">
-        <v>0.3341640182892196</v>
+        <v>0.3170047064914836</v>
       </c>
       <c r="N144" t="n">
-        <v>0.04765166010358659</v>
+        <v>0.04837992514672108</v>
       </c>
       <c r="O144" t="n">
-        <v>-0.003666365101963709</v>
+        <v>-0.00347233572835382</v>
       </c>
       <c r="P144" t="n">
-        <v>0.5162946864265802</v>
+        <v>0.4952821624448976</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.04831121476848701</v>
+        <v>0.04671756486828825</v>
       </c>
       <c r="R144" t="n">
-        <v>-0.00257666383101903</v>
+        <v>-0.001614438087806972</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05952836999752525</v>
+        <v>0.06189592918438865</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04718990863043131</v>
+        <v>0.04886672859907462</v>
       </c>
       <c r="H145" t="n">
-        <v>-0.002892162923129008</v>
+        <v>-0.004066464097180707</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1417107644331884</v>
+        <v>0.1389562866928576</v>
       </c>
       <c r="K145" t="n">
-        <v>0.04893182220996938</v>
+        <v>0.04731862142712825</v>
       </c>
       <c r="L145" t="n">
-        <v>-0.003350969574481462</v>
+        <v>-0.004418819434273006</v>
       </c>
       <c r="M145" t="n">
-        <v>0.3350088452747895</v>
+        <v>0.318175865731711</v>
       </c>
       <c r="N145" t="n">
-        <v>0.04845931535957957</v>
+        <v>0.04919992387802144</v>
       </c>
       <c r="O145" t="n">
-        <v>-0.003666365101963709</v>
+        <v>-0.00347233572835382</v>
       </c>
       <c r="P145" t="n">
-        <v>0.5176404332534079</v>
+        <v>0.4972807523400212</v>
       </c>
       <c r="Q145" t="n">
-        <v>0.04913004891710543</v>
+        <v>0.04750938800164907</v>
       </c>
       <c r="R145" t="n">
-        <v>-0.00257666383101903</v>
+        <v>-0.001614438087806972</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05968886510713386</v>
+        <v>0.06213037223740272</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04797640710760516</v>
+        <v>0.04968117407572586</v>
       </c>
       <c r="H146" t="n">
-        <v>-0.002892162923129008</v>
+        <v>-0.004066057450770989</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1421557841160655</v>
+        <v>0.1393100743629743</v>
       </c>
       <c r="K146" t="n">
-        <v>0.04974735258013554</v>
+        <v>0.04810726511758039</v>
       </c>
       <c r="L146" t="n">
-        <v>-0.003350969574481462</v>
+        <v>-0.004418819434273006</v>
       </c>
       <c r="M146" t="n">
-        <v>0.3358952309558483</v>
+        <v>0.319362520989783</v>
       </c>
       <c r="N146" t="n">
-        <v>0.04926697061557257</v>
+        <v>0.0500199226093218</v>
       </c>
       <c r="O146" t="n">
-        <v>-0.003666365101963709</v>
+        <v>-0.00347233572835382</v>
       </c>
       <c r="P146" t="n">
-        <v>0.5191262182778587</v>
+        <v>0.4993750363031547</v>
       </c>
       <c r="Q146" t="n">
-        <v>0.04994888306572385</v>
+        <v>0.04830121113500989</v>
       </c>
       <c r="R146" t="n">
-        <v>-0.00257666383101903</v>
+        <v>-0.001614438087806972</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05987356818251936</v>
+        <v>0.06232714339981072</v>
       </c>
       <c r="G147" t="n">
-        <v>0.04876290558477902</v>
+        <v>0.05049561955237711</v>
       </c>
       <c r="H147" t="n">
-        <v>-0.002892162923129008</v>
+        <v>-0.004066057450770989</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1425739496802523</v>
+        <v>0.1396940202456896</v>
       </c>
       <c r="K147" t="n">
-        <v>0.0505628829503017</v>
+        <v>0.04889590880803253</v>
       </c>
       <c r="L147" t="n">
-        <v>-0.003350969574481462</v>
+        <v>-0.004418819434273006</v>
       </c>
       <c r="M147" t="n">
-        <v>0.3367742678133276</v>
+        <v>0.3204687017358999</v>
       </c>
       <c r="N147" t="n">
-        <v>0.05007462587156556</v>
+        <v>0.05083992134062215</v>
       </c>
       <c r="O147" t="n">
-        <v>-0.003666365101963709</v>
+        <v>-0.00347233572835382</v>
       </c>
       <c r="P147" t="n">
-        <v>0.5201357137556786</v>
+        <v>0.5011120883067798</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.05076771721434228</v>
+        <v>0.0490930342683707</v>
       </c>
       <c r="R147" t="n">
-        <v>-0.00257666383101903</v>
+        <v>-0.001614438087806972</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.06000636657561393</v>
+        <v>0.06252994700770392</v>
       </c>
       <c r="G148" t="n">
-        <v>0.04954940406195287</v>
+        <v>0.05131006502902835</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.00304334323542478</v>
+        <v>-0.004062461130166704</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1429443340395087</v>
+        <v>0.1400707978579009</v>
       </c>
       <c r="K148" t="n">
-        <v>0.05137841332046785</v>
+        <v>0.04968455249848467</v>
       </c>
       <c r="L148" t="n">
-        <v>-0.003536737512932019</v>
+        <v>-0.004500723467919155</v>
       </c>
       <c r="M148" t="n">
-        <v>0.3375479597865083</v>
+        <v>0.3217276483170882</v>
       </c>
       <c r="N148" t="n">
-        <v>0.05088228112755856</v>
+        <v>0.05165992007192251</v>
       </c>
       <c r="O148" t="n">
-        <v>-0.003747972184483484</v>
+        <v>-0.003689677881454731</v>
       </c>
       <c r="P148" t="n">
-        <v>0.5215143377647903</v>
+        <v>0.5031639917658955</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.0515865513629607</v>
+        <v>0.04988485740173152</v>
       </c>
       <c r="R148" t="n">
-        <v>-0.00260498878022505</v>
+        <v>-0.001652605963526985</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.06018092399405415</v>
+        <v>0.06273903344229967</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05033590253912673</v>
+        <v>0.05212451050567959</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.00304334323542478</v>
+        <v>-0.004062461130166704</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1432072183218098</v>
+        <v>0.1404218203306628</v>
       </c>
       <c r="K149" t="n">
-        <v>0.05219394369063401</v>
+        <v>0.05047319618893681</v>
       </c>
       <c r="L149" t="n">
-        <v>-0.003536737512932019</v>
+        <v>-0.004500723467919155</v>
       </c>
       <c r="M149" t="n">
-        <v>0.3384106766207659</v>
+        <v>0.3229021297009172</v>
       </c>
       <c r="N149" t="n">
-        <v>0.05168993638355155</v>
+        <v>0.05247991880322287</v>
       </c>
       <c r="O149" t="n">
-        <v>-0.003747972184483484</v>
+        <v>-0.003689677881454731</v>
       </c>
       <c r="P149" t="n">
-        <v>0.5224183042877584</v>
+        <v>0.5050772223445102</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.05240538551157913</v>
+        <v>0.05067668053509234</v>
       </c>
       <c r="R149" t="n">
-        <v>-0.00260498878022505</v>
+        <v>-0.001652605963526985</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.06032093830383801</v>
+        <v>0.06292827578412241</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05112240101630058</v>
+        <v>0.05293895598233084</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.00304334323542478</v>
+        <v>-0.00406286737627972</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1434573486809131</v>
+        <v>0.1408237576085105</v>
       </c>
       <c r="K150" t="n">
-        <v>0.05300947406080016</v>
+        <v>0.05126183987938895</v>
       </c>
       <c r="L150" t="n">
-        <v>-0.003536737512932019</v>
+        <v>-0.004500723467919155</v>
       </c>
       <c r="M150" t="n">
-        <v>0.3391667530872001</v>
+        <v>0.3239421613892982</v>
       </c>
       <c r="N150" t="n">
-        <v>0.05249759163954454</v>
+        <v>0.05329991753452322</v>
       </c>
       <c r="O150" t="n">
-        <v>-0.003747972184483484</v>
+        <v>-0.003689677881454731</v>
       </c>
       <c r="P150" t="n">
-        <v>0.5234449953117778</v>
+        <v>0.5072263517864164</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.05322421966019755</v>
+        <v>0.05146850366845315</v>
       </c>
       <c r="R150" t="n">
-        <v>-0.00260498878022505</v>
+        <v>-0.001652605963526985</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0604863198701136</v>
+        <v>0.06311536847033611</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05190889949347444</v>
+        <v>0.05375340145898208</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.00304334323542478</v>
+        <v>-0.004062461130166704</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1436931330181137</v>
+        <v>0.1411435769771482</v>
       </c>
       <c r="K151" t="n">
-        <v>0.05382500443096632</v>
+        <v>0.05205048356984108</v>
       </c>
       <c r="L151" t="n">
-        <v>-0.003536737512932019</v>
+        <v>-0.004500723467919155</v>
       </c>
       <c r="M151" t="n">
-        <v>0.3400112098420598</v>
+        <v>0.3252724526162094</v>
       </c>
       <c r="N151" t="n">
-        <v>0.05330524689553753</v>
+        <v>0.05411991626582358</v>
       </c>
       <c r="O151" t="n">
-        <v>-0.003747972184483484</v>
+        <v>-0.003689677881454731</v>
       </c>
       <c r="P151" t="n">
-        <v>0.5244561164077771</v>
+        <v>0.509154881217443</v>
       </c>
       <c r="Q151" t="n">
-        <v>0.05404305380881597</v>
+        <v>0.05226032680181397</v>
       </c>
       <c r="R151" t="n">
-        <v>-0.00260498878022505</v>
+        <v>-0.001652605963526985</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.06063464660467822</v>
+        <v>0.06330933255657947</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05269539797064829</v>
+        <v>0.05456784693563333</v>
       </c>
       <c r="H152" t="n">
-        <v>-0.003161028462784275</v>
+        <v>-0.004062281206964902</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1437772571998878</v>
+        <v>0.1415352991571265</v>
       </c>
       <c r="K152" t="n">
-        <v>0.05464053480113248</v>
+        <v>0.05283912726029322</v>
       </c>
       <c r="L152" t="n">
-        <v>-0.003718473477050331</v>
+        <v>-0.004516790150616947</v>
       </c>
       <c r="M152" t="n">
-        <v>0.3407477379199709</v>
+        <v>0.3263692575554969</v>
       </c>
       <c r="N152" t="n">
-        <v>0.05411290215153053</v>
+        <v>0.05493991499712394</v>
       </c>
       <c r="O152" t="n">
-        <v>-0.003834379760010895</v>
+        <v>-0.003929874323213838</v>
       </c>
       <c r="P152" t="n">
-        <v>0.5254512713061248</v>
+        <v>0.5113148957731487</v>
       </c>
       <c r="Q152" t="n">
-        <v>0.0548618879574344</v>
+        <v>0.0530521499351748</v>
       </c>
       <c r="R152" t="n">
-        <v>-0.002594507377846007</v>
+        <v>-0.001725468384511458</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.06080898277314847</v>
+        <v>0.0635104157593461</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05348189644782214</v>
+        <v>0.05538229241228457</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.003161028462784275</v>
+        <v>-0.004062687394466849</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1438629227989193</v>
+        <v>0.1418898874341863</v>
       </c>
       <c r="K153" t="n">
-        <v>0.05545606517129863</v>
+        <v>0.05362777095074536</v>
       </c>
       <c r="L153" t="n">
-        <v>-0.003718473477050331</v>
+        <v>-0.004516790150616947</v>
       </c>
       <c r="M153" t="n">
-        <v>0.3415228418677757</v>
+        <v>0.3276587132594653</v>
       </c>
       <c r="N153" t="n">
-        <v>0.05492055740752352</v>
+        <v>0.0557599137284243</v>
       </c>
       <c r="O153" t="n">
-        <v>-0.003834379760010895</v>
+        <v>-0.003929874323213838</v>
       </c>
       <c r="P153" t="n">
-        <v>0.5264300637371894</v>
+        <v>0.5131711749300487</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.05568072210605282</v>
+        <v>0.05384397306853561</v>
       </c>
       <c r="R153" t="n">
-        <v>-0.002594507377846007</v>
+        <v>-0.001725468384511458</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.06096674942172797</v>
+        <v>0.06368338789156033</v>
       </c>
       <c r="G154" t="n">
-        <v>0.054268394924996</v>
+        <v>0.05619673788893582</v>
       </c>
       <c r="H154" t="n">
-        <v>-0.003161028462784275</v>
+        <v>-0.004062281206964902</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1439124597953055</v>
+        <v>0.1422461755389972</v>
       </c>
       <c r="K154" t="n">
-        <v>0.05627159554146479</v>
+        <v>0.05441641464119749</v>
       </c>
       <c r="L154" t="n">
-        <v>-0.003718473477050331</v>
+        <v>-0.004516790150616947</v>
       </c>
       <c r="M154" t="n">
-        <v>0.3423362700510025</v>
+        <v>0.3287094895936498</v>
       </c>
       <c r="N154" t="n">
-        <v>0.05572821266351652</v>
+        <v>0.05657991245972466</v>
       </c>
       <c r="O154" t="n">
-        <v>-0.003834379760010895</v>
+        <v>-0.003929874323213838</v>
       </c>
       <c r="P154" t="n">
-        <v>0.5273143582215959</v>
+        <v>0.515177608424219</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.05649955625467124</v>
+        <v>0.05463579620189642</v>
       </c>
       <c r="R154" t="n">
-        <v>-0.002594507377846007</v>
+        <v>-0.001725468384511458</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.06112533353337383</v>
+        <v>0.06389048476801584</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05505489340216987</v>
+        <v>0.05701118336558706</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.003228880007962083</v>
+        <v>-0.004061875019462956</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1439662928965853</v>
+        <v>0.1425843649442174</v>
       </c>
       <c r="K155" t="n">
-        <v>0.05708712591163095</v>
+        <v>0.05520505833164963</v>
       </c>
       <c r="L155" t="n">
-        <v>-0.003908948590095573</v>
+        <v>-0.004516790150616947</v>
       </c>
       <c r="M155" t="n">
-        <v>0.3430891562252273</v>
+        <v>0.3299978656809571</v>
       </c>
       <c r="N155" t="n">
-        <v>0.05653586791950951</v>
+        <v>0.05739991119102501</v>
       </c>
       <c r="O155" t="n">
-        <v>-0.003834379760010895</v>
+        <v>-0.003929874323213838</v>
       </c>
       <c r="P155" t="n">
-        <v>0.5284926435141661</v>
+        <v>0.5171791558611428</v>
       </c>
       <c r="Q155" t="n">
-        <v>0.05731839040328968</v>
+        <v>0.05542761933525724</v>
       </c>
       <c r="R155" t="n">
-        <v>-0.002594507377846007</v>
+        <v>-0.001725468384511458</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.06127636581227686</v>
+        <v>0.06406290056262823</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05584139187934372</v>
+        <v>0.0578256288422383</v>
       </c>
       <c r="H156" t="n">
-        <v>-0.003228880007962083</v>
+        <v>-0.004070435541386315</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1439607402630004</v>
+        <v>0.1429616908684833</v>
       </c>
       <c r="K156" t="n">
-        <v>0.05790265628179711</v>
+        <v>0.05599370202210176</v>
       </c>
       <c r="L156" t="n">
-        <v>-0.003908948590095573</v>
+        <v>-0.00451030860208835</v>
       </c>
       <c r="M156" t="n">
-        <v>0.343830168508981</v>
+        <v>0.331090721832751</v>
       </c>
       <c r="N156" t="n">
-        <v>0.0573435231755025</v>
+        <v>0.05821990992232537</v>
       </c>
       <c r="O156" t="n">
-        <v>-0.003923160855389327</v>
+        <v>-0.004182407665995249</v>
       </c>
       <c r="P156" t="n">
-        <v>0.5291863771000145</v>
+        <v>0.5192499266798899</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.0581372245519081</v>
+        <v>0.05621944246861807</v>
       </c>
       <c r="R156" t="n">
-        <v>-0.002569059646099087</v>
+        <v>-0.001824980851610941</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.06142870004019784</v>
+        <v>0.0642567382606149</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05662789035651757</v>
+        <v>0.05864007431888955</v>
       </c>
       <c r="H157" t="n">
-        <v>-0.003228880007962083</v>
+        <v>-0.004071249709911445</v>
       </c>
       <c r="J157" t="n">
-        <v>0.143992840781562</v>
+        <v>0.1433005078606781</v>
       </c>
       <c r="K157" t="n">
-        <v>0.05871818665196325</v>
+        <v>0.05678234571255391</v>
       </c>
       <c r="L157" t="n">
-        <v>-0.003908948590095573</v>
+        <v>-0.00451030860208835</v>
       </c>
       <c r="M157" t="n">
-        <v>0.3445093717994278</v>
+        <v>0.3323706116412943</v>
       </c>
       <c r="N157" t="n">
-        <v>0.05815117843149549</v>
+        <v>0.05903990865362573</v>
       </c>
       <c r="O157" t="n">
-        <v>-0.003923160855389327</v>
+        <v>-0.004182407665995249</v>
       </c>
       <c r="P157" t="n">
-        <v>0.5300956660276435</v>
+        <v>0.5211563611157785</v>
       </c>
       <c r="Q157" t="n">
-        <v>0.05895605870052652</v>
+        <v>0.05701126560197888</v>
       </c>
       <c r="R157" t="n">
-        <v>-0.002569059646099087</v>
+        <v>-0.001824980851610941</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.06159991406302349</v>
+        <v>0.06445363709867308</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05741438883369143</v>
+        <v>0.05945451979554078</v>
       </c>
       <c r="H158" t="n">
-        <v>-0.003228880007962083</v>
+        <v>-0.004071249709911445</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1439656929010648</v>
+        <v>0.1436775244188073</v>
       </c>
       <c r="K158" t="n">
-        <v>0.05953371702212942</v>
+        <v>0.05757098940300604</v>
       </c>
       <c r="L158" t="n">
-        <v>-0.003908948590095573</v>
+        <v>-0.00451030860208835</v>
       </c>
       <c r="M158" t="n">
-        <v>0.3452251122312286</v>
+        <v>0.3335953204850005</v>
       </c>
       <c r="N158" t="n">
-        <v>0.05895883368748849</v>
+        <v>0.05985990738492609</v>
       </c>
       <c r="O158" t="n">
-        <v>-0.003923160855389327</v>
+        <v>-0.004182407665995249</v>
       </c>
       <c r="P158" t="n">
-        <v>0.531142825918102</v>
+        <v>0.5232037158500747</v>
       </c>
       <c r="Q158" t="n">
-        <v>0.05977489284914494</v>
+        <v>0.0578030887353397</v>
       </c>
       <c r="R158" t="n">
-        <v>-0.002569059646099087</v>
+        <v>-0.001824980851610941</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.06177301142606125</v>
+        <v>0.06467091267521899</v>
       </c>
       <c r="G159" t="n">
-        <v>0.05820088731086528</v>
+        <v>0.06026896527219203</v>
       </c>
       <c r="H159" t="n">
-        <v>-0.003228880007962083</v>
+        <v>-0.00414359016970301</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1439763488932969</v>
+        <v>0.1439954073379016</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06034924739229557</v>
+        <v>0.05835963309345819</v>
       </c>
       <c r="L159" t="n">
-        <v>-0.003908948590095573</v>
+        <v>-0.00451030860208835</v>
       </c>
       <c r="M159" t="n">
-        <v>0.346026713113618</v>
+        <v>0.3347141453625518</v>
       </c>
       <c r="N159" t="n">
-        <v>0.05976648894348148</v>
+        <v>0.06067990611622644</v>
       </c>
       <c r="O159" t="n">
-        <v>-0.003923160855389327</v>
+        <v>-0.004182407665995249</v>
       </c>
       <c r="P159" t="n">
-        <v>0.5319370154112588</v>
+        <v>0.5250028197662296</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.06059372699776336</v>
+        <v>0.05859491186870051</v>
       </c>
       <c r="R159" t="n">
-        <v>-0.002569059646099087</v>
+        <v>-0.001824980851610941</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.06192217179164352</v>
+        <v>0.06486313734521884</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05898738578803914</v>
+        <v>0.06108341074884328</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.003245778055966365</v>
+        <v>-0.004142761534532587</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1439860919246823</v>
+        <v>0.1443893554631913</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06116477776246173</v>
+        <v>0.05914827678391032</v>
       </c>
       <c r="L160" t="n">
-        <v>-0.004126954957899673</v>
+        <v>-0.00449454145652141</v>
       </c>
       <c r="M160" t="n">
-        <v>0.3466161338127868</v>
+        <v>0.3358216725106924</v>
       </c>
       <c r="N160" t="n">
-        <v>0.06057414419947447</v>
+        <v>0.06149990484752679</v>
       </c>
       <c r="O160" t="n">
-        <v>-0.004011888497462165</v>
+        <v>-0.004440891734954397</v>
       </c>
       <c r="P160" t="n">
-        <v>0.5329467330566601</v>
+        <v>0.5269376254889752</v>
       </c>
       <c r="Q160" t="n">
-        <v>0.06141256114638179</v>
+        <v>0.05938673500206134</v>
       </c>
       <c r="R160" t="n">
-        <v>-0.002532511944813025</v>
+        <v>-0.001942853107914767</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.06211749014557404</v>
+        <v>0.06506553909838733</v>
       </c>
       <c r="G161" t="n">
-        <v>0.05977388426521299</v>
+        <v>0.06189785622549451</v>
       </c>
       <c r="H161" t="n">
-        <v>-0.003245778055966365</v>
+        <v>-0.004142761534532587</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1440143954712363</v>
+        <v>0.1447034752290329</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06198030813262789</v>
+        <v>0.05993692047436245</v>
       </c>
       <c r="L161" t="n">
-        <v>-0.004126954957899673</v>
+        <v>-0.00449454145652141</v>
       </c>
       <c r="M161" t="n">
-        <v>0.3473899048174016</v>
+        <v>0.3369647209147751</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06138179945546746</v>
+        <v>0.06231990357882716</v>
       </c>
       <c r="O161" t="n">
-        <v>-0.004011888497462165</v>
+        <v>-0.004440891734954397</v>
       </c>
       <c r="P161" t="n">
-        <v>0.5335454396275158</v>
+        <v>0.5290064858751905</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.06223139529500021</v>
+        <v>0.06017855813542215</v>
       </c>
       <c r="R161" t="n">
-        <v>-0.002532511944813025</v>
+        <v>-0.001942853107914767</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.06228134878252318</v>
+        <v>0.06526853488751125</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06056038274238684</v>
+        <v>0.06271230170214577</v>
       </c>
       <c r="H162" t="n">
-        <v>-0.003245778055966365</v>
+        <v>-0.004143175852117799</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1440031350105857</v>
+        <v>0.1450928632748574</v>
       </c>
       <c r="K162" t="n">
-        <v>0.06279583850279405</v>
+        <v>0.0607255641648146</v>
       </c>
       <c r="L162" t="n">
-        <v>-0.004126954957899673</v>
+        <v>-0.00449454145652141</v>
       </c>
       <c r="M162" t="n">
-        <v>0.3479499822366597</v>
+        <v>0.3381417523070883</v>
       </c>
       <c r="N162" t="n">
-        <v>0.06218945471146045</v>
+        <v>0.06313990231012752</v>
       </c>
       <c r="O162" t="n">
-        <v>-0.004011888497462165</v>
+        <v>-0.004440891734954397</v>
       </c>
       <c r="P162" t="n">
-        <v>0.5344375000998097</v>
+        <v>0.5308173179197763</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.06305022944361864</v>
+        <v>0.06097038126878297</v>
       </c>
       <c r="R162" t="n">
-        <v>-0.002532511944813025</v>
+        <v>-0.001942853107914767</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.06243921369328655</v>
+        <v>0.06548960216159738</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06134688121956069</v>
+        <v>0.063526747178797</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.003245778055966365</v>
+        <v>-0.004142761534532587</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1440493851345436</v>
+        <v>0.1454010616205672</v>
       </c>
       <c r="K163" t="n">
-        <v>0.06361136887296021</v>
+        <v>0.06151420785526673</v>
       </c>
       <c r="L163" t="n">
-        <v>-0.004126954957899673</v>
+        <v>-0.00449454145652141</v>
       </c>
       <c r="M163" t="n">
-        <v>0.3485942562213539</v>
+        <v>0.3393022987021567</v>
       </c>
       <c r="N163" t="n">
-        <v>0.06299710996745345</v>
+        <v>0.06395990104142787</v>
       </c>
       <c r="O163" t="n">
-        <v>-0.004011888497462165</v>
+        <v>-0.004693555774374137</v>
       </c>
       <c r="P163" t="n">
-        <v>0.5351523499410006</v>
+        <v>0.5328352296102449</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.06386906359223707</v>
+        <v>0.06176220440214378</v>
       </c>
       <c r="R163" t="n">
-        <v>-0.002532511944813025</v>
+        <v>-0.001942853107914767</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.06261669791367636</v>
+        <v>0.06569197593159726</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06213337969673455</v>
+        <v>0.06434119265544826</v>
       </c>
       <c r="H164" t="n">
-        <v>-0.003096002235511526</v>
+        <v>-0.004270743344245253</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1440368157115174</v>
+        <v>0.1457445742968859</v>
       </c>
       <c r="K164" t="n">
-        <v>0.06442689924312636</v>
+        <v>0.06230285154571887</v>
       </c>
       <c r="L164" t="n">
-        <v>-0.004359374184259465</v>
+        <v>-0.00447243090942544</v>
       </c>
       <c r="M164" t="n">
-        <v>0.349272706843351</v>
+        <v>0.3403954437909272</v>
       </c>
       <c r="N164" t="n">
-        <v>0.06380476522344644</v>
+        <v>0.06477989977272823</v>
       </c>
       <c r="O164" t="n">
-        <v>-0.004098135713072792</v>
+        <v>-0.004693555774374137</v>
       </c>
       <c r="P164" t="n">
-        <v>0.5360821248760185</v>
+        <v>0.5346668149917057</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.06468789774085548</v>
+        <v>0.06255402753550461</v>
       </c>
       <c r="R164" t="n">
-        <v>-0.002488730633816554</v>
+        <v>-0.002071889885023235</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.06279572640332778</v>
+        <v>0.06586583045316913</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06291987817390841</v>
+        <v>0.0651556381320995</v>
       </c>
       <c r="H165" t="n">
-        <v>-0.003096002235511526</v>
+        <v>-0.004270316312613992</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1440431042137292</v>
+        <v>0.1461034569954853</v>
       </c>
       <c r="K165" t="n">
-        <v>0.0652424296132925</v>
+        <v>0.06309149523617101</v>
       </c>
       <c r="L165" t="n">
-        <v>-0.004359374184259465</v>
+        <v>-0.00447243090942544</v>
       </c>
       <c r="M165" t="n">
-        <v>0.3499350501666674</v>
+        <v>0.3414681154973687</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06461242047943944</v>
+        <v>0.06559989850402859</v>
       </c>
       <c r="O165" t="n">
-        <v>-0.004098135713072792</v>
+        <v>-0.004693555774374137</v>
       </c>
       <c r="P165" t="n">
-        <v>0.5367550583159664</v>
+        <v>0.5364654291043018</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.06550673188947391</v>
+        <v>0.06334585066886543</v>
       </c>
       <c r="R165" t="n">
-        <v>-0.002488730633816554</v>
+        <v>-0.002071889885023235</v>
       </c>
     </row>
     <row r="166">
       <c r="F166" t="n">
-        <v>0.06297567864618031</v>
+        <v>0.06609233617652779</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06370637665108227</v>
+        <v>0.06597008360875074</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.003096002235511526</v>
+        <v>-0.004271170375876514</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1440295206146318</v>
+        <v>0.1464772700911753</v>
       </c>
       <c r="K166" t="n">
-        <v>0.06605795998345866</v>
+        <v>0.06388013892662314</v>
       </c>
       <c r="L166" t="n">
-        <v>-0.004359374184259465</v>
+        <v>-0.00447243090942544</v>
       </c>
       <c r="M166" t="n">
-        <v>0.3504807109263244</v>
+        <v>0.342518432451149</v>
       </c>
       <c r="N166" t="n">
-        <v>0.06542007573543243</v>
+        <v>0.06641989723532894</v>
       </c>
       <c r="O166" t="n">
-        <v>-0.004098135713072792</v>
+        <v>-0.004693555774374137</v>
       </c>
       <c r="P166" t="n">
-        <v>0.537406329628059</v>
+        <v>0.5379918423297743</v>
       </c>
       <c r="Q166" t="n">
-        <v>0.06632556603809232</v>
+        <v>0.06413767380222624</v>
       </c>
       <c r="R166" t="n">
-        <v>-0.002488730633816554</v>
+        <v>-0.002071889885023235</v>
       </c>
     </row>
     <row r="167">
       <c r="F167" t="n">
-        <v>0.06315593412617324</v>
+        <v>0.06627083453268059</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06449287512825612</v>
+        <v>0.06678452908540199</v>
       </c>
       <c r="H167" t="n">
-        <v>-0.003096002235511526</v>
+        <v>-0.004270743344245253</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1440349442597991</v>
+        <v>0.1467475104539696</v>
       </c>
       <c r="K167" t="n">
-        <v>0.06687349035362482</v>
+        <v>0.06466878261707527</v>
       </c>
       <c r="L167" t="n">
-        <v>-0.004359374184259465</v>
+        <v>-0.00447243090942544</v>
       </c>
       <c r="M167" t="n">
-        <v>0.3510090545761534</v>
+        <v>0.343495168699524</v>
       </c>
       <c r="N167" t="n">
-        <v>0.06622773099142543</v>
+        <v>0.0672398959666293</v>
       </c>
       <c r="O167" t="n">
-        <v>-0.004179475529064592</v>
+        <v>-0.004693555774374137</v>
       </c>
       <c r="P167" t="n">
-        <v>0.5382720070324243</v>
+        <v>0.539715571463862</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.06714440018671075</v>
+        <v>0.06492949693558706</v>
       </c>
       <c r="R167" t="n">
-        <v>-0.002488730633816554</v>
+        <v>-0.002071889885023235</v>
       </c>
     </row>
     <row r="168">
       <c r="F168" t="n">
-        <v>0.06333587232724594</v>
+        <v>0.06647358707773152</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06527937360542997</v>
+        <v>0.06759897456205322</v>
       </c>
       <c r="H168" t="n">
-        <v>-0.002777447639206224</v>
+        <v>-0.004432425781418236</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1440400467554653</v>
+        <v>0.1471102400457724</v>
       </c>
       <c r="K168" t="n">
-        <v>0.06768902072379097</v>
+        <v>0.06545742630752742</v>
       </c>
       <c r="L168" t="n">
-        <v>-0.004592394452562896</v>
+        <v>-0.004443319343051234</v>
       </c>
       <c r="M168" t="n">
-        <v>0.3515697591826384</v>
+        <v>0.3444455875018963</v>
       </c>
       <c r="N168" t="n">
-        <v>0.06703538624741841</v>
+        <v>0.06805989469792965</v>
       </c>
       <c r="O168" t="n">
-        <v>-0.004179475529064592</v>
+        <v>-0.004932965586688628</v>
       </c>
       <c r="P168" t="n">
-        <v>0.5388001028805977</v>
+        <v>0.5415562118880776</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.06796323433532918</v>
+        <v>0.06572132006894787</v>
       </c>
       <c r="R168" t="n">
-        <v>-0.00244158207293841</v>
+        <v>-0.002204827238104248</v>
       </c>
     </row>
     <row r="169">
       <c r="F169" t="n">
-        <v>0.06351487273333783</v>
+        <v>0.06667265366721539</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06606587208260384</v>
+        <v>0.06841342003870447</v>
       </c>
       <c r="H169" t="n">
-        <v>-0.002777447639206224</v>
+        <v>-0.00443198258315992</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1440837110584639</v>
+        <v>0.1473877331704</v>
       </c>
       <c r="K169" t="n">
-        <v>0.06850455109395714</v>
+        <v>0.06624606999797955</v>
       </c>
       <c r="L169" t="n">
-        <v>-0.004592394452562896</v>
+        <v>-0.004443319343051234</v>
       </c>
       <c r="M169" t="n">
-        <v>0.3522127200212616</v>
+        <v>0.345367815885913</v>
       </c>
       <c r="N169" t="n">
-        <v>0.0678430415034114</v>
+        <v>0.06887989342923002</v>
       </c>
       <c r="O169" t="n">
-        <v>-0.004179475529064592</v>
+        <v>-0.004932965586688628</v>
       </c>
       <c r="P169" t="n">
-        <v>0.539621045273416</v>
+        <v>0.5431946928590943</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.06878206848394761</v>
+        <v>0.06651314320230869</v>
       </c>
       <c r="R169" t="n">
-        <v>-0.00244158207293841</v>
+        <v>-0.002204827238104248</v>
       </c>
     </row>
     <row r="170">
       <c r="F170" t="n">
-        <v>0.06369231482838827</v>
+        <v>0.06685823215991296</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06685237055977769</v>
+        <v>0.06922786551535572</v>
       </c>
       <c r="H170" t="n">
-        <v>-0.002777447639206224</v>
+        <v>-0.004432868979676552</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1440495842039664</v>
+        <v>0.1476977041636081</v>
       </c>
       <c r="K170" t="n">
-        <v>0.0693200814641233</v>
+        <v>0.0670347136884317</v>
       </c>
       <c r="L170" t="n">
-        <v>-0.004592394452562896</v>
+        <v>-0.004443319343051234</v>
       </c>
       <c r="M170" t="n">
-        <v>0.3525859219776821</v>
+        <v>0.3464585253330117</v>
       </c>
       <c r="N170" t="n">
-        <v>0.0686506967594044</v>
+        <v>0.06969989216053037</v>
       </c>
       <c r="O170" t="n">
-        <v>-0.004179475529064592</v>
+        <v>-0.004932965586688628</v>
       </c>
       <c r="P170" t="n">
-        <v>0.5401820922979228</v>
+        <v>0.5448656358138888</v>
       </c>
       <c r="Q170" t="n">
-        <v>0.06960090263256602</v>
+        <v>0.06730496633566951</v>
       </c>
       <c r="R170" t="n">
-        <v>-0.00244158207293841</v>
+        <v>-0.002204827238104248</v>
       </c>
     </row>
     <row r="171">
       <c r="F171" t="n">
-        <v>0.06386757809633659</v>
+        <v>0.06703885202395185</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06763886903695154</v>
+        <v>0.07004231099200696</v>
       </c>
       <c r="H171" t="n">
-        <v>-0.002777447639206224</v>
+        <v>-0.004432868979676552</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1440929779430596</v>
+        <v>0.1480001949363584</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07013561183428946</v>
+        <v>0.06782335737888383</v>
       </c>
       <c r="L171" t="n">
-        <v>-0.004812203946197904</v>
+        <v>-0.004443319343051234</v>
       </c>
       <c r="M171" t="n">
-        <v>0.3531912532627888</v>
+        <v>0.3472693940896834</v>
       </c>
       <c r="N171" t="n">
-        <v>0.06945835201539739</v>
+        <v>0.07051989089183072</v>
       </c>
       <c r="O171" t="n">
-        <v>-0.004179475529064592</v>
+        <v>-0.004932965586688628</v>
       </c>
       <c r="P171" t="n">
-        <v>0.5407195183510627</v>
+        <v>0.5461685709623084</v>
       </c>
       <c r="Q171" t="n">
-        <v>0.07041973678118446</v>
+        <v>0.06809678946903033</v>
       </c>
       <c r="R171" t="n">
-        <v>-0.00244158207293841</v>
+        <v>-0.002204827238104248</v>
       </c>
     </row>
     <row r="172">
       <c r="F172" t="n">
-        <v>0.06405785181050536</v>
+        <v>0.06718623764623885</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0684253675141254</v>
+        <v>0.0708567564686582</v>
       </c>
       <c r="H172" t="n">
-        <v>-0.002375583760861676</v>
+        <v>-0.004606198580604974</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1440975365164348</v>
+        <v>0.1483343284052018</v>
       </c>
       <c r="K172" t="n">
-        <v>0.0709511422044556</v>
+        <v>0.06861200106933596</v>
       </c>
       <c r="L172" t="n">
-        <v>-0.004812203946197904</v>
+        <v>-0.004408346776468516</v>
       </c>
       <c r="M172" t="n">
-        <v>0.3536764367698119</v>
+        <v>0.348145898449646</v>
       </c>
       <c r="N172" t="n">
-        <v>0.07026600727139039</v>
+        <v>0.07133988962313109</v>
       </c>
       <c r="O172" t="n">
-        <v>-0.004253480972280949</v>
+        <v>-0.005147937431403369</v>
       </c>
       <c r="P172" t="n">
-        <v>0.5413120734123075</v>
+        <v>0.5478168510875091</v>
       </c>
       <c r="Q172" t="n">
-        <v>0.07123857092980287</v>
+        <v>0.06888861260239114</v>
       </c>
       <c r="R172" t="n">
-        <v>-0.002394932622007329</v>
+        <v>-0.002332404891112664</v>
       </c>
     </row>
     <row r="173">
       <c r="F173" t="n">
-        <v>0.06421800788747323</v>
+        <v>0.06738274796231095</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06921186599129925</v>
+        <v>0.07167120194530945</v>
       </c>
       <c r="H173" t="n">
-        <v>-0.002375583760861676</v>
+        <v>-0.004606198580604974</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1440633311659128</v>
+        <v>0.1486004359327188</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07176667257462176</v>
+        <v>0.0694006447597881</v>
       </c>
       <c r="L173" t="n">
-        <v>-0.004812203946197904</v>
+        <v>-0.004408346776468516</v>
       </c>
       <c r="M173" t="n">
-        <v>0.3540406973489227</v>
+        <v>0.3489369868795127</v>
       </c>
       <c r="N173" t="n">
-        <v>0.07107366252738338</v>
+        <v>0.07215988835443145</v>
       </c>
       <c r="O173" t="n">
-        <v>-0.004253480972280949</v>
+        <v>-0.005147937431403369</v>
       </c>
       <c r="P173" t="n">
-        <v>0.5421179309041219</v>
+        <v>0.54917053140678</v>
       </c>
       <c r="Q173" t="n">
-        <v>0.0720574050784213</v>
+        <v>0.06968043573575197</v>
       </c>
       <c r="R173" t="n">
-        <v>-0.002394932622007329</v>
+        <v>-0.002332404891112664</v>
       </c>
     </row>
     <row r="174">
       <c r="F174" t="n">
-        <v>0.06438302807977073</v>
+        <v>0.06750000000000003</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0699983644684731</v>
+        <v>0.07248564742196069</v>
       </c>
       <c r="H174" t="n">
-        <v>-0.002375583760861676</v>
+        <v>-0.004606198580604974</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1441068738814068</v>
+        <v>0.1488971615582291</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07258220294478791</v>
+        <v>0.07018928845024024</v>
       </c>
       <c r="L174" t="n">
-        <v>-0.004812203946197904</v>
+        <v>-0.004408346776468516</v>
       </c>
       <c r="M174" t="n">
-        <v>0.3544850983879528</v>
+        <v>0.3497904744508206</v>
       </c>
       <c r="N174" t="n">
-        <v>0.07188131778337638</v>
+        <v>0.0729798870857318</v>
       </c>
       <c r="O174" t="n">
-        <v>-0.004253480972280949</v>
+        <v>-0.005147937431403369</v>
       </c>
       <c r="P174" t="n">
-        <v>0.5425031813295372</v>
+        <v>0.5505457500010443</v>
       </c>
       <c r="Q174" t="n">
-        <v>0.07287623922703972</v>
+        <v>0.07047225886911279</v>
       </c>
       <c r="R174" t="n">
-        <v>-0.002394932622007329</v>
+        <v>-0.002332404891112664</v>
       </c>
     </row>
     <row r="175">
       <c r="F175" t="n">
-        <v>0.06456129559197077</v>
+        <v>0.06768086950090696</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07078486294564695</v>
+        <v>0.07330009289861193</v>
       </c>
       <c r="H175" t="n">
-        <v>-0.002375583760861676</v>
+        <v>-0.004605737960746914</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1440535787596132</v>
+        <v>0.1491643850601057</v>
       </c>
       <c r="K175" t="n">
-        <v>0.07339773331495407</v>
+        <v>0.07097793214069238</v>
       </c>
       <c r="L175" t="n">
-        <v>-0.004812203946197904</v>
+        <v>-0.004408346776468516</v>
       </c>
       <c r="M175" t="n">
-        <v>0.3549589264958868</v>
+        <v>0.3506548950605864</v>
       </c>
       <c r="N175" t="n">
-        <v>0.07268897303936936</v>
+        <v>0.07379988581703216</v>
       </c>
       <c r="O175" t="n">
-        <v>-0.004253480972280949</v>
+        <v>-0.005147937431403369</v>
       </c>
       <c r="P175" t="n">
-        <v>0.5431010454378994</v>
+        <v>0.5519615242270663</v>
       </c>
       <c r="Q175" t="n">
-        <v>0.07369507337565814</v>
+        <v>0.0712640820024736</v>
       </c>
       <c r="R175" t="n">
-        <v>-0.002394932622007329</v>
+        <v>-0.002332404891112664</v>
       </c>
     </row>
     <row r="176">
       <c r="F176" t="n">
-        <v>0.06470743366018761</v>
+        <v>0.06784597775651738</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07157136142282082</v>
+        <v>0.07411453837526318</v>
       </c>
       <c r="H176" t="n">
-        <v>-0.001973210006778419</v>
+        <v>-0.004770854237313557</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1440975903271801</v>
+        <v>0.1494413665397187</v>
       </c>
       <c r="K176" t="n">
-        <v>0.07421326368512023</v>
+        <v>0.07176657583114451</v>
       </c>
       <c r="L176" t="n">
-        <v>-0.005004990848552437</v>
+        <v>-0.004367330353471584</v>
       </c>
       <c r="M176" t="n">
-        <v>0.3553102099259434</v>
+        <v>0.3513781891194779</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07349662829536237</v>
+        <v>0.07461988454833252</v>
       </c>
       <c r="O176" t="n">
-        <v>-0.004317725069565249</v>
+        <v>-0.005331224559005266</v>
       </c>
       <c r="P176" t="n">
-        <v>0.5435941800116516</v>
+        <v>0.5530299384189227</v>
       </c>
       <c r="Q176" t="n">
-        <v>0.07451390752427657</v>
+        <v>0.07205590513583442</v>
       </c>
       <c r="R176" t="n">
-        <v>-0.002352648640852043</v>
+        <v>-0.002448199038962797</v>
       </c>
     </row>
     <row r="177">
       <c r="F177" t="n">
-        <v>0.06486560772694719</v>
+        <v>0.06798388935395483</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07235785989999467</v>
+        <v>0.07492898385191442</v>
       </c>
       <c r="H177" t="n">
-        <v>-0.001973210006778419</v>
+        <v>-0.004769900161873638</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1440837235979018</v>
+        <v>0.1496877102384165</v>
       </c>
       <c r="K177" t="n">
-        <v>0.0750287940552864</v>
+        <v>0.07255521952159666</v>
       </c>
       <c r="L177" t="n">
-        <v>-0.005004990848552437</v>
+        <v>-0.004367330353471584</v>
       </c>
       <c r="M177" t="n">
-        <v>0.3557911003925071</v>
+        <v>0.3519615242270664</v>
       </c>
       <c r="N177" t="n">
-        <v>0.07430428355135535</v>
+        <v>0.07543988327963287</v>
       </c>
       <c r="O177" t="n">
-        <v>-0.004317725069565249</v>
+        <v>-0.005331224559005266</v>
       </c>
       <c r="P177" t="n">
-        <v>0.544061439059668</v>
+        <v>0.5542939145686885</v>
       </c>
       <c r="Q177" t="n">
-        <v>0.075332741672895</v>
+        <v>0.07284772826919524</v>
       </c>
       <c r="R177" t="n">
-        <v>-0.002352648640852043</v>
+        <v>-0.002448199038962797</v>
       </c>
     </row>
     <row r="178">
       <c r="F178" t="n">
-        <v>0.06498129046402346</v>
+        <v>0.06811252349118377</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07314435837716853</v>
+        <v>0.07574342932856566</v>
       </c>
       <c r="H178" t="n">
-        <v>-0.001973210006778419</v>
+        <v>-0.004770377199593598</v>
       </c>
       <c r="J178" t="n">
-        <v>0.144109092269885</v>
+        <v>0.1499227904584097</v>
       </c>
       <c r="K178" t="n">
-        <v>0.07584432442545255</v>
+        <v>0.07334386321204879</v>
       </c>
       <c r="L178" t="n">
-        <v>-0.005004990848552437</v>
+        <v>-0.004367330353471584</v>
       </c>
       <c r="M178" t="n">
-        <v>0.3561483931749715</v>
+        <v>0.352693746387979</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07511193880734834</v>
+        <v>0.07625988201093323</v>
       </c>
       <c r="O178" t="n">
-        <v>-0.004317725069565249</v>
+        <v>-0.005331224559005266</v>
       </c>
       <c r="P178" t="n">
-        <v>0.5443435416758952</v>
+        <v>0.5554886536245737</v>
       </c>
       <c r="Q178" t="n">
-        <v>0.07615157582151341</v>
+        <v>0.07363955140255606</v>
       </c>
       <c r="R178" t="n">
-        <v>-0.002352648640852043</v>
+        <v>-0.002448199038962797</v>
       </c>
     </row>
     <row r="179">
       <c r="F179" t="n">
-        <v>0.06513480969639571</v>
+        <v>0.06821262066813491</v>
       </c>
       <c r="G179" t="n">
-        <v>0.07393085685434238</v>
+        <v>0.07655787480521691</v>
       </c>
       <c r="H179" t="n">
-        <v>-0.001973210006778419</v>
+        <v>-0.004770854237313557</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1440961355963066</v>
+        <v>0.1501060458456779</v>
       </c>
       <c r="K179" t="n">
-        <v>0.07665985479561871</v>
+        <v>0.07413250690250094</v>
       </c>
       <c r="L179" t="n">
-        <v>-0.005004990848552437</v>
+        <v>-0.004367330353471584</v>
       </c>
       <c r="M179" t="n">
-        <v>0.3565333194601857</v>
+        <v>0.3531816105348171</v>
       </c>
       <c r="N179" t="n">
-        <v>0.07591959406334134</v>
+        <v>0.0770798807422336</v>
       </c>
       <c r="O179" t="n">
-        <v>-0.004317725069565249</v>
+        <v>-0.005331224559005266</v>
       </c>
       <c r="P179" t="n">
-        <v>0.5449962290676205</v>
+        <v>0.5566113263230736</v>
       </c>
       <c r="Q179" t="n">
-        <v>0.07697040997013185</v>
+        <v>0.07443137453591687</v>
       </c>
       <c r="R179" t="n">
-        <v>-0.002352648640852043</v>
+        <v>-0.002448199038962797</v>
       </c>
     </row>
     <row r="180">
       <c r="F180" t="n">
-        <v>0.06526256584637202</v>
+        <v>0.06832082731581021</v>
       </c>
       <c r="G180" t="n">
-        <v>0.07471735533151624</v>
+        <v>0.07737232028186815</v>
       </c>
       <c r="H180" t="n">
-        <v>-0.001633277911592778</v>
+        <v>-0.004906175620533868</v>
       </c>
       <c r="J180" t="n">
-        <v>0.144122564774021</v>
+        <v>0.1503369681892283</v>
       </c>
       <c r="K180" t="n">
-        <v>0.07747538516578485</v>
+        <v>0.07492115059295307</v>
       </c>
       <c r="L180" t="n">
-        <v>-0.005156943343014438</v>
+        <v>-0.004323148810483631</v>
       </c>
       <c r="M180" t="n">
-        <v>0.3567934654725784</v>
+        <v>0.3536709369958176</v>
       </c>
       <c r="N180" t="n">
-        <v>0.07672724931933432</v>
+        <v>0.07789987947353394</v>
       </c>
       <c r="O180" t="n">
-        <v>-0.004369780847760875</v>
+        <v>-0.005472021746097561</v>
       </c>
       <c r="P180" t="n">
-        <v>0.5453835224044676</v>
+        <v>0.5573361355266528</v>
       </c>
       <c r="Q180" t="n">
-        <v>0.07778924411875027</v>
+        <v>0.07522319766927769</v>
       </c>
       <c r="R180" t="n">
-        <v>-0.00231859648930129</v>
+        <v>-0.002543001967548226</v>
       </c>
     </row>
     <row r="181">
       <c r="F181" t="n">
-        <v>0.06536386175186634</v>
+        <v>0.06841790780070248</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0755038538086901</v>
+        <v>0.07818676575851939</v>
       </c>
       <c r="H181" t="n">
-        <v>-0.001633277911592778</v>
+        <v>-0.004905194483523462</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1441108138647787</v>
+        <v>0.1504948943139087</v>
       </c>
       <c r="K181" t="n">
-        <v>0.07829091553595101</v>
+        <v>0.07570979428340521</v>
       </c>
       <c r="L181" t="n">
-        <v>-0.005156943343014438</v>
+        <v>-0.004323148810483631</v>
       </c>
       <c r="M181" t="n">
-        <v>0.3570295736990396</v>
+        <v>0.3542104425240368</v>
       </c>
       <c r="N181" t="n">
-        <v>0.07753490457532733</v>
+        <v>0.0787198782048343</v>
       </c>
       <c r="O181" t="n">
-        <v>-0.004369780847760875</v>
+        <v>-0.005472021746097561</v>
       </c>
       <c r="P181" t="n">
-        <v>0.5456637938092043</v>
+        <v>0.5583058276471156</v>
       </c>
       <c r="Q181" t="n">
-        <v>0.07860807826736869</v>
+        <v>0.0760150208026385</v>
       </c>
       <c r="R181" t="n">
-        <v>-0.00231859648930129</v>
+        <v>-0.002543001967548226</v>
       </c>
     </row>
     <row r="182">
       <c r="F182" t="n">
-        <v>0.06549230051212748</v>
+        <v>0.06852194591930058</v>
       </c>
       <c r="G182" t="n">
-        <v>0.07629035228586395</v>
+        <v>0.07900121123517063</v>
       </c>
       <c r="H182" t="n">
-        <v>-0.001633277911592778</v>
+        <v>-0.004905194483523462</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1440997758725564</v>
+        <v>0.1507396736543162</v>
       </c>
       <c r="K182" t="n">
-        <v>0.07910644590611716</v>
+        <v>0.07649843797385734</v>
       </c>
       <c r="L182" t="n">
-        <v>-0.005156943343014438</v>
+        <v>-0.004323148810483631</v>
       </c>
       <c r="M182" t="n">
-        <v>0.3572411672634275</v>
+        <v>0.3545966650196297</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07834255983132031</v>
+        <v>0.07953987693613467</v>
       </c>
       <c r="O182" t="n">
-        <v>-0.004369780847760875</v>
+        <v>-0.005472021746097561</v>
       </c>
       <c r="P182" t="n">
-        <v>0.5460753222035607</v>
+        <v>0.5591140797521658</v>
       </c>
       <c r="Q182" t="n">
-        <v>0.07942691241598711</v>
+        <v>0.07680684393599933</v>
       </c>
       <c r="R182" t="n">
-        <v>-0.00231859648930129</v>
+        <v>-0.002543001967548226</v>
       </c>
     </row>
     <row r="183">
       <c r="F183" t="n">
-        <v>0.06557492095168421</v>
+        <v>0.06859493811645156</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0770768507630378</v>
+        <v>0.07981565671182189</v>
       </c>
       <c r="H183" t="n">
-        <v>-0.001633277911592778</v>
+        <v>-0.004990546686504063</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1441477630496852</v>
+        <v>0.1508902472919942</v>
       </c>
       <c r="K183" t="n">
-        <v>0.07992197627628332</v>
+        <v>0.07728708166430948</v>
       </c>
       <c r="L183" t="n">
-        <v>-0.005156943343014438</v>
+        <v>-0.004323148810483631</v>
       </c>
       <c r="M183" t="n">
-        <v>0.3575800282658479</v>
+        <v>0.3549789868093196</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07915021508731331</v>
+        <v>0.08035987566743502</v>
       </c>
       <c r="O183" t="n">
-        <v>-0.004369780847760875</v>
+        <v>-0.005562139308509167</v>
       </c>
       <c r="P183" t="n">
-        <v>0.5461401700304329</v>
+        <v>0.5600007934327904</v>
       </c>
       <c r="Q183" t="n">
-        <v>0.08024574656460554</v>
+        <v>0.07759866706936014</v>
       </c>
       <c r="R183" t="n">
-        <v>-0.00231859648930129</v>
+        <v>-0.002610807418426332</v>
       </c>
     </row>
     <row r="184">
       <c r="F184" t="n">
-        <v>0.06566539250578809</v>
+        <v>0.06865495099777991</v>
       </c>
       <c r="G184" t="n">
-        <v>0.07786334924021165</v>
+        <v>0.08063010218847312</v>
       </c>
       <c r="H184" t="n">
-        <v>-0.00144962976024051</v>
+        <v>-0.004991045741172713</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1441772027862037</v>
+        <v>0.1510061827283101</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08073750664644948</v>
+        <v>0.07807572535476162</v>
       </c>
       <c r="L184" t="n">
-        <v>-0.005254249612971852</v>
+        <v>-0.004274314311256962</v>
       </c>
       <c r="M184" t="n">
-        <v>0.3577920003601436</v>
+        <v>0.3554061771711414</v>
       </c>
       <c r="N184" t="n">
-        <v>0.0799578703433063</v>
+        <v>0.08117987439873538</v>
       </c>
       <c r="O184" t="n">
-        <v>-0.00440722133371121</v>
+        <v>-0.005562139308509167</v>
       </c>
       <c r="P184" t="n">
-        <v>0.5465744476974607</v>
+        <v>0.5605583052574737</v>
       </c>
       <c r="Q184" t="n">
-        <v>0.08106458071322396</v>
+        <v>0.07839049020272096</v>
       </c>
       <c r="R184" t="n">
-        <v>-0.002296642527183802</v>
+        <v>-0.002610807418426332</v>
       </c>
     </row>
     <row r="185">
       <c r="F185" t="n">
-        <v>0.0657631488226241</v>
+        <v>0.06869199932424375</v>
       </c>
       <c r="G185" t="n">
-        <v>0.07864984771738551</v>
+        <v>0.08144454766512436</v>
       </c>
       <c r="H185" t="n">
-        <v>-0.00144962976024051</v>
+        <v>-0.004990047631835413</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1441687513909528</v>
+        <v>0.1511874856902562</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08155303701661565</v>
+        <v>0.07886436904521375</v>
       </c>
       <c r="L185" t="n">
-        <v>-0.005254249612971852</v>
+        <v>-0.004274314311256962</v>
       </c>
       <c r="M185" t="n">
-        <v>0.3578764723069422</v>
+        <v>0.3556742666549537</v>
       </c>
       <c r="N185" t="n">
-        <v>0.0807655255992993</v>
+        <v>0.08199987313003572</v>
       </c>
       <c r="O185" t="n">
-        <v>-0.00440722133371121</v>
+        <v>-0.005562139308509167</v>
       </c>
       <c r="P185" t="n">
-        <v>0.5468204354062821</v>
+        <v>0.5611887727959848</v>
       </c>
       <c r="Q185" t="n">
-        <v>0.08188341486184239</v>
+        <v>0.07918231333608178</v>
       </c>
       <c r="R185" t="n">
-        <v>-0.002296642527183802</v>
+        <v>-0.002610807418426332</v>
       </c>
     </row>
     <row r="186">
       <c r="F186" t="n">
-        <v>0.06582219916199866</v>
+        <v>0.06871482794363704</v>
       </c>
       <c r="G186" t="n">
-        <v>0.07943634619455936</v>
+        <v>0.08225899314177561</v>
       </c>
       <c r="H186" t="n">
-        <v>-0.00144962976024051</v>
+        <v>-0.004991544795841364</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1441418920986355</v>
+        <v>0.1512727417415653</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0823685673867818</v>
+        <v>0.0796530127356659</v>
       </c>
       <c r="L186" t="n">
-        <v>-0.005254249612971852</v>
+        <v>-0.004274314311256962</v>
       </c>
       <c r="M186" t="n">
-        <v>0.3581885249903692</v>
+        <v>0.3559329631561549</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08157318085529229</v>
+        <v>0.08281987186133609</v>
       </c>
       <c r="O186" t="n">
-        <v>-0.00440722133371121</v>
+        <v>-0.005562139308509167</v>
       </c>
       <c r="P186" t="n">
-        <v>0.5469572850775331</v>
+        <v>0.5616462444476236</v>
       </c>
       <c r="Q186" t="n">
-        <v>0.0827022490104608</v>
+        <v>0.0799741364694426</v>
       </c>
       <c r="R186" t="n">
-        <v>-0.002296642527183802</v>
+        <v>-0.002610807418426332</v>
       </c>
     </row>
     <row r="187">
       <c r="F187" t="n">
-        <v>0.06588032345092953</v>
+        <v>0.06875094398747189</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08022284467173323</v>
+        <v>0.08307343861842685</v>
       </c>
       <c r="H187" t="n">
-        <v>-0.00144962976024051</v>
+        <v>-0.004991045741172713</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1441937818404944</v>
+        <v>0.1514022515459241</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08318409775694795</v>
+        <v>0.08044165642611803</v>
       </c>
       <c r="L187" t="n">
-        <v>-0.005254249612971852</v>
+        <v>-0.004274314311256962</v>
       </c>
       <c r="M187" t="n">
-        <v>0.3581688478794964</v>
+        <v>0.3560286359534736</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08238083611128527</v>
+        <v>0.08363987059263644</v>
       </c>
       <c r="O187" t="n">
-        <v>-0.00440722133371121</v>
+        <v>-0.005562139308509167</v>
       </c>
       <c r="P187" t="n">
-        <v>0.5470642587928397</v>
+        <v>0.5617654055376433</v>
       </c>
       <c r="Q187" t="n">
-        <v>0.08352108315907925</v>
+        <v>0.08076595960280342</v>
       </c>
       <c r="R187" t="n">
-        <v>-0.002296642527183802</v>
+        <v>-0.002610807418426332</v>
       </c>
     </row>
     <row r="188">
       <c r="F188" t="n">
-        <v>0.06595501630897507</v>
+        <v>0.06873495600785431</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08100934314890708</v>
+        <v>0.08388788409507811</v>
       </c>
       <c r="H188" t="n">
-        <v>-0.001438928817406821</v>
+        <v>-0.004999963925306488</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1442274166733033</v>
+        <v>0.1515151199653321</v>
       </c>
       <c r="K188" t="n">
-        <v>0.0839996281271141</v>
+        <v>0.08123030011657018</v>
       </c>
       <c r="L188" t="n">
-        <v>-0.005282662928144044</v>
+        <v>-0.004223658705352369</v>
       </c>
       <c r="M188" t="n">
-        <v>0.3583250676291029</v>
+        <v>0.3560605473489802</v>
       </c>
       <c r="N188" t="n">
-        <v>0.08318849136727828</v>
+        <v>0.0844598693239368</v>
       </c>
       <c r="O188" t="n">
-        <v>-0.004427619554259638</v>
+        <v>-0.005591189716870096</v>
       </c>
       <c r="P188" t="n">
-        <v>0.5473120364779612</v>
+        <v>0.562192898405057</v>
       </c>
       <c r="Q188" t="n">
-        <v>0.08433991730769766</v>
+        <v>0.08155778273616424</v>
       </c>
       <c r="R188" t="n">
-        <v>-0.002288679670058406</v>
+        <v>-0.002643931336889721</v>
       </c>
     </row>
     <row r="189">
       <c r="F189" t="n">
-        <v>0.06599263915679082</v>
+        <v>0.06874075502276966</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08179584162608093</v>
+        <v>0.08470232957172934</v>
       </c>
       <c r="H189" t="n">
-        <v>-0.001438928817406821</v>
+        <v>-0.004999963925306488</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1442068961725427</v>
+        <v>0.151570487758908</v>
       </c>
       <c r="K189" t="n">
-        <v>0.08481515849728026</v>
+        <v>0.08201894380702231</v>
       </c>
       <c r="L189" t="n">
-        <v>-0.005282662928144044</v>
+        <v>-0.004223658705352369</v>
       </c>
       <c r="M189" t="n">
-        <v>0.3583517765777842</v>
+        <v>0.356180566539715</v>
       </c>
       <c r="N189" t="n">
-        <v>0.08399614662327126</v>
+        <v>0.08527986805523717</v>
       </c>
       <c r="O189" t="n">
-        <v>-0.004427619554259638</v>
+        <v>-0.005591189716870096</v>
       </c>
       <c r="P189" t="n">
-        <v>0.547397917024264</v>
+        <v>0.5624388862014176</v>
       </c>
       <c r="Q189" t="n">
-        <v>0.08515875145631609</v>
+        <v>0.08234960586952504</v>
       </c>
       <c r="R189" t="n">
-        <v>-0.002288679670058406</v>
+        <v>-0.002643931336889721</v>
       </c>
     </row>
     <row r="190">
       <c r="F190" t="n">
-        <v>0.0660386312601903</v>
+        <v>0.06873327859555278</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08258234010325478</v>
+        <v>0.08551677504838058</v>
       </c>
       <c r="H190" t="n">
-        <v>-0.001438928817406821</v>
+        <v>-0.00500096391809155</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1442662227913201</v>
+        <v>0.1516685890336251</v>
       </c>
       <c r="K190" t="n">
-        <v>0.08563068886744642</v>
+        <v>0.08280758749747445</v>
       </c>
       <c r="L190" t="n">
-        <v>-0.005282662928144044</v>
+        <v>-0.004223658705352369</v>
       </c>
       <c r="M190" t="n">
-        <v>0.3585535237270051</v>
+        <v>0.3560257179859978</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08480380187926426</v>
+        <v>0.08609986678653751</v>
       </c>
       <c r="O190" t="n">
-        <v>-0.004427619554259638</v>
+        <v>-0.005591189716870096</v>
       </c>
       <c r="P190" t="n">
-        <v>0.5478004639781193</v>
+        <v>0.5623380133714984</v>
       </c>
       <c r="Q190" t="n">
-        <v>0.0859775856049345</v>
+        <v>0.08314142900288587</v>
       </c>
       <c r="R190" t="n">
-        <v>-0.002288679670058406</v>
+        <v>-0.002643931336889721</v>
       </c>
     </row>
     <row r="191">
       <c r="F191" t="n">
-        <v>0.06612032193654913</v>
+        <v>0.06873146964301907</v>
       </c>
       <c r="G191" t="n">
-        <v>0.08336883858042865</v>
+        <v>0.08633122052503184</v>
       </c>
       <c r="H191" t="n">
-        <v>-0.001438928817406821</v>
+        <v>-0.004999963925306488</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1443490660442849</v>
+        <v>0.1516475905218346</v>
       </c>
       <c r="K191" t="n">
-        <v>0.08644621923761257</v>
+        <v>0.08359623118792658</v>
       </c>
       <c r="L191" t="n">
-        <v>-0.005282662928144044</v>
+        <v>-0.004223658705352369</v>
       </c>
       <c r="M191" t="n">
-        <v>0.3585739275210683</v>
+        <v>0.3560693077191112</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08561145713525725</v>
+        <v>0.08691986551783787</v>
       </c>
       <c r="O191" t="n">
-        <v>-0.004427619554259638</v>
+        <v>-0.005591189716870096</v>
       </c>
       <c r="P191" t="n">
-        <v>0.5478018114431006</v>
+        <v>0.5622543736720717</v>
       </c>
       <c r="Q191" t="n">
-        <v>0.08679641975355293</v>
+        <v>0.08393325213624669</v>
       </c>
       <c r="R191" t="n">
-        <v>-0.002288679670058406</v>
+        <v>-0.002643994093415226</v>
       </c>
     </row>
     <row r="192">
       <c r="F192" t="n">
-        <v>0.06615571754619842</v>
+        <v>0.06871678229981326</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0841553370576025</v>
+        <v>0.08714566600168307</v>
       </c>
       <c r="H192" t="n">
-        <v>-0.001470168581839707</v>
+        <v>-0.004906684097167987</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1444153193808958</v>
+        <v>0.1516682741071474</v>
       </c>
       <c r="K192" t="n">
-        <v>0.08726174960777873</v>
+        <v>0.08438487487837872</v>
       </c>
       <c r="L192" t="n">
-        <v>-0.005201215420302856</v>
+        <v>-0.004167742208687182</v>
       </c>
       <c r="M192" t="n">
-        <v>0.3584147960078136</v>
+        <v>0.3560077681405305</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08641911239125025</v>
+        <v>0.08773986424913822</v>
       </c>
       <c r="O192" t="n">
-        <v>-0.004420401503052378</v>
+        <v>-0.005548290702593167</v>
       </c>
       <c r="P192" t="n">
-        <v>0.5478804576862744</v>
+        <v>0.5624074053488833</v>
       </c>
       <c r="Q192" t="n">
-        <v>0.08761525390217136</v>
+        <v>0.0847250752696075</v>
       </c>
       <c r="R192" t="n">
-        <v>-0.002284106675723656</v>
+        <v>-0.002643994093415226</v>
       </c>
     </row>
     <row r="193">
       <c r="F193" t="n">
-        <v>0.06622680777891532</v>
+        <v>0.06869878712487359</v>
       </c>
       <c r="G193" t="n">
-        <v>0.08494183553477636</v>
+        <v>0.08796011147833432</v>
       </c>
       <c r="H193" t="n">
-        <v>-0.001470168581839707</v>
+        <v>-0.004906684097167987</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1444831411651116</v>
+        <v>0.1517200306556972</v>
       </c>
       <c r="K193" t="n">
-        <v>0.0880772799779449</v>
+        <v>0.08517351856883086</v>
       </c>
       <c r="L193" t="n">
-        <v>-0.005201215420302856</v>
+        <v>-0.004167742208687182</v>
       </c>
       <c r="M193" t="n">
-        <v>0.3584371721154757</v>
+        <v>0.3560942057618438</v>
       </c>
       <c r="N193" t="n">
-        <v>0.08722676764724324</v>
+        <v>0.08855986298043859</v>
       </c>
       <c r="O193" t="n">
-        <v>-0.004420401503052378</v>
+        <v>-0.005548290702593167</v>
       </c>
       <c r="P193" t="n">
-        <v>0.5480364129386253</v>
+        <v>0.5622288665003708</v>
       </c>
       <c r="Q193" t="n">
-        <v>0.08843408805078978</v>
+        <v>0.08551689840296832</v>
       </c>
       <c r="R193" t="n">
-        <v>-0.002284106675723656</v>
+        <v>-0.002643994093415226</v>
       </c>
     </row>
     <row r="194">
       <c r="F194" t="n">
-        <v>0.0662606290168081</v>
+        <v>0.06864958460136883</v>
       </c>
       <c r="G194" t="n">
-        <v>0.08572833401195021</v>
+        <v>0.08877455695498555</v>
       </c>
       <c r="H194" t="n">
-        <v>-0.001470168581839707</v>
+        <v>-0.004905702858472423</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1446485677524291</v>
+        <v>0.1517307276781874</v>
       </c>
       <c r="K194" t="n">
-        <v>0.08889281034811106</v>
+        <v>0.08596216225928299</v>
       </c>
       <c r="L194" t="n">
-        <v>-0.005201215420302856</v>
+        <v>-0.004167742208687182</v>
       </c>
       <c r="M194" t="n">
-        <v>0.3583372031682007</v>
+        <v>0.3559744644904304</v>
       </c>
       <c r="N194" t="n">
-        <v>0.08803442290323624</v>
+        <v>0.08937986171173895</v>
       </c>
       <c r="O194" t="n">
-        <v>-0.004420401503052378</v>
+        <v>-0.005548290702593167</v>
       </c>
       <c r="P194" t="n">
-        <v>0.5484293398930835</v>
+        <v>0.5624498636022768</v>
       </c>
       <c r="Q194" t="n">
-        <v>0.0892529221994082</v>
+        <v>0.08630872153632914</v>
       </c>
       <c r="R194" t="n">
-        <v>-0.002284106675723656</v>
+        <v>-0.002643994093415226</v>
       </c>
     </row>
     <row r="195">
       <c r="F195" t="n">
-        <v>0.06632101953040129</v>
+        <v>0.068644302459167</v>
       </c>
       <c r="G195" t="n">
-        <v>0.08651483248912406</v>
+        <v>0.08958900243163681</v>
       </c>
       <c r="H195" t="n">
-        <v>-0.001470168581839707</v>
+        <v>-0.004906684097167987</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1447936634090364</v>
+        <v>0.1517003912105681</v>
       </c>
       <c r="K195" t="n">
-        <v>0.0897083407182772</v>
+        <v>0.08675080594973514</v>
       </c>
       <c r="L195" t="n">
-        <v>-0.005201215420302856</v>
+        <v>-0.004167742208687182</v>
       </c>
       <c r="M195" t="n">
-        <v>0.3583701727058992</v>
+        <v>0.3559522474861231</v>
       </c>
       <c r="N195" t="n">
-        <v>0.08884207815922922</v>
+        <v>0.09019986044303931</v>
       </c>
       <c r="O195" t="n">
-        <v>-0.004420401503052378</v>
+        <v>-0.005436746384608434</v>
       </c>
       <c r="P195" t="n">
-        <v>0.5485004419205493</v>
+        <v>0.5621768973048139</v>
       </c>
       <c r="Q195" t="n">
-        <v>0.09007175634802662</v>
+        <v>0.08710054466968996</v>
       </c>
       <c r="R195" t="n">
-        <v>-0.002284106675723656</v>
+        <v>-0.002643994093415226</v>
       </c>
     </row>
     <row r="196">
       <c r="F196" t="n">
-        <v>0.06638059844722663</v>
+        <v>0.06861757547136368</v>
       </c>
       <c r="G196" t="n">
-        <v>0.08730133096629791</v>
+        <v>0.09040344790828805</v>
       </c>
       <c r="H196" t="n">
-        <v>-0.001527374999773389</v>
+        <v>-0.004718067614571149</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1449171071540982</v>
+        <v>0.1517097400682004</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09052387108844336</v>
+        <v>0.08753944964018727</v>
       </c>
       <c r="L196" t="n">
-        <v>-0.005006986591819313</v>
+        <v>-0.004077915964136885</v>
       </c>
       <c r="M196" t="n">
-        <v>0.3583338035741607</v>
+        <v>0.3560276184317794</v>
       </c>
       <c r="N196" t="n">
-        <v>0.08964973341522221</v>
+        <v>0.09101985917433966</v>
       </c>
       <c r="O196" t="n">
-        <v>-0.004330402585198299</v>
+        <v>-0.005436746384608434</v>
       </c>
       <c r="P196" t="n">
-        <v>0.5485689282395793</v>
+        <v>0.5623034952783688</v>
       </c>
       <c r="Q196" t="n">
-        <v>0.09089059049664505</v>
+        <v>0.08789236780305078</v>
       </c>
       <c r="R196" t="n">
-        <v>-0.002280536644665577</v>
+        <v>-0.002638296861366881</v>
       </c>
     </row>
     <row r="197">
       <c r="F197" t="n">
-        <v>0.06642106507263631</v>
+        <v>0.06856961778142717</v>
       </c>
       <c r="G197" t="n">
-        <v>0.08808782944347177</v>
+        <v>0.09121789338493928</v>
       </c>
       <c r="H197" t="n">
-        <v>-0.001527374999773389</v>
+        <v>-0.004717124095400151</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1451151152576196</v>
+        <v>0.1517386384571274</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09133940145860951</v>
+        <v>0.08832809333063942</v>
       </c>
       <c r="L197" t="n">
-        <v>-0.005006986591819313</v>
+        <v>-0.004077915964136885</v>
       </c>
       <c r="M197" t="n">
-        <v>0.3581275797141125</v>
+        <v>0.3560488524128177</v>
       </c>
       <c r="N197" t="n">
-        <v>0.09045738867121521</v>
+        <v>0.09183985790564002</v>
       </c>
       <c r="O197" t="n">
-        <v>-0.004330402585198299</v>
+        <v>-0.005436746384608434</v>
       </c>
       <c r="P197" t="n">
-        <v>0.5487945045207302</v>
+        <v>0.5623423164516846</v>
       </c>
       <c r="Q197" t="n">
-        <v>0.09170942464526348</v>
+        <v>0.0886841909364116</v>
       </c>
       <c r="R197" t="n">
-        <v>-0.002280536644665577</v>
+        <v>-0.002638296861366881</v>
       </c>
     </row>
     <row r="198">
       <c r="F198" t="n">
-        <v>0.06645151791187442</v>
+        <v>0.06855677492326978</v>
       </c>
       <c r="G198" t="n">
-        <v>0.08887432792064563</v>
+        <v>0.09203233886159054</v>
       </c>
       <c r="H198" t="n">
-        <v>-0.001527374999773389</v>
+        <v>-0.00471759585498565</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1453475569642586</v>
+        <v>0.1517265972393335</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09215493182877567</v>
+        <v>0.08911673702109155</v>
       </c>
       <c r="L198" t="n">
-        <v>-0.005006986591819313</v>
+        <v>-0.004077915964136885</v>
       </c>
       <c r="M198" t="n">
-        <v>0.3580066971149474</v>
+        <v>0.3558642597440758</v>
       </c>
       <c r="N198" t="n">
-        <v>0.0912650439272082</v>
+        <v>0.09265985663694037</v>
       </c>
       <c r="O198" t="n">
-        <v>-0.004330402585198299</v>
+        <v>-0.005436746384608434</v>
       </c>
       <c r="P198" t="n">
-        <v>0.5489375620462119</v>
+        <v>0.5622933961374148</v>
       </c>
       <c r="Q198" t="n">
-        <v>0.09252825879388189</v>
+        <v>0.0894760140697724</v>
       </c>
       <c r="R198" t="n">
-        <v>-0.002280536644665577</v>
+        <v>-0.002638296861366881</v>
       </c>
     </row>
     <row r="199">
       <c r="F199" t="n">
-        <v>0.06651767907097489</v>
+        <v>0.06852309765998899</v>
       </c>
       <c r="G199" t="n">
-        <v>0.08966082639781948</v>
+        <v>0.09284678433824178</v>
       </c>
       <c r="H199" t="n">
-        <v>-0.001596992690327906</v>
+        <v>-0.004717124095400151</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1455350583320639</v>
+        <v>0.1517745213290564</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09297046219894183</v>
+        <v>0.08990538071154369</v>
       </c>
       <c r="L199" t="n">
-        <v>-0.005006986591819313</v>
+        <v>-0.004077915964136885</v>
       </c>
       <c r="M199" t="n">
-        <v>0.357972172093816</v>
+        <v>0.3558280749169914</v>
       </c>
       <c r="N199" t="n">
-        <v>0.0920726991832012</v>
+        <v>0.09347985536824073</v>
       </c>
       <c r="O199" t="n">
-        <v>-0.004330402585198299</v>
+        <v>-0.005436746384608434</v>
       </c>
       <c r="P199" t="n">
-        <v>0.5489980198675427</v>
+        <v>0.5622379811204979</v>
       </c>
       <c r="Q199" t="n">
-        <v>0.09334709294250032</v>
+        <v>0.09026783720313324</v>
       </c>
       <c r="R199" t="n">
-        <v>-0.002280536644665577</v>
+        <v>-0.002627765360431022</v>
       </c>
     </row>
     <row r="200">
       <c r="F200" t="n">
-        <v>0.06657380964165005</v>
+        <v>0.06849684775043741</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09044732487499334</v>
+        <v>0.09366122981489303</v>
       </c>
       <c r="H200" t="n">
-        <v>-0.001596992690327906</v>
+        <v>-0.004453906972126742</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1457544892421832</v>
+        <v>0.1517613928477203</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09378599256910798</v>
+        <v>0.09069402440199582</v>
       </c>
       <c r="L200" t="n">
-        <v>-0.004724199088579946</v>
+        <v>-0.003948450045332426</v>
       </c>
       <c r="M200" t="n">
-        <v>0.3578219149951024</v>
+        <v>0.3558391745491479</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09288035443919418</v>
+        <v>0.0942998540995411</v>
       </c>
       <c r="O200" t="n">
-        <v>-0.004162891667917268</v>
+        <v>-0.005267708039633306</v>
       </c>
       <c r="P200" t="n">
-        <v>0.5492954529139426</v>
+        <v>0.5620948945892453</v>
       </c>
       <c r="Q200" t="n">
-        <v>0.09416592709111875</v>
+        <v>0.09105966033649404</v>
       </c>
       <c r="R200" t="n">
-        <v>-0.002277764705885401</v>
+        <v>-0.002627765360431022</v>
       </c>
     </row>
     <row r="201">
       <c r="F201" t="n">
-        <v>0.06661071704737812</v>
+        <v>0.06845017989748398</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09123382335216719</v>
+        <v>0.09447567529154427</v>
       </c>
       <c r="H201" t="n">
-        <v>-0.001596992690327906</v>
+        <v>-0.004454797753521167</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1459850846661328</v>
+        <v>0.1517881220275757</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09460152293927415</v>
+        <v>0.09148266809244797</v>
       </c>
       <c r="L201" t="n">
-        <v>-0.004724199088579946</v>
+        <v>-0.003948450045332426</v>
       </c>
       <c r="M201" t="n">
-        <v>0.3575571045840226</v>
+        <v>0.3558470431798789</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09368800969518719</v>
+        <v>0.09511985283084144</v>
       </c>
       <c r="O201" t="n">
-        <v>-0.004162891667917268</v>
+        <v>-0.005267708039633306</v>
       </c>
       <c r="P201" t="n">
-        <v>0.5491905289611949</v>
+        <v>0.5619453761340296</v>
       </c>
       <c r="Q201" t="n">
-        <v>0.09498476123973716</v>
+        <v>0.09185148346985486</v>
       </c>
       <c r="R201" t="n">
-        <v>-0.002277764705885401</v>
+        <v>-0.002627765360431022</v>
       </c>
     </row>
     <row r="202">
       <c r="F202" t="n">
-        <v>0.06664668520944589</v>
+        <v>0.06841133569526953</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09202032182934106</v>
+        <v>0.0952901207681955</v>
       </c>
       <c r="H202" t="n">
-        <v>-0.001596992690327906</v>
+        <v>-0.004454352362823954</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1462256104249551</v>
+        <v>0.1518143903143321</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09541705330944029</v>
+        <v>0.0922713117829001</v>
       </c>
       <c r="L202" t="n">
-        <v>-0.004724199088579946</v>
+        <v>-0.003948450045332426</v>
       </c>
       <c r="M202" t="n">
-        <v>0.3573311494037597</v>
+        <v>0.3558011818037697</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09449566495118017</v>
+        <v>0.0959398515621418</v>
       </c>
       <c r="O202" t="n">
-        <v>-0.004162891667917268</v>
+        <v>-0.005267708039633306</v>
       </c>
       <c r="P202" t="n">
-        <v>0.5494024724860593</v>
+        <v>0.5620330134301986</v>
       </c>
       <c r="Q202" t="n">
-        <v>0.09580359538835559</v>
+        <v>0.09264330660321568</v>
       </c>
       <c r="R202" t="n">
-        <v>-0.002277764705885401</v>
+        <v>-0.002627765360431022</v>
       </c>
     </row>
     <row r="203">
       <c r="F203" t="n">
-        <v>0.06668169635071966</v>
+        <v>0.06836182929415754</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09280682030651491</v>
+        <v>0.09610456624484676</v>
       </c>
       <c r="H203" t="n">
-        <v>-0.001596992690327906</v>
+        <v>-0.004453906972126742</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1464355413023287</v>
+        <v>0.1517796961270225</v>
       </c>
       <c r="K203" t="n">
-        <v>0.09623258367960645</v>
+        <v>0.09305995547335223</v>
       </c>
       <c r="L203" t="n">
-        <v>-0.004724199088579946</v>
+        <v>-0.003948450045332426</v>
       </c>
       <c r="M203" t="n">
-        <v>0.3571958085753911</v>
+        <v>0.3557522513526689</v>
       </c>
       <c r="N203" t="n">
-        <v>0.09530332020717318</v>
+        <v>0.09675985029344217</v>
       </c>
       <c r="O203" t="n">
-        <v>-0.003936326152529312</v>
+        <v>-0.005267708039633306</v>
       </c>
       <c r="P203" t="n">
-        <v>0.549451684027342</v>
+        <v>0.5617895072775718</v>
       </c>
       <c r="Q203" t="n">
-        <v>0.09662242953697402</v>
+        <v>0.0934351297365765</v>
       </c>
       <c r="R203" t="n">
-        <v>-0.002277764705885401</v>
+        <v>-0.002627765360431022</v>
       </c>
     </row>
     <row r="204">
       <c r="F204" t="n">
-        <v>0.0667249061092407</v>
+        <v>0.06833919944497491</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09359331878368876</v>
+        <v>0.096919011721498</v>
       </c>
       <c r="H204" t="n">
-        <v>-0.001684542395831349</v>
+        <v>-0.004138060358655992</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1466921738623793</v>
+        <v>0.1517647810532404</v>
       </c>
       <c r="K204" t="n">
-        <v>0.09704811404977261</v>
+        <v>0.09384859916380438</v>
       </c>
       <c r="L204" t="n">
-        <v>-0.004377075556471287</v>
+        <v>-0.003788269648545256</v>
       </c>
       <c r="M204" t="n">
-        <v>0.357101356152856</v>
+        <v>0.3555991988881964</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09611097546316616</v>
+        <v>0.09757984902474252</v>
       </c>
       <c r="O204" t="n">
-        <v>-0.003936326152529312</v>
+        <v>-0.005048021512529885</v>
       </c>
       <c r="P204" t="n">
-        <v>0.5496579120862857</v>
+        <v>0.561864345013376</v>
       </c>
       <c r="Q204" t="n">
-        <v>0.09744126368559244</v>
+        <v>0.09422695286993732</v>
       </c>
       <c r="R204" t="n">
-        <v>-0.002275585988384364</v>
+        <v>-0.002612402790322754</v>
       </c>
     </row>
     <row r="205">
       <c r="F205" t="n">
-        <v>0.06678548702222303</v>
+        <v>0.06828763958683687</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09437981726086261</v>
+        <v>0.09773345719814924</v>
       </c>
       <c r="H205" t="n">
-        <v>-0.001684542395831349</v>
+        <v>-0.004139301900917815</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1469747304480402</v>
+        <v>0.1517898582305162</v>
       </c>
       <c r="K205" t="n">
-        <v>0.09786364441993876</v>
+        <v>0.09463724285425651</v>
       </c>
       <c r="L205" t="n">
-        <v>-0.004377075556471287</v>
+        <v>-0.003788269648545256</v>
       </c>
       <c r="M205" t="n">
-        <v>0.3567954189802011</v>
+        <v>0.3555949317898853</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09691863071915914</v>
+        <v>0.09839984775604288</v>
       </c>
       <c r="O205" t="n">
-        <v>-0.003936326152529312</v>
+        <v>-0.005048021512529885</v>
       </c>
       <c r="P205" t="n">
-        <v>0.5497012810103037</v>
+        <v>0.5617704774908782</v>
       </c>
       <c r="Q205" t="n">
-        <v>0.09826009783421086</v>
+        <v>0.09501877600329814</v>
       </c>
       <c r="R205" t="n">
-        <v>-0.002275585988384364</v>
+        <v>-0.002612402790322754</v>
       </c>
     </row>
     <row r="206">
       <c r="F206" t="n">
-        <v>0.06680835524788856</v>
+        <v>0.06825400374744672</v>
       </c>
       <c r="G206" t="n">
-        <v>0.09516631573803647</v>
+        <v>0.09854790267480049</v>
       </c>
       <c r="H206" t="n">
-        <v>-0.001684542395831349</v>
+        <v>-0.004138888053497208</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1472426089689277</v>
+        <v>0.15177424518529</v>
       </c>
       <c r="K206" t="n">
-        <v>0.09867917479010492</v>
+        <v>0.09542588654470865</v>
       </c>
       <c r="L206" t="n">
-        <v>-0.004377075556471287</v>
+        <v>-0.003788269648545256</v>
       </c>
       <c r="M206" t="n">
-        <v>0.3566339439886732</v>
+        <v>0.355537261967151</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09772628597515215</v>
+        <v>0.09921984648734324</v>
       </c>
       <c r="O206" t="n">
-        <v>-0.003936326152529312</v>
+        <v>-0.005048021512529885</v>
       </c>
       <c r="P206" t="n">
-        <v>0.5500616206334025</v>
+        <v>0.56158913637061</v>
       </c>
       <c r="Q206" t="n">
-        <v>0.09907893198282929</v>
+        <v>0.09581059913665894</v>
       </c>
       <c r="R206" t="n">
-        <v>-0.002275585988384364</v>
+        <v>-0.002612402790322754</v>
       </c>
     </row>
     <row r="207">
       <c r="F207" t="n">
-        <v>0.06686693006458688</v>
+        <v>0.06818254904112711</v>
       </c>
       <c r="G207" t="n">
-        <v>0.09595281421521032</v>
+        <v>0.09936234815145173</v>
       </c>
       <c r="H207" t="n">
-        <v>-0.001684542395831349</v>
+        <v>-0.0037897069577795</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1475142465539945</v>
+        <v>0.1518390509359119</v>
       </c>
       <c r="K207" t="n">
-        <v>0.09949470516027108</v>
+        <v>0.09621453023516079</v>
       </c>
       <c r="L207" t="n">
-        <v>-0.004377075556471287</v>
+        <v>-0.003788269648545256</v>
       </c>
       <c r="M207" t="n">
-        <v>0.3563646448303266</v>
+        <v>0.3554262837199318</v>
       </c>
       <c r="N207" t="n">
-        <v>0.09853394123114513</v>
+        <v>0.1000398452186436</v>
       </c>
       <c r="O207" t="n">
-        <v>-0.003936326152529312</v>
+        <v>-0.005048021512529885</v>
       </c>
       <c r="P207" t="n">
-        <v>0.5499390156563864</v>
+        <v>0.5614826584540462</v>
       </c>
       <c r="Q207" t="n">
-        <v>0.0998977661314477</v>
+        <v>0.09660242227001978</v>
       </c>
       <c r="R207" t="n">
-        <v>-0.002275585988384364</v>
+        <v>-0.00259351919617816</v>
       </c>
     </row>
     <row r="208">
       <c r="F208" t="n">
-        <v>0.06688772350772235</v>
+        <v>0.06813872973541452</v>
       </c>
       <c r="G208" t="n">
-        <v>0.09673931269238419</v>
+        <v>0.100176793628103</v>
       </c>
       <c r="H208" t="n">
-        <v>-0.001777017025117184</v>
+        <v>-0.003790085928475278</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1478279668295183</v>
+        <v>0.1518430509351217</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1003102355304372</v>
+        <v>0.09700317392561293</v>
       </c>
       <c r="L208" t="n">
-        <v>-0.003989838641379861</v>
+        <v>-0.00360283223929275</v>
       </c>
       <c r="M208" t="n">
-        <v>0.3562418132368674</v>
+        <v>0.3554642584760518</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09934159648713814</v>
+        <v>0.1008598439499439</v>
       </c>
       <c r="O208" t="n">
-        <v>-0.00366916344035446</v>
+        <v>-0.004788806436067541</v>
       </c>
       <c r="P208" t="n">
-        <v>0.5502133661943903</v>
+        <v>0.5614510363586392</v>
       </c>
       <c r="Q208" t="n">
-        <v>0.1007166002800661</v>
+        <v>0.0973942454033806</v>
       </c>
       <c r="R208" t="n">
-        <v>-0.002273795621163697</v>
+        <v>-0.00259351919617816</v>
       </c>
     </row>
     <row r="209">
       <c r="F209" t="n">
-        <v>0.06693502567029283</v>
+        <v>0.06810408374055932</v>
       </c>
       <c r="G209" t="n">
-        <v>0.09752581116955804</v>
+        <v>0.1009912391047542</v>
       </c>
       <c r="H209" t="n">
-        <v>-0.001777017025117184</v>
+        <v>-0.003789327987083722</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1480440563081893</v>
+        <v>0.1517862740371615</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1011257659006034</v>
+        <v>0.09779181761606506</v>
       </c>
       <c r="L209" t="n">
-        <v>-0.003989838641379861</v>
+        <v>-0.00360283223929275</v>
       </c>
       <c r="M209" t="n">
-        <v>0.3558616039381264</v>
+        <v>0.355297461278044</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1001492517431311</v>
+        <v>0.1016798426812443</v>
       </c>
       <c r="O209" t="n">
-        <v>-0.00366916344035446</v>
+        <v>-0.004788806436067541</v>
       </c>
       <c r="P209" t="n">
-        <v>0.5501645837118958</v>
+        <v>0.5613320249850893</v>
       </c>
       <c r="Q209" t="n">
-        <v>0.1015354344286846</v>
+        <v>0.0981860685367414</v>
       </c>
       <c r="R209" t="n">
-        <v>-0.002273795621163697</v>
+        <v>-0.00259351919617816</v>
       </c>
     </row>
     <row r="210">
       <c r="F210" t="n">
-        <v>0.06697206364596051</v>
+        <v>0.0680508779403185</v>
       </c>
       <c r="G210" t="n">
-        <v>0.09831230964673189</v>
+        <v>0.1018056845814055</v>
       </c>
       <c r="H210" t="n">
-        <v>-0.001777017025117184</v>
+        <v>-0.003789327987083722</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1483592070760665</v>
+        <v>0.1517898355095513</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1019412962707695</v>
+        <v>0.09858046130651721</v>
       </c>
       <c r="L210" t="n">
-        <v>-0.003989838641379861</v>
+        <v>-0.00360283223929275</v>
       </c>
       <c r="M210" t="n">
-        <v>0.3556805635727069</v>
+        <v>0.3553808012787613</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1009569069991241</v>
+        <v>0.1024998414125447</v>
       </c>
       <c r="O210" t="n">
-        <v>-0.00366916344035446</v>
+        <v>-0.004788806436067541</v>
       </c>
       <c r="P210" t="n">
-        <v>0.5503527454634526</v>
+        <v>0.5612067890428597</v>
       </c>
       <c r="Q210" t="n">
-        <v>0.102354268577303</v>
+        <v>0.09897789167010222</v>
       </c>
       <c r="R210" t="n">
-        <v>-0.002273795621163697</v>
+        <v>-0.00259351919617816</v>
       </c>
     </row>
     <row r="211">
       <c r="F211" t="n">
-        <v>0.06701720986900303</v>
+        <v>0.06800724166869332</v>
       </c>
       <c r="G211" t="n">
-        <v>0.09909880812390574</v>
+        <v>0.1026201300580567</v>
       </c>
       <c r="H211" t="n">
-        <v>-0.001777017025117184</v>
+        <v>-0.003789327987083722</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1486335677956609</v>
+        <v>0.1517932269986935</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1027568266409357</v>
+        <v>0.09936910499696934</v>
       </c>
       <c r="L211" t="n">
-        <v>-0.003989838641379861</v>
+        <v>-0.00360283223929275</v>
       </c>
       <c r="M211" t="n">
-        <v>0.3553962343161227</v>
+        <v>0.355259562771352</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1017645622551171</v>
+        <v>0.103319840143845</v>
       </c>
       <c r="O211" t="n">
-        <v>-0.00366916344035446</v>
+        <v>-0.004788806436067541</v>
       </c>
       <c r="P211" t="n">
-        <v>0.5504577266958082</v>
+        <v>0.5608320791384476</v>
       </c>
       <c r="Q211" t="n">
-        <v>0.1031731027259214</v>
+        <v>0.09976971480346304</v>
       </c>
       <c r="R211" t="n">
-        <v>-0.002273795621163697</v>
+        <v>-0.00259351919617816</v>
       </c>
     </row>
     <row r="212">
       <c r="F212" t="n">
-        <v>0.06705204816313881</v>
+        <v>0.06796406262618887</v>
       </c>
       <c r="G212" t="n">
-        <v>0.0998853066010796</v>
+        <v>0.103434575534708</v>
       </c>
       <c r="H212" t="n">
-        <v>-0.001871324809747249</v>
+        <v>-0.003429783670415306</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1489254056234038</v>
+        <v>0.1517964809581098</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1035723570111019</v>
+        <v>0.1001577486874215</v>
       </c>
       <c r="L212" t="n">
-        <v>-0.003586710989192204</v>
+        <v>-0.003401447555579895</v>
       </c>
       <c r="M212" t="n">
-        <v>0.355262451243577</v>
+        <v>0.3550854491004845</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1025722175111101</v>
+        <v>0.1041398388751454</v>
       </c>
       <c r="O212" t="n">
-        <v>-0.00337986093271274</v>
+        <v>-0.00449728029943191</v>
       </c>
       <c r="P212" t="n">
-        <v>0.5506395697856474</v>
+        <v>0.560937741682896</v>
       </c>
       <c r="Q212" t="n">
-        <v>0.1039919368745398</v>
+        <v>0.1005615379368239</v>
       </c>
       <c r="R212" t="n">
-        <v>-0.002272188733224636</v>
+        <v>-0.002570850385064867</v>
       </c>
     </row>
     <row r="213">
       <c r="F213" t="n">
-        <v>0.06706734236497355</v>
+        <v>0.06794941817128577</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1006718050782535</v>
+        <v>0.1042490210113592</v>
       </c>
       <c r="H213" t="n">
-        <v>-0.001871324809747249</v>
+        <v>-0.003428754941060052</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1491539053012585</v>
+        <v>0.1518399938036863</v>
       </c>
       <c r="K213" t="n">
-        <v>0.104387887381268</v>
+        <v>0.1009463923778736</v>
       </c>
       <c r="L213" t="n">
-        <v>-0.003586710989192204</v>
+        <v>-0.003401447555579895</v>
       </c>
       <c r="M213" t="n">
-        <v>0.3549266076608036</v>
+        <v>0.355111090883637</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1033798727671031</v>
+        <v>0.1049598376064457</v>
       </c>
       <c r="O213" t="n">
-        <v>-0.00337986093271274</v>
+        <v>-0.00449728029943191</v>
       </c>
       <c r="P213" t="n">
-        <v>0.5506580688433053</v>
+        <v>0.5607939793804285</v>
       </c>
       <c r="Q213" t="n">
-        <v>0.1048107710231583</v>
+        <v>0.1013533610701847</v>
       </c>
       <c r="R213" t="n">
-        <v>-0.002272188733224636</v>
+        <v>-0.002570850385064867</v>
       </c>
     </row>
     <row r="214">
       <c r="F214" t="n">
-        <v>0.06712753125570778</v>
+        <v>0.0678891575798167</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1014583035554273</v>
+        <v>0.1050634664880104</v>
       </c>
       <c r="H214" t="n">
-        <v>-0.001871324809747249</v>
+        <v>-0.003429783670415306</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1494571862406852</v>
+        <v>0.1518632529683686</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1052034177514342</v>
+        <v>0.1017350360683257</v>
       </c>
       <c r="L214" t="n">
-        <v>-0.003586710989192204</v>
+        <v>-0.003401447555579895</v>
       </c>
       <c r="M214" t="n">
-        <v>0.3548443422640297</v>
+        <v>0.3550334835575848</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1041875280230961</v>
+        <v>0.1057798363377461</v>
       </c>
       <c r="O214" t="n">
-        <v>-0.00337986093271274</v>
+        <v>-0.00449728029943191</v>
       </c>
       <c r="P214" t="n">
-        <v>0.5508334290227851</v>
+        <v>0.560400946141513</v>
       </c>
       <c r="Q214" t="n">
-        <v>0.1056296051717767</v>
+        <v>0.1021451842035455</v>
       </c>
       <c r="R214" t="n">
-        <v>-0.002272188733224636</v>
+        <v>-0.002570850385064867</v>
       </c>
     </row>
     <row r="215">
       <c r="F215" t="n">
-        <v>0.06714050406233826</v>
+        <v>0.06784853481567285</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1022448020326012</v>
+        <v>0.1058779119646617</v>
       </c>
       <c r="H215" t="n">
-        <v>-0.001871324809747249</v>
+        <v>-0.003429440760630221</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1496546194200764</v>
+        <v>0.1518662899706558</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1060189481216003</v>
+        <v>0.1025236797587779</v>
       </c>
       <c r="L215" t="n">
-        <v>-0.003586710989192204</v>
+        <v>-0.003401447555579895</v>
       </c>
       <c r="M215" t="n">
-        <v>0.3545118833214722</v>
+        <v>0.3549537313292608</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1049951832790891</v>
+        <v>0.1065998350690464</v>
       </c>
       <c r="O215" t="n">
-        <v>-0.00337986093271274</v>
+        <v>-0.00449728029943191</v>
       </c>
       <c r="P215" t="n">
-        <v>0.5510054993971485</v>
+        <v>0.5604881003186898</v>
       </c>
       <c r="Q215" t="n">
-        <v>0.1064484393203951</v>
+        <v>0.1029370073369063</v>
       </c>
       <c r="R215" t="n">
-        <v>-0.002272188733224636</v>
+        <v>-0.002570850385064867</v>
       </c>
     </row>
     <row r="216">
       <c r="F216" t="n">
-        <v>0.06718914999074771</v>
+        <v>0.06780916184114519</v>
       </c>
       <c r="G216" t="n">
-        <v>0.103031300509775</v>
+        <v>0.1066923574413129</v>
       </c>
       <c r="H216" t="n">
-        <v>-0.001966386535025292</v>
+        <v>-0.003079087326579825</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1499245235416122</v>
+        <v>0.1518491363596424</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1068344784917665</v>
+        <v>0.10331232344923</v>
       </c>
       <c r="L216" t="n">
-        <v>-0.003191915245794844</v>
+        <v>-0.003191196143045453</v>
       </c>
       <c r="M216" t="n">
-        <v>0.3543845199414455</v>
+        <v>0.354922393355965</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1058028385350821</v>
+        <v>0.1074198338003468</v>
       </c>
       <c r="O216" t="n">
-        <v>-0.003086876030924183</v>
+        <v>-0.004186294142623579</v>
       </c>
       <c r="P216" t="n">
-        <v>0.5509339607387875</v>
+        <v>0.5603260326746853</v>
       </c>
       <c r="Q216" t="n">
-        <v>0.1072672734690135</v>
+        <v>0.1037288304702671</v>
       </c>
       <c r="R216" t="n">
-        <v>-0.002270560453568414</v>
+        <v>-0.002545166543555396</v>
       </c>
     </row>
     <row r="217">
       <c r="F217" t="n">
-        <v>0.06721816667693808</v>
+        <v>0.06776195966124729</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1038177989869489</v>
+        <v>0.1075068029179642</v>
       </c>
       <c r="H217" t="n">
-        <v>-0.001966386535025292</v>
+        <v>-0.003078471632253374</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1501458621252497</v>
+        <v>0.1518118236825616</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1076500088619326</v>
+        <v>0.1041009671396822</v>
       </c>
       <c r="L217" t="n">
-        <v>-0.003191915245794844</v>
+        <v>-0.003191196143045453</v>
       </c>
       <c r="M217" t="n">
-        <v>0.3541102278584789</v>
+        <v>0.3547881002233702</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1066104937910751</v>
+        <v>0.1082398325316472</v>
       </c>
       <c r="O217" t="n">
-        <v>-0.003086876030924183</v>
+        <v>-0.004186294142623579</v>
       </c>
       <c r="P217" t="n">
-        <v>0.5511794107163921</v>
+        <v>0.5599149135914804</v>
       </c>
       <c r="Q217" t="n">
-        <v>0.1080861076176319</v>
+        <v>0.1045206536036279</v>
       </c>
       <c r="R217" t="n">
-        <v>-0.002270560453568414</v>
+        <v>-0.002545166543555396</v>
       </c>
     </row>
     <row r="218">
       <c r="F218" t="n">
-        <v>0.06722751865642995</v>
+        <v>0.06775350476726175</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1046042974641227</v>
+        <v>0.1083212483946154</v>
       </c>
       <c r="H218" t="n">
-        <v>-0.001966386535025292</v>
+        <v>-0.003078471632253374</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1504174580795726</v>
+        <v>0.1518754845228277</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1084655392320988</v>
+        <v>0.1048896108301343</v>
       </c>
       <c r="L218" t="n">
-        <v>-0.003191915245794844</v>
+        <v>-0.003191196143045453</v>
       </c>
       <c r="M218" t="n">
-        <v>0.3538918320977145</v>
+        <v>0.3546519101835719</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1074181490470681</v>
+        <v>0.1090598312629475</v>
       </c>
       <c r="O218" t="n">
-        <v>-0.003086876030924183</v>
+        <v>-0.004186294142623579</v>
       </c>
       <c r="P218" t="n">
-        <v>0.5511010307042554</v>
+        <v>0.5599027817686142</v>
       </c>
       <c r="Q218" t="n">
-        <v>0.1089049417662504</v>
+        <v>0.1053124767369888</v>
       </c>
       <c r="R218" t="n">
-        <v>-0.002270560453568414</v>
+        <v>-0.002545166543555396</v>
       </c>
     </row>
     <row r="219">
       <c r="F219" t="n">
-        <v>0.06725407356414362</v>
+        <v>0.06769125288988542</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1053907959412966</v>
+        <v>0.1091356938712667</v>
       </c>
       <c r="H219" t="n">
-        <v>-0.001966386535025292</v>
+        <v>-0.003078163785090149</v>
       </c>
       <c r="J219" t="n">
-        <v>0.1506379701507499</v>
+        <v>0.15181813393752</v>
       </c>
       <c r="K219" t="n">
-        <v>0.109281069602265</v>
+        <v>0.1056782545205864</v>
       </c>
       <c r="L219" t="n">
-        <v>-0.003191915245794844</v>
+        <v>-0.003191196143045453</v>
       </c>
       <c r="M219" t="n">
-        <v>0.3537303559936854</v>
+        <v>0.3546148136811117</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1082258043030611</v>
+        <v>0.1098798299942479</v>
       </c>
       <c r="O219" t="n">
-        <v>-0.002808666136308815</v>
+        <v>-0.004186294142623579</v>
       </c>
       <c r="P219" t="n">
-        <v>0.5513396300698256</v>
+        <v>0.5598036119817322</v>
       </c>
       <c r="Q219" t="n">
-        <v>0.1097237759148688</v>
+        <v>0.1061042998703496</v>
       </c>
       <c r="R219" t="n">
-        <v>-0.002270560453568414</v>
+        <v>-0.002545166543555396</v>
       </c>
     </row>
     <row r="220">
       <c r="F220" t="n">
-        <v>0.06727937339678378</v>
+        <v>0.06767739722607821</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1061772944184704</v>
+        <v>0.1099501393479179</v>
       </c>
       <c r="H220" t="n">
-        <v>-0.002057758122761618</v>
+        <v>-0.002756098042634898</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1508461973355666</v>
+        <v>0.1518214559859097</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1100965999724311</v>
+        <v>0.1064668982110386</v>
       </c>
       <c r="L220" t="n">
-        <v>-0.00282967405707431</v>
+        <v>-0.002980515861137711</v>
       </c>
       <c r="M220" t="n">
-        <v>0.3534254568495336</v>
+        <v>0.3545759396617931</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1090334595590541</v>
+        <v>0.1106998287255482</v>
       </c>
       <c r="O220" t="n">
-        <v>-0.002808666136308815</v>
+        <v>-0.00386434952530828</v>
       </c>
       <c r="P220" t="n">
-        <v>0.5513343847256278</v>
+        <v>0.5596174810225462</v>
       </c>
       <c r="Q220" t="n">
-        <v>0.1105426100634872</v>
+        <v>0.1068961230037104</v>
       </c>
       <c r="R220" t="n">
-        <v>-0.002268705911196264</v>
+        <v>-0.002514950611919428</v>
       </c>
     </row>
     <row r="221">
       <c r="F221" t="n">
-        <v>0.06731263043641092</v>
+        <v>0.06763797831697041</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1069637928956443</v>
+        <v>0.1107645848245691</v>
       </c>
       <c r="H221" t="n">
-        <v>-0.002057758122761618</v>
+        <v>-0.00275582246038886</v>
       </c>
       <c r="J221" t="n">
-        <v>0.151061007535403</v>
+        <v>0.1518451170979785</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1109121303425973</v>
+        <v>0.1072555419014907</v>
       </c>
       <c r="L221" t="n">
-        <v>-0.00282967405707431</v>
+        <v>-0.002980515861137711</v>
       </c>
       <c r="M221" t="n">
-        <v>0.3532803399291813</v>
+        <v>0.3543336110077496</v>
       </c>
       <c r="N221" t="n">
-        <v>0.109841114815047</v>
+        <v>0.1115198274568486</v>
       </c>
       <c r="O221" t="n">
-        <v>-0.002808666136308815</v>
+        <v>-0.00386434952530828</v>
       </c>
       <c r="P221" t="n">
-        <v>0.5514858531124702</v>
+        <v>0.5593444692743562</v>
       </c>
       <c r="Q221" t="n">
-        <v>0.1113614442121056</v>
+        <v>0.1076879461370712</v>
       </c>
       <c r="R221" t="n">
-        <v>-0.002268705911196264</v>
+        <v>-0.002514950611919428</v>
       </c>
     </row>
     <row r="222">
       <c r="F222" t="n">
-        <v>0.06731690299148657</v>
+        <v>0.0676287868356287</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1077502913728181</v>
+        <v>0.1115790303012204</v>
       </c>
       <c r="H222" t="n">
-        <v>-0.002057758122761618</v>
+        <v>-0.002756098042634898</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1512208603302892</v>
+        <v>0.1518689659483326</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1117276607127634</v>
+        <v>0.1080441855919428</v>
       </c>
       <c r="L222" t="n">
-        <v>-0.00282967405707431</v>
+        <v>-0.002980515861137711</v>
       </c>
       <c r="M222" t="n">
-        <v>0.3530443989305211</v>
+        <v>0.3542914485315646</v>
       </c>
       <c r="N222" t="n">
-        <v>0.11064877007104</v>
+        <v>0.1123398261881489</v>
       </c>
       <c r="O222" t="n">
-        <v>-0.002808666136308815</v>
+        <v>-0.00386434952530828</v>
       </c>
       <c r="P222" t="n">
-        <v>0.5513132029067686</v>
+        <v>0.5592273803576719</v>
       </c>
       <c r="Q222" t="n">
-        <v>0.1121802783607241</v>
+        <v>0.1084797692704321</v>
       </c>
       <c r="R222" t="n">
-        <v>-0.002268705911196264</v>
+        <v>-0.002514950611919428</v>
       </c>
     </row>
     <row r="223">
       <c r="F223" t="n">
-        <v>0.06736603137714511</v>
+        <v>0.06759444645762802</v>
       </c>
       <c r="G223" t="n">
-        <v>0.108536789849992</v>
+        <v>0.1123934757778716</v>
       </c>
       <c r="H223" t="n">
-        <v>-0.002057758122761618</v>
+        <v>-0.002483355789213025</v>
       </c>
       <c r="J223" t="n">
-        <v>0.1513445548440175</v>
+        <v>0.1518324792569811</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1125431910829296</v>
+        <v>0.108832829282395</v>
       </c>
       <c r="L223" t="n">
-        <v>-0.00282967405707431</v>
+        <v>-0.002980515861137711</v>
       </c>
       <c r="M223" t="n">
-        <v>0.3529199784567643</v>
+        <v>0.3542477387480779</v>
       </c>
       <c r="N223" t="n">
-        <v>0.111456425327033</v>
+        <v>0.1131598249194493</v>
       </c>
       <c r="O223" t="n">
-        <v>-0.002808666136308815</v>
+        <v>-0.00386434952530828</v>
       </c>
       <c r="P223" t="n">
-        <v>0.5516177754993471</v>
+        <v>0.5589425735985077</v>
       </c>
       <c r="Q223" t="n">
-        <v>0.1129991125093425</v>
+        <v>0.1092715924037928</v>
       </c>
       <c r="R223" t="n">
-        <v>-0.002268705911196264</v>
+        <v>-0.002514950611919428</v>
       </c>
     </row>
     <row r="224">
       <c r="F224" t="n">
-        <v>0.06737689758370916</v>
+        <v>0.06757220220873977</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1093232883271659</v>
+        <v>0.1132079212545229</v>
       </c>
       <c r="H224" t="n">
-        <v>-0.002132407182353191</v>
+        <v>-0.002482859167717333</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1514912713475831</v>
+        <v>0.1518971712743521</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1133587214530957</v>
+        <v>0.1096214729728471</v>
       </c>
       <c r="L224" t="n">
-        <v>-0.002524210068917134</v>
+        <v>-0.002777399697903788</v>
       </c>
       <c r="M224" t="n">
-        <v>0.3528075246244017</v>
+        <v>0.3541017378732191</v>
       </c>
       <c r="N224" t="n">
-        <v>0.112264080583026</v>
+        <v>0.1139798236507497</v>
       </c>
       <c r="O224" t="n">
-        <v>-0.002563688650186667</v>
+        <v>-0.003539838622001515</v>
       </c>
       <c r="P224" t="n">
-        <v>0.5515179752440178</v>
+        <v>0.558571062836609</v>
       </c>
       <c r="Q224" t="n">
-        <v>0.1138179466579609</v>
+        <v>0.1100634155371537</v>
       </c>
       <c r="R224" t="n">
-        <v>-0.002266420235109421</v>
+        <v>-0.0024824969258939</v>
       </c>
     </row>
     <row r="225">
       <c r="F225" t="n">
-        <v>0.06739565304710432</v>
+        <v>0.06756224558467427</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1101097868043397</v>
+        <v>0.1140223667311741</v>
       </c>
       <c r="H225" t="n">
-        <v>-0.002132407182353191</v>
+        <v>-0.002483107478465179</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1516800276707076</v>
+        <v>0.1519015919437405</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1141742518232619</v>
+        <v>0.1104101166632993</v>
       </c>
       <c r="L225" t="n">
-        <v>-0.002524210068917134</v>
+        <v>-0.002777399697903788</v>
       </c>
       <c r="M225" t="n">
-        <v>0.3526578742524831</v>
+        <v>0.354105583065807</v>
       </c>
       <c r="N225" t="n">
-        <v>0.113071735839019</v>
+        <v>0.11479982238205</v>
       </c>
       <c r="O225" t="n">
-        <v>-0.002563688650186667</v>
+        <v>-0.003539838622001515</v>
       </c>
       <c r="P225" t="n">
-        <v>0.5517350928854771</v>
+        <v>0.5584363135958875</v>
       </c>
       <c r="Q225" t="n">
-        <v>0.1146367808065794</v>
+        <v>0.1108552386705145</v>
       </c>
       <c r="R225" t="n">
-        <v>-0.002266420235109421</v>
+        <v>-0.0024824969258939</v>
       </c>
     </row>
     <row r="226">
       <c r="F226" t="n">
-        <v>0.06740380457093217</v>
+        <v>0.06751850606111781</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1108962852815136</v>
+        <v>0.1148368122078254</v>
       </c>
       <c r="H226" t="n">
-        <v>-0.002132407182353191</v>
+        <v>-0.002482859167717333</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1517886386381811</v>
+        <v>0.1518861429321283</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1149897821934281</v>
+        <v>0.1111987603537514</v>
       </c>
       <c r="L226" t="n">
-        <v>-0.002524210068917134</v>
+        <v>-0.002777399697903788</v>
       </c>
       <c r="M226" t="n">
-        <v>0.3523716765812357</v>
+        <v>0.3540073100371137</v>
       </c>
       <c r="N226" t="n">
-        <v>0.113879391095012</v>
+        <v>0.1156198211133504</v>
       </c>
       <c r="O226" t="n">
-        <v>-0.002563688650186667</v>
+        <v>-0.003539838622001515</v>
       </c>
       <c r="P226" t="n">
-        <v>0.551627854024651</v>
+        <v>0.5581340471950466</v>
       </c>
       <c r="Q226" t="n">
-        <v>0.1154556149551978</v>
+        <v>0.1116470618038753</v>
       </c>
       <c r="R226" t="n">
-        <v>-0.002266420235109421</v>
+        <v>-0.0024824969258939</v>
       </c>
     </row>
     <row r="227">
       <c r="F227" t="n">
-        <v>0.06743829721813466</v>
+        <v>0.06753371308393286</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1116827837586874</v>
+        <v>0.1156512576844766</v>
       </c>
       <c r="H227" t="n">
-        <v>-0.002132407182353191</v>
+        <v>-0.002483355789213025</v>
       </c>
       <c r="J227" t="n">
-        <v>0.151835956183151</v>
+        <v>0.1518710422812188</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1158053125635942</v>
+        <v>0.1119874040442035</v>
       </c>
       <c r="L227" t="n">
-        <v>-0.002524210068917134</v>
+        <v>-0.002777399697903788</v>
       </c>
       <c r="M227" t="n">
-        <v>0.3524022001842652</v>
+        <v>0.3539078161568074</v>
       </c>
       <c r="N227" t="n">
-        <v>0.114687046351005</v>
+        <v>0.1164398198446507</v>
       </c>
       <c r="O227" t="n">
-        <v>-0.002370400973877766</v>
+        <v>-0.003539838622001515</v>
       </c>
       <c r="P227" t="n">
-        <v>0.5516771654927826</v>
+        <v>0.5579876178402161</v>
       </c>
       <c r="Q227" t="n">
-        <v>0.1162744491038162</v>
+        <v>0.1124388849372361</v>
       </c>
       <c r="R227" t="n">
-        <v>-0.002266420235109421</v>
+        <v>-0.0024824969258939</v>
       </c>
     </row>
     <row r="228">
       <c r="F228" t="n">
-        <v>0.06745290928584913</v>
+        <v>0.06750628858076765</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1124692822358613</v>
+        <v>0.1164657031611279</v>
       </c>
       <c r="H228" t="n">
-        <v>-0.002198798693142212</v>
+        <v>-0.002280903815718125</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1519418475769643</v>
+        <v>0.1518765099907405</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1166208429337604</v>
+        <v>0.1127760477346557</v>
       </c>
       <c r="L228" t="n">
-        <v>-0.002299745927209846</v>
+        <v>-0.002587959088557803</v>
       </c>
       <c r="M228" t="n">
-        <v>0.3522481343899257</v>
+        <v>0.3538071784469825</v>
       </c>
       <c r="N228" t="n">
-        <v>0.115494701606998</v>
+        <v>0.1172598185759511</v>
       </c>
       <c r="O228" t="n">
-        <v>-0.002370400973877766</v>
+        <v>-0.003224116975853243</v>
       </c>
       <c r="P228" t="n">
-        <v>0.5516425020313406</v>
+        <v>0.5579161365406392</v>
       </c>
       <c r="Q228" t="n">
-        <v>0.1170932832524346</v>
+        <v>0.1132307080705969</v>
       </c>
       <c r="R228" t="n">
-        <v>-0.002263498554309119</v>
+        <v>-0.002447303317119809</v>
       </c>
     </row>
     <row r="229">
       <c r="F229" t="n">
-        <v>0.06745685871203408</v>
+        <v>0.06750119258222309</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1132557807130351</v>
+        <v>0.1172801486377791</v>
       </c>
       <c r="H229" t="n">
-        <v>-0.002198798693142212</v>
+        <v>-0.002280903815718125</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1519615242270663</v>
+        <v>0.151862203682635</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1174363733039265</v>
+        <v>0.1135646914251078</v>
       </c>
       <c r="L229" t="n">
-        <v>-0.002299745927209846</v>
+        <v>-0.002587959088557803</v>
       </c>
       <c r="M229" t="n">
-        <v>0.3521617428417706</v>
+        <v>0.3537054739297329</v>
       </c>
       <c r="N229" t="n">
-        <v>0.116302356862991</v>
+        <v>0.1180798173072515</v>
       </c>
       <c r="O229" t="n">
-        <v>-0.002370400973877766</v>
+        <v>-0.003224116975853243</v>
       </c>
       <c r="P229" t="n">
-        <v>0.5516841659728583</v>
+        <v>0.5574350450048745</v>
       </c>
       <c r="Q229" t="n">
-        <v>0.117912117401053</v>
+        <v>0.1140225312039578</v>
       </c>
       <c r="R229" t="n">
-        <v>-0.002263498554309119</v>
+        <v>-0.002447303317119809</v>
       </c>
     </row>
     <row r="230">
       <c r="F230" t="n">
-        <v>0.06746861578232946</v>
+        <v>0.06750000005056012</v>
       </c>
       <c r="G230" t="n">
-        <v>0.114042279190209</v>
+        <v>0.1180945941144303</v>
       </c>
       <c r="H230" t="n">
-        <v>-0.002198798693142212</v>
+        <v>-0.002281360042103907</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1519610849547849</v>
+        <v>0.151908909403299</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1182519036740927</v>
+        <v>0.11435333511556</v>
       </c>
       <c r="L230" t="n">
-        <v>-0.002299745927209846</v>
+        <v>-0.002587959088557803</v>
       </c>
       <c r="M230" t="n">
-        <v>0.351993475367716</v>
+        <v>0.3534517290033893</v>
       </c>
       <c r="N230" t="n">
-        <v>0.117110012118984</v>
+        <v>0.1188998160385518</v>
       </c>
       <c r="O230" t="n">
-        <v>-0.002370400973877766</v>
+        <v>-0.003224116975853243</v>
       </c>
       <c r="P230" t="n">
-        <v>0.5518021317822535</v>
+        <v>0.5572712752759944</v>
       </c>
       <c r="Q230" t="n">
-        <v>0.1187309515496715</v>
+        <v>0.1148143543373186</v>
       </c>
       <c r="R230" t="n">
-        <v>-0.002263498554309119</v>
+        <v>-0.002447303317119809</v>
       </c>
     </row>
     <row r="231">
       <c r="F231" t="n">
-        <v>0.06746967202753756</v>
+        <v>0.06751850700979509</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1148287776673829</v>
+        <v>0.1189090395910816</v>
       </c>
       <c r="H231" t="n">
-        <v>-0.002198798693142212</v>
+        <v>-0.002281360042103907</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1519808414357605</v>
+        <v>0.1518753387229367</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1190674340442588</v>
+        <v>0.1151419788060121</v>
       </c>
       <c r="L231" t="n">
-        <v>-0.002299745927209846</v>
+        <v>-0.002587959088557803</v>
       </c>
       <c r="M231" t="n">
-        <v>0.3520958464581871</v>
+        <v>0.3534991725613356</v>
       </c>
       <c r="N231" t="n">
-        <v>0.117917667374977</v>
+        <v>0.1197198147698522</v>
       </c>
       <c r="O231" t="n">
-        <v>-0.002370400973877766</v>
+        <v>-0.003224116975853243</v>
       </c>
       <c r="P231" t="n">
-        <v>0.5518360043887184</v>
+        <v>0.5570210462506215</v>
       </c>
       <c r="Q231" t="n">
-        <v>0.1195497856982899</v>
+        <v>0.1156061774706794</v>
       </c>
       <c r="R231" t="n">
-        <v>-0.002263498554309119</v>
+        <v>-0.002447303317119809</v>
       </c>
     </row>
     <row r="232">
       <c r="F232" t="n">
-        <v>0.06747850243926787</v>
+        <v>0.06751854134448732</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1156152761445567</v>
+        <v>0.1197234850677328</v>
       </c>
       <c r="H232" t="n">
-        <v>-0.002235680940717821</v>
+        <v>-0.002138049782948879</v>
       </c>
       <c r="J232" t="n">
-        <v>0.151977309413296</v>
+        <v>0.151943228181672</v>
       </c>
       <c r="K232" t="n">
-        <v>0.119882964414425</v>
+        <v>0.1159306224964642</v>
       </c>
       <c r="L232" t="n">
-        <v>-0.002151667744266887</v>
+        <v>-0.002421880202716991</v>
       </c>
       <c r="M232" t="n">
-        <v>0.3519177264243362</v>
+        <v>0.3533947297543758</v>
       </c>
       <c r="N232" t="n">
-        <v>0.11872532263097</v>
+        <v>0.1205398135011525</v>
       </c>
       <c r="O232" t="n">
-        <v>-0.00224710202262924</v>
+        <v>-0.002925000296091252</v>
       </c>
       <c r="P232" t="n">
-        <v>0.5520262953754165</v>
+        <v>0.5569264870879496</v>
       </c>
       <c r="Q232" t="n">
-        <v>0.1203686198469083</v>
+        <v>0.1163980006040402</v>
       </c>
       <c r="R232" t="n">
-        <v>-0.00225973599779659</v>
+        <v>-0.002410353976122284</v>
       </c>
     </row>
     <row r="233">
       <c r="F233" t="n">
-        <v>0.06748584302258676</v>
+        <v>0.06750012511546907</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1164017746217306</v>
+        <v>0.1205379305443841</v>
       </c>
       <c r="H233" t="n">
-        <v>-0.002235680940717821</v>
+        <v>-0.002138049782948879</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1519305829231691</v>
+        <v>0.1519309020682689</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1206984947845911</v>
+        <v>0.1167192661869164</v>
       </c>
       <c r="L233" t="n">
-        <v>-0.002151667744266887</v>
+        <v>-0.002421880202716991</v>
       </c>
       <c r="M233" t="n">
-        <v>0.3519615242270664</v>
+        <v>0.3531888904502771</v>
       </c>
       <c r="N233" t="n">
-        <v>0.119532977886963</v>
+        <v>0.1213598122324529</v>
       </c>
       <c r="O233" t="n">
-        <v>-0.00224710202262924</v>
+        <v>-0.002925000296091252</v>
       </c>
       <c r="P233" t="n">
-        <v>0.5519720363382337</v>
+        <v>0.5565035632602646</v>
       </c>
       <c r="Q233" t="n">
-        <v>0.1211874539955267</v>
+        <v>0.117189823737401</v>
       </c>
       <c r="R233" t="n">
-        <v>-0.00225973599779659</v>
+        <v>-0.002410353976122284</v>
       </c>
     </row>
     <row r="234">
       <c r="F234" t="n">
-        <v>0.06750092488711709</v>
+        <v>0.06749103039952675</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1171882730989044</v>
+        <v>0.1213523760210353</v>
       </c>
       <c r="H234" t="n">
-        <v>-0.002235680940717821</v>
+        <v>-0.002138263566548814</v>
       </c>
       <c r="J234" t="n">
-        <v>0.1519415310061284</v>
+        <v>0.1518989589725016</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1215140251547573</v>
+        <v>0.1175079098773685</v>
       </c>
       <c r="L234" t="n">
-        <v>-0.002151667744266887</v>
+        <v>-0.002421880202716991</v>
       </c>
       <c r="M234" t="n">
-        <v>0.3520217674070901</v>
+        <v>0.3531333367025639</v>
       </c>
       <c r="N234" t="n">
-        <v>0.120340633142956</v>
+        <v>0.1221798109637532</v>
       </c>
       <c r="O234" t="n">
-        <v>-0.00224710202262924</v>
+        <v>-0.002925000296091252</v>
       </c>
       <c r="P234" t="n">
-        <v>0.5519939326149469</v>
+        <v>0.5561557347648864</v>
       </c>
       <c r="Q234" t="n">
-        <v>0.1220062881441452</v>
+        <v>0.1179816468707618</v>
       </c>
       <c r="R234" t="n">
-        <v>-0.00225973599779659</v>
+        <v>-0.002410353976122284</v>
       </c>
     </row>
     <row r="235">
       <c r="F235" t="n">
-        <v>0.06750523207044118</v>
+        <v>0.06750977940688579</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1179747715760783</v>
+        <v>0.1221668214976866</v>
       </c>
       <c r="H235" t="n">
-        <v>-0.002235680940717821</v>
+        <v>-0.002138049782948879</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1519292654551779</v>
+        <v>0.1519281997401806</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1223295555249235</v>
+        <v>0.1182965535678206</v>
       </c>
       <c r="L235" t="n">
-        <v>-0.002151667744266887</v>
+        <v>-0.002421880202716991</v>
       </c>
       <c r="M235" t="n">
-        <v>0.3519439483833803</v>
+        <v>0.3530268594514003</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1211482883989489</v>
+        <v>0.1229998096950536</v>
       </c>
       <c r="O235" t="n">
-        <v>-0.00224710202262924</v>
+        <v>-0.002925000296091252</v>
       </c>
       <c r="P235" t="n">
-        <v>0.5519315664173768</v>
+        <v>0.556044140389649</v>
       </c>
       <c r="Q235" t="n">
-        <v>0.1228251222927636</v>
+        <v>0.1187734700041227</v>
       </c>
       <c r="R235" t="n">
-        <v>-0.00225973599779659</v>
+        <v>-0.00237045224049784</v>
       </c>
     </row>
     <row r="236">
       <c r="F236" t="n">
-        <v>0.06750000000000003</v>
+        <v>0.06749164388664317</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1187612700532521</v>
+        <v>0.1229812669743378</v>
       </c>
       <c r="H236" t="n">
-        <v>-0.002256619210177214</v>
+        <v>-0.001997097258883466</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1518936826984837</v>
+        <v>0.1519782775897096</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1231450858950896</v>
+        <v>0.1190851972582728</v>
       </c>
       <c r="L236" t="n">
-        <v>-0.002010725460134084</v>
+        <v>-0.002286344526533655</v>
       </c>
       <c r="M236" t="n">
-        <v>0.3520295427466259</v>
+        <v>0.3528695676434604</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1219559436549419</v>
+        <v>0.123819808426354</v>
       </c>
       <c r="O236" t="n">
-        <v>-0.002161163029200087</v>
+        <v>-0.002652484762627548</v>
       </c>
       <c r="P236" t="n">
-        <v>0.5518650901192002</v>
+        <v>0.5556045762020729</v>
       </c>
       <c r="Q236" t="n">
-        <v>0.123643956441382</v>
+        <v>0.1195652931374835</v>
       </c>
       <c r="R236" t="n">
-        <v>-0.00225492769457307</v>
+        <v>-0.00237045224049784</v>
       </c>
     </row>
     <row r="237">
       <c r="F237" t="n">
-        <v>0.06749994591276673</v>
+        <v>0.0675013963752697</v>
       </c>
       <c r="G237" t="n">
-        <v>0.119547768530426</v>
+        <v>0.123795712450989</v>
       </c>
       <c r="H237" t="n">
-        <v>-0.002256619210177214</v>
+        <v>-0.001997496678335242</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1519356286859734</v>
+        <v>0.1519482541589376</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1239606162652558</v>
+        <v>0.1198738409487249</v>
       </c>
       <c r="L237" t="n">
-        <v>-0.002010725460134084</v>
+        <v>-0.002286344526533655</v>
       </c>
       <c r="M237" t="n">
-        <v>0.3520274477244849</v>
+        <v>0.3527118467388404</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1227635989109349</v>
+        <v>0.1246398071576543</v>
       </c>
       <c r="O237" t="n">
-        <v>-0.002161163029200087</v>
+        <v>-0.002652484762627548</v>
       </c>
       <c r="P237" t="n">
-        <v>0.5519615242270663</v>
+        <v>0.5553206448788472</v>
       </c>
       <c r="Q237" t="n">
-        <v>0.1244627905900004</v>
+        <v>0.1203571162708443</v>
       </c>
       <c r="R237" t="n">
-        <v>-0.00225492769457307</v>
+        <v>-0.00237045224049784</v>
       </c>
     </row>
     <row r="238">
       <c r="F238" t="n">
-        <v>0.06749980144748335</v>
+        <v>0.06751130883892953</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1203342670075998</v>
+        <v>0.1246101579276403</v>
       </c>
       <c r="H238" t="n">
-        <v>-0.002256619210177214</v>
+        <v>-0.001996897549157577</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1518732848434142</v>
+        <v>0.1519615242270663</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1247761466354219</v>
+        <v>0.1206624846391771</v>
       </c>
       <c r="L238" t="n">
-        <v>-0.002010725460134084</v>
+        <v>-0.002286344526533655</v>
       </c>
       <c r="M238" t="n">
-        <v>0.352138386422955</v>
+        <v>0.352704570155411</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1235712541669279</v>
+        <v>0.1254598058889547</v>
       </c>
       <c r="O238" t="n">
-        <v>-0.002161163029200087</v>
+        <v>-0.002652484762627548</v>
       </c>
       <c r="P238" t="n">
-        <v>0.5518800521025696</v>
+        <v>0.5552727117682611</v>
       </c>
       <c r="Q238" t="n">
-        <v>0.1252816247386189</v>
+        <v>0.1211489394042051</v>
       </c>
       <c r="R238" t="n">
-        <v>-0.00225492769457307</v>
+        <v>-0.00237045224049784</v>
       </c>
     </row>
     <row r="239">
       <c r="F239" t="n">
-        <v>0.06751739350355138</v>
+        <v>0.06749365254057627</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1211207654847737</v>
+        <v>0.1254246034042915</v>
       </c>
       <c r="H239" t="n">
-        <v>-0.002256619210177214</v>
+        <v>-0.001997296968609354</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1518882420202601</v>
+        <v>0.1519759212652627</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1255916770055881</v>
+        <v>0.1214511283296292</v>
       </c>
       <c r="L239" t="n">
-        <v>-0.002010725460134084</v>
+        <v>-0.002178390015619986</v>
       </c>
       <c r="M239" t="n">
-        <v>0.3523120782671483</v>
+        <v>0.3525461899715622</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1243789094229209</v>
+        <v>0.126279804620255</v>
       </c>
       <c r="O239" t="n">
-        <v>-0.002161163029200087</v>
+        <v>-0.002652484762627548</v>
       </c>
       <c r="P239" t="n">
-        <v>0.5520402458418892</v>
+        <v>0.5549776459048655</v>
       </c>
       <c r="Q239" t="n">
-        <v>0.1261004588872373</v>
+        <v>0.1219407625375659</v>
       </c>
       <c r="R239" t="n">
-        <v>-0.00225492769457307</v>
+        <v>-0.00237045224049784</v>
       </c>
     </row>
     <row r="240">
       <c r="F240" t="n">
-        <v>0.06748799020246982</v>
+        <v>0.06749470065497318</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1219072639619476</v>
+        <v>0.1262390488809428</v>
       </c>
       <c r="H240" t="n">
-        <v>-0.002243014705404883</v>
+        <v>-0.001859197865945272</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1518189051808911</v>
+        <v>0.1520276588214711</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1264072073757542</v>
+        <v>0.1222397720200813</v>
       </c>
       <c r="L240" t="n">
-        <v>-0.00187353637029167</v>
+        <v>-0.002178390015619986</v>
       </c>
       <c r="M240" t="n">
-        <v>0.3522470747051771</v>
+        <v>0.352488099483269</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1251865646789139</v>
+        <v>0.1270998033515554</v>
       </c>
       <c r="O240" t="n">
-        <v>-0.002078112035431165</v>
+        <v>-0.002416436175182336</v>
       </c>
       <c r="P240" t="n">
-        <v>0.5519980822155512</v>
+        <v>0.5545161889640006</v>
       </c>
       <c r="Q240" t="n">
-        <v>0.1269192930358557</v>
+        <v>0.1227325856709268</v>
       </c>
       <c r="R240" t="n">
-        <v>-0.002245025338809766</v>
+        <v>-0.002328593681969179</v>
       </c>
     </row>
     <row r="241">
       <c r="F241" t="n">
-        <v>0.0675040773575124</v>
+        <v>0.0674959748496145</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1226937624391214</v>
+        <v>0.127053494357594</v>
       </c>
       <c r="H241" t="n">
-        <v>-0.002243014705404883</v>
+        <v>-0.001858826063552323</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1517660971589705</v>
+        <v>0.1520942819615991</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1272227377459204</v>
+        <v>0.1230284157105335</v>
       </c>
       <c r="L241" t="n">
-        <v>-0.00187353637029167</v>
+        <v>-0.002178390015619986</v>
       </c>
       <c r="M241" t="n">
-        <v>0.3523450527752769</v>
+        <v>0.3523796118479333</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1259942199349069</v>
+        <v>0.1279198020828557</v>
       </c>
       <c r="O241" t="n">
-        <v>-0.002078112035431165</v>
+        <v>-0.002416436175182336</v>
       </c>
       <c r="P241" t="n">
-        <v>0.5518987233804187</v>
+        <v>0.5542906541933608</v>
       </c>
       <c r="Q241" t="n">
-        <v>0.1277381271844741</v>
+        <v>0.1235244088042876</v>
       </c>
       <c r="R241" t="n">
-        <v>-0.002245025338809766</v>
+        <v>-0.002328593681969179</v>
       </c>
     </row>
     <row r="242">
       <c r="F242" t="n">
-        <v>0.06749164539186731</v>
+        <v>0.06750674787850899</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1234802609162953</v>
+        <v>0.1278679398342453</v>
       </c>
       <c r="H242" t="n">
-        <v>-0.002243014705404883</v>
+        <v>-0.001859383767141747</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1517297020128199</v>
+        <v>0.1521148270143689</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1280382681160865</v>
+        <v>0.1238170594009856</v>
       </c>
       <c r="L242" t="n">
-        <v>-0.00187353637029167</v>
+        <v>-0.002178390015619986</v>
       </c>
       <c r="M242" t="n">
-        <v>0.3525054999411914</v>
+        <v>0.3522710586989457</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1268018751908999</v>
+        <v>0.1287398008141561</v>
       </c>
       <c r="O242" t="n">
-        <v>-0.002078112035431165</v>
+        <v>-0.002416436175182336</v>
       </c>
       <c r="P242" t="n">
-        <v>0.551823608339805</v>
+        <v>0.5538988397392044</v>
       </c>
       <c r="Q242" t="n">
-        <v>0.1285569613330926</v>
+        <v>0.1243162319376484</v>
       </c>
       <c r="R242" t="n">
-        <v>-0.002245025338809766</v>
+        <v>-0.002328593681969179</v>
       </c>
     </row>
     <row r="243">
       <c r="F243" t="n">
-        <v>0.06750617783622304</v>
+        <v>0.0675085406505791</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1242667593934691</v>
+        <v>0.1286823853108965</v>
       </c>
       <c r="H243" t="n">
-        <v>-0.002243014705404883</v>
+        <v>-0.001725829629728503</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1516894306004217</v>
+        <v>0.1522304299690918</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1288537984862527</v>
+        <v>0.1246057030914377</v>
       </c>
       <c r="L243" t="n">
-        <v>-0.00174147949497732</v>
+        <v>-0.002178390015619986</v>
       </c>
       <c r="M243" t="n">
-        <v>0.3526780905230178</v>
+        <v>0.3522127282812813</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1276095304468929</v>
+        <v>0.1295597995454565</v>
       </c>
       <c r="O243" t="n">
-        <v>-0.002078112035431165</v>
+        <v>-0.002416436175182336</v>
       </c>
       <c r="P243" t="n">
-        <v>0.5513732201136602</v>
+        <v>0.5535820332242054</v>
       </c>
       <c r="Q243" t="n">
-        <v>0.129375795481711</v>
+        <v>0.1251080550710092</v>
       </c>
       <c r="R243" t="n">
-        <v>-0.002245025338809766</v>
+        <v>-0.002328593681969179</v>
       </c>
     </row>
     <row r="244">
       <c r="F244" t="n">
-        <v>0.0674829204218855</v>
+        <v>0.06751062576979106</v>
       </c>
       <c r="G244" t="n">
-        <v>0.125053257870643</v>
+        <v>0.1294968307875478</v>
       </c>
       <c r="H244" t="n">
-        <v>-0.00221845651222062</v>
+        <v>-0.001726002195434905</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1516451756702769</v>
+        <v>0.1522588045671127</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1296693288564189</v>
+        <v>0.1253943467818899</v>
       </c>
       <c r="L244" t="n">
-        <v>-0.00174147949497732</v>
+        <v>-0.002075205704562768</v>
       </c>
       <c r="M244" t="n">
-        <v>0.3528124523138453</v>
+        <v>0.3521042643039406</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1284171857028859</v>
+        <v>0.1303797982767568</v>
       </c>
       <c r="O244" t="n">
-        <v>-0.001998683250333028</v>
+        <v>-0.002226047241232012</v>
       </c>
       <c r="P244" t="n">
-        <v>0.5511099643630308</v>
+        <v>0.553420490145405</v>
       </c>
       <c r="Q244" t="n">
-        <v>0.1301946296303294</v>
+        <v>0.12589987820437</v>
       </c>
       <c r="R244" t="n">
-        <v>-0.002212316273546774</v>
+        <v>-0.002284354233030039</v>
       </c>
     </row>
     <row r="245">
       <c r="F245" t="n">
-        <v>0.06749584905002412</v>
+        <v>0.06752227662010563</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1258397563478168</v>
+        <v>0.130311276264199</v>
       </c>
       <c r="H245" t="n">
-        <v>-0.00221845651222062</v>
+        <v>-0.001726002195434905</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1515968299708864</v>
+        <v>0.1523613767658746</v>
       </c>
       <c r="K245" t="n">
-        <v>0.130484859226585</v>
+        <v>0.126182990472342</v>
       </c>
       <c r="L245" t="n">
-        <v>-0.00174147949497732</v>
+        <v>-0.002075205704562768</v>
       </c>
       <c r="M245" t="n">
-        <v>0.3528581545591977</v>
+        <v>0.3519949286437765</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1292248409588789</v>
+        <v>0.1311997970080572</v>
       </c>
       <c r="O245" t="n">
-        <v>-0.001998683250333028</v>
+        <v>-0.002226047241232012</v>
       </c>
       <c r="P245" t="n">
-        <v>0.5509547894668464</v>
+        <v>0.5529322791526197</v>
       </c>
       <c r="Q245" t="n">
-        <v>0.1310134637789478</v>
+        <v>0.1266917013377309</v>
       </c>
       <c r="R245" t="n">
-        <v>-0.002212316273546774</v>
+        <v>-0.002284354233030039</v>
       </c>
     </row>
     <row r="246">
       <c r="F246" t="n">
-        <v>0.06747096759470469</v>
+        <v>0.0675065097992191</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1266262548249907</v>
+        <v>0.1311257217408502</v>
       </c>
       <c r="H246" t="n">
-        <v>-0.00221845651222062</v>
+        <v>-0.001726002195434905</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1515845991392899</v>
+        <v>0.1525176554963082</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1313003895967512</v>
+        <v>0.1269716341627941</v>
       </c>
       <c r="L246" t="n">
-        <v>-0.00174147949497732</v>
+        <v>-0.002075205704562768</v>
       </c>
       <c r="M246" t="n">
-        <v>0.353016229403716</v>
+        <v>0.3518305116111986</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1300324962148719</v>
+        <v>0.1320197957393575</v>
       </c>
       <c r="O246" t="n">
-        <v>-0.001998683250333028</v>
+        <v>-0.002226047241232012</v>
       </c>
       <c r="P246" t="n">
-        <v>0.5505885447239195</v>
+        <v>0.5526796406395489</v>
       </c>
       <c r="Q246" t="n">
-        <v>0.1318322979275663</v>
+        <v>0.1274835244710917</v>
       </c>
       <c r="R246" t="n">
-        <v>-0.002212316273546774</v>
+        <v>-0.002284354233030039</v>
       </c>
     </row>
     <row r="247">
       <c r="F247" t="n">
-        <v>0.06746375029034829</v>
+        <v>0.06752810791017083</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1274127533021645</v>
+        <v>0.1319401672175015</v>
       </c>
       <c r="H247" t="n">
-        <v>-0.00221845651222062</v>
+        <v>-0.001725657064022101</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1515277387759748</v>
+        <v>0.1526058087623305</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1321159199669173</v>
+        <v>0.1277602778532463</v>
       </c>
       <c r="L247" t="n">
-        <v>-0.00174147949497732</v>
+        <v>-0.001975199959957614</v>
       </c>
       <c r="M247" t="n">
-        <v>0.353236348451558</v>
+        <v>0.3517110697917848</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1308401514708649</v>
+        <v>0.1328397944706579</v>
       </c>
       <c r="O247" t="n">
-        <v>-0.001998683250333028</v>
+        <v>-0.002226047241232012</v>
       </c>
       <c r="P247" t="n">
-        <v>0.5502527500998249</v>
+        <v>0.552180941260332</v>
       </c>
       <c r="Q247" t="n">
-        <v>0.1326511320761846</v>
+        <v>0.1282753476044525</v>
       </c>
       <c r="R247" t="n">
-        <v>-0.002212316273546774</v>
+        <v>-0.002284354233030039</v>
       </c>
     </row>
     <row r="248">
       <c r="F248" t="n">
-        <v>0.0674741806264102</v>
+        <v>0.06754083581290748</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1281992517793384</v>
+        <v>0.1327546126941527</v>
       </c>
       <c r="H248" t="n">
-        <v>-0.002179956531380378</v>
+        <v>-0.001598154007552061</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1514261757422485</v>
+        <v>0.1528078316382206</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1329314503370835</v>
+        <v>0.1285489215436984</v>
       </c>
       <c r="L248" t="n">
-        <v>-0.001615933854428703</v>
+        <v>-0.001975199959957614</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3533674412027199</v>
+        <v>0.3515865301632257</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1316478067268579</v>
+        <v>0.1336597932019583</v>
       </c>
       <c r="O248" t="n">
-        <v>-0.001923610882916229</v>
+        <v>-0.002057701605399971</v>
       </c>
       <c r="P248" t="n">
-        <v>0.5497886133196003</v>
+        <v>0.5520771729568051</v>
       </c>
       <c r="Q248" t="n">
-        <v>0.1334699662248031</v>
+        <v>0.1290671707378133</v>
       </c>
       <c r="R248" t="n">
-        <v>-0.002156685238209373</v>
+        <v>-0.002239315321961422</v>
       </c>
     </row>
     <row r="249">
       <c r="F249" t="n">
-        <v>0.06746526236607303</v>
+        <v>0.06751695680205266</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1289857502565122</v>
+        <v>0.133569058170804</v>
       </c>
       <c r="H249" t="n">
-        <v>-0.002179956531380378</v>
+        <v>-0.001598154007552061</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1513805325041336</v>
+        <v>0.1529612767476164</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1337469807072496</v>
+        <v>0.1293375652341505</v>
       </c>
       <c r="L249" t="n">
-        <v>-0.001615933854428703</v>
+        <v>-0.001975199959957614</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3535603789662686</v>
+        <v>0.3513567277844909</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1324554619828509</v>
+        <v>0.1344797919332586</v>
       </c>
       <c r="O249" t="n">
-        <v>-0.001923610882916229</v>
+        <v>-0.002057701605399971</v>
       </c>
       <c r="P249" t="n">
-        <v>0.5491176345087312</v>
+        <v>0.551580769408401</v>
       </c>
       <c r="Q249" t="n">
-        <v>0.1342888003734215</v>
+        <v>0.1298589938711741</v>
       </c>
       <c r="R249" t="n">
-        <v>-0.002156685238209373</v>
+        <v>-0.002239315321961422</v>
       </c>
     </row>
     <row r="250">
       <c r="F250" t="n">
-        <v>0.0674369886814965</v>
+        <v>0.0675305123350679</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1297722487336861</v>
+        <v>0.1343835036474552</v>
       </c>
       <c r="H250" t="n">
-        <v>-0.002179956531380378</v>
+        <v>-0.001597994224107995</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1513302481562052</v>
+        <v>0.1531265982592236</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1345625110774158</v>
+        <v>0.1301262089246027</v>
       </c>
       <c r="L250" t="n">
-        <v>-0.001615933854428703</v>
+        <v>-0.001975199959957614</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3539158830478976</v>
+        <v>0.3512223687101347</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1332631172388438</v>
+        <v>0.1352997906645589</v>
       </c>
       <c r="O250" t="n">
-        <v>-0.001923610882916229</v>
+        <v>-0.002057701605399971</v>
       </c>
       <c r="P250" t="n">
-        <v>0.5487205570509233</v>
+        <v>0.5508941264906418</v>
       </c>
       <c r="Q250" t="n">
-        <v>0.1351076345220399</v>
+        <v>0.1306508170045349</v>
       </c>
       <c r="R250" t="n">
-        <v>-0.002156685238209373</v>
+        <v>-0.002239315321961422</v>
       </c>
     </row>
     <row r="251">
       <c r="F251" t="n">
-        <v>0.06743556695329533</v>
+        <v>0.0675445156905024</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1305587472108599</v>
+        <v>0.1351979491241064</v>
       </c>
       <c r="H251" t="n">
-        <v>-0.002179956531380378</v>
+        <v>-0.001597834440663929</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1512148435364286</v>
+        <v>0.1532628099583454</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1353780414475819</v>
+        <v>0.1309148526150548</v>
       </c>
       <c r="L251" t="n">
-        <v>-0.001615933854428703</v>
+        <v>-0.001975199959957614</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3540812264087826</v>
+        <v>0.3511834887493139</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1340707724948368</v>
+        <v>0.1361197893958593</v>
       </c>
       <c r="O251" t="n">
-        <v>-0.001923610882916229</v>
+        <v>-0.002057701605399971</v>
       </c>
       <c r="P251" t="n">
-        <v>0.5480393872093463</v>
+        <v>0.5505010987470008</v>
       </c>
       <c r="Q251" t="n">
-        <v>0.1359264686706584</v>
+        <v>0.1314426401378957</v>
       </c>
       <c r="R251" t="n">
-        <v>-0.002156685238209373</v>
+        <v>-0.002239315321961422</v>
       </c>
     </row>
     <row r="252">
       <c r="F252" t="n">
-        <v>0.06743325070539477</v>
+        <v>0.06754973504017747</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1313452456880338</v>
+        <v>0.1360123946007577</v>
       </c>
       <c r="H252" t="n">
-        <v>-0.002120770854503231</v>
+        <v>-0.001477876351794864</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1511348594103409</v>
+        <v>0.153430500624539</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1361935718177481</v>
+        <v>0.131703496305507</v>
       </c>
       <c r="L252" t="n">
-        <v>-0.001498278468883493</v>
+        <v>-0.001878755593644457</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3542073245674806</v>
+        <v>0.3510397222108109</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1348784277508298</v>
+        <v>0.1369397881271597</v>
       </c>
       <c r="O252" t="n">
-        <v>-0.001853629142191322</v>
+        <v>-0.001895516208595303</v>
       </c>
       <c r="P252" t="n">
-        <v>0.5474746091912774</v>
+        <v>0.549764387365646</v>
       </c>
       <c r="Q252" t="n">
-        <v>0.1367453028192768</v>
+        <v>0.1322344632712566</v>
       </c>
       <c r="R252" t="n">
-        <v>-0.002080553075760794</v>
+        <v>-0.002178534771477439</v>
       </c>
     </row>
     <row r="253">
       <c r="F253" t="n">
-        <v>0.06739306656603378</v>
+        <v>0.06755544551896375</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1321317441652077</v>
+        <v>0.1368268400774089</v>
       </c>
       <c r="H253" t="n">
-        <v>-0.002120770854503231</v>
+        <v>-0.001477728578936971</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1510499265030142</v>
+        <v>0.1536701197047894</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1370091021879143</v>
+        <v>0.1324921399959591</v>
       </c>
       <c r="L253" t="n">
-        <v>-0.001498278468883493</v>
+        <v>-0.001878755593644457</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3545462510468053</v>
+        <v>0.3508413558908922</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1356860830068228</v>
+        <v>0.13775978685846</v>
       </c>
       <c r="O253" t="n">
-        <v>-0.001853629142191322</v>
+        <v>-0.001895516208595303</v>
       </c>
       <c r="P253" t="n">
-        <v>0.5467084450441249</v>
+        <v>0.548688082153822</v>
       </c>
       <c r="Q253" t="n">
-        <v>0.1375641369678952</v>
+        <v>0.1330262864046174</v>
       </c>
       <c r="R253" t="n">
-        <v>-0.002080553075760794</v>
+        <v>-0.002178534771477439</v>
       </c>
     </row>
     <row r="254">
       <c r="F254" t="n">
-        <v>0.06738892927774381</v>
+        <v>0.06754315872770464</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1329182426423815</v>
+        <v>0.1376412855540602</v>
       </c>
       <c r="H254" t="n">
-        <v>-0.002120770854503231</v>
+        <v>-0.001477728578936971</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1509599375629492</v>
+        <v>0.1538795893533207</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1378246325580804</v>
+        <v>0.1332807836864112</v>
       </c>
       <c r="L254" t="n">
-        <v>-0.001498278468883493</v>
+        <v>-0.001878755593644457</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3548458260688708</v>
+        <v>0.3507888274979646</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1364937382628158</v>
+        <v>0.1385797855897604</v>
       </c>
       <c r="O254" t="n">
-        <v>-0.001853629142191322</v>
+        <v>-0.001895516208595303</v>
       </c>
       <c r="P254" t="n">
-        <v>0.5458221816331205</v>
+        <v>0.5477551517217738</v>
       </c>
       <c r="Q254" t="n">
-        <v>0.1383829711165137</v>
+        <v>0.1338181095379782</v>
       </c>
       <c r="R254" t="n">
-        <v>-0.002080553075760794</v>
+        <v>-0.002178534771477439</v>
       </c>
     </row>
     <row r="255">
       <c r="F255" t="n">
-        <v>0.06736538555490723</v>
+        <v>0.06757768411564691</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1337047411195554</v>
+        <v>0.1384557310307114</v>
       </c>
       <c r="H255" t="n">
-        <v>-0.002120770854503231</v>
+        <v>-0.001478024124652758</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1509250508007944</v>
+        <v>0.1541196740057514</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1386401629282466</v>
+        <v>0.1340694273768634</v>
       </c>
       <c r="L255" t="n">
-        <v>-0.001498278468883493</v>
+        <v>-0.00178793474547988</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3550048776174667</v>
+        <v>0.3505817944509968</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1373013935188088</v>
+        <v>0.1393997843210607</v>
       </c>
       <c r="O255" t="n">
-        <v>-0.001789472237168857</v>
+        <v>-0.001895516208595303</v>
       </c>
       <c r="P255" t="n">
-        <v>0.5452149011824797</v>
+        <v>0.5467291416291425</v>
       </c>
       <c r="Q255" t="n">
-        <v>0.139201805265132</v>
+        <v>0.134609932671339</v>
       </c>
       <c r="R255" t="n">
-        <v>-0.002080553075760794</v>
+        <v>-0.002178534771477439</v>
       </c>
     </row>
     <row r="256">
       <c r="F256" t="n">
-        <v>0.06736861177496606</v>
+        <v>0.06755723126877838</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1344912395967292</v>
+        <v>0.1392701765073626</v>
       </c>
       <c r="H256" t="n">
-        <v>-0.002043832305869999</v>
+        <v>-0.001366379475691786</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1507844410227098</v>
+        <v>0.1543288163852649</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1394556932984127</v>
+        <v>0.1348580710673155</v>
       </c>
       <c r="L256" t="n">
-        <v>-0.00138989235857936</v>
+        <v>-0.00178793474547988</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3552757034332733</v>
+        <v>0.3504707009878557</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1381090487748018</v>
+        <v>0.1402197830523611</v>
       </c>
       <c r="O256" t="n">
-        <v>-0.001789472237168857</v>
+        <v>-0.001739758280182396</v>
       </c>
       <c r="P256" t="n">
-        <v>0.5442514691244188</v>
+        <v>0.5456134787755106</v>
       </c>
       <c r="Q256" t="n">
-        <v>0.1400206394137505</v>
+        <v>0.1354017558046998</v>
       </c>
       <c r="R256" t="n">
-        <v>-0.001986340629164269</v>
+        <v>-0.002101917102193988</v>
       </c>
     </row>
     <row r="257">
       <c r="F257" t="n">
-        <v>0.06734317556053737</v>
+        <v>0.06757438295966903</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1352777380739031</v>
+        <v>0.1400846219840139</v>
       </c>
       <c r="H257" t="n">
-        <v>-0.002043832305869999</v>
+        <v>-0.001366242865066342</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1507187656203009</v>
+        <v>0.1545269970396277</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1402712236685789</v>
+        <v>0.1356467147577677</v>
       </c>
       <c r="L257" t="n">
-        <v>-0.00138989235857936</v>
+        <v>-0.00178793474547988</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3556078106609365</v>
+        <v>0.3502054629378769</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1389167040307948</v>
+        <v>0.1410397817836614</v>
       </c>
       <c r="O257" t="n">
-        <v>-0.001789472237168857</v>
+        <v>-0.001739758280182396</v>
       </c>
       <c r="P257" t="n">
-        <v>0.5434102391127593</v>
+        <v>0.5444115900604608</v>
       </c>
       <c r="Q257" t="n">
-        <v>0.1408394735623689</v>
+        <v>0.1361935789380607</v>
       </c>
       <c r="R257" t="n">
-        <v>-0.001986340629164269</v>
+        <v>-0.002101917102193988</v>
       </c>
     </row>
     <row r="258">
       <c r="F258" t="n">
-        <v>0.06733524260994847</v>
+        <v>0.06758287948891639</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1360642365510769</v>
+        <v>0.1408990674606652</v>
       </c>
       <c r="H258" t="n">
-        <v>-0.002043832305869999</v>
+        <v>-0.001366379475691786</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1505472764453228</v>
+        <v>0.1547957233624048</v>
       </c>
       <c r="K258" t="n">
-        <v>0.141086754038745</v>
+        <v>0.1364353584482198</v>
       </c>
       <c r="L258" t="n">
-        <v>-0.00138989235857936</v>
+        <v>-0.00178793474547988</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3557988475752949</v>
+        <v>0.3500863695606636</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1397243592867878</v>
+        <v>0.1418597805149618</v>
       </c>
       <c r="O258" t="n">
-        <v>-0.001789472237168857</v>
+        <v>-0.001739758280182396</v>
       </c>
       <c r="P258" t="n">
-        <v>0.5426919790347609</v>
+        <v>0.5431269023835757</v>
       </c>
       <c r="Q258" t="n">
-        <v>0.1416583077109873</v>
+        <v>0.1369854020714215</v>
       </c>
       <c r="R258" t="n">
-        <v>-0.001986340629164269</v>
+        <v>-0.002101917102193988</v>
       </c>
     </row>
     <row r="259">
       <c r="F259" t="n">
-        <v>0.06731709779158684</v>
+        <v>0.06761051798665857</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1368507350282508</v>
+        <v>0.1417135129373164</v>
       </c>
       <c r="H259" t="n">
-        <v>-0.002043832305869999</v>
+        <v>-0.001365969643815454</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1504905337021628</v>
+        <v>0.1550938772668568</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1419022844089112</v>
+        <v>0.1372240021386719</v>
       </c>
       <c r="L259" t="n">
-        <v>-0.00138989235857936</v>
+        <v>-0.00178793474547988</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3561521365771556</v>
+        <v>0.3499634249325368</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1405320145427808</v>
+        <v>0.1426797792462622</v>
       </c>
       <c r="O259" t="n">
-        <v>-0.001789472237168857</v>
+        <v>-0.001739758280182396</v>
       </c>
       <c r="P259" t="n">
-        <v>0.5418599041501526</v>
+        <v>0.5418420268471226</v>
       </c>
       <c r="Q259" t="n">
-        <v>0.1424771418596057</v>
+        <v>0.1377772252047823</v>
       </c>
       <c r="R259" t="n">
-        <v>-0.001986340629164269</v>
+        <v>-0.002101917102193988</v>
       </c>
     </row>
     <row r="260">
       <c r="F260" t="n">
-        <v>0.06728873437062721</v>
+        <v>0.06759250515803913</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1376372335054246</v>
+        <v>0.1425279584139676</v>
       </c>
       <c r="H260" t="n">
-        <v>-0.001956057204513395</v>
+        <v>-0.001265339676332708</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1503478867218888</v>
+        <v>0.1553390800469773</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1427178147790774</v>
+        <v>0.1380126458291241</v>
       </c>
       <c r="L260" t="n">
-        <v>-0.00129215454375398</v>
+        <v>-0.001702337052647454</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3564652675058407</v>
+        <v>0.3496868383129496</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1413396697987737</v>
+        <v>0.1434997779775625</v>
       </c>
       <c r="O260" t="n">
-        <v>-0.00173187437685939</v>
+        <v>-0.001590917871718926</v>
       </c>
       <c r="P260" t="n">
-        <v>0.5406783231033742</v>
+        <v>0.5404809181182159</v>
       </c>
       <c r="Q260" t="n">
-        <v>0.1432959760082242</v>
+        <v>0.1385690483381431</v>
       </c>
       <c r="R260" t="n">
-        <v>-0.001876468741383032</v>
+        <v>-0.002009712328985531</v>
       </c>
     </row>
     <row r="261">
       <c r="F261" t="n">
-        <v>0.06728705364842921</v>
+        <v>0.06760293759395816</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1384237319825985</v>
+        <v>0.1433424038906189</v>
       </c>
       <c r="H261" t="n">
-        <v>-0.001956057204513395</v>
+        <v>-0.001265213155017206</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1501994568855803</v>
+        <v>0.1555718750289096</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1435333451492435</v>
+        <v>0.1388012895195762</v>
       </c>
       <c r="L261" t="n">
-        <v>-0.00129215454375398</v>
+        <v>-0.001702337052647454</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3567887256991731</v>
+        <v>0.3495066405576768</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1421473250547668</v>
+        <v>0.1443197767088629</v>
       </c>
       <c r="O261" t="n">
-        <v>-0.00173187437685939</v>
+        <v>-0.001590917871718926</v>
       </c>
       <c r="P261" t="n">
-        <v>0.5399394516281607</v>
+        <v>0.5388892034980841</v>
       </c>
       <c r="Q261" t="n">
-        <v>0.1441148101568426</v>
+        <v>0.1393608714715039</v>
       </c>
       <c r="R261" t="n">
-        <v>-0.001876468741383032</v>
+        <v>-0.002009712328985531</v>
       </c>
     </row>
     <row r="262">
       <c r="F262" t="n">
-        <v>0.06725667624575887</v>
+        <v>0.06762332210597113</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1392102304597723</v>
+        <v>0.1441568493672701</v>
       </c>
       <c r="H262" t="n">
-        <v>-0.001956057204513395</v>
+        <v>-0.001265086633701704</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1500451386839504</v>
+        <v>0.1558536039289317</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1443488755194097</v>
+        <v>0.1395899332100284</v>
       </c>
       <c r="L262" t="n">
-        <v>-0.00129215454375398</v>
+        <v>-0.001702337052647454</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3570716993105686</v>
+        <v>0.3492730430997517</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1429549803107598</v>
+        <v>0.1451397754401632</v>
       </c>
       <c r="O262" t="n">
-        <v>-0.00173187437685939</v>
+        <v>-0.001590917871718926</v>
       </c>
       <c r="P262" t="n">
-        <v>0.5387751258433852</v>
+        <v>0.5373861615354921</v>
       </c>
       <c r="Q262" t="n">
-        <v>0.144933644305461</v>
+        <v>0.1401526946048647</v>
       </c>
       <c r="R262" t="n">
-        <v>-0.001876468741383032</v>
+        <v>-0.002009712328985531</v>
       </c>
     </row>
     <row r="263">
       <c r="F263" t="n">
-        <v>0.0672437219647784</v>
+        <v>0.06762589377666717</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1399967289369462</v>
+        <v>0.1449712948439214</v>
       </c>
       <c r="H263" t="n">
-        <v>-0.001956057204513395</v>
+        <v>-0.001176155162221906</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1499048191317781</v>
+        <v>0.1561428694847757</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1451644058895758</v>
+        <v>0.1403785769004805</v>
       </c>
       <c r="L263" t="n">
-        <v>-0.00129215454375398</v>
+        <v>-0.001702337052647454</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3574154788355178</v>
+        <v>0.3491858728487405</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1437626355667528</v>
+        <v>0.1459597741714636</v>
       </c>
       <c r="O263" t="n">
-        <v>-0.001681569770273473</v>
+        <v>-0.001590917871718926</v>
       </c>
       <c r="P263" t="n">
-        <v>0.5378183368909129</v>
+        <v>0.5357385530544219</v>
       </c>
       <c r="Q263" t="n">
-        <v>0.1457524784540794</v>
+        <v>0.1409445177382256</v>
       </c>
       <c r="R263" t="n">
-        <v>-0.001876468741383032</v>
+        <v>-0.002009712328985531</v>
       </c>
     </row>
     <row r="264">
       <c r="F264" t="n">
-        <v>0.06721128418347777</v>
+        <v>0.06765699122718982</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1407832274141201</v>
+        <v>0.1457857403205726</v>
       </c>
       <c r="H264" t="n">
-        <v>-0.001853957743948195</v>
+        <v>-0.001176155162221906</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1497983267016493</v>
+        <v>0.156480630140641</v>
       </c>
       <c r="K264" t="n">
-        <v>0.145979936259742</v>
+        <v>0.1411672205909326</v>
       </c>
       <c r="L264" t="n">
-        <v>-0.001206444044645021</v>
+        <v>-0.001623714371585816</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3579216318263265</v>
+        <v>0.3489956031161243</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1445702908227457</v>
+        <v>0.1467797729027639</v>
       </c>
       <c r="O264" t="n">
-        <v>-0.001681569770273473</v>
+        <v>-0.001449050514814589</v>
       </c>
       <c r="P264" t="n">
-        <v>0.5365974115433733</v>
+        <v>0.5341070895902073</v>
       </c>
       <c r="Q264" t="n">
-        <v>0.1465713126026979</v>
+        <v>0.1417363408715864</v>
       </c>
       <c r="R264" t="n">
-        <v>-0.001753358255380315</v>
+        <v>-0.001904404089084805</v>
       </c>
     </row>
     <row r="265">
       <c r="F265" t="n">
-        <v>0.06717780052593295</v>
+        <v>0.06765178556867671</v>
       </c>
       <c r="G265" t="n">
-        <v>0.1415697258912939</v>
+        <v>0.1466001857972239</v>
       </c>
       <c r="H265" t="n">
-        <v>-0.001853957743948195</v>
+        <v>-0.001176272789500856</v>
       </c>
       <c r="J265" t="n">
-        <v>0.149665574827654</v>
+        <v>0.1567633526886815</v>
       </c>
       <c r="K265" t="n">
-        <v>0.1467954666299081</v>
+        <v>0.1419558642813848</v>
       </c>
       <c r="L265" t="n">
-        <v>-0.001206444044645021</v>
+        <v>-0.001623714371585816</v>
       </c>
       <c r="M265" t="n">
-        <v>0.3581838390103959</v>
+        <v>0.3487523396956768</v>
       </c>
       <c r="N265" t="n">
-        <v>0.1453779460787387</v>
+        <v>0.1475997716340643</v>
       </c>
       <c r="O265" t="n">
-        <v>-0.001681569770273473</v>
+        <v>-0.001449050514814589</v>
       </c>
       <c r="P265" t="n">
-        <v>0.5355859470418822</v>
+        <v>0.5321035772789282</v>
       </c>
       <c r="Q265" t="n">
-        <v>0.1473901467513163</v>
+        <v>0.1425281640049472</v>
       </c>
       <c r="R265" t="n">
-        <v>-0.001753358255380315</v>
+        <v>-0.001904404089084805</v>
       </c>
     </row>
     <row r="266">
       <c r="F266" t="n">
-        <v>0.06714325913079075</v>
+        <v>0.06768442254722778</v>
       </c>
       <c r="G266" t="n">
-        <v>0.1423562243684678</v>
+        <v>0.1474146312738751</v>
       </c>
       <c r="H266" t="n">
-        <v>-0.001853957743948195</v>
+        <v>-0.001176508044058756</v>
       </c>
       <c r="J266" t="n">
-        <v>0.1494666068435694</v>
+        <v>0.1570939652125242</v>
       </c>
       <c r="K266" t="n">
-        <v>0.1476109970000743</v>
+        <v>0.1427445079718369</v>
       </c>
       <c r="L266" t="n">
-        <v>-0.001206444044645021</v>
+        <v>-0.001623714371585816</v>
       </c>
       <c r="M266" t="n">
-        <v>0.3586082951894748</v>
+        <v>0.3486058247219703</v>
       </c>
       <c r="N266" t="n">
-        <v>0.1461856013347317</v>
+        <v>0.1484197703653647</v>
       </c>
       <c r="O266" t="n">
-        <v>-0.001681569770273473</v>
+        <v>-0.001449050514814589</v>
       </c>
       <c r="P266" t="n">
-        <v>0.5343919921109762</v>
+        <v>0.5305139736629585</v>
       </c>
       <c r="Q266" t="n">
-        <v>0.1482089808999347</v>
+        <v>0.143319987138308</v>
       </c>
       <c r="R266" t="n">
-        <v>-0.001753358255380315</v>
+        <v>-0.001904404089084805</v>
       </c>
     </row>
     <row r="267">
       <c r="F267" t="n">
-        <v>0.06713528596357607</v>
+        <v>0.06769932761547592</v>
       </c>
       <c r="G267" t="n">
-        <v>0.1431427228456416</v>
+        <v>0.1482290767505264</v>
       </c>
       <c r="H267" t="n">
-        <v>-0.001853957743948195</v>
+        <v>-0.001176390416779806</v>
       </c>
       <c r="J267" t="n">
-        <v>0.149281182930798</v>
+        <v>0.1574308440236308</v>
       </c>
       <c r="K267" t="n">
-        <v>0.1484265273702405</v>
+        <v>0.143533151662289</v>
       </c>
       <c r="L267" t="n">
-        <v>-0.001206444044645021</v>
+        <v>-0.001623714371585816</v>
       </c>
       <c r="M267" t="n">
-        <v>0.3589916635896893</v>
+        <v>0.3483068775831091</v>
       </c>
       <c r="N267" t="n">
-        <v>0.1469932565907247</v>
+        <v>0.149239769096665</v>
       </c>
       <c r="O267" t="n">
-        <v>-0.001681569770273473</v>
+        <v>-0.001449050514814589</v>
       </c>
       <c r="P267" t="n">
-        <v>0.533330828038807</v>
+        <v>0.5284041984401471</v>
       </c>
       <c r="Q267" t="n">
-        <v>0.1490278150485531</v>
+        <v>0.1441118102716688</v>
       </c>
       <c r="R267" t="n">
-        <v>-0.001753358255380315</v>
+        <v>-0.001904404089084805</v>
       </c>
     </row>
     <row r="268">
       <c r="F268" t="n">
-        <v>0.06709858528224197</v>
+        <v>0.06772432564584199</v>
       </c>
       <c r="G268" t="n">
-        <v>0.1439292213228155</v>
+        <v>0.1490435222271776</v>
       </c>
       <c r="H268" t="n">
-        <v>-0.001743349064555912</v>
+        <v>-0.001101024325183987</v>
       </c>
       <c r="J268" t="n">
-        <v>0.1491290610310873</v>
+        <v>0.1577321150280787</v>
       </c>
       <c r="K268" t="n">
-        <v>0.1492420577404066</v>
+        <v>0.1443217953527412</v>
       </c>
       <c r="L268" t="n">
-        <v>-0.001134139881490158</v>
+        <v>-0.001551310448247861</v>
       </c>
       <c r="M268" t="n">
-        <v>0.3593337296065906</v>
+        <v>0.348204503973679</v>
       </c>
       <c r="N268" t="n">
-        <v>0.1478009118467177</v>
+        <v>0.1500597678279654</v>
       </c>
       <c r="O268" t="n">
-        <v>-0.001639292626421659</v>
+        <v>-0.001315293084589801</v>
       </c>
       <c r="P268" t="n">
-        <v>0.5323248199193671</v>
+        <v>0.5266353121532288</v>
       </c>
       <c r="Q268" t="n">
-        <v>0.1498466491971716</v>
+        <v>0.1449036334050297</v>
       </c>
       <c r="R268" t="n">
-        <v>-0.001619430014119349</v>
+        <v>-0.001788809220765916</v>
       </c>
     </row>
     <row r="269">
       <c r="F269" t="n">
-        <v>0.06708841197810234</v>
+        <v>0.0677130825156663</v>
       </c>
       <c r="G269" t="n">
-        <v>0.1447157197999893</v>
+        <v>0.1498579677038288</v>
       </c>
       <c r="H269" t="n">
-        <v>-0.001743349064555912</v>
+        <v>-0.001100804142337235</v>
       </c>
       <c r="J269" t="n">
-        <v>0.1489304485139447</v>
+        <v>0.1580804653021195</v>
       </c>
       <c r="K269" t="n">
-        <v>0.1500575881105728</v>
+        <v>0.1451104390431933</v>
       </c>
       <c r="L269" t="n">
-        <v>-0.001134139881490158</v>
+        <v>-0.001551310448247861</v>
       </c>
       <c r="M269" t="n">
-        <v>0.359838167365683</v>
+        <v>0.3480496012995209</v>
       </c>
       <c r="N269" t="n">
-        <v>0.1486085671027107</v>
+        <v>0.1508797665592657</v>
       </c>
       <c r="O269" t="n">
-        <v>-0.001639292626421659</v>
+        <v>-0.001315293084589801</v>
       </c>
       <c r="P269" t="n">
-        <v>0.5309843863133173</v>
+        <v>0.5245106997373284</v>
       </c>
       <c r="Q269" t="n">
-        <v>0.15066548334579</v>
+        <v>0.1456954565383905</v>
       </c>
       <c r="R269" t="n">
-        <v>-0.001619430014119349</v>
+        <v>-0.001788809220765916</v>
       </c>
     </row>
     <row r="270">
       <c r="F270" t="n">
-        <v>0.06704029926730787</v>
+        <v>0.06774906545678333</v>
       </c>
       <c r="G270" t="n">
-        <v>0.1455022182771632</v>
+        <v>0.1506724131804801</v>
       </c>
       <c r="H270" t="n">
-        <v>-0.001743349064555912</v>
+        <v>-0.001100914233760611</v>
       </c>
       <c r="J270" t="n">
-        <v>0.1488046063021796</v>
+        <v>0.1583715734751849</v>
       </c>
       <c r="K270" t="n">
-        <v>0.1508731184807389</v>
+        <v>0.1458990827336455</v>
       </c>
       <c r="L270" t="n">
-        <v>-0.001134139881490158</v>
+        <v>-0.001551310448247861</v>
       </c>
       <c r="M270" t="n">
-        <v>0.3601481414525134</v>
+        <v>0.3477925723325604</v>
       </c>
       <c r="N270" t="n">
-        <v>0.1494162223587037</v>
+        <v>0.1516997652905661</v>
       </c>
       <c r="O270" t="n">
-        <v>-0.001639292626421659</v>
+        <v>-0.001315293084589801</v>
       </c>
       <c r="P270" t="n">
-        <v>0.5299360568210534</v>
+        <v>0.5227314957799766</v>
       </c>
       <c r="Q270" t="n">
-        <v>0.1514843174944084</v>
+        <v>0.1464872796717513</v>
       </c>
       <c r="R270" t="n">
-        <v>-0.001619430014119349</v>
+        <v>-0.001788809220765916</v>
       </c>
     </row>
     <row r="271">
       <c r="F271" t="n">
-        <v>0.06701867791861624</v>
+        <v>0.06774884093818073</v>
       </c>
       <c r="G271" t="n">
-        <v>0.1462887167543371</v>
+        <v>0.1514868586571313</v>
       </c>
       <c r="H271" t="n">
-        <v>-0.001743349064555912</v>
+        <v>-0.001040430253821566</v>
       </c>
       <c r="J271" t="n">
-        <v>0.1485923403668151</v>
+        <v>0.1587508999730444</v>
       </c>
       <c r="K271" t="n">
-        <v>0.1516886488509051</v>
+        <v>0.1466877264240976</v>
       </c>
       <c r="L271" t="n">
-        <v>-0.001134139881490158</v>
+        <v>-0.001551310448247861</v>
       </c>
       <c r="M271" t="n">
-        <v>0.3605183370543267</v>
+        <v>0.3476326718253694</v>
       </c>
       <c r="N271" t="n">
-        <v>0.1502238776146967</v>
+        <v>0.1525197640218665</v>
       </c>
       <c r="O271" t="n">
-        <v>-0.001639292626421659</v>
+        <v>-0.001315293084589801</v>
       </c>
       <c r="P271" t="n">
-        <v>0.5287125136137875</v>
+        <v>0.5206046018769572</v>
       </c>
       <c r="Q271" t="n">
-        <v>0.1523031516430268</v>
+        <v>0.1472791028051121</v>
       </c>
       <c r="R271" t="n">
-        <v>-0.001619430014119349</v>
+        <v>-0.001788809220765916</v>
       </c>
     </row>
     <row r="272">
       <c r="F272" t="n">
-        <v>0.06698671666350506</v>
+        <v>0.0677959081197608</v>
       </c>
       <c r="G272" t="n">
-        <v>0.1470752152315109</v>
+        <v>0.1523013041337826</v>
       </c>
       <c r="H272" t="n">
-        <v>-0.001613096640640589</v>
+        <v>-0.001040430253821566</v>
       </c>
       <c r="J272" t="n">
-        <v>0.1484128002721735</v>
+        <v>0.1590721830711133</v>
       </c>
       <c r="K272" t="n">
-        <v>0.1525041792210712</v>
+        <v>0.1474763701145497</v>
       </c>
       <c r="L272" t="n">
-        <v>-0.001076621074527061</v>
+        <v>-0.001487295498760037</v>
       </c>
       <c r="M272" t="n">
-        <v>0.3609487781520534</v>
+        <v>0.3473709612599243</v>
       </c>
       <c r="N272" t="n">
-        <v>0.1510315328706897</v>
+        <v>0.1533397627531668</v>
       </c>
       <c r="O272" t="n">
-        <v>-0.001605777154314501</v>
+        <v>-0.00119009108363609</v>
       </c>
       <c r="P272" t="n">
-        <v>0.5274712263717825</v>
+        <v>0.518520136339127</v>
       </c>
       <c r="Q272" t="n">
-        <v>0.1531219857916453</v>
+        <v>0.1480709259384729</v>
       </c>
       <c r="R272" t="n">
-        <v>-0.001477104860563366</v>
+        <v>-0.001665439535838712</v>
       </c>
     </row>
     <row r="273">
       <c r="F273" t="n">
-        <v>0.06693521847037442</v>
+        <v>0.06779752125719027</v>
       </c>
       <c r="G273" t="n">
-        <v>0.1478617137086848</v>
+        <v>0.1531157496104338</v>
       </c>
       <c r="H273" t="n">
-        <v>-0.001613096640640589</v>
+        <v>-0.001040326231600628</v>
       </c>
       <c r="J273" t="n">
-        <v>0.1481468569875449</v>
+        <v>0.1594185390548351</v>
       </c>
       <c r="K273" t="n">
-        <v>0.1533197095912374</v>
+        <v>0.1482650138050019</v>
       </c>
       <c r="L273" t="n">
-        <v>-0.001076621074527061</v>
+        <v>-0.001487295498760037</v>
       </c>
       <c r="M273" t="n">
-        <v>0.3614394942855086</v>
+        <v>0.3471071063078157</v>
       </c>
       <c r="N273" t="n">
-        <v>0.1518391881266827</v>
+        <v>0.1541597614844672</v>
       </c>
       <c r="O273" t="n">
-        <v>-0.001605777154314501</v>
+        <v>-0.00119009108363609</v>
       </c>
       <c r="P273" t="n">
-        <v>0.5262134678980384</v>
+        <v>0.5162510035262209</v>
       </c>
       <c r="Q273" t="n">
-        <v>0.1539408199402637</v>
+        <v>0.1488627490718337</v>
       </c>
       <c r="R273" t="n">
-        <v>-0.001477104860563366</v>
+        <v>-0.001665439535838712</v>
       </c>
     </row>
     <row r="274">
       <c r="F274" t="n">
-        <v>0.06692852882270636</v>
+        <v>0.06783720838409377</v>
       </c>
       <c r="G274" t="n">
-        <v>0.1486482121858586</v>
+        <v>0.1539301950870851</v>
       </c>
       <c r="H274" t="n">
-        <v>-0.001613096640640589</v>
+        <v>-0.00104022220937969</v>
       </c>
       <c r="J274" t="n">
-        <v>0.1479728151818647</v>
+        <v>0.1597268138313271</v>
       </c>
       <c r="K274" t="n">
-        <v>0.1541352399614035</v>
+        <v>0.149053657495454</v>
       </c>
       <c r="L274" t="n">
-        <v>-0.001076621074527061</v>
+        <v>-0.001487295498760037</v>
       </c>
       <c r="M274" t="n">
-        <v>0.3619905204537857</v>
+        <v>0.3469902913083931</v>
       </c>
       <c r="N274" t="n">
-        <v>0.1526468433826757</v>
+        <v>0.1549797602157675</v>
       </c>
       <c r="O274" t="n">
-        <v>-0.001605777154314501</v>
+        <v>-0.00119009108363609</v>
       </c>
       <c r="P274" t="n">
-        <v>0.5249405109955554</v>
+        <v>0.5141075908032028</v>
       </c>
       <c r="Q274" t="n">
-        <v>0.1547596540888821</v>
+        <v>0.1496545722051946</v>
       </c>
       <c r="R274" t="n">
-        <v>-0.001477104860563366</v>
+        <v>-0.001665439535838712</v>
       </c>
     </row>
     <row r="275">
       <c r="F275" t="n">
-        <v>0.06687470837893364</v>
+        <v>0.06784074492457742</v>
       </c>
       <c r="G275" t="n">
-        <v>0.1494347106630325</v>
+        <v>0.1547446405637363</v>
       </c>
       <c r="H275" t="n">
-        <v>-0.001613096640640589</v>
+        <v>-0.001040430253821566</v>
       </c>
       <c r="J275" t="n">
-        <v>0.1477320570597178</v>
+        <v>0.1601225224544088</v>
       </c>
       <c r="K275" t="n">
-        <v>0.1549507703315697</v>
+        <v>0.1498423011859061</v>
       </c>
       <c r="L275" t="n">
-        <v>-0.001076621074527061</v>
+        <v>-0.001487295498760037</v>
       </c>
       <c r="M275" t="n">
-        <v>0.3622944895811592</v>
+        <v>0.3466727660118891</v>
       </c>
       <c r="N275" t="n">
-        <v>0.1534544986386686</v>
+        <v>0.1557997589470679</v>
       </c>
       <c r="O275" t="n">
-        <v>-0.001605777154314501</v>
+        <v>-0.00119009108363609</v>
       </c>
       <c r="P275" t="n">
-        <v>0.5234215787887294</v>
+        <v>0.5121682411626521</v>
       </c>
       <c r="Q275" t="n">
-        <v>0.1555784882375005</v>
+        <v>0.1504463953385554</v>
       </c>
       <c r="R275" t="n">
-        <v>-0.001477104860563366</v>
+        <v>-0.001665439535838712</v>
       </c>
     </row>
     <row r="276">
       <c r="F276" t="n">
-        <v>0.06685645310779503</v>
+        <v>0.06786384414686331</v>
       </c>
       <c r="G276" t="n">
-        <v>0.1502212091402063</v>
+        <v>0.1555590860403876</v>
       </c>
       <c r="H276" t="n">
-        <v>-0.001473882933284245</v>
+        <v>-0.0009963580509301248</v>
       </c>
       <c r="J276" t="n">
-        <v>0.1475431786677945</v>
+        <v>0.1604584367878888</v>
       </c>
       <c r="K276" t="n">
-        <v>0.1557663007017359</v>
+        <v>0.1506309448763583</v>
       </c>
       <c r="L276" t="n">
-        <v>-0.001035266643993405</v>
+        <v>-0.001431467414519886</v>
       </c>
       <c r="M276" t="n">
-        <v>0.3628634198790082</v>
+        <v>0.346552071943478</v>
       </c>
       <c r="N276" t="n">
-        <v>0.1542621538946617</v>
+        <v>0.1566197576783682</v>
       </c>
       <c r="O276" t="n">
-        <v>-0.001581757562962552</v>
+        <v>-0.001074109742753724</v>
       </c>
       <c r="P276" t="n">
-        <v>0.5223540931163737</v>
+        <v>0.5097505672499555</v>
       </c>
       <c r="Q276" t="n">
-        <v>0.1563973223861189</v>
+        <v>0.1512382184719162</v>
       </c>
       <c r="R276" t="n">
-        <v>-0.001328803637675601</v>
+        <v>-0.001535622753051867</v>
       </c>
     </row>
     <row r="277">
       <c r="F277" t="n">
-        <v>0.06679108592431579</v>
+        <v>0.06789725319988982</v>
       </c>
       <c r="G277" t="n">
-        <v>0.1510077076173802</v>
+        <v>0.1563735315170388</v>
       </c>
       <c r="H277" t="n">
-        <v>-0.001473882933284245</v>
+        <v>-0.0009965573225403108</v>
       </c>
       <c r="J277" t="n">
-        <v>0.1472480484575987</v>
+        <v>0.1608182284783313</v>
       </c>
       <c r="K277" t="n">
-        <v>0.156581831071902</v>
+        <v>0.1514195885668104</v>
       </c>
       <c r="L277" t="n">
-        <v>-0.001035266643993405</v>
+        <v>-0.001431467414519886</v>
       </c>
       <c r="M277" t="n">
-        <v>0.3632872867544927</v>
+        <v>0.3462806987802914</v>
       </c>
       <c r="N277" t="n">
-        <v>0.1550698091506547</v>
+        <v>0.1574397564096686</v>
       </c>
       <c r="O277" t="n">
-        <v>-0.001581757562962552</v>
+        <v>-0.001074109742753724</v>
       </c>
       <c r="P277" t="n">
-        <v>0.5210431777456752</v>
+        <v>0.5075438102188916</v>
       </c>
       <c r="Q277" t="n">
-        <v>0.1572161565347374</v>
+        <v>0.152030041605277</v>
       </c>
       <c r="R277" t="n">
-        <v>-0.001328803637675601</v>
+        <v>-0.001535622753051867</v>
       </c>
     </row>
     <row r="278">
       <c r="F278" t="n">
-        <v>0.0667520614580909</v>
+        <v>0.06791312777576497</v>
       </c>
       <c r="G278" t="n">
-        <v>0.151794206094554</v>
+        <v>0.15718797699369</v>
       </c>
       <c r="H278" t="n">
-        <v>-0.001473882933284245</v>
+        <v>-0.0009962584151250319</v>
       </c>
       <c r="J278" t="n">
-        <v>0.1470636465545761</v>
+        <v>0.1612016718438968</v>
       </c>
       <c r="K278" t="n">
-        <v>0.1573973614420682</v>
+        <v>0.1522082322572626</v>
       </c>
       <c r="L278" t="n">
-        <v>-0.001035266643993405</v>
+        <v>-0.001431467414519886</v>
       </c>
       <c r="M278" t="n">
-        <v>0.3638224459230804</v>
+        <v>0.3459581645129523</v>
       </c>
       <c r="N278" t="n">
-        <v>0.1558774644066476</v>
+        <v>0.158259755140969</v>
       </c>
       <c r="O278" t="n">
-        <v>-0.001581757562962552</v>
+        <v>-0.001074109742753724</v>
       </c>
       <c r="P278" t="n">
-        <v>0.5197221551582383</v>
+        <v>0.5055494117172591</v>
       </c>
       <c r="Q278" t="n">
-        <v>0.1580349906833558</v>
+        <v>0.1528218647386378</v>
       </c>
       <c r="R278" t="n">
-        <v>-0.001328803637675601</v>
+        <v>-0.001535622753051867</v>
       </c>
     </row>
     <row r="279">
       <c r="F279" t="n">
-        <v>0.06673016030460552</v>
+        <v>0.06794865028087335</v>
       </c>
       <c r="G279" t="n">
-        <v>0.1525807045717279</v>
+        <v>0.1580024224703413</v>
       </c>
       <c r="H279" t="n">
-        <v>-0.001473882933284245</v>
+        <v>-0.0009962584151250319</v>
       </c>
       <c r="J279" t="n">
-        <v>0.1467729700833206</v>
+        <v>0.1615662336403741</v>
       </c>
       <c r="K279" t="n">
-        <v>0.1582128918122343</v>
+        <v>0.1529968759477147</v>
       </c>
       <c r="L279" t="n">
-        <v>-0.001035266643993405</v>
+        <v>-0.001431467414519886</v>
       </c>
       <c r="M279" t="n">
-        <v>0.3642119589063066</v>
+        <v>0.3458325449551596</v>
       </c>
       <c r="N279" t="n">
-        <v>0.1566851196626406</v>
+        <v>0.1590797538722693</v>
       </c>
       <c r="O279" t="n">
-        <v>-0.001581757562962552</v>
+        <v>-0.001074109742753724</v>
       </c>
       <c r="P279" t="n">
-        <v>0.5183154742920207</v>
+        <v>0.5032415733971496</v>
       </c>
       <c r="Q279" t="n">
-        <v>0.1588538248319742</v>
+        <v>0.1536136878719987</v>
       </c>
       <c r="R279" t="n">
-        <v>-0.001328803637675601</v>
+        <v>-0.001535622753051867</v>
       </c>
     </row>
     <row r="280">
       <c r="F280" t="n">
-        <v>0.06669784154612091</v>
+        <v>0.06795737552608075</v>
       </c>
       <c r="G280" t="n">
-        <v>0.1533672030489018</v>
+        <v>0.1588168679469925</v>
       </c>
       <c r="H280" t="n">
-        <v>-0.001324103114778259</v>
+        <v>-0.0009703215337198475</v>
       </c>
       <c r="J280" t="n">
-        <v>0.1465531558747749</v>
+        <v>0.1619538532183569</v>
       </c>
       <c r="K280" t="n">
-        <v>0.1590284221824005</v>
+        <v>0.1537855196381668</v>
       </c>
       <c r="L280" t="n">
-        <v>-0.001011455610126859</v>
+        <v>-0.00138472667646178</v>
       </c>
       <c r="M280" t="n">
-        <v>0.3648670892622476</v>
+        <v>0.3456559075600234</v>
       </c>
       <c r="N280" t="n">
-        <v>0.1574927749186336</v>
+        <v>0.1598997526035697</v>
       </c>
       <c r="O280" t="n">
-        <v>-0.001567968061376366</v>
+        <v>-0.0009670639172820423</v>
       </c>
       <c r="P280" t="n">
-        <v>0.5169014992453015</v>
+        <v>0.5008516809029285</v>
       </c>
       <c r="Q280" t="n">
-        <v>0.1596726589805927</v>
+        <v>0.1544055110053595</v>
       </c>
       <c r="R280" t="n">
-        <v>-0.001176947188419283</v>
+        <v>-0.00140192734124081</v>
       </c>
     </row>
     <row r="281">
       <c r="F281" t="n">
-        <v>0.06663677772174345</v>
+        <v>0.06800439691111793</v>
       </c>
       <c r="G281" t="n">
-        <v>0.1541537015260756</v>
+        <v>0.1596313134236438</v>
       </c>
       <c r="H281" t="n">
-        <v>-0.001324103114778259</v>
+        <v>-0.0009706126592925207</v>
       </c>
       <c r="J281" t="n">
-        <v>0.1462860328632111</v>
+        <v>0.1622581676381059</v>
       </c>
       <c r="K281" t="n">
-        <v>0.1598439525525666</v>
+        <v>0.154574163328619</v>
       </c>
       <c r="L281" t="n">
-        <v>-0.001011455610126859</v>
+        <v>-0.00138472667646178</v>
       </c>
       <c r="M281" t="n">
-        <v>0.3652216954588802</v>
+        <v>0.3452798374003376</v>
       </c>
       <c r="N281" t="n">
-        <v>0.1583004301746266</v>
+        <v>0.16071975133487</v>
       </c>
       <c r="O281" t="n">
-        <v>-0.001567968061376366</v>
+        <v>-0.0009670639172820423</v>
       </c>
       <c r="P281" t="n">
-        <v>0.5157111721255</v>
+        <v>0.498683309719598</v>
       </c>
       <c r="Q281" t="n">
-        <v>0.1604914931292111</v>
+        <v>0.1551973341387203</v>
       </c>
       <c r="R281" t="n">
-        <v>-0.001176947188419283</v>
+        <v>-0.00140192734124081</v>
       </c>
     </row>
     <row r="282">
       <c r="F282" t="n">
-        <v>0.06660195153753884</v>
+        <v>0.06804325898171118</v>
       </c>
       <c r="G282" t="n">
-        <v>0.1549402000032495</v>
+        <v>0.160445758900295</v>
       </c>
       <c r="H282" t="n">
-        <v>-0.001324103114778259</v>
+        <v>-0.0009703215337198475</v>
       </c>
       <c r="J282" t="n">
-        <v>0.1459716540281625</v>
+        <v>0.1626272546549971</v>
       </c>
       <c r="K282" t="n">
-        <v>0.1606594829227328</v>
+        <v>0.1553628070190711</v>
       </c>
       <c r="L282" t="n">
-        <v>-0.001011455610126859</v>
+        <v>-0.00138472667646178</v>
       </c>
       <c r="M282" t="n">
-        <v>0.3657905446779952</v>
+        <v>0.3451008054892796</v>
       </c>
       <c r="N282" t="n">
-        <v>0.1591080854306196</v>
+        <v>0.1615397500661704</v>
       </c>
       <c r="O282" t="n">
-        <v>-0.001567968061376366</v>
+        <v>-0.0009670639172820423</v>
       </c>
       <c r="P282" t="n">
-        <v>0.5142096067797557</v>
+        <v>0.4965139363609566</v>
       </c>
       <c r="Q282" t="n">
-        <v>0.1613103272778295</v>
+        <v>0.1559891572720811</v>
       </c>
       <c r="R282" t="n">
-        <v>-0.001176947188419283</v>
+        <v>-0.00140192734124081</v>
       </c>
     </row>
     <row r="283">
       <c r="F283" t="n">
-        <v>0.06654753707697406</v>
+        <v>0.06805536422329872</v>
       </c>
       <c r="G283" t="n">
-        <v>0.1557266984804233</v>
+        <v>0.1612602043769462</v>
       </c>
       <c r="H283" t="n">
-        <v>-0.001203510265792674</v>
+        <v>-0.0009637090748201627</v>
       </c>
       <c r="J283" t="n">
-        <v>0.1456883574068867</v>
+        <v>0.1630185091260364</v>
       </c>
       <c r="K283" t="n">
-        <v>0.161475013292899</v>
+        <v>0.1561514507095232</v>
       </c>
       <c r="L283" t="n">
-        <v>-0.001005939755651466</v>
+        <v>-0.001356270592050928</v>
       </c>
       <c r="M283" t="n">
-        <v>0.3663160025200426</v>
+        <v>0.3449207051993375</v>
       </c>
       <c r="N283" t="n">
-        <v>0.1599157406866126</v>
+        <v>0.1623597487974708</v>
       </c>
       <c r="O283" t="n">
-        <v>-0.001564781104203418</v>
+        <v>-0.0008933147876600743</v>
       </c>
       <c r="P283" t="n">
-        <v>0.5127811248518079</v>
+        <v>0.49419814895894</v>
       </c>
       <c r="Q283" t="n">
-        <v>0.1621291614264479</v>
+        <v>0.1567809804054419</v>
       </c>
       <c r="R283" t="n">
-        <v>-0.001062178022517752</v>
+        <v>-0.001300570320011851</v>
       </c>
     </row>
     <row r="284">
       <c r="F284" t="n">
-        <v>0.06651930020000002</v>
+        <v>0.06807794127500003</v>
       </c>
       <c r="G284" t="n">
-        <v>0.1565131969575972</v>
+        <v>0.1620746498535975</v>
       </c>
       <c r="H284" t="n">
-        <v>-0.001203510265792674</v>
+        <v>-0.0009637090748201627</v>
       </c>
       <c r="J284" t="n">
-        <v>0.1454358657377331</v>
+        <v>0.1633676919458568</v>
       </c>
       <c r="K284" t="n">
-        <v>0.1622905436630651</v>
+        <v>0.1569400943999754</v>
       </c>
       <c r="L284" t="n">
-        <v>-0.001005939755651466</v>
+        <v>-0.001356270592050928</v>
       </c>
       <c r="M284" t="n">
-        <v>0.3669528666012116</v>
+        <v>0.3446901885955957</v>
       </c>
       <c r="N284" t="n">
-        <v>0.1607233959426056</v>
+        <v>0.1631797475287711</v>
       </c>
       <c r="O284" t="n">
-        <v>-0.001564781104203418</v>
+        <v>-0.0008933147876600743</v>
       </c>
       <c r="P284" t="n">
-        <v>0.5115788947756724</v>
+        <v>0.4918891102129299</v>
       </c>
       <c r="Q284" t="n">
-        <v>0.1629479955750663</v>
+        <v>0.1575728035388027</v>
       </c>
       <c r="R284" t="n">
-        <v>-0.001062178022517752</v>
+        <v>-0.001300570320011851</v>
       </c>
     </row>
   </sheetData>

--- a/prot/356379915/Переход трубопровода через р. Енисей/Трехосные_КД_ПП/1067.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/Трехосные_КД_ПП/1067.xlsx
@@ -7564,7 +7564,7 @@
         <v>0.09000000000000002</v>
       </c>
       <c r="N86" t="n">
-        <v>0.000797229082992926</v>
+        <v>0.0008326614866815005</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>0.15</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.0006812684891030459</v>
+        <v>0.0008058014387240329</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -7591,37 +7591,37 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03490161105638619</v>
+        <v>0.03477395878236837</v>
       </c>
       <c r="G87" t="n">
-        <v>0.001628890953302487</v>
+        <v>0.001623286405981819</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0.05712536613081751</v>
+        <v>0.05835093274946425</v>
       </c>
       <c r="K87" t="n">
-        <v>0.001577287380904275</v>
+        <v>0.001617276583408506</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0.1589672704285072</v>
+        <v>0.152270675655456</v>
       </c>
       <c r="N87" t="n">
-        <v>0.001639997462600715</v>
+        <v>0.001605177947324857</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>0.2759807621135332</v>
+        <v>0.2504306055847317</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.001671262194014168</v>
+        <v>0.001572478034186233</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -7643,13 +7643,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0366516512377572</v>
+        <v>0.03632904285283061</v>
       </c>
       <c r="G88" t="n">
-        <v>0.002443336429953731</v>
+        <v>0.002434929608972728</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.003276341119816671</v>
+        <v>-0.002426007063078343</v>
       </c>
       <c r="J88" t="n">
         <v>0.07598076211353315</v>
@@ -7658,25 +7658,25 @@
         <v>0.002530650173625918</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.003707054459623492</v>
+        <v>-0.003543131634438338</v>
       </c>
       <c r="M88" t="n">
         <v>0.1759807621135332</v>
       </c>
       <c r="N88" t="n">
-        <v>0.002078473801543234</v>
+        <v>0.002170850414945155</v>
       </c>
       <c r="O88" t="n">
-        <v>-0.004493442315228633</v>
+        <v>-0.003091309767575296</v>
       </c>
       <c r="P88" t="n">
-        <v>0.2879075333622736</v>
+        <v>0.2759807621135332</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.002375469400082453</v>
+        <v>0.001976761734855467</v>
       </c>
       <c r="R88" t="n">
-        <v>-0.001190038089647299</v>
+        <v>-0.004302229570514346</v>
       </c>
     </row>
     <row r="89">
@@ -7697,40 +7697,40 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03824743670239721</v>
+        <v>0.0377475417683805</v>
       </c>
       <c r="G89" t="n">
-        <v>0.003257781906604975</v>
+        <v>0.003246572811963637</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.003276668721168518</v>
+        <v>-0.002426007063078343</v>
       </c>
       <c r="J89" t="n">
-        <v>0.07922105575011544</v>
+        <v>0.07961096544723374</v>
       </c>
       <c r="K89" t="n">
-        <v>0.003154574761808551</v>
+        <v>0.003234553166817011</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.003707054459623492</v>
+        <v>-0.003543131634438338</v>
       </c>
       <c r="M89" t="n">
-        <v>0.18927833210951</v>
+        <v>0.1865403966202425</v>
       </c>
       <c r="N89" t="n">
-        <v>0.003279994925201429</v>
+        <v>0.003210355894649713</v>
       </c>
       <c r="O89" t="n">
-        <v>-0.004493442315228633</v>
+        <v>-0.003091309767575296</v>
       </c>
       <c r="P89" t="n">
-        <v>0.3003107426265995</v>
+        <v>0.2982238198044194</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.003167292533443271</v>
+        <v>0.003144956068372465</v>
       </c>
       <c r="R89" t="n">
-        <v>-0.001190038089647299</v>
+        <v>-0.004302229570514346</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
@@ -7743,40 +7743,40 @@
         <v/>
       </c>
       <c r="F90" t="n">
-        <v>0.0396887540402635</v>
+        <v>0.03901786736125024</v>
       </c>
       <c r="G90" t="n">
-        <v>0.004072227383256219</v>
+        <v>0.004058216014954547</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.003276341119816671</v>
+        <v>-0.002426007063078343</v>
       </c>
       <c r="J90" t="n">
-        <v>0.08303759755584512</v>
+        <v>0.08350430403522581</v>
       </c>
       <c r="K90" t="n">
-        <v>0.003943218452260688</v>
+        <v>0.004043191458521264</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.003707054459623492</v>
+        <v>-0.003543131634438338</v>
       </c>
       <c r="M90" t="n">
-        <v>0.1975825668122707</v>
+        <v>0.1939146525199268</v>
       </c>
       <c r="N90" t="n">
-        <v>0.004099993656501787</v>
+        <v>0.004012944868312142</v>
       </c>
       <c r="O90" t="n">
-        <v>-0.004493442315228633</v>
+        <v>-0.003091309767575296</v>
       </c>
       <c r="P90" t="n">
-        <v>0.3114809179852124</v>
+        <v>0.3114627008413213</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.003959115666804089</v>
+        <v>0.003931195085465581</v>
       </c>
       <c r="R90" t="n">
-        <v>-0.001190038089647299</v>
+        <v>-0.004302229570514346</v>
       </c>
     </row>
     <row r="91">
@@ -7786,40 +7786,40 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.0410212354359113</v>
+        <v>0.04018570221159991</v>
       </c>
       <c r="G91" t="n">
-        <v>0.004886672859907462</v>
+        <v>0.004869859217945456</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.003276668721168518</v>
+        <v>-0.002425521958686606</v>
       </c>
       <c r="J91" t="n">
-        <v>0.08653273027878801</v>
+        <v>0.0871271863556161</v>
       </c>
       <c r="K91" t="n">
-        <v>0.004731862142712826</v>
+        <v>0.004851829750225516</v>
       </c>
       <c r="L91" t="n">
-        <v>-0.003707054459623492</v>
+        <v>-0.003543131634438338</v>
       </c>
       <c r="M91" t="n">
-        <v>0.2049938769486664</v>
+        <v>0.2007463164956777</v>
       </c>
       <c r="N91" t="n">
-        <v>0.004919992387802143</v>
+        <v>0.004815533841974569</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.004493442315228633</v>
+        <v>-0.003091309767575296</v>
       </c>
       <c r="P91" t="n">
-        <v>0.321973428772262</v>
+        <v>0.323853475708894</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.004750938800164906</v>
+        <v>0.004717434102558697</v>
       </c>
       <c r="R91" t="n">
-        <v>-0.001190038089647299</v>
+        <v>-0.004302229570514346</v>
       </c>
     </row>
     <row r="92">
@@ -7831,40 +7831,40 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.04223984710792519</v>
+        <v>0.04123322418126511</v>
       </c>
       <c r="G92" t="n">
-        <v>0.005701118336558705</v>
+        <v>0.005681502420936365</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.003594898386102129</v>
+        <v>-0.003018455255077614</v>
       </c>
       <c r="J92" t="n">
-        <v>0.08976143421064899</v>
+        <v>0.09043983968595963</v>
       </c>
       <c r="K92" t="n">
-        <v>0.005520505833164963</v>
+        <v>0.00566046804192977</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.003663809863120298</v>
+        <v>-0.003624553089020657</v>
       </c>
       <c r="M92" t="n">
-        <v>0.2119713692931974</v>
+        <v>0.2069303744301605</v>
       </c>
       <c r="N92" t="n">
-        <v>0.005739991119102501</v>
+        <v>0.005618122815636999</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.004221213318388258</v>
+        <v>-0.003049370888478284</v>
       </c>
       <c r="P92" t="n">
-        <v>0.3313334412387926</v>
+        <v>0.3350087472028377</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.005542761933525725</v>
+        <v>0.005503673119651814</v>
       </c>
       <c r="R92" t="n">
-        <v>-0.001380250883903495</v>
+        <v>-0.004026910746314599</v>
       </c>
     </row>
     <row r="93">
@@ -7877,154 +7877,154 @@
         <v/>
       </c>
       <c r="F93" t="n">
-        <v>0.0433452974656938</v>
+        <v>0.04216105822350264</v>
       </c>
       <c r="G93" t="n">
-        <v>0.006515563813209949</v>
+        <v>0.006493145623927274</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.003594898386102129</v>
+        <v>-0.003019360882216851</v>
       </c>
       <c r="J93" t="n">
-        <v>0.09273975636640251</v>
+        <v>0.09345468683613613</v>
       </c>
       <c r="K93" t="n">
-        <v>0.006309149523617101</v>
+        <v>0.006469106333634023</v>
       </c>
       <c r="L93" t="n">
-        <v>-0.003663809863120298</v>
+        <v>-0.003624553089020657</v>
       </c>
       <c r="M93" t="n">
-        <v>0.2181964880903546</v>
+        <v>0.2127147066890759</v>
       </c>
       <c r="N93" t="n">
-        <v>0.006559989850402859</v>
+        <v>0.006420711789299426</v>
       </c>
       <c r="O93" t="n">
-        <v>-0.004221213318388258</v>
+        <v>-0.003049370888478284</v>
       </c>
       <c r="P93" t="n">
-        <v>0.340134486276067</v>
+        <v>0.3451601041943806</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.006334585066886543</v>
+        <v>0.00628991213674493</v>
       </c>
       <c r="R93" t="n">
-        <v>-0.001380250883903495</v>
+        <v>-0.004026910746314599</v>
       </c>
     </row>
     <row r="94">
       <c r="F94" t="n">
-        <v>0.04432396805597504</v>
+        <v>0.043017161724834</v>
       </c>
       <c r="G94" t="n">
-        <v>0.007330009289861193</v>
+        <v>0.007304788826918184</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.00359525783999535</v>
+        <v>-0.003019360882216851</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0954399603749093</v>
+        <v>0.09628684807151207</v>
       </c>
       <c r="K94" t="n">
-        <v>0.007097793214069239</v>
+        <v>0.007277744625338275</v>
       </c>
       <c r="L94" t="n">
-        <v>-0.003663809863120298</v>
+        <v>-0.003624553089020657</v>
       </c>
       <c r="M94" t="n">
-        <v>0.2239239767093423</v>
+        <v>0.217845286198692</v>
       </c>
       <c r="N94" t="n">
-        <v>0.007379988581703216</v>
+        <v>0.007223300762961854</v>
       </c>
       <c r="O94" t="n">
-        <v>-0.004221213318388258</v>
+        <v>-0.003049370888478284</v>
       </c>
       <c r="P94" t="n">
-        <v>0.3479041108713412</v>
+        <v>0.3544915530815009</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.00712640820024736</v>
+        <v>0.007076151153838046</v>
       </c>
       <c r="R94" t="n">
-        <v>-0.001380250883903495</v>
+        <v>-0.004026910746314599</v>
       </c>
     </row>
     <row r="95">
       <c r="F95" t="n">
-        <v>0.04521735064302688</v>
+        <v>0.04376889074177951</v>
       </c>
       <c r="G95" t="n">
-        <v>0.008144454766512437</v>
+        <v>0.008116432029909094</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.003594538932208909</v>
+        <v>-0.003018455255077614</v>
       </c>
       <c r="J95" t="n">
-        <v>0.09790514607889635</v>
+        <v>0.09879101659890784</v>
       </c>
       <c r="K95" t="n">
-        <v>0.007886436904521376</v>
+        <v>0.008086382917042528</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.003663809863120298</v>
+        <v>-0.003624553089020657</v>
       </c>
       <c r="M95" t="n">
-        <v>0.2290053728275592</v>
+        <v>0.2224616696335042</v>
       </c>
       <c r="N95" t="n">
-        <v>0.008199987313003573</v>
+        <v>0.008025889736624284</v>
       </c>
       <c r="O95" t="n">
-        <v>-0.004221213318388258</v>
+        <v>-0.003049370888478284</v>
       </c>
       <c r="P95" t="n">
-        <v>0.3550494780152086</v>
+        <v>0.3628260593612835</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.007918231333608179</v>
+        <v>0.007862390170931162</v>
       </c>
       <c r="R95" t="n">
-        <v>-0.0016939216343669</v>
+        <v>-0.004026910746314599</v>
       </c>
     </row>
     <row r="96">
       <c r="F96" t="n">
-        <v>0.04601899020492257</v>
+        <v>0.0444442785901114</v>
       </c>
       <c r="G96" t="n">
-        <v>0.008958900243163681</v>
+        <v>0.008928075232900002</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.003817343804210871</v>
+        <v>-0.003452218093926644</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1001804908938727</v>
+        <v>0.101113234458359</v>
       </c>
       <c r="K96" t="n">
-        <v>0.008675080594973513</v>
+        <v>0.008895021208746781</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.003576863602579798</v>
+        <v>-0.003681014524535314</v>
       </c>
       <c r="M96" t="n">
-        <v>0.2336659490996957</v>
+        <v>0.2267472879893203</v>
       </c>
       <c r="N96" t="n">
-        <v>0.009019986044303931</v>
+        <v>0.008828478710286712</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.003736816097233686</v>
+        <v>-0.002966280882681001</v>
       </c>
       <c r="P96" t="n">
-        <v>0.3614446266282795</v>
+        <v>0.3704077843373816</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.008710054466968997</v>
+        <v>0.008648629188024278</v>
       </c>
       <c r="R96" t="n">
-        <v>-0.0016939216343669</v>
+        <v>-0.003540282712037781</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
@@ -8038,7160 +8038,7160 @@
         <v/>
       </c>
       <c r="F97" t="n">
-        <v>0.04674327373983325</v>
+        <v>0.04502315055854127</v>
       </c>
       <c r="G97" t="n">
-        <v>0.009773345719814924</v>
+        <v>0.009739718435890912</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.003817343804210871</v>
+        <v>-0.003452218093926644</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1022367002691126</v>
+        <v>0.1032393585098895</v>
       </c>
       <c r="K97" t="n">
-        <v>0.009463724285425652</v>
+        <v>0.009703659500451033</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.003576863602579798</v>
+        <v>-0.003681014524535314</v>
       </c>
       <c r="M97" t="n">
-        <v>0.2379075016536381</v>
+        <v>0.2305494191959499</v>
       </c>
       <c r="N97" t="n">
-        <v>0.009839984775604287</v>
+        <v>0.009631067683949139</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.003736816097233686</v>
+        <v>-0.002966280882681001</v>
       </c>
       <c r="P97" t="n">
-        <v>0.3670176095664909</v>
+        <v>0.3772390926922166</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.009501877600329812</v>
+        <v>0.009434868205117394</v>
       </c>
       <c r="R97" t="n">
-        <v>-0.0016939216343669</v>
+        <v>-0.003540282712037781</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04737589093643408</v>
+        <v>0.04554088984258362</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01058779119646617</v>
+        <v>0.01055136163888182</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.003817725538591292</v>
+        <v>-0.003452908537545429</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1040728240657439</v>
+        <v>0.1051378271490852</v>
       </c>
       <c r="K98" t="n">
-        <v>0.01025236797587779</v>
+        <v>0.01051229779215529</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.003576863602579798</v>
+        <v>-0.003681014524535314</v>
       </c>
       <c r="M98" t="n">
-        <v>0.2416122838278361</v>
+        <v>0.2340533565927251</v>
       </c>
       <c r="N98" t="n">
-        <v>0.01065998350690465</v>
+        <v>0.01043365665761157</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.003736816097233686</v>
+        <v>-0.002966280882681001</v>
       </c>
       <c r="P98" t="n">
-        <v>0.3723771904341334</v>
+        <v>0.3835094874920936</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.01029370073369063</v>
+        <v>0.01022110722221051</v>
       </c>
       <c r="R98" t="n">
-        <v>-0.0016939216343669</v>
+        <v>-0.003540282712037781</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04795287273491767</v>
+        <v>0.04600532945998229</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01140223667311741</v>
+        <v>0.01136300484187273</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.003818107272971714</v>
+        <v>-0.003452908537545429</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1058119702980112</v>
+        <v>0.1069160877998948</v>
       </c>
       <c r="K99" t="n">
-        <v>0.01104101166632993</v>
+        <v>0.01132093608385954</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.003576863602579798</v>
+        <v>-0.003681014524535314</v>
       </c>
       <c r="M99" t="n">
-        <v>0.2450519307691981</v>
+        <v>0.2372562268984875</v>
       </c>
       <c r="N99" t="n">
-        <v>0.011479982238205</v>
+        <v>0.011236245631274</v>
       </c>
       <c r="O99" t="n">
-        <v>-0.003736816097233686</v>
+        <v>-0.002966280882681001</v>
       </c>
       <c r="P99" t="n">
-        <v>0.3768333212607422</v>
+        <v>0.3889656114501595</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.01108552386705145</v>
+        <v>0.01100734623930363</v>
       </c>
       <c r="R99" t="n">
-        <v>-0.0016939216343669</v>
+        <v>-0.003540282712037781</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.0484670635604044</v>
+        <v>0.04643140713895357</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01221668214976866</v>
+        <v>0.01217464804486364</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.003963636875612241</v>
+        <v>-0.003746801833437539</v>
       </c>
       <c r="J100" t="n">
-        <v>0.107314297345304</v>
+        <v>0.1084637200648896</v>
       </c>
       <c r="K100" t="n">
-        <v>0.01182965535678206</v>
+        <v>0.01212957437556379</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.003469729422489508</v>
+        <v>-0.003717347777713192</v>
       </c>
       <c r="M100" t="n">
-        <v>0.2480681284754087</v>
+        <v>0.2400366485552226</v>
       </c>
       <c r="N100" t="n">
-        <v>0.01229998096950536</v>
+        <v>0.01203883460493642</v>
       </c>
       <c r="O100" t="n">
-        <v>-0.003158660547728332</v>
+        <v>-0.002855135854482869</v>
       </c>
       <c r="P100" t="n">
-        <v>0.3811256182186881</v>
+        <v>0.3939230487113067</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.01187734700041227</v>
+        <v>0.01179358525639674</v>
       </c>
       <c r="R100" t="n">
-        <v>-0.002066820246508039</v>
+        <v>-0.002964291727601296</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04891826829039928</v>
+        <v>0.04679110262126184</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0130311276264199</v>
+        <v>0.01298629124785455</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.003963240551557085</v>
+        <v>-0.003746801833437539</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1087196283807419</v>
+        <v>0.109873233111291</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0126182990472342</v>
+        <v>0.01293821266726805</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.003469729422489508</v>
+        <v>-0.003717347777713192</v>
       </c>
       <c r="M101" t="n">
-        <v>0.2509374250216422</v>
+        <v>0.2425045423672995</v>
       </c>
       <c r="N101" t="n">
-        <v>0.01311997970080572</v>
+        <v>0.01284142357859885</v>
       </c>
       <c r="O101" t="n">
-        <v>-0.003158660547728332</v>
+        <v>-0.002855135854482869</v>
       </c>
       <c r="P101" t="n">
-        <v>0.384932585870328</v>
+        <v>0.3984461129084669</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.01266917013377309</v>
+        <v>0.01257982427348986</v>
       </c>
       <c r="R101" t="n">
-        <v>-0.002066820246508039</v>
+        <v>-0.002964291727601296</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04930613361265749</v>
+        <v>0.04712781244535501</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01384557310307114</v>
+        <v>0.01379793445084546</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.003964033199667397</v>
+        <v>-0.003746801833437539</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1099802680268056</v>
+        <v>0.1111272388295979</v>
       </c>
       <c r="K102" t="n">
-        <v>0.01340694273768634</v>
+        <v>0.0137468509589723</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.003469729422489508</v>
+        <v>-0.003717347777713192</v>
       </c>
       <c r="M102" t="n">
-        <v>0.2533376527717567</v>
+        <v>0.2448905873243688</v>
       </c>
       <c r="N102" t="n">
-        <v>0.01393997843210608</v>
+        <v>0.01364401255226128</v>
       </c>
       <c r="O102" t="n">
-        <v>-0.003158660547728332</v>
+        <v>-0.002855135854482869</v>
       </c>
       <c r="P102" t="n">
-        <v>0.3881149128646515</v>
+        <v>0.402403109778947</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.0134609932671339</v>
+        <v>0.01336606329058298</v>
       </c>
       <c r="R102" t="n">
-        <v>-0.002066820246508039</v>
+        <v>-0.002964291727601296</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04967499428020811</v>
+        <v>0.04741317191917547</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01466001857972239</v>
+        <v>0.01460957765383637</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.00396284422750193</v>
+        <v>-0.003746801833437539</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1111270247063275</v>
+        <v>0.1122722612508014</v>
       </c>
       <c r="K103" t="n">
-        <v>0.01419558642813848</v>
+        <v>0.01455548925067655</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.003363093925692537</v>
+        <v>-0.003717347777713192</v>
       </c>
       <c r="M103" t="n">
-        <v>0.2556680333527975</v>
+        <v>0.2469931277390996</v>
       </c>
       <c r="N103" t="n">
-        <v>0.01475997716340643</v>
+        <v>0.01444660152592371</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.003158660547728332</v>
+        <v>-0.002855135854482869</v>
       </c>
       <c r="P103" t="n">
-        <v>0.391363458529061</v>
+        <v>0.4059857686875397</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.01425281640049472</v>
+        <v>0.01415230230767609</v>
       </c>
       <c r="R103" t="n">
-        <v>-0.002066820246508039</v>
+        <v>-0.002964291727601296</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04999487829012362</v>
+        <v>0.04769092948302198</v>
       </c>
       <c r="G104" t="n">
-        <v>0.01547446405637363</v>
+        <v>0.01542122085682728</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.004045701716330705</v>
+        <v>-0.003930103140571664</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1121587595364517</v>
+        <v>0.1132903956218366</v>
       </c>
       <c r="K104" t="n">
-        <v>0.01498423011859061</v>
+        <v>0.0153641275423808</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.003363093925692537</v>
+        <v>-0.003737643419520904</v>
       </c>
       <c r="M104" t="n">
-        <v>0.2577243508267029</v>
+        <v>0.2489245429615582</v>
       </c>
       <c r="N104" t="n">
-        <v>0.01557997589470679</v>
+        <v>0.01524919049958614</v>
       </c>
       <c r="O104" t="n">
-        <v>-0.002602465131945749</v>
+        <v>-0.002729500241239281</v>
       </c>
       <c r="P104" t="n">
-        <v>0.3940928513795821</v>
+        <v>0.4093229481499521</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.01504463953385554</v>
+        <v>0.01493854132476921</v>
       </c>
       <c r="R104" t="n">
-        <v>-0.002436251090084871</v>
+        <v>-0.002420294794143994</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.05031046139770621</v>
+        <v>0.04796890852962087</v>
       </c>
       <c r="G105" t="n">
-        <v>0.01628890953302487</v>
+        <v>0.01623286405981819</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.004046915548228794</v>
+        <v>-0.003930889239809702</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1131555094266219</v>
+        <v>0.1142614701094554</v>
       </c>
       <c r="K105" t="n">
-        <v>0.01577287380904275</v>
+        <v>0.01617276583408506</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.003363093925692537</v>
+        <v>-0.003737643419520904</v>
       </c>
       <c r="M105" t="n">
-        <v>0.2595021964324041</v>
+        <v>0.250758771446033</v>
       </c>
       <c r="N105" t="n">
-        <v>0.01639997462600715</v>
+        <v>0.01605177947324857</v>
       </c>
       <c r="O105" t="n">
-        <v>-0.002602465131945749</v>
+        <v>-0.002729500241239281</v>
       </c>
       <c r="P105" t="n">
-        <v>0.3967411457885383</v>
+        <v>0.4126109652337974</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.01583646266721636</v>
+        <v>0.01572478034186232</v>
       </c>
       <c r="R105" t="n">
-        <v>-0.002436251090084871</v>
+        <v>-0.002420294794143994</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.05058386540220241</v>
+        <v>0.04821830911279214</v>
       </c>
       <c r="G106" t="n">
-        <v>0.01710335500967612</v>
+        <v>0.01704450726280909</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.004046915548228794</v>
+        <v>-0.003931282289428721</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1140183650401161</v>
+        <v>0.1151181409894737</v>
       </c>
       <c r="K106" t="n">
-        <v>0.01656151749949489</v>
+        <v>0.01698140412578931</v>
       </c>
       <c r="L106" t="n">
-        <v>-0.003363093925692537</v>
+        <v>-0.003737643419520904</v>
       </c>
       <c r="M106" t="n">
-        <v>0.2614079456591754</v>
+        <v>0.2523692432681987</v>
       </c>
       <c r="N106" t="n">
-        <v>0.01721997335730751</v>
+        <v>0.01685436844691099</v>
       </c>
       <c r="O106" t="n">
-        <v>-0.002602465131945749</v>
+        <v>-0.002729500241239281</v>
       </c>
       <c r="P106" t="n">
-        <v>0.3991685254399119</v>
+        <v>0.4153164031542189</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.01662828580057717</v>
+        <v>0.01651101935895544</v>
       </c>
       <c r="R106" t="n">
-        <v>-0.002436251090084871</v>
+        <v>-0.002420294794143994</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.05086756529189535</v>
+        <v>0.04847594549210189</v>
       </c>
       <c r="G107" t="n">
-        <v>0.01791780048632736</v>
+        <v>0.0178561504658</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.004046510937596098</v>
+        <v>-0.003931282289428721</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1148767616209526</v>
+        <v>0.1158743045138971</v>
       </c>
       <c r="K107" t="n">
-        <v>0.01735016118994703</v>
+        <v>0.01779004241749356</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.003363093925692537</v>
+        <v>-0.003747103822063797</v>
       </c>
       <c r="M107" t="n">
-        <v>0.2629868878677392</v>
+        <v>0.2540307433824682</v>
       </c>
       <c r="N107" t="n">
-        <v>0.01803997208860786</v>
+        <v>0.01765695742057342</v>
       </c>
       <c r="O107" t="n">
-        <v>-0.00218522451594679</v>
+        <v>-0.002729500241239281</v>
       </c>
       <c r="P107" t="n">
-        <v>0.4013625128945194</v>
+        <v>0.4182319393961088</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.01742010893393799</v>
+        <v>0.01729725837604856</v>
       </c>
       <c r="R107" t="n">
-        <v>-0.002737038350559547</v>
+        <v>-0.002420294794143994</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.05110812115565028</v>
+        <v>0.04873480324449233</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0187322459629786</v>
+        <v>0.01866779366879091</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.004084932597922109</v>
+        <v>-0.004025977570988363</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1156636919950328</v>
+        <v>0.1166439083043553</v>
       </c>
       <c r="K108" t="n">
-        <v>0.01813880488039916</v>
+        <v>0.01859868070919781</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.003279811129992452</v>
+        <v>-0.003747103822063797</v>
       </c>
       <c r="M108" t="n">
-        <v>0.2647713980285392</v>
+        <v>0.2555352485817735</v>
       </c>
       <c r="N108" t="n">
-        <v>0.01885997081990822</v>
+        <v>0.01845954639423585</v>
       </c>
       <c r="O108" t="n">
-        <v>-0.00218522451594679</v>
+        <v>-0.002599087035808511</v>
       </c>
       <c r="P108" t="n">
-        <v>0.4036365905605279</v>
+        <v>0.4208878339660003</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.01821193206729881</v>
+        <v>0.01808349739314168</v>
       </c>
       <c r="R108" t="n">
-        <v>-0.002737038350559547</v>
+        <v>-0.002029400871268947</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.05137345443305575</v>
+        <v>0.04903206344522539</v>
       </c>
       <c r="G109" t="n">
-        <v>0.01954669143962985</v>
+        <v>0.01947943687178182</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.00408615820026172</v>
+        <v>-0.004026782766502561</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1164603340995569</v>
+        <v>0.1173083658904736</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0189274485708513</v>
+        <v>0.01940731900090207</v>
       </c>
       <c r="L109" t="n">
-        <v>-0.003279811129992452</v>
+        <v>-0.003747103822063797</v>
       </c>
       <c r="M109" t="n">
-        <v>0.2663859029967015</v>
+        <v>0.2571594959152643</v>
       </c>
       <c r="N109" t="n">
-        <v>0.01967996955120857</v>
+        <v>0.01926213536789828</v>
       </c>
       <c r="O109" t="n">
-        <v>-0.00218522451594679</v>
+        <v>-0.002599087035808511</v>
       </c>
       <c r="P109" t="n">
-        <v>0.4060455151030796</v>
+        <v>0.4235465334251634</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.01900375520065962</v>
+        <v>0.01886973641023479</v>
       </c>
       <c r="R109" t="n">
-        <v>-0.002737038350559547</v>
+        <v>-0.002029400871268947</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0516710187827586</v>
+        <v>0.04933105199869393</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02036113691628109</v>
+        <v>0.02029108007477273</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.004084932597922109</v>
+        <v>-0.004026782766502561</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1171986227511671</v>
+        <v>0.1180156635954803</v>
       </c>
       <c r="K110" t="n">
-        <v>0.01971609226130344</v>
+        <v>0.02021595729260632</v>
       </c>
       <c r="L110" t="n">
-        <v>-0.003279811129992452</v>
+        <v>-0.003747103822063797</v>
       </c>
       <c r="M110" t="n">
-        <v>0.2681170011636045</v>
+        <v>0.2588570358668156</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02049996828250893</v>
+        <v>0.02006472434156071</v>
       </c>
       <c r="O110" t="n">
-        <v>-0.00218522451594679</v>
+        <v>-0.002599087035808511</v>
       </c>
       <c r="P110" t="n">
-        <v>0.4083149443770124</v>
+        <v>0.4265414067746053</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.01979557833402044</v>
+        <v>0.01965597542732791</v>
       </c>
       <c r="R110" t="n">
-        <v>-0.002737038350559547</v>
+        <v>-0.002029400871268947</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.05194673142981823</v>
+        <v>0.04967647337751093</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02117558239293233</v>
+        <v>0.02110272327776364</v>
       </c>
       <c r="H111" t="n">
-        <v>-0.00408615820026172</v>
+        <v>-0.004025977570988363</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1179937311456175</v>
+        <v>0.1186629531504878</v>
       </c>
       <c r="K111" t="n">
-        <v>0.02050473595175558</v>
+        <v>0.02102459558431057</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.003279811129992452</v>
+        <v>-0.003747103822063797</v>
       </c>
       <c r="M111" t="n">
-        <v>0.2698355965405607</v>
+        <v>0.2604159823497485</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02131996701380929</v>
+        <v>0.02086731331522313</v>
       </c>
       <c r="O111" t="n">
-        <v>-0.00218522451594679</v>
+        <v>-0.002599087035808511</v>
       </c>
       <c r="P111" t="n">
-        <v>0.4108264726548204</v>
+        <v>0.4293952790249219</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.02058740146738126</v>
+        <v>0.02044221444442102</v>
       </c>
       <c r="R111" t="n">
-        <v>-0.002737038350559547</v>
+        <v>-0.002029400871268947</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.05226143728821236</v>
+        <v>0.05006118960563464</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02199002786958358</v>
+        <v>0.02191436648075455</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.004096769781095125</v>
+        <v>-0.004058517369966859</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1187939257961987</v>
+        <v>0.119314845190915</v>
       </c>
       <c r="K112" t="n">
-        <v>0.02129337964220772</v>
+        <v>0.02183323387601483</v>
       </c>
       <c r="L112" t="n">
-        <v>-0.00324365583410314</v>
+        <v>-0.003747736178901343</v>
       </c>
       <c r="M112" t="n">
-        <v>0.271704882021607</v>
+        <v>0.2622798287054461</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02213996574510965</v>
+        <v>0.02166990228888556</v>
       </c>
       <c r="O112" t="n">
-        <v>-0.002024195868568403</v>
+        <v>-0.00247931379032448</v>
       </c>
       <c r="P112" t="n">
-        <v>0.4133696870835319</v>
+        <v>0.4325768652322101</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.02137922460074208</v>
+        <v>0.02122845346151414</v>
       </c>
       <c r="R112" t="n">
-        <v>-0.002905659669591421</v>
+        <v>-0.00190973108822325</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.05261477931440956</v>
+        <v>0.05046268260974843</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02280447334623482</v>
+        <v>0.02272600968374546</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.004096769781095125</v>
+        <v>-0.004058517369966859</v>
       </c>
       <c r="J113" t="n">
-        <v>0.119664929923633</v>
+        <v>0.1200083745395586</v>
       </c>
       <c r="K113" t="n">
-        <v>0.02208202333265985</v>
+        <v>0.02264187216771908</v>
       </c>
       <c r="L113" t="n">
-        <v>-0.00324365583410314</v>
+        <v>-0.003747736178901343</v>
       </c>
       <c r="M113" t="n">
-        <v>0.2736779534572423</v>
+        <v>0.2641538783918737</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02295996447641</v>
+        <v>0.02247249126254799</v>
       </c>
       <c r="O113" t="n">
-        <v>-0.002024195868568403</v>
+        <v>-0.00247931379032448</v>
       </c>
       <c r="P113" t="n">
-        <v>0.4162627958006601</v>
+        <v>0.435741161967813</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.0221710477341029</v>
+        <v>0.02201469247860726</v>
       </c>
       <c r="R113" t="n">
-        <v>-0.002905659669591421</v>
+        <v>-0.00190973108822325</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05300545759727541</v>
+        <v>0.05095636594393366</v>
       </c>
       <c r="G114" t="n">
-        <v>0.02361891882288607</v>
+        <v>0.02353765288673637</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.004096360186036027</v>
+        <v>-0.004058923221703856</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1204859194962921</v>
+        <v>0.1206971120349712</v>
       </c>
       <c r="K114" t="n">
-        <v>0.02287066702311199</v>
+        <v>0.02345051045942333</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.00324365583410314</v>
+        <v>-0.003747736178901343</v>
       </c>
       <c r="M114" t="n">
-        <v>0.2758142455205332</v>
+        <v>0.2662783395688759</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02377996320771036</v>
+        <v>0.02327508023621042</v>
       </c>
       <c r="O114" t="n">
-        <v>-0.002024195868568403</v>
+        <v>-0.00247931379032448</v>
       </c>
       <c r="P114" t="n">
-        <v>0.4192263547467729</v>
+        <v>0.4391488894123177</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.02296287086746372</v>
+        <v>0.02280093149570037</v>
       </c>
       <c r="R114" t="n">
-        <v>-0.002905659669591421</v>
+        <v>-0.00190973108822325</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="A115" s="52" t="n"/>
       <c r="B115" s="52" t="n"/>
       <c r="F115" t="n">
-        <v>0.05338893464938336</v>
+        <v>0.0514761235883908</v>
       </c>
       <c r="G115" t="n">
-        <v>0.02443336429953731</v>
+        <v>0.02434929608972728</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.00409595059097693</v>
+        <v>-0.004058923221703856</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1213919827122948</v>
+        <v>0.1213278927775442</v>
       </c>
       <c r="K115" t="n">
-        <v>0.02365931071356413</v>
+        <v>0.02425914875112758</v>
       </c>
       <c r="L115" t="n">
-        <v>-0.00324365583410314</v>
+        <v>-0.003747736178901343</v>
       </c>
       <c r="M115" t="n">
-        <v>0.2777131455504819</v>
+        <v>0.2686027482923549</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02459996193901072</v>
+        <v>0.02407766920987285</v>
       </c>
       <c r="O115" t="n">
-        <v>-0.002069181402649656</v>
+        <v>-0.00247931379032448</v>
       </c>
       <c r="P115" t="n">
-        <v>0.4225366389969136</v>
+        <v>0.4423639651534971</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.02375469400082453</v>
+        <v>0.02358717051279349</v>
       </c>
       <c r="R115" t="n">
-        <v>-0.002905659669591421</v>
+        <v>-0.00190973108822325</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05377934332446811</v>
+        <v>0.05197529576871946</v>
       </c>
       <c r="G116" t="n">
-        <v>0.02524780977618855</v>
+        <v>0.02516093929271819</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.004095559688841437</v>
+        <v>-0.004051759684642463</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1222250914471337</v>
+        <v>0.121935535709251</v>
       </c>
       <c r="K116" t="n">
-        <v>0.02444795440401627</v>
+        <v>0.02506778704283184</v>
       </c>
       <c r="L116" t="n">
-        <v>-0.003275288501865323</v>
+        <v>-0.003737247181818744</v>
       </c>
       <c r="M116" t="n">
-        <v>0.2796754977147123</v>
+        <v>0.2708275034425439</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02541996067031108</v>
+        <v>0.02488025818353528</v>
       </c>
       <c r="O116" t="n">
-        <v>-0.002069181402649656</v>
+        <v>-0.002372938608187793</v>
       </c>
       <c r="P116" t="n">
-        <v>0.4259001154946864</v>
+        <v>0.4453827570402256</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.02454651713418535</v>
+        <v>0.02437340952988661</v>
       </c>
       <c r="R116" t="n">
-        <v>-0.002894637520486762</v>
+        <v>-0.002014998347078993</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05413753133351964</v>
+        <v>0.05252898174905265</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0260622552528398</v>
+        <v>0.0259725824957091</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.004095969203858818</v>
+        <v>-0.004052164820097382</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1230195536753417</v>
+        <v>0.1225036094610746</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0252365980944684</v>
+        <v>0.02587642533453609</v>
       </c>
       <c r="L117" t="n">
-        <v>-0.003275288501865323</v>
+        <v>-0.003737247181818744</v>
       </c>
       <c r="M117" t="n">
-        <v>0.2814897098873033</v>
+        <v>0.2731915019143193</v>
       </c>
       <c r="N117" t="n">
-        <v>0.02623995940161144</v>
+        <v>0.0256828471571977</v>
       </c>
       <c r="O117" t="n">
-        <v>-0.002069181402649656</v>
+        <v>-0.002372938608187793</v>
       </c>
       <c r="P117" t="n">
-        <v>0.429389400248395</v>
+        <v>0.4486207908946158</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.02533834026754617</v>
+        <v>0.02515964854697972</v>
       </c>
       <c r="R117" t="n">
-        <v>-0.002894637520486762</v>
+        <v>-0.002014998347078993</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="A118" s="82" t="n"/>
       <c r="F118" t="n">
-        <v>0.05449515791874172</v>
+        <v>0.05306611652709412</v>
       </c>
       <c r="G118" t="n">
-        <v>0.02687670072949104</v>
+        <v>0.02678422569870001</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.004095150173824054</v>
+        <v>-0.004050949413732626</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1237929687881355</v>
+        <v>0.1230327621881697</v>
       </c>
       <c r="K118" t="n">
-        <v>0.02602524178492054</v>
+        <v>0.02668506362624034</v>
       </c>
       <c r="L118" t="n">
-        <v>-0.003275288501865323</v>
+        <v>-0.003737247181818744</v>
       </c>
       <c r="M118" t="n">
-        <v>0.2832871152829507</v>
+        <v>0.275440950598111</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02705995813291179</v>
+        <v>0.02648543613086013</v>
       </c>
       <c r="O118" t="n">
-        <v>-0.002069181402649656</v>
+        <v>-0.002372938608187793</v>
       </c>
       <c r="P118" t="n">
-        <v>0.4325997775365544</v>
+        <v>0.4515188294644396</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.02613016340090699</v>
+        <v>0.02594588756407283</v>
       </c>
       <c r="R118" t="n">
-        <v>-0.002894637520486762</v>
+        <v>-0.002014998347078993</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.05487648290495934</v>
+        <v>0.05358443700455911</v>
       </c>
       <c r="G119" t="n">
-        <v>0.02769114620614228</v>
+        <v>0.02759586890169092</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.004094740658806671</v>
+        <v>-0.004050949413732626</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1245981691996927</v>
+        <v>0.1235930916914916</v>
       </c>
       <c r="K119" t="n">
-        <v>0.02681388547537268</v>
+        <v>0.02749370191794459</v>
       </c>
       <c r="L119" t="n">
-        <v>-0.003275288501865323</v>
+        <v>-0.003737247181818744</v>
       </c>
       <c r="M119" t="n">
-        <v>0.2851141995413863</v>
+        <v>0.2777015269988421</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02787995686421215</v>
+        <v>0.02728802510452256</v>
       </c>
       <c r="O119" t="n">
-        <v>-0.002069181402649656</v>
+        <v>-0.002372938608187793</v>
       </c>
       <c r="P119" t="n">
-        <v>0.435667351843387</v>
+        <v>0.4544238084892974</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.02692198653426781</v>
+        <v>0.02673212658116595</v>
       </c>
       <c r="R119" t="n">
-        <v>-0.002894637520486762</v>
+        <v>-0.002014998347078993</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="A120" s="82" t="n"/>
       <c r="F120" t="n">
-        <v>0.05521794955439503</v>
+        <v>0.05412915481986539</v>
       </c>
       <c r="G120" t="n">
-        <v>0.02850559168279353</v>
+        <v>0.02840751210468183</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.004092938755332874</v>
+        <v>-0.004023080119851312</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1253311053056302</v>
+        <v>0.1241162514184439</v>
       </c>
       <c r="K120" t="n">
-        <v>0.02760252916582482</v>
+        <v>0.02830234020964885</v>
       </c>
       <c r="L120" t="n">
-        <v>-0.003375095316913514</v>
+        <v>-0.003710610172156059</v>
       </c>
       <c r="M120" t="n">
-        <v>0.286799732278466</v>
+        <v>0.2800156265465266</v>
       </c>
       <c r="N120" t="n">
-        <v>0.0286999555955125</v>
+        <v>0.02809061407818499</v>
       </c>
       <c r="O120" t="n">
-        <v>-0.002190169718452343</v>
+        <v>-0.002249051097686707</v>
       </c>
       <c r="P120" t="n">
-        <v>0.4387308106617733</v>
+        <v>0.4574056765362159</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.02771380966762862</v>
+        <v>0.02751836559825907</v>
       </c>
       <c r="R120" t="n">
-        <v>-0.002752705227728093</v>
+        <v>-0.002247388350178741</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="A121" s="82" t="n"/>
       <c r="F121" t="n">
-        <v>0.05555155101410181</v>
+        <v>0.05467507504743575</v>
       </c>
       <c r="G121" t="n">
-        <v>0.02932003715944477</v>
+        <v>0.02921915530767273</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.004092938755332874</v>
+        <v>-0.004022677811839327</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1260619826430093</v>
+        <v>0.1246203634793912</v>
       </c>
       <c r="K121" t="n">
-        <v>0.02839117285627695</v>
+        <v>0.0291109785013531</v>
       </c>
       <c r="L121" t="n">
-        <v>-0.003375095316913514</v>
+        <v>-0.003710610172156059</v>
       </c>
       <c r="M121" t="n">
-        <v>0.2884328148602947</v>
+        <v>0.2822104191584309</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02951995432681286</v>
+        <v>0.02889320305184742</v>
       </c>
       <c r="O121" t="n">
-        <v>-0.002190169718452343</v>
+        <v>-0.002249051097686707</v>
       </c>
       <c r="P121" t="n">
-        <v>0.4415854506023839</v>
+        <v>0.4602513818364075</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.02850563280098944</v>
+        <v>0.02830460461535218</v>
       </c>
       <c r="R121" t="n">
-        <v>-0.002752705227728093</v>
+        <v>-0.002247388350178741</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05587747911203759</v>
+        <v>0.05524448644584803</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03013448263609602</v>
+        <v>0.03003079851066364</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.004092120249432399</v>
+        <v>-0.004023482427863297</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1267738021493928</v>
+        <v>0.1250887343534804</v>
       </c>
       <c r="K122" t="n">
-        <v>0.02917981654672909</v>
+        <v>0.02991961679305735</v>
       </c>
       <c r="L122" t="n">
-        <v>-0.003375095316913514</v>
+        <v>-0.003710610172156059</v>
       </c>
       <c r="M122" t="n">
-        <v>0.2899718984393558</v>
+        <v>0.2843267408190931</v>
       </c>
       <c r="N122" t="n">
-        <v>0.03033995305811322</v>
+        <v>0.02969579202550985</v>
       </c>
       <c r="O122" t="n">
-        <v>-0.002190169718452343</v>
+        <v>-0.002249051097686707</v>
       </c>
       <c r="P122" t="n">
-        <v>0.4446481382972279</v>
+        <v>0.4630296703242506</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.02929745593435026</v>
+        <v>0.0290908436324453</v>
       </c>
       <c r="R122" t="n">
-        <v>-0.002752705227728093</v>
+        <v>-0.002247388350178741</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05622841046757054</v>
+        <v>0.05577148079285014</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03094892811274726</v>
+        <v>0.03084244171365455</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.004092938755332874</v>
+        <v>-0.004023482427863297</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1274315312327667</v>
+        <v>0.1256098279604534</v>
       </c>
       <c r="K123" t="n">
-        <v>0.02996846023718122</v>
+        <v>0.03072825508476161</v>
       </c>
       <c r="L123" t="n">
-        <v>-0.003375095316913514</v>
+        <v>-0.003710610172156059</v>
       </c>
       <c r="M123" t="n">
-        <v>0.2914631127078506</v>
+        <v>0.2864499643526577</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03115995178941358</v>
+        <v>0.03049838099917228</v>
       </c>
       <c r="O123" t="n">
-        <v>-0.002190169718452343</v>
+        <v>-0.002249051097686707</v>
       </c>
       <c r="P123" t="n">
-        <v>0.4473662676367909</v>
+        <v>0.4657388385083323</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.03008927906771108</v>
+        <v>0.02987708264953842</v>
       </c>
       <c r="R123" t="n">
-        <v>-0.002752705227728093</v>
+        <v>-0.002247388350178741</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="A124" s="82" t="n"/>
       <c r="B124" s="82" t="n"/>
       <c r="F124" t="n">
-        <v>0.05652338846373473</v>
+        <v>0.05630225246723668</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0317633735893985</v>
+        <v>0.03165408491664547</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.004089852590437473</v>
+        <v>-0.003981309028782787</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1281064718651863</v>
+        <v>0.1260265847026509</v>
       </c>
       <c r="K124" t="n">
-        <v>0.03075710392763336</v>
+        <v>0.03153689337646586</v>
       </c>
       <c r="L124" t="n">
-        <v>-0.003525561898923884</v>
+        <v>-0.003672127219733551</v>
       </c>
       <c r="M124" t="n">
-        <v>0.2929532104626649</v>
+        <v>0.2885355929652225</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03197995052071394</v>
+        <v>0.0313009699728347</v>
       </c>
       <c r="O124" t="n">
-        <v>-0.002367102142733587</v>
+        <v>-0.002114060316574303</v>
       </c>
       <c r="P124" t="n">
-        <v>0.4502284821651823</v>
+        <v>0.4685208583338188</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.03088110220107189</v>
+        <v>0.03066332166663154</v>
       </c>
       <c r="R124" t="n">
-        <v>-0.002526855858915639</v>
+        <v>-0.002563919974913392</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05686024670450542</v>
+        <v>0.05685155328115756</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03257781906604975</v>
+        <v>0.03246572811963638</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.00409067056095556</v>
+        <v>-0.003982105290588543</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1287994863147493</v>
+        <v>0.1264803234037399</v>
       </c>
       <c r="K125" t="n">
-        <v>0.03154574761808551</v>
+        <v>0.03234553166817011</v>
       </c>
       <c r="L125" t="n">
-        <v>-0.003525561898923884</v>
+        <v>-0.003672127219733551</v>
       </c>
       <c r="M125" t="n">
-        <v>0.2944895224960648</v>
+        <v>0.2906704630524454</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03279994925201429</v>
+        <v>0.03210355894649713</v>
       </c>
       <c r="O125" t="n">
-        <v>-0.002367102142733587</v>
+        <v>-0.002114060316574303</v>
       </c>
       <c r="P125" t="n">
-        <v>0.4530985584793689</v>
+        <v>0.4710150942995589</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.03167292533443272</v>
+        <v>0.03144956068372465</v>
       </c>
       <c r="R125" t="n">
-        <v>-0.002526855858915639</v>
+        <v>-0.002563919974913392</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05714115153870249</v>
+        <v>0.05736865715723324</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03339226454270099</v>
+        <v>0.03327737132262729</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.004089852590437473</v>
+        <v>-0.003981707159685665</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1294575892998255</v>
+        <v>0.1269191841831052</v>
       </c>
       <c r="K126" t="n">
-        <v>0.03233439130853764</v>
+        <v>0.03315416995987436</v>
       </c>
       <c r="L126" t="n">
-        <v>-0.003525561898923884</v>
+        <v>-0.003672127219733551</v>
       </c>
       <c r="M126" t="n">
-        <v>0.2957632710917995</v>
+        <v>0.2925889451327182</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03361994798331465</v>
+        <v>0.03290614792015956</v>
       </c>
       <c r="O126" t="n">
-        <v>-0.002367102142733587</v>
+        <v>-0.002114060316574303</v>
       </c>
       <c r="P126" t="n">
-        <v>0.4557674643431613</v>
+        <v>0.4735792732411426</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.03246474846779353</v>
+        <v>0.03223579970081777</v>
       </c>
       <c r="R126" t="n">
-        <v>-0.002526855858915639</v>
+        <v>-0.002563919974913392</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="A127" s="83" t="n"/>
       <c r="B127" s="83" t="n"/>
       <c r="F127" t="n">
-        <v>0.05744819676550452</v>
+        <v>0.05789275663967217</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03420671001935224</v>
+        <v>0.03408901452561819</v>
       </c>
       <c r="H127" t="n">
-        <v>-0.004085046001997395</v>
+        <v>-0.003981309028782787</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1300810409321964</v>
+        <v>0.127326250821612</v>
       </c>
       <c r="K127" t="n">
-        <v>0.03312303499898978</v>
+        <v>0.03396280825157862</v>
       </c>
       <c r="L127" t="n">
-        <v>-0.003525561898923884</v>
+        <v>-0.003672127219733551</v>
       </c>
       <c r="M127" t="n">
-        <v>0.2972220001734545</v>
+        <v>0.2945541085403323</v>
       </c>
       <c r="N127" t="n">
-        <v>0.03443994671461501</v>
+        <v>0.03370873689382198</v>
       </c>
       <c r="O127" t="n">
-        <v>-0.002367102142733587</v>
+        <v>-0.002114060316574303</v>
       </c>
       <c r="P127" t="n">
-        <v>0.4581646488610088</v>
+        <v>0.4759228234026212</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.03325657160115435</v>
+        <v>0.03302203871791089</v>
       </c>
       <c r="R127" t="n">
-        <v>-0.002526855858915639</v>
+        <v>-0.002921289201363972</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="A128" s="83" t="n"/>
       <c r="B128" s="83" t="n"/>
       <c r="F128" t="n">
-        <v>0.05775710641936155</v>
+        <v>0.05838902209947746</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03502115549600348</v>
+        <v>0.0349006577286091</v>
       </c>
       <c r="H128" t="n">
-        <v>-0.00408545446575122</v>
+        <v>-0.003932261630988506</v>
       </c>
       <c r="J128" t="n">
-        <v>0.130688176681617</v>
+        <v>0.1276844499640468</v>
       </c>
       <c r="K128" t="n">
-        <v>0.03391167868944191</v>
+        <v>0.03477144654328287</v>
       </c>
       <c r="L128" t="n">
-        <v>-0.003709520139544406</v>
+        <v>-0.003623124406070189</v>
       </c>
       <c r="M128" t="n">
-        <v>0.2986010798021222</v>
+        <v>0.2964319090766392</v>
       </c>
       <c r="N128" t="n">
-        <v>0.03525994544591536</v>
+        <v>0.03451132586748442</v>
       </c>
       <c r="O128" t="n">
-        <v>-0.002582428689531143</v>
+        <v>-0.001981074919052489</v>
       </c>
       <c r="P128" t="n">
-        <v>0.4607161618356493</v>
+        <v>0.4781154338475947</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.03404839473451517</v>
+        <v>0.033808277735004</v>
       </c>
       <c r="R128" t="n">
-        <v>-0.002259835961449038</v>
+        <v>-0.002921289201363972</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05804324593837546</v>
+        <v>0.05888892697935486</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03583560097265472</v>
+        <v>0.03571230093160001</v>
       </c>
       <c r="H129" t="n">
-        <v>-0.004084637538243572</v>
+        <v>-0.003931475335921322</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1312432052159837</v>
+        <v>0.1280655964281678</v>
       </c>
       <c r="K129" t="n">
-        <v>0.03470032237989405</v>
+        <v>0.03558008483498713</v>
       </c>
       <c r="L129" t="n">
-        <v>-0.003709520139544406</v>
+        <v>-0.003623124406070189</v>
       </c>
       <c r="M129" t="n">
-        <v>0.2997675993175079</v>
+        <v>0.2983550096350002</v>
       </c>
       <c r="N129" t="n">
-        <v>0.03607994417721572</v>
+        <v>0.03531391484114685</v>
       </c>
       <c r="O129" t="n">
-        <v>-0.002582428689531143</v>
+        <v>-0.001981074919052489</v>
       </c>
       <c r="P129" t="n">
-        <v>0.4632121888529961</v>
+        <v>0.4805199704072725</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.03484021786787599</v>
+        <v>0.03459451675209711</v>
       </c>
       <c r="R129" t="n">
-        <v>-0.002259835961449038</v>
+        <v>-0.002921289201363972</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="A130" s="83" t="n"/>
       <c r="F130" t="n">
-        <v>0.05832329450811786</v>
+        <v>0.05935723871916284</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03665004644930597</v>
+        <v>0.03652394413459092</v>
       </c>
       <c r="H130" t="n">
-        <v>-0.004085046001997395</v>
+        <v>-0.003931868483454914</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1318371478707683</v>
+        <v>0.1284350491590875</v>
       </c>
       <c r="K130" t="n">
-        <v>0.03548896607034619</v>
+        <v>0.03638872312669137</v>
       </c>
       <c r="L130" t="n">
-        <v>-0.003709520139544406</v>
+        <v>-0.003623124406070189</v>
       </c>
       <c r="M130" t="n">
-        <v>0.3011735517134225</v>
+        <v>0.300278224812172</v>
       </c>
       <c r="N130" t="n">
-        <v>0.03689994290851608</v>
+        <v>0.03611650381480927</v>
       </c>
       <c r="O130" t="n">
-        <v>-0.002582428689531143</v>
+        <v>-0.001981074919052489</v>
       </c>
       <c r="P130" t="n">
-        <v>0.4656546034006854</v>
+        <v>0.4825512915574859</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.0356320410012368</v>
+        <v>0.03538075576919023</v>
       </c>
       <c r="R130" t="n">
-        <v>-0.002259835961449038</v>
+        <v>-0.002921289201363972</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="A131" s="83" t="n"/>
       <c r="B131" s="83" t="n"/>
       <c r="F131" t="n">
-        <v>0.05858072552970136</v>
+        <v>0.0598173415289344</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03746449192595721</v>
+        <v>0.03733558733758183</v>
       </c>
       <c r="H131" t="n">
-        <v>-0.004084229074489748</v>
+        <v>-0.003931475335921322</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1324162617215731</v>
+        <v>0.1287757458979245</v>
       </c>
       <c r="K131" t="n">
-        <v>0.03627760976079833</v>
+        <v>0.03719736141839563</v>
       </c>
       <c r="L131" t="n">
-        <v>-0.003709520139544406</v>
+        <v>-0.003623124406070189</v>
       </c>
       <c r="M131" t="n">
-        <v>0.3023713170019567</v>
+        <v>0.3020200067587923</v>
       </c>
       <c r="N131" t="n">
-        <v>0.03771994163981644</v>
+        <v>0.0369190927884717</v>
       </c>
       <c r="O131" t="n">
-        <v>-0.002582428689531143</v>
+        <v>-0.001981074919052489</v>
       </c>
       <c r="P131" t="n">
-        <v>0.4681170906754206</v>
+        <v>0.4848663779628229</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.03642386413459762</v>
+        <v>0.03616699478628335</v>
       </c>
       <c r="R131" t="n">
-        <v>-0.002259835961449038</v>
+        <v>-0.002921289201363972</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.0588491071632297</v>
+        <v>0.06025906740313237</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03827893740260845</v>
+        <v>0.03814723054057274</v>
       </c>
       <c r="H132" t="n">
-        <v>-0.004081759520306791</v>
+        <v>-0.003883382385956568</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1329627070285886</v>
+        <v>0.1291600560500855</v>
       </c>
       <c r="K132" t="n">
-        <v>0.03706625345125047</v>
+        <v>0.03800599971009988</v>
       </c>
       <c r="L132" t="n">
-        <v>-0.003907162139893544</v>
+        <v>-0.003565698845663563</v>
       </c>
       <c r="M132" t="n">
-        <v>0.3036339807256496</v>
+        <v>0.3038043385898981</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0385399403711168</v>
+        <v>0.03772168176213413</v>
       </c>
       <c r="O132" t="n">
-        <v>-0.002818624380058233</v>
+        <v>-0.00186211623758573</v>
       </c>
       <c r="P132" t="n">
-        <v>0.4705301806646054</v>
+        <v>0.4866561894264081</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.03721568726795844</v>
+        <v>0.03695323380337647</v>
       </c>
       <c r="R132" t="n">
-        <v>-0.001992874010268791</v>
+        <v>-0.003275880104275472</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0591287899839015</v>
+        <v>0.0606806363901121</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0390933828792597</v>
+        <v>0.03895887374356365</v>
       </c>
       <c r="H133" t="n">
-        <v>-0.004080535237307299</v>
+        <v>-0.003883770724195163</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1334767771542208</v>
+        <v>0.1294814159890862</v>
       </c>
       <c r="K133" t="n">
-        <v>0.03785489714170261</v>
+        <v>0.03881463800180413</v>
       </c>
       <c r="L133" t="n">
-        <v>-0.003907162139893544</v>
+        <v>-0.003565698845663563</v>
       </c>
       <c r="M133" t="n">
-        <v>0.3047373415339246</v>
+        <v>0.3053577265529691</v>
       </c>
       <c r="N133" t="n">
-        <v>0.03935993910241715</v>
+        <v>0.03852427073579655</v>
       </c>
       <c r="O133" t="n">
-        <v>-0.002818624380058233</v>
+        <v>-0.00186211623758573</v>
       </c>
       <c r="P133" t="n">
-        <v>0.4726789071021678</v>
+        <v>0.4887280009449525</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.03800751040131925</v>
+        <v>0.03773947282046958</v>
       </c>
       <c r="R133" t="n">
-        <v>-0.001992874010268791</v>
+        <v>-0.003275880104275472</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.0593863702187433</v>
+        <v>0.06108887656508278</v>
       </c>
       <c r="G134" t="n">
-        <v>0.03990782835591095</v>
+        <v>0.03977051694655456</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.004080943331640463</v>
+        <v>-0.003883382385956568</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1340139669368025</v>
+        <v>0.1298482272766134</v>
       </c>
       <c r="K134" t="n">
-        <v>0.03864354083215474</v>
+        <v>0.03962327629350839</v>
       </c>
       <c r="L134" t="n">
-        <v>-0.003907162139893544</v>
+        <v>-0.003565698845663563</v>
       </c>
       <c r="M134" t="n">
-        <v>0.3060019183831897</v>
+        <v>0.3070882464852284</v>
       </c>
       <c r="N134" t="n">
-        <v>0.04017993783371751</v>
+        <v>0.03932685970945898</v>
       </c>
       <c r="O134" t="n">
-        <v>-0.002818624380058233</v>
+        <v>-0.00186211623758573</v>
       </c>
       <c r="P134" t="n">
-        <v>0.4749981064582328</v>
+        <v>0.4906386480508325</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.03879933353468007</v>
+        <v>0.0385257118375627</v>
       </c>
       <c r="R134" t="n">
-        <v>-0.001992874010268791</v>
+        <v>-0.003275880104275472</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05962188285883455</v>
+        <v>0.06145618389583837</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04072227383256218</v>
+        <v>0.04058216014954547</v>
       </c>
       <c r="H135" t="n">
-        <v>-0.004081759520306791</v>
+        <v>-0.003843269573024275</v>
       </c>
       <c r="J135" t="n">
-        <v>0.134482799595961</v>
+        <v>0.1301535189937781</v>
       </c>
       <c r="K135" t="n">
-        <v>0.03943218452260688</v>
+        <v>0.04043191458521264</v>
       </c>
       <c r="L135" t="n">
-        <v>-0.003907162139893544</v>
+        <v>-0.003565698845663563</v>
       </c>
       <c r="M135" t="n">
-        <v>0.3071116062216097</v>
+        <v>0.3086760048652951</v>
       </c>
       <c r="N135" t="n">
-        <v>0.04099993656501786</v>
+        <v>0.04012944868312142</v>
       </c>
       <c r="O135" t="n">
-        <v>-0.002818624380058233</v>
+        <v>-0.00186211623758573</v>
       </c>
       <c r="P135" t="n">
-        <v>0.4772007812396525</v>
+        <v>0.4923116258897863</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.03959115666804089</v>
+        <v>0.03931195085465582</v>
       </c>
       <c r="R135" t="n">
-        <v>-0.001992874010268791</v>
+        <v>-0.003583209089874488</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.0598862905801091</v>
+        <v>0.06180660251129561</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04153671930921343</v>
+        <v>0.04139380335253637</v>
       </c>
       <c r="H136" t="n">
-        <v>-0.004074661248783407</v>
+        <v>-0.003842116822702433</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1349757728089627</v>
+        <v>0.1304339097559916</v>
       </c>
       <c r="K136" t="n">
-        <v>0.04022082821305902</v>
+        <v>0.04124055287691689</v>
       </c>
       <c r="L136" t="n">
-        <v>-0.004103130980159305</v>
+        <v>-0.003504429436355014</v>
       </c>
       <c r="M136" t="n">
-        <v>0.3082052751753939</v>
+        <v>0.3101647856663128</v>
       </c>
       <c r="N136" t="n">
-        <v>0.04181993529631822</v>
+        <v>0.04093203765678384</v>
       </c>
       <c r="O136" t="n">
-        <v>-0.003056012067283118</v>
+        <v>-0.001769832353116814</v>
       </c>
       <c r="P136" t="n">
-        <v>0.4794340163476766</v>
+        <v>0.4938929886661675</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.04038297980140171</v>
+        <v>0.04009818987174893</v>
       </c>
       <c r="R136" t="n">
-        <v>-0.001769909741216958</v>
+        <v>-0.003583209089874488</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.06010347620284972</v>
+        <v>0.06213845740739943</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04235116478586467</v>
+        <v>0.04220544655552728</v>
       </c>
       <c r="H137" t="n">
-        <v>-0.004075068714908286</v>
+        <v>-0.003843269573024275</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1354380027041673</v>
+        <v>0.1307985829381424</v>
       </c>
       <c r="K137" t="n">
-        <v>0.04100947190351115</v>
+        <v>0.04204919116862114</v>
       </c>
       <c r="L137" t="n">
-        <v>-0.004103130980159305</v>
+        <v>-0.003504429436355014</v>
       </c>
       <c r="M137" t="n">
-        <v>0.3092853731909101</v>
+        <v>0.3116451936029552</v>
       </c>
       <c r="N137" t="n">
-        <v>0.04263993402761859</v>
+        <v>0.04173462663044627</v>
       </c>
       <c r="O137" t="n">
-        <v>-0.003056012067283118</v>
+        <v>-0.001769832353116814</v>
       </c>
       <c r="P137" t="n">
-        <v>0.4815540252209499</v>
+        <v>0.4953810604386198</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.04117480293476252</v>
+        <v>0.04088442888884205</v>
       </c>
       <c r="R137" t="n">
-        <v>-0.001769909741216958</v>
+        <v>-0.003583209089874488</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.06035008442162378</v>
+        <v>0.06241508732620434</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04316561026251592</v>
+        <v>0.04301708975851819</v>
       </c>
       <c r="H138" t="n">
-        <v>-0.004074661248783407</v>
+        <v>-0.003842885322916994</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1359069909052323</v>
+        <v>0.1311039625983845</v>
       </c>
       <c r="K138" t="n">
-        <v>0.04179811559396329</v>
+        <v>0.0428578294603254</v>
       </c>
       <c r="L138" t="n">
-        <v>-0.004103130980159305</v>
+        <v>-0.003504429436355014</v>
       </c>
       <c r="M138" t="n">
-        <v>0.3104003918807963</v>
+        <v>0.3130237785788199</v>
       </c>
       <c r="N138" t="n">
-        <v>0.04345993275891893</v>
+        <v>0.0425372156041087</v>
       </c>
       <c r="O138" t="n">
-        <v>-0.003056012067283118</v>
+        <v>-0.001769832353116814</v>
       </c>
       <c r="P138" t="n">
-        <v>0.4835620455954082</v>
+        <v>0.4970729353674465</v>
       </c>
       <c r="Q138" t="n">
-        <v>0.04196662606812335</v>
+        <v>0.04167066790593516</v>
       </c>
       <c r="R138" t="n">
-        <v>-0.001769909741216958</v>
+        <v>-0.003583209089874488</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.06057523890545585</v>
+        <v>0.06267830968046953</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04398005573916716</v>
+        <v>0.0438287329615091</v>
       </c>
       <c r="H139" t="n">
-        <v>-0.004069844685708</v>
+        <v>-0.003842885322916994</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1364019736737192</v>
+        <v>0.1313687278446997</v>
       </c>
       <c r="K139" t="n">
-        <v>0.04258675928441543</v>
+        <v>0.04366646775202965</v>
       </c>
       <c r="L139" t="n">
-        <v>-0.004103130980159305</v>
+        <v>-0.003504429436355014</v>
       </c>
       <c r="M139" t="n">
-        <v>0.3115069539275472</v>
+        <v>0.3144846253640792</v>
       </c>
       <c r="N139" t="n">
-        <v>0.0442799314902193</v>
+        <v>0.04333980457777113</v>
       </c>
       <c r="O139" t="n">
-        <v>-0.003056012067283118</v>
+        <v>-0.001769832353116814</v>
       </c>
       <c r="P139" t="n">
-        <v>0.4857535805930308</v>
+        <v>0.4982202896371253</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.04275844920148416</v>
+        <v>0.04245690692302828</v>
       </c>
       <c r="R139" t="n">
-        <v>-0.001769909741216958</v>
+        <v>-0.003583209089874488</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.06083047816368862</v>
+        <v>0.06291771051871087</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04479450121581841</v>
+        <v>0.04464037616450001</v>
       </c>
       <c r="H140" t="n">
-        <v>-0.004069844685708</v>
+        <v>-0.003816667750964679</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1368489442324395</v>
+        <v>0.1316843505624662</v>
       </c>
       <c r="K140" t="n">
-        <v>0.04337540297486757</v>
+        <v>0.04447510604373391</v>
       </c>
       <c r="L140" t="n">
-        <v>-0.004279102421150005</v>
+        <v>-0.003439615809444433</v>
       </c>
       <c r="M140" t="n">
-        <v>0.3126537679179663</v>
+        <v>0.3158413510452157</v>
       </c>
       <c r="N140" t="n">
-        <v>0.04509993022151965</v>
+        <v>0.04414239355143355</v>
       </c>
       <c r="O140" t="n">
-        <v>-0.003276416251715779</v>
+        <v>-0.001716506680656715</v>
       </c>
       <c r="P140" t="n">
-        <v>0.4877635151239125</v>
+        <v>0.4995686079829822</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.04355027233484498</v>
+        <v>0.04324314594012139</v>
       </c>
       <c r="R140" t="n">
-        <v>-0.001633401997944466</v>
+        <v>-0.003802315098746942</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.06103022469329545</v>
+        <v>0.06313156893796781</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04560894669246964</v>
+        <v>0.04545201936749092</v>
       </c>
       <c r="H141" t="n">
-        <v>-0.004069844685708</v>
+        <v>-0.003816286122352444</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1372855449613038</v>
+        <v>0.1319427383568906</v>
       </c>
       <c r="K141" t="n">
-        <v>0.04416404666531971</v>
+        <v>0.04528374433543816</v>
       </c>
       <c r="L141" t="n">
-        <v>-0.004279102421150005</v>
+        <v>-0.003439615809444433</v>
       </c>
       <c r="M141" t="n">
-        <v>0.3137972311028938</v>
+        <v>0.3170922648637684</v>
       </c>
       <c r="N141" t="n">
-        <v>0.04591992895282001</v>
+        <v>0.04494498252509599</v>
       </c>
       <c r="O141" t="n">
-        <v>-0.003276416251715779</v>
+        <v>-0.001716506680656715</v>
       </c>
       <c r="P141" t="n">
-        <v>0.4895925171434822</v>
+        <v>0.5007423136677281</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.0443420954682058</v>
+        <v>0.04402938495721451</v>
       </c>
       <c r="R141" t="n">
-        <v>-0.001633401997944466</v>
+        <v>-0.003802315098746942</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.06126915207279698</v>
+        <v>0.06329166012781071</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04642339216912089</v>
+        <v>0.04626366257048183</v>
       </c>
       <c r="H142" t="n">
-        <v>-0.004070251670176571</v>
+        <v>-0.003815904493740209</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1377310024699077</v>
+        <v>0.1322537964671364</v>
       </c>
       <c r="K142" t="n">
-        <v>0.04495269035577185</v>
+        <v>0.04609238262714242</v>
       </c>
       <c r="L142" t="n">
-        <v>-0.004279102421150005</v>
+        <v>-0.003439615809444433</v>
       </c>
       <c r="M142" t="n">
-        <v>0.3148003323091065</v>
+        <v>0.3181888925297129</v>
       </c>
       <c r="N142" t="n">
-        <v>0.04673992768412037</v>
+        <v>0.04574757149875841</v>
       </c>
       <c r="O142" t="n">
-        <v>-0.003276416251715779</v>
+        <v>-0.001716506680656715</v>
       </c>
       <c r="P142" t="n">
-        <v>0.4915379086300383</v>
+        <v>0.5017393512585937</v>
       </c>
       <c r="Q142" t="n">
-        <v>0.04513391860156662</v>
+        <v>0.04481562397430763</v>
       </c>
       <c r="R142" t="n">
-        <v>-0.001633401997944466</v>
+        <v>-0.003802315098746942</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.06146994948129694</v>
+        <v>0.06338726849027804</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04723783764577213</v>
+        <v>0.04707530577347274</v>
       </c>
       <c r="H143" t="n">
-        <v>-0.00406943770123943</v>
+        <v>-0.003816667750964679</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1381106549168442</v>
+        <v>0.1325638416568286</v>
       </c>
       <c r="K143" t="n">
-        <v>0.04574133404622398</v>
+        <v>0.04690102091884666</v>
       </c>
       <c r="L143" t="n">
-        <v>-0.004418819434273006</v>
+        <v>-0.003439615809444433</v>
       </c>
       <c r="M143" t="n">
-        <v>0.3158974998834351</v>
+        <v>0.3192700719477993</v>
       </c>
       <c r="N143" t="n">
-        <v>0.04755992641542072</v>
+        <v>0.04655016047242084</v>
       </c>
       <c r="O143" t="n">
-        <v>-0.003276416251715779</v>
+        <v>-0.001716506680656715</v>
       </c>
       <c r="P143" t="n">
-        <v>0.4934540400601997</v>
+        <v>0.5027082832678172</v>
       </c>
       <c r="Q143" t="n">
-        <v>0.04592574173492743</v>
+        <v>0.04560186299140075</v>
       </c>
       <c r="R143" t="n">
-        <v>-0.001633401997944466</v>
+        <v>-0.003890130211799658</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.06168456272377349</v>
+        <v>0.06347568833256759</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04805228312242338</v>
+        <v>0.04788694897646365</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.004067277390000143</v>
+        <v>-0.00381964515939512</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1385377008009394</v>
+        <v>0.1328554071592722</v>
       </c>
       <c r="K144" t="n">
-        <v>0.04652997773667612</v>
+        <v>0.04770965921055091</v>
       </c>
       <c r="L144" t="n">
-        <v>-0.004418819434273006</v>
+        <v>-0.003374747847896006</v>
       </c>
       <c r="M144" t="n">
-        <v>0.3170047064914836</v>
+        <v>0.3204979161874961</v>
       </c>
       <c r="N144" t="n">
-        <v>0.04837992514672108</v>
+        <v>0.04735274944608327</v>
       </c>
       <c r="O144" t="n">
-        <v>-0.00347233572835382</v>
+        <v>-0.001719755167236058</v>
       </c>
       <c r="P144" t="n">
-        <v>0.4952821624448976</v>
+        <v>0.5037230616823503</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.04671756486828825</v>
+        <v>0.04638810200849386</v>
       </c>
       <c r="R144" t="n">
-        <v>-0.001614438087806972</v>
+        <v>-0.003890130211799658</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.06189592918438865</v>
+        <v>0.06355723964904123</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04886672859907462</v>
+        <v>0.04869859217945455</v>
       </c>
       <c r="H145" t="n">
-        <v>-0.004066464097180707</v>
+        <v>-0.00381964515939512</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1389562866928576</v>
+        <v>0.1331292226172076</v>
       </c>
       <c r="K145" t="n">
-        <v>0.04731862142712825</v>
+        <v>0.04851829750225517</v>
       </c>
       <c r="L145" t="n">
-        <v>-0.004418819434273006</v>
+        <v>-0.003374747847896006</v>
       </c>
       <c r="M145" t="n">
-        <v>0.318175865731711</v>
+        <v>0.3214901372148107</v>
       </c>
       <c r="N145" t="n">
-        <v>0.04919992387802144</v>
+        <v>0.0481553384197457</v>
       </c>
       <c r="O145" t="n">
-        <v>-0.00347233572835382</v>
+        <v>-0.001719755167236058</v>
       </c>
       <c r="P145" t="n">
-        <v>0.4972807523400212</v>
+        <v>0.5044209510990085</v>
       </c>
       <c r="Q145" t="n">
-        <v>0.04750938800164907</v>
+        <v>0.04717434102558698</v>
       </c>
       <c r="R145" t="n">
-        <v>-0.001614438087806972</v>
+        <v>-0.003890130211799658</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.06213037223740272</v>
+        <v>0.06366202247051614</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04968117407572586</v>
+        <v>0.04951023538244546</v>
       </c>
       <c r="H146" t="n">
-        <v>-0.004066057450770989</v>
+        <v>-0.003820027085718427</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1393100743629743</v>
+        <v>0.1334593862529464</v>
       </c>
       <c r="K146" t="n">
-        <v>0.04810726511758039</v>
+        <v>0.04932693579395942</v>
       </c>
       <c r="L146" t="n">
-        <v>-0.004418819434273006</v>
+        <v>-0.003374747847896006</v>
       </c>
       <c r="M146" t="n">
-        <v>0.319362520989783</v>
+        <v>0.3226232179881774</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0500199226093218</v>
+        <v>0.04895792739340812</v>
       </c>
       <c r="O146" t="n">
-        <v>-0.00347233572835382</v>
+        <v>-0.001719755167236058</v>
       </c>
       <c r="P146" t="n">
-        <v>0.4993750363031547</v>
+        <v>0.5050854223302027</v>
       </c>
       <c r="Q146" t="n">
-        <v>0.04830121113500989</v>
+        <v>0.04796058004268009</v>
       </c>
       <c r="R146" t="n">
-        <v>-0.001614438087806972</v>
+        <v>-0.003890130211799658</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.06232714339981072</v>
+        <v>0.06372811602315265</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05049561955237711</v>
+        <v>0.05032187858543637</v>
       </c>
       <c r="H147" t="n">
-        <v>-0.004066057450770989</v>
+        <v>-0.003820027085718427</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1396940202456896</v>
+        <v>0.1337000059989775</v>
       </c>
       <c r="K147" t="n">
-        <v>0.04889590880803253</v>
+        <v>0.05013557408566367</v>
       </c>
       <c r="L147" t="n">
-        <v>-0.004418819434273006</v>
+        <v>-0.003374747847896006</v>
       </c>
       <c r="M147" t="n">
-        <v>0.3204687017358999</v>
+        <v>0.3236603372860224</v>
       </c>
       <c r="N147" t="n">
-        <v>0.05083992134062215</v>
+        <v>0.04976051636707055</v>
       </c>
       <c r="O147" t="n">
-        <v>-0.00347233572835382</v>
+        <v>-0.001719755167236058</v>
       </c>
       <c r="P147" t="n">
-        <v>0.5011120883067798</v>
+        <v>0.5060251392634866</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.0490930342683707</v>
+        <v>0.04874681905977321</v>
       </c>
       <c r="R147" t="n">
-        <v>-0.001614438087806972</v>
+        <v>-0.003890130211799658</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.06252994700770392</v>
+        <v>0.06379994207892792</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05131006502902835</v>
+        <v>0.05113352178842728</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.004062461130166704</v>
+        <v>-0.00390352590800032</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1400707978579009</v>
+        <v>0.134053871506943</v>
       </c>
       <c r="K148" t="n">
-        <v>0.04968455249848467</v>
+        <v>0.05094421237736792</v>
       </c>
       <c r="L148" t="n">
-        <v>-0.004500723467919155</v>
+        <v>-0.00331059041006992</v>
       </c>
       <c r="M148" t="n">
-        <v>0.3217276483170882</v>
+        <v>0.3246948260000689</v>
       </c>
       <c r="N148" t="n">
-        <v>0.05165992007192251</v>
+        <v>0.05056310534073298</v>
       </c>
       <c r="O148" t="n">
-        <v>-0.003689677881454731</v>
+        <v>-0.001822906384658822</v>
       </c>
       <c r="P148" t="n">
-        <v>0.5031639917658955</v>
+        <v>0.506636607764162</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.04988485740173152</v>
+        <v>0.04953305807686632</v>
       </c>
       <c r="R148" t="n">
-        <v>-0.001652605963526985</v>
+        <v>-0.003919198475976691</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.06273903344229967</v>
+        <v>0.06386875147312254</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05212451050567959</v>
+        <v>0.05194516499141819</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.004062461130166704</v>
+        <v>-0.00390352590800032</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1404218203306628</v>
+        <v>0.1343011576269797</v>
       </c>
       <c r="K149" t="n">
-        <v>0.05047319618893681</v>
+        <v>0.05175285066907218</v>
       </c>
       <c r="L149" t="n">
-        <v>-0.004500723467919155</v>
+        <v>-0.00331059041006992</v>
       </c>
       <c r="M149" t="n">
-        <v>0.3229021297009172</v>
+        <v>0.325916045734286</v>
       </c>
       <c r="N149" t="n">
-        <v>0.05247991880322287</v>
+        <v>0.05136569431439541</v>
       </c>
       <c r="O149" t="n">
-        <v>-0.003689677881454731</v>
+        <v>-0.001822906384658822</v>
       </c>
       <c r="P149" t="n">
-        <v>0.5050772223445102</v>
+        <v>0.5072985447318418</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.05067668053509234</v>
+        <v>0.05031929709395944</v>
       </c>
       <c r="R149" t="n">
-        <v>-0.001652605963526985</v>
+        <v>-0.003919198475976691</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.06292827578412241</v>
+        <v>0.06393465947037841</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05293895598233084</v>
+        <v>0.05275680819440911</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.00406286737627972</v>
+        <v>-0.003903916260591121</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1408237576085105</v>
+        <v>0.1346267594182478</v>
       </c>
       <c r="K150" t="n">
-        <v>0.05126183987938895</v>
+        <v>0.05256148896077643</v>
       </c>
       <c r="L150" t="n">
-        <v>-0.004500723467919155</v>
+        <v>-0.00331059041006992</v>
       </c>
       <c r="M150" t="n">
-        <v>0.3239421613892982</v>
+        <v>0.3269904926260193</v>
       </c>
       <c r="N150" t="n">
-        <v>0.05329991753452322</v>
+        <v>0.05216828328805784</v>
       </c>
       <c r="O150" t="n">
-        <v>-0.003689677881454731</v>
+        <v>-0.001822906384658822</v>
       </c>
       <c r="P150" t="n">
-        <v>0.5072263517864164</v>
+        <v>0.507936285292666</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.05146850366845315</v>
+        <v>0.05110553611105256</v>
       </c>
       <c r="R150" t="n">
-        <v>-0.001652605963526985</v>
+        <v>-0.003919198475976691</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.06311536847033611</v>
+        <v>0.06399778133533732</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05375340145898208</v>
+        <v>0.05356845139740001</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.004062461130166704</v>
+        <v>-0.00390352590800032</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1411435769771482</v>
+        <v>0.1349578886333671</v>
       </c>
       <c r="K151" t="n">
-        <v>0.05205048356984108</v>
+        <v>0.05337012725248068</v>
       </c>
       <c r="L151" t="n">
-        <v>-0.004500723467919155</v>
+        <v>-0.00331059041006992</v>
       </c>
       <c r="M151" t="n">
-        <v>0.3252724526162094</v>
+        <v>0.3280596215054325</v>
       </c>
       <c r="N151" t="n">
-        <v>0.05411991626582358</v>
+        <v>0.05297087226172027</v>
       </c>
       <c r="O151" t="n">
-        <v>-0.003689677881454731</v>
+        <v>-0.001822906384658822</v>
       </c>
       <c r="P151" t="n">
-        <v>0.509154881217443</v>
+        <v>0.5084749044787741</v>
       </c>
       <c r="Q151" t="n">
-        <v>0.05226032680181397</v>
+        <v>0.05189177512814567</v>
       </c>
       <c r="R151" t="n">
-        <v>-0.001652605963526985</v>
+        <v>-0.003919198475976691</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.06330933255657947</v>
+        <v>0.0640493273999011</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05456784693563333</v>
+        <v>0.05438009460039093</v>
       </c>
       <c r="H152" t="n">
-        <v>-0.004062281206964902</v>
+        <v>-0.004064891997272158</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1415352991571265</v>
+        <v>0.1352397866852812</v>
       </c>
       <c r="K152" t="n">
-        <v>0.05283912726029322</v>
+        <v>0.05417876554418494</v>
       </c>
       <c r="L152" t="n">
-        <v>-0.004516790150616947</v>
+        <v>-0.003252906760979079</v>
       </c>
       <c r="M152" t="n">
-        <v>0.3263692575554969</v>
+        <v>0.3290745618467025</v>
       </c>
       <c r="N152" t="n">
-        <v>0.05493991499712394</v>
+        <v>0.05377346123538269</v>
       </c>
       <c r="O152" t="n">
-        <v>-0.003929874323213838</v>
+        <v>-0.002014720022460382</v>
       </c>
       <c r="P152" t="n">
-        <v>0.5113148957731487</v>
+        <v>0.5089910538919789</v>
       </c>
       <c r="Q152" t="n">
-        <v>0.0530521499351748</v>
+        <v>0.0526780141452388</v>
       </c>
       <c r="R152" t="n">
-        <v>-0.001725468384511458</v>
+        <v>-0.003946826942802235</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0635104157593461</v>
+        <v>0.06411612772693162</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05538229241228457</v>
+        <v>0.05519173780338183</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.004062687394466849</v>
+        <v>-0.004064079181435871</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1418898874341863</v>
+        <v>0.1355657715567992</v>
       </c>
       <c r="K153" t="n">
-        <v>0.05362777095074536</v>
+        <v>0.05498740383588919</v>
       </c>
       <c r="L153" t="n">
-        <v>-0.004516790150616947</v>
+        <v>-0.003252906760979079</v>
       </c>
       <c r="M153" t="n">
-        <v>0.3276587132594653</v>
+        <v>0.3300340291764643</v>
       </c>
       <c r="N153" t="n">
-        <v>0.0557599137284243</v>
+        <v>0.05457605020904512</v>
       </c>
       <c r="O153" t="n">
-        <v>-0.003929874323213838</v>
+        <v>-0.002014720022460382</v>
       </c>
       <c r="P153" t="n">
-        <v>0.5131711749300487</v>
+        <v>0.5097895175188774</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.05384397306853561</v>
+        <v>0.05346425316233191</v>
       </c>
       <c r="R153" t="n">
-        <v>-0.001725468384511458</v>
+        <v>-0.003946826942802235</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.06368338789156033</v>
+        <v>0.06417158278285071</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05619673788893582</v>
+        <v>0.05600338100637275</v>
       </c>
       <c r="H154" t="n">
-        <v>-0.004062281206964902</v>
+        <v>-0.004064079181435871</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1422461755389972</v>
+        <v>0.1359179836520993</v>
       </c>
       <c r="K154" t="n">
-        <v>0.05441641464119749</v>
+        <v>0.05579604212759344</v>
       </c>
       <c r="L154" t="n">
-        <v>-0.004516790150616947</v>
+        <v>-0.003252906760979079</v>
       </c>
       <c r="M154" t="n">
-        <v>0.3287094895936498</v>
+        <v>0.3310810827120116</v>
       </c>
       <c r="N154" t="n">
-        <v>0.05657991245972466</v>
+        <v>0.05537863918270756</v>
       </c>
       <c r="O154" t="n">
-        <v>-0.003929874323213838</v>
+        <v>-0.002014720022460382</v>
       </c>
       <c r="P154" t="n">
-        <v>0.515177608424219</v>
+        <v>0.5101116963761214</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.05463579620189642</v>
+        <v>0.05425049217942502</v>
       </c>
       <c r="R154" t="n">
-        <v>-0.001725468384511458</v>
+        <v>-0.003946826942802235</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.06389048476801584</v>
+        <v>0.06420686960680297</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05701118336558706</v>
+        <v>0.05681502420936365</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.004061875019462956</v>
+        <v>-0.004064485589354015</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1425843649442174</v>
+        <v>0.1362920626555024</v>
       </c>
       <c r="K155" t="n">
-        <v>0.05520505833164963</v>
+        <v>0.05660468041929769</v>
       </c>
       <c r="L155" t="n">
-        <v>-0.004516790150616947</v>
+        <v>-0.003252906760979079</v>
       </c>
       <c r="M155" t="n">
-        <v>0.3299978656809571</v>
+        <v>0.332118949551903</v>
       </c>
       <c r="N155" t="n">
-        <v>0.05739991119102501</v>
+        <v>0.05618122815636999</v>
       </c>
       <c r="O155" t="n">
-        <v>-0.003929874323213838</v>
+        <v>-0.002276798470304724</v>
       </c>
       <c r="P155" t="n">
-        <v>0.5171791558611428</v>
+        <v>0.5108704021103506</v>
       </c>
       <c r="Q155" t="n">
-        <v>0.05542761933525724</v>
+        <v>0.05503673119651814</v>
       </c>
       <c r="R155" t="n">
-        <v>-0.001725468384511458</v>
+        <v>-0.003946826942802235</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.06406290056262823</v>
+        <v>0.06427563293814184</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0578256288422383</v>
+        <v>0.05762666741235457</v>
       </c>
       <c r="H156" t="n">
-        <v>-0.004070435541386315</v>
+        <v>-0.004284545762986632</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1429616908684833</v>
+        <v>0.1366113873459557</v>
       </c>
       <c r="K156" t="n">
-        <v>0.05599370202210176</v>
+        <v>0.05741331871100195</v>
       </c>
       <c r="L156" t="n">
-        <v>-0.00451030860208835</v>
+        <v>-0.003195728593595103</v>
       </c>
       <c r="M156" t="n">
-        <v>0.331090721832751</v>
+        <v>0.3331466621265331</v>
       </c>
       <c r="N156" t="n">
-        <v>0.05821990992232537</v>
+        <v>0.0569838171300324</v>
       </c>
       <c r="O156" t="n">
-        <v>-0.004182407665995249</v>
+        <v>-0.002276798470304724</v>
       </c>
       <c r="P156" t="n">
-        <v>0.5192499266798899</v>
+        <v>0.5112301423642895</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.05621944246861807</v>
+        <v>0.05582297021361125</v>
       </c>
       <c r="R156" t="n">
-        <v>-0.001824980851610941</v>
+        <v>-0.003971450025112008</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.0642567382606149</v>
+        <v>0.06430659546139478</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05864007431888955</v>
+        <v>0.05843831061534547</v>
       </c>
       <c r="H157" t="n">
-        <v>-0.004071249709911445</v>
+        <v>-0.004285402672139229</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1433005078606781</v>
+        <v>0.1369126684415981</v>
       </c>
       <c r="K157" t="n">
-        <v>0.05678234571255391</v>
+        <v>0.0582219570027062</v>
       </c>
       <c r="L157" t="n">
-        <v>-0.00451030860208835</v>
+        <v>-0.003195728593595103</v>
       </c>
       <c r="M157" t="n">
-        <v>0.3323706116412943</v>
+        <v>0.334163252866297</v>
       </c>
       <c r="N157" t="n">
-        <v>0.05903990865362573</v>
+        <v>0.05778640610369484</v>
       </c>
       <c r="O157" t="n">
-        <v>-0.004182407665995249</v>
+        <v>-0.002276798470304724</v>
       </c>
       <c r="P157" t="n">
-        <v>0.5211563611157785</v>
+        <v>0.5116481168659429</v>
       </c>
       <c r="Q157" t="n">
-        <v>0.05701126560197888</v>
+        <v>0.05660920923070437</v>
       </c>
       <c r="R157" t="n">
-        <v>-0.001824980851610941</v>
+        <v>-0.003971450025112008</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.06445363709867308</v>
+        <v>0.06437130491564921</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05945451979554078</v>
+        <v>0.05924995381833639</v>
       </c>
       <c r="H158" t="n">
-        <v>-0.004071249709911445</v>
+        <v>-0.004284974217562931</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1436775244188073</v>
+        <v>0.137251613958589</v>
       </c>
       <c r="K158" t="n">
-        <v>0.05757098940300604</v>
+        <v>0.05903059529441045</v>
       </c>
       <c r="L158" t="n">
-        <v>-0.00451030860208835</v>
+        <v>-0.003195728593595103</v>
       </c>
       <c r="M158" t="n">
-        <v>0.3335953204850005</v>
+        <v>0.3351677542015895</v>
       </c>
       <c r="N158" t="n">
-        <v>0.05985990738492609</v>
+        <v>0.05858899507735726</v>
       </c>
       <c r="O158" t="n">
-        <v>-0.004182407665995249</v>
+        <v>-0.002276798470304724</v>
       </c>
       <c r="P158" t="n">
-        <v>0.5232037158500747</v>
+        <v>0.5122778418429191</v>
       </c>
       <c r="Q158" t="n">
-        <v>0.0578030887353397</v>
+        <v>0.05739544824779749</v>
       </c>
       <c r="R158" t="n">
-        <v>-0.001824980851610941</v>
+        <v>-0.003971450025112008</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.06467091267521899</v>
+        <v>0.06441628724933859</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06026896527219203</v>
+        <v>0.06006159702132729</v>
       </c>
       <c r="H159" t="n">
-        <v>-0.00414359016970301</v>
+        <v>-0.004285402672139229</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1439954073379016</v>
+        <v>0.1376280560331588</v>
       </c>
       <c r="K159" t="n">
-        <v>0.05835963309345819</v>
+        <v>0.0598392335861147</v>
       </c>
       <c r="L159" t="n">
-        <v>-0.00451030860208835</v>
+        <v>-0.003195728593595103</v>
       </c>
       <c r="M159" t="n">
-        <v>0.3347141453625518</v>
+        <v>0.3361591985628055</v>
       </c>
       <c r="N159" t="n">
-        <v>0.06067990611622644</v>
+        <v>0.05939158405101969</v>
       </c>
       <c r="O159" t="n">
-        <v>-0.004182407665995249</v>
+        <v>-0.002276798470304724</v>
       </c>
       <c r="P159" t="n">
-        <v>0.5250028197662296</v>
+        <v>0.5125867956460749</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.05859491186870051</v>
+        <v>0.05818168726489061</v>
       </c>
       <c r="R159" t="n">
-        <v>-0.001824980851610941</v>
+        <v>-0.003971450025112008</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.06486313734521884</v>
+        <v>0.06446846589008501</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06108341074884328</v>
+        <v>0.06087324022431819</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.004142761534532587</v>
+        <v>-0.004547171658830434</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1443893554631913</v>
+        <v>0.1379666474816083</v>
       </c>
       <c r="K160" t="n">
-        <v>0.05914827678391032</v>
+        <v>0.06064787187781896</v>
       </c>
       <c r="L160" t="n">
-        <v>-0.00449454145652141</v>
+        <v>-0.003135642880297141</v>
       </c>
       <c r="M160" t="n">
-        <v>0.3358216725106924</v>
+        <v>0.3372340554477225</v>
       </c>
       <c r="N160" t="n">
-        <v>0.06149990484752679</v>
+        <v>0.06019417302468213</v>
       </c>
       <c r="O160" t="n">
-        <v>-0.004440891734954397</v>
+        <v>-0.002589671115673331</v>
       </c>
       <c r="P160" t="n">
-        <v>0.5269376254889752</v>
+        <v>0.5131095325397733</v>
       </c>
       <c r="Q160" t="n">
-        <v>0.05938673500206134</v>
+        <v>0.05896792628198372</v>
       </c>
       <c r="R160" t="n">
-        <v>-0.001942853107914767</v>
+        <v>-0.003992660138477363</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.06506553909838733</v>
+        <v>0.06449217171262658</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06189785622549451</v>
+        <v>0.06168488342730911</v>
       </c>
       <c r="H161" t="n">
-        <v>-0.004142761534532587</v>
+        <v>-0.0045480810931622</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1447034752290329</v>
+        <v>0.1383232996849725</v>
       </c>
       <c r="K161" t="n">
-        <v>0.05993692047436245</v>
+        <v>0.06145651016952321</v>
       </c>
       <c r="L161" t="n">
-        <v>-0.00449454145652141</v>
+        <v>-0.003135642880297141</v>
       </c>
       <c r="M161" t="n">
-        <v>0.3369647209147751</v>
+        <v>0.3381478608706743</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06231990357882716</v>
+        <v>0.06099676199834456</v>
       </c>
       <c r="O161" t="n">
-        <v>-0.004440891734954397</v>
+        <v>-0.002589671115673331</v>
       </c>
       <c r="P161" t="n">
-        <v>0.5290064858751905</v>
+        <v>0.5136183100691925</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.06017855813542215</v>
+        <v>0.05975416529907684</v>
       </c>
       <c r="R161" t="n">
-        <v>-0.001942853107914767</v>
+        <v>-0.003992660138477363</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.06526853488751125</v>
+        <v>0.06453224958089332</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06271230170214577</v>
+        <v>0.06249652663030001</v>
       </c>
       <c r="H162" t="n">
-        <v>-0.004143175852117799</v>
+        <v>-0.004547171658830434</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1450928632748574</v>
+        <v>0.1386411556990658</v>
       </c>
       <c r="K162" t="n">
-        <v>0.0607255641648146</v>
+        <v>0.06226514846122747</v>
       </c>
       <c r="L162" t="n">
-        <v>-0.00449454145652141</v>
+        <v>-0.003135642880297141</v>
       </c>
       <c r="M162" t="n">
-        <v>0.3381417523070883</v>
+        <v>0.3391922424330071</v>
       </c>
       <c r="N162" t="n">
-        <v>0.06313990231012752</v>
+        <v>0.06179935097200697</v>
       </c>
       <c r="O162" t="n">
-        <v>-0.004440891734954397</v>
+        <v>-0.002589671115673331</v>
       </c>
       <c r="P162" t="n">
-        <v>0.5308173179197763</v>
+        <v>0.5140376505095479</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.06097038126878297</v>
+        <v>0.06054040431616995</v>
       </c>
       <c r="R162" t="n">
-        <v>-0.001942853107914767</v>
+        <v>-0.003992660138477363</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.06548960216159738</v>
+        <v>0.06458883881777328</v>
       </c>
       <c r="G163" t="n">
-        <v>0.063526747178797</v>
+        <v>0.06330816983329093</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.004142761534532587</v>
+        <v>-0.004547626375996316</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1454010616205672</v>
+        <v>0.1389763299652358</v>
       </c>
       <c r="K163" t="n">
-        <v>0.06151420785526673</v>
+        <v>0.06307378675293172</v>
       </c>
       <c r="L163" t="n">
-        <v>-0.00449454145652141</v>
+        <v>-0.003135642880297141</v>
       </c>
       <c r="M163" t="n">
-        <v>0.3393022987021567</v>
+        <v>0.3401220620919851</v>
       </c>
       <c r="N163" t="n">
-        <v>0.06395990104142787</v>
+        <v>0.0626019399456694</v>
       </c>
       <c r="O163" t="n">
-        <v>-0.004693555774374137</v>
+        <v>-0.002589671115673331</v>
       </c>
       <c r="P163" t="n">
-        <v>0.5328352296102449</v>
+        <v>0.5145212241717304</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.06176220440214378</v>
+        <v>0.06132664333326308</v>
       </c>
       <c r="R163" t="n">
-        <v>-0.001942853107914767</v>
+        <v>-0.004012450981079485</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.06569197593159726</v>
+        <v>0.0646172729528155</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06434119265544826</v>
+        <v>0.06411981303628184</v>
       </c>
       <c r="H164" t="n">
-        <v>-0.004270743344245253</v>
+        <v>-0.004831943186071051</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1457445742968859</v>
+        <v>0.1392717645290885</v>
       </c>
       <c r="K164" t="n">
-        <v>0.06230285154571887</v>
+        <v>0.06388242504463597</v>
       </c>
       <c r="L164" t="n">
-        <v>-0.00447243090942544</v>
+        <v>-0.003072054683560721</v>
       </c>
       <c r="M164" t="n">
-        <v>0.3403954437909272</v>
+        <v>0.3408867008215569</v>
       </c>
       <c r="N164" t="n">
-        <v>0.06477989977272823</v>
+        <v>0.06340452891933183</v>
       </c>
       <c r="O164" t="n">
-        <v>-0.004693555774374137</v>
+        <v>-0.00293404960023531</v>
       </c>
       <c r="P164" t="n">
-        <v>0.5346668149917057</v>
+        <v>0.5146876902398462</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.06255402753550461</v>
+        <v>0.06211288235035619</v>
       </c>
       <c r="R164" t="n">
-        <v>-0.002071889885023235</v>
+        <v>-0.004012450981079485</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.06586583045316913</v>
+        <v>0.06465349175300975</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0651556381320995</v>
+        <v>0.06493145623927275</v>
       </c>
       <c r="H165" t="n">
-        <v>-0.004270316312613992</v>
+        <v>-0.004831943186071051</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1461034569954853</v>
+        <v>0.1396217003853252</v>
       </c>
       <c r="K165" t="n">
-        <v>0.06309149523617101</v>
+        <v>0.06469106333634023</v>
       </c>
       <c r="L165" t="n">
-        <v>-0.00447243090942544</v>
+        <v>-0.003072054683560721</v>
       </c>
       <c r="M165" t="n">
-        <v>0.3414681154973687</v>
+        <v>0.3417794843766055</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06559989850402859</v>
+        <v>0.06420711789299427</v>
       </c>
       <c r="O165" t="n">
-        <v>-0.004693555774374137</v>
+        <v>-0.00293404960023531</v>
       </c>
       <c r="P165" t="n">
-        <v>0.5364654291043018</v>
+        <v>0.5152261402416259</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.06334585066886543</v>
+        <v>0.0628991213674493</v>
       </c>
       <c r="R165" t="n">
-        <v>-0.002071889885023235</v>
+        <v>-0.004012450981079485</v>
       </c>
     </row>
     <row r="166">
       <c r="F166" t="n">
-        <v>0.06609233617652779</v>
+        <v>0.06469762135907675</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06597008360875074</v>
+        <v>0.06574309944226366</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.004271170375876514</v>
+        <v>-0.004831943186071051</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1464772700911753</v>
+        <v>0.1399690783764835</v>
       </c>
       <c r="K166" t="n">
-        <v>0.06388013892662314</v>
+        <v>0.06549970162804448</v>
       </c>
       <c r="L166" t="n">
-        <v>-0.00447243090942544</v>
+        <v>-0.003072054683560721</v>
       </c>
       <c r="M166" t="n">
-        <v>0.342518432451149</v>
+        <v>0.3427017081411557</v>
       </c>
       <c r="N166" t="n">
-        <v>0.06641989723532894</v>
+        <v>0.06500970686665669</v>
       </c>
       <c r="O166" t="n">
-        <v>-0.004693555774374137</v>
+        <v>-0.00293404960023531</v>
       </c>
       <c r="P166" t="n">
-        <v>0.5379918423297743</v>
+        <v>0.5155256487997335</v>
       </c>
       <c r="Q166" t="n">
-        <v>0.06413767380222624</v>
+        <v>0.06368536038454242</v>
       </c>
       <c r="R166" t="n">
-        <v>-0.002071889885023235</v>
+        <v>-0.004012450981079485</v>
       </c>
     </row>
     <row r="167">
       <c r="F167" t="n">
-        <v>0.06627083453268059</v>
+        <v>0.06473184452020575</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06678452908540199</v>
+        <v>0.06655474264525457</v>
       </c>
       <c r="H167" t="n">
-        <v>-0.004270743344245253</v>
+        <v>-0.005118904503643215</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1467475104539696</v>
+        <v>0.1402564437854821</v>
       </c>
       <c r="K167" t="n">
-        <v>0.06466878261707527</v>
+        <v>0.06630833991974873</v>
       </c>
       <c r="L167" t="n">
-        <v>-0.00447243090942544</v>
+        <v>-0.003072054683560721</v>
       </c>
       <c r="M167" t="n">
-        <v>0.343495168699524</v>
+        <v>0.3436033048230454</v>
       </c>
       <c r="N167" t="n">
-        <v>0.0672398959666293</v>
+        <v>0.06581229584031913</v>
       </c>
       <c r="O167" t="n">
-        <v>-0.004693555774374137</v>
+        <v>-0.003290974597313177</v>
       </c>
       <c r="P167" t="n">
-        <v>0.539715571463862</v>
+        <v>0.5158931596487619</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.06492949693558706</v>
+        <v>0.06447159940163553</v>
       </c>
       <c r="R167" t="n">
-        <v>-0.002071889885023235</v>
+        <v>-0.004012450981079485</v>
       </c>
     </row>
     <row r="168">
       <c r="F168" t="n">
-        <v>0.06647358707773152</v>
+        <v>0.06476524096529393</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06759897456205322</v>
+        <v>0.06736638584824547</v>
       </c>
       <c r="H168" t="n">
-        <v>-0.004432425781418236</v>
+        <v>-0.005118392613192851</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1471102400457724</v>
+        <v>0.1406356125630464</v>
       </c>
       <c r="K168" t="n">
-        <v>0.06545742630752742</v>
+        <v>0.06711697821145299</v>
       </c>
       <c r="L168" t="n">
-        <v>-0.004443319343051234</v>
+        <v>-0.003008337325185691</v>
       </c>
       <c r="M168" t="n">
-        <v>0.3444455875018963</v>
+        <v>0.3444833003224865</v>
       </c>
       <c r="N168" t="n">
-        <v>0.06805989469792965</v>
+        <v>0.06661488481398155</v>
       </c>
       <c r="O168" t="n">
-        <v>-0.004932965586688628</v>
+        <v>-0.003290974597313177</v>
       </c>
       <c r="P168" t="n">
-        <v>0.5415562118880776</v>
+        <v>0.5162530802565274</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.06572132006894787</v>
+        <v>0.06525783841872865</v>
       </c>
       <c r="R168" t="n">
-        <v>-0.002204827238104248</v>
+        <v>-0.004030032482822432</v>
       </c>
     </row>
     <row r="169">
       <c r="F169" t="n">
-        <v>0.06667265366721539</v>
+        <v>0.06477099197951541</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06841342003870447</v>
+        <v>0.06817802905123638</v>
       </c>
       <c r="H169" t="n">
-        <v>-0.00443198258315992</v>
+        <v>-0.00511941639409358</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1473877331704</v>
+        <v>0.1409539605047734</v>
       </c>
       <c r="K169" t="n">
-        <v>0.06624606999797955</v>
+        <v>0.06792561650315725</v>
       </c>
       <c r="L169" t="n">
-        <v>-0.004443319343051234</v>
+        <v>-0.003008337325185691</v>
       </c>
       <c r="M169" t="n">
-        <v>0.345367815885913</v>
+        <v>0.3451426432876226</v>
       </c>
       <c r="N169" t="n">
-        <v>0.06887989342923002</v>
+        <v>0.06741747378764397</v>
       </c>
       <c r="O169" t="n">
-        <v>-0.004932965586688628</v>
+        <v>-0.003290974597313177</v>
       </c>
       <c r="P169" t="n">
-        <v>0.5431946928590943</v>
+        <v>0.5167596543199849</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.06651314320230869</v>
+        <v>0.06604407743582177</v>
       </c>
       <c r="R169" t="n">
-        <v>-0.002204827238104248</v>
+        <v>-0.004030032482822432</v>
       </c>
     </row>
     <row r="170">
       <c r="F170" t="n">
-        <v>0.06685823215991296</v>
+        <v>0.06482103360677613</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06922786551535572</v>
+        <v>0.06898967225422729</v>
       </c>
       <c r="H170" t="n">
-        <v>-0.004432868979676552</v>
+        <v>-0.00511941639409358</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1476977041636081</v>
+        <v>0.1412681989635226</v>
       </c>
       <c r="K170" t="n">
-        <v>0.0670347136884317</v>
+        <v>0.06873425479486149</v>
       </c>
       <c r="L170" t="n">
-        <v>-0.004443319343051234</v>
+        <v>-0.003008337325185691</v>
       </c>
       <c r="M170" t="n">
-        <v>0.3464585253330117</v>
+        <v>0.3460257965798488</v>
       </c>
       <c r="N170" t="n">
-        <v>0.06969989216053037</v>
+        <v>0.0682200627613064</v>
       </c>
       <c r="O170" t="n">
-        <v>-0.004932965586688628</v>
+        <v>-0.003290974597313177</v>
       </c>
       <c r="P170" t="n">
-        <v>0.5448656358138888</v>
+        <v>0.5169538404696464</v>
       </c>
       <c r="Q170" t="n">
-        <v>0.06730496633566951</v>
+        <v>0.06683031645291489</v>
       </c>
       <c r="R170" t="n">
-        <v>-0.002204827238104248</v>
+        <v>-0.004030032482822432</v>
       </c>
     </row>
     <row r="171">
       <c r="F171" t="n">
-        <v>0.06703885202395185</v>
+        <v>0.06484365403517775</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07004231099200696</v>
+        <v>0.0698013154572182</v>
       </c>
       <c r="H171" t="n">
-        <v>-0.004432868979676552</v>
+        <v>-0.005118392613192851</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1480001949363584</v>
+        <v>0.1415779566507536</v>
       </c>
       <c r="K171" t="n">
-        <v>0.06782335737888383</v>
+        <v>0.06954289308656575</v>
       </c>
       <c r="L171" t="n">
-        <v>-0.004443319343051234</v>
+        <v>-0.003008337325185691</v>
       </c>
       <c r="M171" t="n">
-        <v>0.3472693940896834</v>
+        <v>0.3467355651396667</v>
       </c>
       <c r="N171" t="n">
-        <v>0.07051989089183072</v>
+        <v>0.06902265173496884</v>
       </c>
       <c r="O171" t="n">
-        <v>-0.004932965586688628</v>
+        <v>-0.003290974597313177</v>
       </c>
       <c r="P171" t="n">
-        <v>0.5461685709623084</v>
+        <v>0.5174499842406751</v>
       </c>
       <c r="Q171" t="n">
-        <v>0.06809678946903033</v>
+        <v>0.067616555470008</v>
       </c>
       <c r="R171" t="n">
-        <v>-0.002204827238104248</v>
+        <v>-0.004030032482822432</v>
       </c>
     </row>
     <row r="172">
       <c r="F172" t="n">
-        <v>0.06718623764623885</v>
+        <v>0.06486590264154191</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0708567564686582</v>
+        <v>0.07061295866020911</v>
       </c>
       <c r="H172" t="n">
-        <v>-0.004606198580604974</v>
+        <v>-0.005390993990649154</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1483343284052018</v>
+        <v>0.1418828622779258</v>
       </c>
       <c r="K172" t="n">
-        <v>0.06861200106933596</v>
+        <v>0.07035153137826999</v>
       </c>
       <c r="L172" t="n">
-        <v>-0.004408346776468516</v>
+        <v>-0.002943294916377778</v>
       </c>
       <c r="M172" t="n">
-        <v>0.348145898449646</v>
+        <v>0.3474195464473052</v>
       </c>
       <c r="N172" t="n">
-        <v>0.07133988962313109</v>
+        <v>0.06982524070863126</v>
       </c>
       <c r="O172" t="n">
-        <v>-0.005147937431403369</v>
+        <v>-0.003639806672948542</v>
       </c>
       <c r="P172" t="n">
-        <v>0.5478168510875091</v>
+        <v>0.5177888359436197</v>
       </c>
       <c r="Q172" t="n">
-        <v>0.06888861260239114</v>
+        <v>0.06840279448710111</v>
       </c>
       <c r="R172" t="n">
-        <v>-0.002332404891112664</v>
+        <v>-0.004043385521370026</v>
       </c>
     </row>
     <row r="173">
       <c r="F173" t="n">
-        <v>0.06738274796231095</v>
+        <v>0.06492385711597221</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07167120194530945</v>
+        <v>0.07142460186320002</v>
       </c>
       <c r="H173" t="n">
-        <v>-0.004606198580604974</v>
+        <v>-0.005391533090048219</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1486004359327188</v>
+        <v>0.1421633301449257</v>
       </c>
       <c r="K173" t="n">
-        <v>0.0694006447597881</v>
+        <v>0.07116016966997425</v>
       </c>
       <c r="L173" t="n">
-        <v>-0.004408346776468516</v>
+        <v>-0.002943294916377778</v>
       </c>
       <c r="M173" t="n">
-        <v>0.3489369868795127</v>
+        <v>0.3481764160045096</v>
       </c>
       <c r="N173" t="n">
-        <v>0.07215988835443145</v>
+        <v>0.0706278296822937</v>
       </c>
       <c r="O173" t="n">
-        <v>-0.005147937431403369</v>
+        <v>-0.003639806672948542</v>
       </c>
       <c r="P173" t="n">
-        <v>0.54917053140678</v>
+        <v>0.517971114738456</v>
       </c>
       <c r="Q173" t="n">
-        <v>0.06968043573575197</v>
+        <v>0.06918903350419423</v>
       </c>
       <c r="R173" t="n">
-        <v>-0.002332404891112664</v>
+        <v>-0.004043385521370026</v>
       </c>
     </row>
     <row r="174">
       <c r="F174" t="n">
-        <v>0.06750000000000003</v>
+        <v>0.0649367267189816</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07248564742196069</v>
+        <v>0.07223624506619093</v>
       </c>
       <c r="H174" t="n">
-        <v>-0.004606198580604974</v>
+        <v>-0.005391533090048219</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1488971615582291</v>
+        <v>0.1424189007545619</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07018928845024024</v>
+        <v>0.07196880796167851</v>
       </c>
       <c r="L174" t="n">
-        <v>-0.004408346776468516</v>
+        <v>-0.002943294916377778</v>
       </c>
       <c r="M174" t="n">
-        <v>0.3497904744508206</v>
+        <v>0.3488559653568949</v>
       </c>
       <c r="N174" t="n">
-        <v>0.0729798870857318</v>
+        <v>0.07143041865595612</v>
       </c>
       <c r="O174" t="n">
-        <v>-0.005147937431403369</v>
+        <v>-0.003639806672948542</v>
       </c>
       <c r="P174" t="n">
-        <v>0.5505457500010443</v>
+        <v>0.5183816954223643</v>
       </c>
       <c r="Q174" t="n">
-        <v>0.07047225886911279</v>
+        <v>0.06997527252128735</v>
       </c>
       <c r="R174" t="n">
-        <v>-0.002332404891112664</v>
+        <v>-0.004043385521370026</v>
       </c>
     </row>
     <row r="175">
       <c r="F175" t="n">
-        <v>0.06768086950090696</v>
+        <v>0.06497655447403594</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07330009289861193</v>
+        <v>0.07304788826918183</v>
       </c>
       <c r="H175" t="n">
-        <v>-0.004605737960746914</v>
+        <v>-0.005390454891250089</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1491643850601057</v>
+        <v>0.1427262086719519</v>
       </c>
       <c r="K175" t="n">
-        <v>0.07097793214069238</v>
+        <v>0.07277744625338274</v>
       </c>
       <c r="L175" t="n">
-        <v>-0.004408346776468516</v>
+        <v>-0.002943294916377778</v>
       </c>
       <c r="M175" t="n">
-        <v>0.3506548950605864</v>
+        <v>0.3494570230700505</v>
       </c>
       <c r="N175" t="n">
-        <v>0.07379988581703216</v>
+        <v>0.07223300762961854</v>
       </c>
       <c r="O175" t="n">
-        <v>-0.005147937431403369</v>
+        <v>-0.003639806672948542</v>
       </c>
       <c r="P175" t="n">
-        <v>0.5519615242270663</v>
+        <v>0.518560618156241</v>
       </c>
       <c r="Q175" t="n">
-        <v>0.0712640820024736</v>
+        <v>0.07076151153838046</v>
       </c>
       <c r="R175" t="n">
-        <v>-0.002332404891112664</v>
+        <v>-0.004043385521370026</v>
       </c>
     </row>
     <row r="176">
       <c r="F176" t="n">
-        <v>0.06784597775651738</v>
+        <v>0.06499848419174811</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07411453837526318</v>
+        <v>0.07385953147217275</v>
       </c>
       <c r="H176" t="n">
-        <v>-0.004770854237313557</v>
+        <v>-0.005633191708862874</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1494413665397187</v>
+        <v>0.1430465384152195</v>
       </c>
       <c r="K176" t="n">
-        <v>0.07176657583114451</v>
+        <v>0.073586084545087</v>
       </c>
       <c r="L176" t="n">
-        <v>-0.004367330353471584</v>
+        <v>-0.00288114591000346</v>
       </c>
       <c r="M176" t="n">
-        <v>0.3513781891194779</v>
+        <v>0.3501784864170916</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07461988454833252</v>
+        <v>0.07303559660328098</v>
       </c>
       <c r="O176" t="n">
-        <v>-0.005331224559005266</v>
+        <v>-0.003963336505772604</v>
       </c>
       <c r="P176" t="n">
-        <v>0.5530299384189227</v>
+        <v>0.5189698880744817</v>
       </c>
       <c r="Q176" t="n">
-        <v>0.07205590513583442</v>
+        <v>0.07154775055547358</v>
       </c>
       <c r="R176" t="n">
-        <v>-0.002448199038962797</v>
+        <v>-0.00405492674040663</v>
       </c>
     </row>
     <row r="177">
       <c r="F177" t="n">
-        <v>0.06798388935395483</v>
+        <v>0.06504762731682862</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07492898385191442</v>
+        <v>0.07467117467516365</v>
       </c>
       <c r="H177" t="n">
-        <v>-0.004769900161873638</v>
+        <v>-0.005633191708862874</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1496877102384165</v>
+        <v>0.1433022861182097</v>
       </c>
       <c r="K177" t="n">
-        <v>0.07255521952159666</v>
+        <v>0.07439472283679126</v>
       </c>
       <c r="L177" t="n">
-        <v>-0.004367330353471584</v>
+        <v>-0.00288114591000346</v>
       </c>
       <c r="M177" t="n">
-        <v>0.3519615242270664</v>
+        <v>0.3506694251477356</v>
       </c>
       <c r="N177" t="n">
-        <v>0.07543988327963287</v>
+        <v>0.0738381855769434</v>
       </c>
       <c r="O177" t="n">
-        <v>-0.005331224559005266</v>
+        <v>-0.003963336505772604</v>
       </c>
       <c r="P177" t="n">
-        <v>0.5542939145686885</v>
+        <v>0.5192260755757787</v>
       </c>
       <c r="Q177" t="n">
-        <v>0.07284772826919524</v>
+        <v>0.0723339895725667</v>
       </c>
       <c r="R177" t="n">
-        <v>-0.002448199038962797</v>
+        <v>-0.00405492674040663</v>
       </c>
     </row>
     <row r="178">
       <c r="F178" t="n">
-        <v>0.06811252349118377</v>
+        <v>0.06507909679070142</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07574342932856566</v>
+        <v>0.07548281787815456</v>
       </c>
       <c r="H178" t="n">
-        <v>-0.004770377199593598</v>
+        <v>-0.005631502089274133</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1499227904584097</v>
+        <v>0.1435896106214632</v>
       </c>
       <c r="K178" t="n">
-        <v>0.07334386321204879</v>
+        <v>0.0752033611284955</v>
       </c>
       <c r="L178" t="n">
-        <v>-0.004367330353471584</v>
+        <v>-0.00288114591000346</v>
       </c>
       <c r="M178" t="n">
-        <v>0.352693746387979</v>
+        <v>0.3512289487765193</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07625988201093323</v>
+        <v>0.07464077455060583</v>
       </c>
       <c r="O178" t="n">
-        <v>-0.005331224559005266</v>
+        <v>-0.003963336505772604</v>
       </c>
       <c r="P178" t="n">
-        <v>0.5554886536245737</v>
+        <v>0.5196377577404293</v>
       </c>
       <c r="Q178" t="n">
-        <v>0.07363955140255606</v>
+        <v>0.07312022858965982</v>
       </c>
       <c r="R178" t="n">
-        <v>-0.002448199038962797</v>
+        <v>-0.00405492674040663</v>
       </c>
     </row>
     <row r="179">
       <c r="F179" t="n">
-        <v>0.06821262066813491</v>
+        <v>0.06510199828747312</v>
       </c>
       <c r="G179" t="n">
-        <v>0.07655787480521691</v>
+        <v>0.07629446108114547</v>
       </c>
       <c r="H179" t="n">
-        <v>-0.004770854237313557</v>
+        <v>-0.005633191708862874</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1501060458456779</v>
+        <v>0.1438307746097457</v>
       </c>
       <c r="K179" t="n">
-        <v>0.07413250690250094</v>
+        <v>0.07601199942019976</v>
       </c>
       <c r="L179" t="n">
-        <v>-0.004367330353471584</v>
+        <v>-0.00288114591000346</v>
       </c>
       <c r="M179" t="n">
-        <v>0.3531816105348171</v>
+        <v>0.3519615242270664</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0770798807422336</v>
+        <v>0.07544336352426827</v>
       </c>
       <c r="O179" t="n">
-        <v>-0.005331224559005266</v>
+        <v>-0.004240854763799186</v>
       </c>
       <c r="P179" t="n">
-        <v>0.5566113263230736</v>
+        <v>0.5199750660970143</v>
       </c>
       <c r="Q179" t="n">
-        <v>0.07443137453591687</v>
+        <v>0.07390646760675294</v>
       </c>
       <c r="R179" t="n">
-        <v>-0.002448199038962797</v>
+        <v>-0.004064662172187077</v>
       </c>
     </row>
     <row r="180">
       <c r="F180" t="n">
-        <v>0.06832082731581021</v>
+        <v>0.06511643734504044</v>
       </c>
       <c r="G180" t="n">
-        <v>0.07737232028186815</v>
+        <v>0.07710610428413638</v>
       </c>
       <c r="H180" t="n">
-        <v>-0.004906175620533868</v>
+        <v>-0.00582166358482253</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1503369681892283</v>
+        <v>0.1440446592886317</v>
       </c>
       <c r="K180" t="n">
-        <v>0.07492115059295307</v>
+        <v>0.07682063771190402</v>
       </c>
       <c r="L180" t="n">
-        <v>-0.004323148810483631</v>
+        <v>-0.002820808769190151</v>
       </c>
       <c r="M180" t="n">
-        <v>0.3536709369958176</v>
+        <v>0.3522498033659431</v>
       </c>
       <c r="N180" t="n">
-        <v>0.07789987947353394</v>
+        <v>0.07624595249793069</v>
       </c>
       <c r="O180" t="n">
-        <v>-0.005472021746097561</v>
+        <v>-0.004240854763799186</v>
       </c>
       <c r="P180" t="n">
-        <v>0.5573361355266528</v>
+        <v>0.520469916547141</v>
       </c>
       <c r="Q180" t="n">
-        <v>0.07522319766927769</v>
+        <v>0.07469270662384604</v>
       </c>
       <c r="R180" t="n">
-        <v>-0.002543001967548226</v>
+        <v>-0.004064662172187077</v>
       </c>
     </row>
     <row r="181">
       <c r="F181" t="n">
-        <v>0.06841790780070248</v>
+        <v>0.06517661424777496</v>
       </c>
       <c r="G181" t="n">
-        <v>0.07818676575851939</v>
+        <v>0.07791774748712729</v>
       </c>
       <c r="H181" t="n">
-        <v>-0.004905194483523462</v>
+        <v>-0.005822245809403471</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1504948943139087</v>
+        <v>0.1442891150468949</v>
       </c>
       <c r="K181" t="n">
-        <v>0.07570979428340521</v>
+        <v>0.07762927600360826</v>
       </c>
       <c r="L181" t="n">
-        <v>-0.004323148810483631</v>
+        <v>-0.002820808769190151</v>
       </c>
       <c r="M181" t="n">
-        <v>0.3542104425240368</v>
+        <v>0.3528097510823998</v>
       </c>
       <c r="N181" t="n">
-        <v>0.0787198782048343</v>
+        <v>0.07704854147159311</v>
       </c>
       <c r="O181" t="n">
-        <v>-0.005472021746097561</v>
+        <v>-0.004240854763799186</v>
       </c>
       <c r="P181" t="n">
-        <v>0.5583058276471156</v>
+        <v>0.5206610420091278</v>
       </c>
       <c r="Q181" t="n">
-        <v>0.0760150208026385</v>
+        <v>0.07547894564093915</v>
       </c>
       <c r="R181" t="n">
-        <v>-0.002543001967548226</v>
+        <v>-0.004064662172187077</v>
       </c>
     </row>
     <row r="182">
       <c r="F182" t="n">
-        <v>0.06852194591930058</v>
+        <v>0.0652105406658417</v>
       </c>
       <c r="G182" t="n">
-        <v>0.07900121123517063</v>
+        <v>0.0787293906901182</v>
       </c>
       <c r="H182" t="n">
-        <v>-0.004905194483523462</v>
+        <v>-0.005822245809403471</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1507396736543162</v>
+        <v>0.1445444628749524</v>
       </c>
       <c r="K182" t="n">
-        <v>0.07649843797385734</v>
+        <v>0.07843791429531252</v>
       </c>
       <c r="L182" t="n">
-        <v>-0.004323148810483631</v>
+        <v>-0.002820808769190151</v>
       </c>
       <c r="M182" t="n">
-        <v>0.3545966650196297</v>
+        <v>0.3531836022940372</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07953987693613467</v>
+        <v>0.07785113044525555</v>
       </c>
       <c r="O182" t="n">
-        <v>-0.005472021746097561</v>
+        <v>-0.004240854763799186</v>
       </c>
       <c r="P182" t="n">
-        <v>0.5591140797521658</v>
+        <v>0.5210886555807871</v>
       </c>
       <c r="Q182" t="n">
-        <v>0.07680684393599933</v>
+        <v>0.07626518465803228</v>
       </c>
       <c r="R182" t="n">
-        <v>-0.002543001967548226</v>
+        <v>-0.004064662172187077</v>
       </c>
     </row>
     <row r="183">
       <c r="F183" t="n">
-        <v>0.06859493811645156</v>
+        <v>0.06523634677797022</v>
       </c>
       <c r="G183" t="n">
-        <v>0.07981565671182189</v>
+        <v>0.07954103389310911</v>
       </c>
       <c r="H183" t="n">
-        <v>-0.004990546686504063</v>
+        <v>-0.00582166358482253</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1508902472919942</v>
+        <v>0.1447714454013059</v>
       </c>
       <c r="K183" t="n">
-        <v>0.07728708166430948</v>
+        <v>0.07924655258701678</v>
       </c>
       <c r="L183" t="n">
-        <v>-0.004323148810483631</v>
+        <v>-0.002820808769190151</v>
       </c>
       <c r="M183" t="n">
-        <v>0.3549789868093196</v>
+        <v>0.3535714471803605</v>
       </c>
       <c r="N183" t="n">
-        <v>0.08035987566743502</v>
+        <v>0.07865371941891797</v>
       </c>
       <c r="O183" t="n">
-        <v>-0.005562139308509167</v>
+        <v>-0.004240854763799186</v>
       </c>
       <c r="P183" t="n">
-        <v>0.5600007934327904</v>
+        <v>0.5214454498867654</v>
       </c>
       <c r="Q183" t="n">
-        <v>0.07759866706936014</v>
+        <v>0.07705142367512539</v>
       </c>
       <c r="R183" t="n">
-        <v>-0.002610807418426332</v>
+        <v>-0.004064662172187077</v>
       </c>
     </row>
     <row r="184">
       <c r="F184" t="n">
-        <v>0.06865495099777991</v>
+        <v>0.06526316342485639</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08063010218847312</v>
+        <v>0.08035267709610001</v>
       </c>
       <c r="H184" t="n">
-        <v>-0.004991045741172713</v>
+        <v>-0.005944981423822823</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1510061827283101</v>
+        <v>0.1449891222662479</v>
       </c>
       <c r="K184" t="n">
-        <v>0.07807572535476162</v>
+        <v>0.08005519087872102</v>
       </c>
       <c r="L184" t="n">
-        <v>-0.004274314311256962</v>
+        <v>-0.002766388624327433</v>
       </c>
       <c r="M184" t="n">
-        <v>0.3554061771711414</v>
+        <v>0.3539724343316976</v>
       </c>
       <c r="N184" t="n">
-        <v>0.08117987439873538</v>
+        <v>0.0794563083925804</v>
       </c>
       <c r="O184" t="n">
-        <v>-0.005562139308509167</v>
+        <v>-0.004452546471010658</v>
       </c>
       <c r="P184" t="n">
-        <v>0.5605583052574737</v>
+        <v>0.521655067105785</v>
       </c>
       <c r="Q184" t="n">
-        <v>0.07839049020272096</v>
+        <v>0.07783766269221851</v>
       </c>
       <c r="R184" t="n">
-        <v>-0.002610807418426332</v>
+        <v>-0.004069745599510379</v>
       </c>
     </row>
     <row r="185">
       <c r="F185" t="n">
-        <v>0.06869199932424375</v>
+        <v>0.06529110554284165</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08144454766512436</v>
+        <v>0.08116432029909093</v>
       </c>
       <c r="H185" t="n">
-        <v>-0.004990047631835413</v>
+        <v>-0.005943198286023237</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1511874856902562</v>
+        <v>0.1452361616799319</v>
       </c>
       <c r="K185" t="n">
-        <v>0.07886436904521375</v>
+        <v>0.08086382917042528</v>
       </c>
       <c r="L185" t="n">
-        <v>-0.004274314311256962</v>
+        <v>-0.002766388624327433</v>
       </c>
       <c r="M185" t="n">
-        <v>0.3556742666549537</v>
+        <v>0.3543352663529319</v>
       </c>
       <c r="N185" t="n">
-        <v>0.08199987313003572</v>
+        <v>0.08025889736624284</v>
       </c>
       <c r="O185" t="n">
-        <v>-0.005562139308509167</v>
+        <v>-0.004452546471010658</v>
       </c>
       <c r="P185" t="n">
-        <v>0.5611887727959848</v>
+        <v>0.5221042586787633</v>
       </c>
       <c r="Q185" t="n">
-        <v>0.07918231333608178</v>
+        <v>0.07862390170931163</v>
       </c>
       <c r="R185" t="n">
-        <v>-0.002610807418426332</v>
+        <v>-0.004069745599510379</v>
       </c>
     </row>
     <row r="186">
       <c r="F186" t="n">
-        <v>0.06871482794363704</v>
+        <v>0.06535642336444356</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08225899314177561</v>
+        <v>0.08197596350208185</v>
       </c>
       <c r="H186" t="n">
-        <v>-0.004991544795841364</v>
+        <v>-0.005944981423822823</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1512727417415653</v>
+        <v>0.1453950741547071</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0796530127356659</v>
+        <v>0.08167246746212953</v>
       </c>
       <c r="L186" t="n">
-        <v>-0.004274314311256962</v>
+        <v>-0.002766388624327433</v>
       </c>
       <c r="M186" t="n">
-        <v>0.3559329631561549</v>
+        <v>0.3546085130609565</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08281987186133609</v>
+        <v>0.08106148633990524</v>
       </c>
       <c r="O186" t="n">
-        <v>-0.005562139308509167</v>
+        <v>-0.004452546471010658</v>
       </c>
       <c r="P186" t="n">
-        <v>0.5616462444476236</v>
+        <v>0.5224852905326394</v>
       </c>
       <c r="Q186" t="n">
-        <v>0.0799741364694426</v>
+        <v>0.07941014072640475</v>
       </c>
       <c r="R186" t="n">
-        <v>-0.002610807418426332</v>
+        <v>-0.004069745599510379</v>
       </c>
     </row>
     <row r="187">
       <c r="F187" t="n">
-        <v>0.06875094398747189</v>
+        <v>0.06537793908869574</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08307343861842685</v>
+        <v>0.08278760670507275</v>
       </c>
       <c r="H187" t="n">
-        <v>-0.004991045741172713</v>
+        <v>-0.005944387044556295</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1514022515459241</v>
+        <v>0.1456061954045298</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08044165642611803</v>
+        <v>0.08248110575383379</v>
       </c>
       <c r="L187" t="n">
-        <v>-0.004274314311256962</v>
+        <v>-0.002766388624327433</v>
       </c>
       <c r="M187" t="n">
-        <v>0.3560286359534736</v>
+        <v>0.354690176604878</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08363987059263644</v>
+        <v>0.08186407531356768</v>
       </c>
       <c r="O187" t="n">
-        <v>-0.005562139308509167</v>
+        <v>-0.004452546471010658</v>
       </c>
       <c r="P187" t="n">
-        <v>0.5617654055376433</v>
+        <v>0.5229535459476228</v>
       </c>
       <c r="Q187" t="n">
-        <v>0.08076595960280342</v>
+        <v>0.08019637974349786</v>
       </c>
       <c r="R187" t="n">
-        <v>-0.002610807418426332</v>
+        <v>-0.004069745599510379</v>
       </c>
     </row>
     <row r="188">
       <c r="F188" t="n">
-        <v>0.06873495600785431</v>
+        <v>0.06540995909558678</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08388788409507811</v>
+        <v>0.08359924990806367</v>
       </c>
       <c r="H188" t="n">
-        <v>-0.004999963925306488</v>
+        <v>-0.005976390378975851</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1515151199653321</v>
+        <v>0.1458181145662616</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08123030011657018</v>
+        <v>0.08328974404553804</v>
       </c>
       <c r="L188" t="n">
-        <v>-0.004223658705352369</v>
+        <v>-0.002717915478966536</v>
       </c>
       <c r="M188" t="n">
-        <v>0.3560605473489802</v>
+        <v>0.3550335557103942</v>
       </c>
       <c r="N188" t="n">
-        <v>0.0844598693239368</v>
+        <v>0.08266666428723012</v>
       </c>
       <c r="O188" t="n">
-        <v>-0.005591189716870096</v>
+        <v>-0.004581795064138243</v>
       </c>
       <c r="P188" t="n">
-        <v>0.562192898405057</v>
+        <v>0.5233554122850089</v>
       </c>
       <c r="Q188" t="n">
-        <v>0.08155778273616424</v>
+        <v>0.08098261876059099</v>
       </c>
       <c r="R188" t="n">
-        <v>-0.002643931336889721</v>
+        <v>-0.00407342810195567</v>
       </c>
     </row>
     <row r="189">
       <c r="F189" t="n">
-        <v>0.06874075502276966</v>
+        <v>0.06546135833567585</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08470232957172934</v>
+        <v>0.08441089311105457</v>
       </c>
       <c r="H189" t="n">
-        <v>-0.004999963925306488</v>
+        <v>-0.005978183475399186</v>
       </c>
       <c r="J189" t="n">
-        <v>0.151570487758908</v>
+        <v>0.1459719904914992</v>
       </c>
       <c r="K189" t="n">
-        <v>0.08201894380702231</v>
+        <v>0.08409838233724229</v>
       </c>
       <c r="L189" t="n">
-        <v>-0.004223658705352369</v>
+        <v>-0.002717915478966536</v>
       </c>
       <c r="M189" t="n">
-        <v>0.356180566539715</v>
+        <v>0.3550318912121616</v>
       </c>
       <c r="N189" t="n">
-        <v>0.08527986805523717</v>
+        <v>0.08346925326089254</v>
       </c>
       <c r="O189" t="n">
-        <v>-0.005591189716870096</v>
+        <v>-0.004581795064138243</v>
       </c>
       <c r="P189" t="n">
-        <v>0.5624388862014176</v>
+        <v>0.5237690605964379</v>
       </c>
       <c r="Q189" t="n">
-        <v>0.08234960586952504</v>
+        <v>0.0817688577776841</v>
       </c>
       <c r="R189" t="n">
-        <v>-0.002643931336889721</v>
+        <v>-0.00407342810195567</v>
       </c>
     </row>
     <row r="190">
       <c r="F190" t="n">
-        <v>0.06873327859555278</v>
+        <v>0.06549492465845955</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08551677504838058</v>
+        <v>0.08522253631404549</v>
       </c>
       <c r="H190" t="n">
-        <v>-0.00500096391809155</v>
+        <v>-0.005978183475399186</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1516685890336251</v>
+        <v>0.1461655202647529</v>
       </c>
       <c r="K190" t="n">
-        <v>0.08280758749747445</v>
+        <v>0.08490702062894655</v>
       </c>
       <c r="L190" t="n">
-        <v>-0.004223658705352369</v>
+        <v>-0.002717915478966536</v>
       </c>
       <c r="M190" t="n">
-        <v>0.3560257179859978</v>
+        <v>0.3552396926876058</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08609986678653751</v>
+        <v>0.08427184223455497</v>
       </c>
       <c r="O190" t="n">
-        <v>-0.005591189716870096</v>
+        <v>-0.004581795064138243</v>
       </c>
       <c r="P190" t="n">
-        <v>0.5623380133714984</v>
+        <v>0.5240405898041761</v>
       </c>
       <c r="Q190" t="n">
-        <v>0.08314142900288587</v>
+        <v>0.08255509679477721</v>
       </c>
       <c r="R190" t="n">
-        <v>-0.002643931336889721</v>
+        <v>-0.00407342810195567</v>
       </c>
     </row>
     <row r="191">
       <c r="F191" t="n">
-        <v>0.06873146964301907</v>
+        <v>0.06553768392507037</v>
       </c>
       <c r="G191" t="n">
-        <v>0.08633122052503184</v>
+        <v>0.08603417951703639</v>
       </c>
       <c r="H191" t="n">
-        <v>-0.004999963925306488</v>
+        <v>-0.005978183475399186</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1516475905218346</v>
+        <v>0.1463789724008341</v>
       </c>
       <c r="K191" t="n">
-        <v>0.08359623118792658</v>
+        <v>0.08571565892065081</v>
       </c>
       <c r="L191" t="n">
-        <v>-0.004223658705352369</v>
+        <v>-0.002717915478966536</v>
       </c>
       <c r="M191" t="n">
-        <v>0.3560693077191112</v>
+        <v>0.3552519244845491</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08691986551783787</v>
+        <v>0.08507443120821741</v>
       </c>
       <c r="O191" t="n">
-        <v>-0.005591189716870096</v>
+        <v>-0.004607039362073252</v>
       </c>
       <c r="P191" t="n">
-        <v>0.5622543736720717</v>
+        <v>0.5244804816442858</v>
       </c>
       <c r="Q191" t="n">
-        <v>0.08393325213624669</v>
+        <v>0.08334133581187032</v>
       </c>
       <c r="R191" t="n">
-        <v>-0.002643994093415226</v>
+        <v>-0.00407342810195567</v>
       </c>
     </row>
     <row r="192">
       <c r="F192" t="n">
-        <v>0.06871678229981326</v>
+        <v>0.06558963449028374</v>
       </c>
       <c r="G192" t="n">
-        <v>0.08714566600168307</v>
+        <v>0.0868458227200273</v>
       </c>
       <c r="H192" t="n">
-        <v>-0.004906684097167987</v>
+        <v>-0.005902210879317358</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1516682741071474</v>
+        <v>0.1465532274717226</v>
       </c>
       <c r="K192" t="n">
-        <v>0.08438487487837872</v>
+        <v>0.08652429721235505</v>
       </c>
       <c r="L192" t="n">
-        <v>-0.004167742208687182</v>
+        <v>-0.002672388106786511</v>
       </c>
       <c r="M192" t="n">
-        <v>0.3560077681405305</v>
+        <v>0.355370987672632</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08773986424913822</v>
+        <v>0.08587702018187982</v>
       </c>
       <c r="O192" t="n">
-        <v>-0.005548290702593167</v>
+        <v>-0.004607039362073252</v>
       </c>
       <c r="P192" t="n">
-        <v>0.5624074053488833</v>
+        <v>0.5249349201165823</v>
       </c>
       <c r="Q192" t="n">
-        <v>0.0847250752696075</v>
+        <v>0.08412757482896344</v>
       </c>
       <c r="R192" t="n">
-        <v>-0.002643994093415226</v>
+        <v>-0.004074291333807607</v>
       </c>
     </row>
     <row r="193">
       <c r="F193" t="n">
-        <v>0.06869878712487359</v>
+        <v>0.065632648255738</v>
       </c>
       <c r="G193" t="n">
-        <v>0.08796011147833432</v>
+        <v>0.08765746592301821</v>
       </c>
       <c r="H193" t="n">
-        <v>-0.004906684097167987</v>
+        <v>-0.005903391321493222</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1517200306556972</v>
+        <v>0.1467863310476085</v>
       </c>
       <c r="K193" t="n">
-        <v>0.08517351856883086</v>
+        <v>0.08733293550405931</v>
       </c>
       <c r="L193" t="n">
-        <v>-0.004167742208687182</v>
+        <v>-0.002672388106786511</v>
       </c>
       <c r="M193" t="n">
-        <v>0.3560942057618438</v>
+        <v>0.3552165203483083</v>
       </c>
       <c r="N193" t="n">
-        <v>0.08855986298043859</v>
+        <v>0.08667960915554225</v>
       </c>
       <c r="O193" t="n">
-        <v>-0.005548290702593167</v>
+        <v>-0.004607039362073252</v>
       </c>
       <c r="P193" t="n">
-        <v>0.5622288665003708</v>
+        <v>0.5254827741605745</v>
       </c>
       <c r="Q193" t="n">
-        <v>0.08551689840296832</v>
+        <v>0.08491381384605656</v>
       </c>
       <c r="R193" t="n">
-        <v>-0.002643994093415226</v>
+        <v>-0.004074291333807607</v>
       </c>
     </row>
     <row r="194">
       <c r="F194" t="n">
-        <v>0.06864958460136883</v>
+        <v>0.0656757654210057</v>
       </c>
       <c r="G194" t="n">
-        <v>0.08877455695498555</v>
+        <v>0.08846910912600912</v>
       </c>
       <c r="H194" t="n">
-        <v>-0.004905702858472423</v>
+        <v>-0.005901620658229426</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1517307276781874</v>
+        <v>0.1469797754562497</v>
       </c>
       <c r="K194" t="n">
-        <v>0.08596216225928299</v>
+        <v>0.08814157379576355</v>
       </c>
       <c r="L194" t="n">
-        <v>-0.004167742208687182</v>
+        <v>-0.002672388106786511</v>
       </c>
       <c r="M194" t="n">
-        <v>0.3559744644904304</v>
+        <v>0.3553605339210202</v>
       </c>
       <c r="N194" t="n">
-        <v>0.08937986171173895</v>
+        <v>0.08748219812920469</v>
       </c>
       <c r="O194" t="n">
-        <v>-0.005548290702593167</v>
+        <v>-0.004607039362073252</v>
       </c>
       <c r="P194" t="n">
-        <v>0.5624498636022768</v>
+        <v>0.5258957102411</v>
       </c>
       <c r="Q194" t="n">
-        <v>0.08630872153632914</v>
+        <v>0.08570005286314968</v>
       </c>
       <c r="R194" t="n">
-        <v>-0.002643994093415226</v>
+        <v>-0.004074291333807607</v>
       </c>
     </row>
     <row r="195">
       <c r="F195" t="n">
-        <v>0.068644302459167</v>
+        <v>0.06571897151179934</v>
       </c>
       <c r="G195" t="n">
-        <v>0.08958900243163681</v>
+        <v>0.08928075232900003</v>
       </c>
       <c r="H195" t="n">
-        <v>-0.004906684097167987</v>
+        <v>-0.005901620658229426</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1517003912105681</v>
+        <v>0.1471726596737349</v>
       </c>
       <c r="K195" t="n">
-        <v>0.08675080594973514</v>
+        <v>0.08895021208746781</v>
       </c>
       <c r="L195" t="n">
-        <v>-0.004167742208687182</v>
+        <v>-0.002672388106786511</v>
       </c>
       <c r="M195" t="n">
-        <v>0.3559522474861231</v>
+        <v>0.3551967847795064</v>
       </c>
       <c r="N195" t="n">
-        <v>0.09019986044303931</v>
+        <v>0.08828478710286711</v>
       </c>
       <c r="O195" t="n">
-        <v>-0.005436746384608434</v>
+        <v>-0.004607039362073252</v>
       </c>
       <c r="P195" t="n">
-        <v>0.5621768973048139</v>
+        <v>0.5266393418481846</v>
       </c>
       <c r="Q195" t="n">
-        <v>0.08710054466968996</v>
+        <v>0.08648629188024279</v>
       </c>
       <c r="R195" t="n">
-        <v>-0.002643994093415226</v>
+        <v>-0.004074291333807607</v>
       </c>
     </row>
     <row r="196">
       <c r="F196" t="n">
-        <v>0.06861757547136368</v>
+        <v>0.06576225205383143</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09040344790828805</v>
+        <v>0.09009239553199093</v>
       </c>
       <c r="H196" t="n">
-        <v>-0.004718067614571149</v>
+        <v>-0.005726107921903929</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1517097400682004</v>
+        <v>0.1473253069692647</v>
       </c>
       <c r="K196" t="n">
-        <v>0.08753944964018727</v>
+        <v>0.08975885037917207</v>
       </c>
       <c r="L196" t="n">
-        <v>-0.004077915964136885</v>
+        <v>-0.002631039553261084</v>
       </c>
       <c r="M196" t="n">
-        <v>0.3560276184317794</v>
+        <v>0.3553316465403815</v>
       </c>
       <c r="N196" t="n">
-        <v>0.09101985917433966</v>
+        <v>0.08908737607652954</v>
       </c>
       <c r="O196" t="n">
-        <v>-0.005436746384608434</v>
+        <v>-0.004528110254688114</v>
       </c>
       <c r="P196" t="n">
-        <v>0.5623034952783688</v>
+        <v>0.5269361167954721</v>
       </c>
       <c r="Q196" t="n">
-        <v>0.08789236780305078</v>
+        <v>0.08727253089733591</v>
       </c>
       <c r="R196" t="n">
-        <v>-0.002638296861366881</v>
+        <v>-0.004048597521861865</v>
       </c>
     </row>
     <row r="197">
       <c r="F197" t="n">
-        <v>0.06856961778142717</v>
+        <v>0.06582375369132909</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09121789338493928</v>
+        <v>0.09090403873498185</v>
       </c>
       <c r="H197" t="n">
-        <v>-0.004717124095400151</v>
+        <v>-0.005727253258021921</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1517386384571274</v>
+        <v>0.1475559008576148</v>
       </c>
       <c r="K197" t="n">
-        <v>0.08832809333063942</v>
+        <v>0.09056748867087631</v>
       </c>
       <c r="L197" t="n">
-        <v>-0.004077915964136885</v>
+        <v>-0.002631039553261084</v>
       </c>
       <c r="M197" t="n">
-        <v>0.3560488524128177</v>
+        <v>0.3553104675490251</v>
       </c>
       <c r="N197" t="n">
-        <v>0.09183985790564002</v>
+        <v>0.08988996505019198</v>
       </c>
       <c r="O197" t="n">
-        <v>-0.005436746384608434</v>
+        <v>-0.004528110254688114</v>
       </c>
       <c r="P197" t="n">
-        <v>0.5623423164516846</v>
+        <v>0.5275614586009528</v>
       </c>
       <c r="Q197" t="n">
-        <v>0.0886841909364116</v>
+        <v>0.08805876991442903</v>
       </c>
       <c r="R197" t="n">
-        <v>-0.002638296861366881</v>
+        <v>-0.004048597521861865</v>
       </c>
     </row>
     <row r="198">
       <c r="F198" t="n">
-        <v>0.06855677492326978</v>
+        <v>0.06584897859446112</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09203233886159054</v>
+        <v>0.09171568193797275</v>
       </c>
       <c r="H198" t="n">
-        <v>-0.00471759585498565</v>
+        <v>-0.005727253258021921</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1517265972393335</v>
+        <v>0.147745834485198</v>
       </c>
       <c r="K198" t="n">
-        <v>0.08911673702109155</v>
+        <v>0.09137612696258057</v>
       </c>
       <c r="L198" t="n">
-        <v>-0.004077915964136885</v>
+        <v>-0.002631039553261084</v>
       </c>
       <c r="M198" t="n">
-        <v>0.3558642597440758</v>
+        <v>0.3551333377653847</v>
       </c>
       <c r="N198" t="n">
-        <v>0.09265985663694037</v>
+        <v>0.09069255402385439</v>
       </c>
       <c r="O198" t="n">
-        <v>-0.005436746384608434</v>
+        <v>-0.004528110254688114</v>
       </c>
       <c r="P198" t="n">
-        <v>0.5622933961374148</v>
+        <v>0.5280479853451302</v>
       </c>
       <c r="Q198" t="n">
-        <v>0.0894760140697724</v>
+        <v>0.08884500893152214</v>
       </c>
       <c r="R198" t="n">
-        <v>-0.002638296861366881</v>
+        <v>-0.004048597521861865</v>
       </c>
     </row>
     <row r="199">
       <c r="F199" t="n">
-        <v>0.06852309765998899</v>
+        <v>0.06589239564448382</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09284678433824178</v>
+        <v>0.09252732514096366</v>
       </c>
       <c r="H199" t="n">
-        <v>-0.004717124095400151</v>
+        <v>-0.005726680589962925</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1517745213290564</v>
+        <v>0.147894782287545</v>
       </c>
       <c r="K199" t="n">
-        <v>0.08990538071154369</v>
+        <v>0.09218476525428483</v>
       </c>
       <c r="L199" t="n">
-        <v>-0.004077915964136885</v>
+        <v>-0.002631039553261084</v>
       </c>
       <c r="M199" t="n">
-        <v>0.3558280749169914</v>
+        <v>0.3551539627913771</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09347985536824073</v>
+        <v>0.09149514299751682</v>
       </c>
       <c r="O199" t="n">
-        <v>-0.005436746384608434</v>
+        <v>-0.004528110254688114</v>
       </c>
       <c r="P199" t="n">
-        <v>0.5622379811204979</v>
+        <v>0.5287056677639554</v>
       </c>
       <c r="Q199" t="n">
-        <v>0.09026783720313324</v>
+        <v>0.08963124794861525</v>
       </c>
       <c r="R199" t="n">
-        <v>-0.002627765360431022</v>
+        <v>-0.004048597521861865</v>
       </c>
     </row>
     <row r="200">
       <c r="F200" t="n">
-        <v>0.06849684775043741</v>
+        <v>0.06594492283152001</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09366122981489303</v>
+        <v>0.09333896834395457</v>
       </c>
       <c r="H200" t="n">
-        <v>-0.004453906972126742</v>
+        <v>-0.005471329634024231</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1517613928477203</v>
+        <v>0.1481014612993093</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09069402440199582</v>
+        <v>0.09299340354598908</v>
       </c>
       <c r="L200" t="n">
-        <v>-0.003948450045332426</v>
+        <v>-0.002592449430619536</v>
       </c>
       <c r="M200" t="n">
-        <v>0.3558391745491479</v>
+        <v>0.3550693045131318</v>
       </c>
       <c r="N200" t="n">
-        <v>0.0942998540995411</v>
+        <v>0.09229773197117926</v>
       </c>
       <c r="O200" t="n">
-        <v>-0.005267708039633306</v>
+        <v>-0.004362808863868519</v>
       </c>
       <c r="P200" t="n">
-        <v>0.5620948945892453</v>
+        <v>0.5293778297227815</v>
       </c>
       <c r="Q200" t="n">
-        <v>0.09105966033649404</v>
+        <v>0.09041748696570837</v>
       </c>
       <c r="R200" t="n">
-        <v>-0.002627765360431022</v>
+        <v>-0.003981797026415705</v>
       </c>
     </row>
     <row r="201">
       <c r="F201" t="n">
-        <v>0.06845017989748398</v>
+        <v>0.06597926493250758</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09447567529154427</v>
+        <v>0.09415061154694548</v>
       </c>
       <c r="H201" t="n">
-        <v>-0.004454797753521167</v>
+        <v>-0.005470782610465541</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1517881220275757</v>
+        <v>0.1483063474776528</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09148266809244797</v>
+        <v>0.09380204183769332</v>
       </c>
       <c r="L201" t="n">
-        <v>-0.003948450045332426</v>
+        <v>-0.002592449430619536</v>
       </c>
       <c r="M201" t="n">
-        <v>0.3558470431798789</v>
+        <v>0.3550814881709701</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09511985283084144</v>
+        <v>0.09310032094484168</v>
       </c>
       <c r="O201" t="n">
-        <v>-0.005267708039633306</v>
+        <v>-0.004362808863868519</v>
       </c>
       <c r="P201" t="n">
-        <v>0.5619453761340296</v>
+        <v>0.5298293347136924</v>
       </c>
       <c r="Q201" t="n">
-        <v>0.09185148346985486</v>
+        <v>0.09120372598280149</v>
       </c>
       <c r="R201" t="n">
-        <v>-0.002627765360431022</v>
+        <v>-0.003981797026415705</v>
       </c>
     </row>
     <row r="202">
       <c r="F202" t="n">
-        <v>0.06841133569526953</v>
+        <v>0.06601358595311149</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0952901207681955</v>
+        <v>0.09496225474993639</v>
       </c>
       <c r="H202" t="n">
-        <v>-0.004454352362823954</v>
+        <v>-0.005469688563348159</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1518143903143321</v>
+        <v>0.1484695386443196</v>
       </c>
       <c r="K202" t="n">
-        <v>0.0922713117829001</v>
+        <v>0.09461068012939758</v>
       </c>
       <c r="L202" t="n">
-        <v>-0.003948450045332426</v>
+        <v>-0.002592449430619536</v>
       </c>
       <c r="M202" t="n">
-        <v>0.3558011818037697</v>
+        <v>0.3550895526345736</v>
       </c>
       <c r="N202" t="n">
-        <v>0.0959398515621418</v>
+        <v>0.09390290991850411</v>
       </c>
       <c r="O202" t="n">
-        <v>-0.005267708039633306</v>
+        <v>-0.004362808863868519</v>
       </c>
       <c r="P202" t="n">
-        <v>0.5620330134301986</v>
+        <v>0.530682881874303</v>
       </c>
       <c r="Q202" t="n">
-        <v>0.09264330660321568</v>
+        <v>0.09198996499989461</v>
       </c>
       <c r="R202" t="n">
-        <v>-0.002627765360431022</v>
+        <v>-0.003981797026415705</v>
       </c>
     </row>
     <row r="203">
       <c r="F203" t="n">
-        <v>0.06836182929415754</v>
+        <v>0.0660751912510503</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09610456624484676</v>
+        <v>0.0957738979529273</v>
       </c>
       <c r="H203" t="n">
-        <v>-0.004453906972126742</v>
+        <v>-0.005146575310897272</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1517796961270225</v>
+        <v>0.1486503031593085</v>
       </c>
       <c r="K203" t="n">
-        <v>0.09305995547335223</v>
+        <v>0.09541931842110182</v>
       </c>
       <c r="L203" t="n">
-        <v>-0.003948450045332426</v>
+        <v>-0.002592449430619536</v>
       </c>
       <c r="M203" t="n">
-        <v>0.3557522513526689</v>
+        <v>0.3549420698238225</v>
       </c>
       <c r="N203" t="n">
-        <v>0.09675985029344217</v>
+        <v>0.09470549889216655</v>
       </c>
       <c r="O203" t="n">
-        <v>-0.005267708039633306</v>
+        <v>-0.004130155720446625</v>
       </c>
       <c r="P203" t="n">
-        <v>0.5617895072775718</v>
+        <v>0.5310789688573939</v>
       </c>
       <c r="Q203" t="n">
-        <v>0.0934351297365765</v>
+        <v>0.09277620401698772</v>
       </c>
       <c r="R203" t="n">
-        <v>-0.002627765360431022</v>
+        <v>-0.003981797026415705</v>
       </c>
     </row>
     <row r="204">
       <c r="F204" t="n">
-        <v>0.06833919944497491</v>
+        <v>0.06610032877620506</v>
       </c>
       <c r="G204" t="n">
-        <v>0.096919011721498</v>
+        <v>0.09658554115591821</v>
       </c>
       <c r="H204" t="n">
-        <v>-0.004138060358655992</v>
+        <v>-0.005146575310897272</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1517647810532404</v>
+        <v>0.1488286027049626</v>
       </c>
       <c r="K204" t="n">
-        <v>0.09384859916380438</v>
+        <v>0.09622795671280608</v>
       </c>
       <c r="L204" t="n">
-        <v>-0.003788269648545256</v>
+        <v>-0.002555742152252082</v>
       </c>
       <c r="M204" t="n">
-        <v>0.3555991988881964</v>
+        <v>0.3550431085578436</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09757984902474252</v>
+        <v>0.09550808786582896</v>
       </c>
       <c r="O204" t="n">
-        <v>-0.005048021512529885</v>
+        <v>-0.004130155720446625</v>
       </c>
       <c r="P204" t="n">
-        <v>0.561864345013376</v>
+        <v>0.5319534406177884</v>
       </c>
       <c r="Q204" t="n">
-        <v>0.09422695286993732</v>
+        <v>0.09356244303408084</v>
       </c>
       <c r="R204" t="n">
-        <v>-0.002612402790322754</v>
+        <v>-0.003879778325187832</v>
       </c>
     </row>
     <row r="205">
       <c r="F205" t="n">
-        <v>0.06828763958683687</v>
+        <v>0.0661618542543175</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09773345719814924</v>
+        <v>0.09739718435890911</v>
       </c>
       <c r="H205" t="n">
-        <v>-0.004139301900917815</v>
+        <v>-0.005147604728901252</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1517898582305162</v>
+        <v>0.1490241240657589</v>
       </c>
       <c r="K205" t="n">
-        <v>0.09463724285425651</v>
+        <v>0.09703659500451034</v>
       </c>
       <c r="L205" t="n">
-        <v>-0.003788269648545256</v>
+        <v>-0.002555742152252082</v>
       </c>
       <c r="M205" t="n">
-        <v>0.3555949317898853</v>
+        <v>0.3548877727987172</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09839984775604288</v>
+        <v>0.09631067683949139</v>
       </c>
       <c r="O205" t="n">
-        <v>-0.005048021512529885</v>
+        <v>-0.004130155720446625</v>
       </c>
       <c r="P205" t="n">
-        <v>0.5617704774908782</v>
+        <v>0.5324455980408481</v>
       </c>
       <c r="Q205" t="n">
-        <v>0.09501877600329814</v>
+        <v>0.09434868205117396</v>
       </c>
       <c r="R205" t="n">
-        <v>-0.002612402790322754</v>
+        <v>-0.003879778325187832</v>
       </c>
     </row>
     <row r="206">
       <c r="F206" t="n">
-        <v>0.06825400374744672</v>
+        <v>0.06618684835223074</v>
       </c>
       <c r="G206" t="n">
-        <v>0.09854790267480049</v>
+        <v>0.09820882756190003</v>
       </c>
       <c r="H206" t="n">
-        <v>-0.004138888053497208</v>
+        <v>-0.005146575310897272</v>
       </c>
       <c r="J206" t="n">
-        <v>0.15177424518529</v>
+        <v>0.1491371288863762</v>
       </c>
       <c r="K206" t="n">
-        <v>0.09542588654470865</v>
+        <v>0.09784523329621458</v>
       </c>
       <c r="L206" t="n">
-        <v>-0.003788269648545256</v>
+        <v>-0.002555742152252082</v>
       </c>
       <c r="M206" t="n">
-        <v>0.355537261967151</v>
+        <v>0.3547791150253901</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09921984648734324</v>
+        <v>0.09711326581315383</v>
       </c>
       <c r="O206" t="n">
-        <v>-0.005048021512529885</v>
+        <v>-0.004130155720446625</v>
       </c>
       <c r="P206" t="n">
-        <v>0.56158913637061</v>
+        <v>0.5330231565518377</v>
       </c>
       <c r="Q206" t="n">
-        <v>0.09581059913665894</v>
+        <v>0.09513492106826707</v>
       </c>
       <c r="R206" t="n">
-        <v>-0.002612402790322754</v>
+        <v>-0.003879778325187832</v>
       </c>
     </row>
     <row r="207">
       <c r="F207" t="n">
-        <v>0.06818254904112711</v>
+        <v>0.06622998824049298</v>
       </c>
       <c r="G207" t="n">
-        <v>0.09936234815145173</v>
+        <v>0.09902047076489093</v>
       </c>
       <c r="H207" t="n">
-        <v>-0.0037897069577795</v>
+        <v>-0.005147604728901252</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1518390509359119</v>
+        <v>0.1493067297110107</v>
       </c>
       <c r="K207" t="n">
-        <v>0.09621453023516079</v>
+        <v>0.09865387158791884</v>
       </c>
       <c r="L207" t="n">
-        <v>-0.003788269648545256</v>
+        <v>-0.002555742152252082</v>
       </c>
       <c r="M207" t="n">
-        <v>0.3554262837199318</v>
+        <v>0.3547171898363283</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1000398452186436</v>
+        <v>0.09791585478681625</v>
       </c>
       <c r="O207" t="n">
-        <v>-0.005048021512529885</v>
+        <v>-0.004130155720446625</v>
       </c>
       <c r="P207" t="n">
-        <v>0.5614826584540462</v>
+        <v>0.5336851424374036</v>
       </c>
       <c r="Q207" t="n">
-        <v>0.09660242227001978</v>
+        <v>0.09592116008536018</v>
       </c>
       <c r="R207" t="n">
-        <v>-0.00259351919617816</v>
+        <v>-0.003879778325187832</v>
       </c>
     </row>
     <row r="208">
       <c r="F208" t="n">
-        <v>0.06813872973541452</v>
+        <v>0.0663004135456024</v>
       </c>
       <c r="G208" t="n">
-        <v>0.100176793628103</v>
+        <v>0.09983211396788184</v>
       </c>
       <c r="H208" t="n">
-        <v>-0.003790085928475278</v>
+        <v>-0.004777508360721933</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1518430509351217</v>
+        <v>0.1495129182293712</v>
       </c>
       <c r="K208" t="n">
-        <v>0.09700317392561293</v>
+        <v>0.09946250987962309</v>
       </c>
       <c r="L208" t="n">
-        <v>-0.00360283223929275</v>
+        <v>-0.002519035080520511</v>
       </c>
       <c r="M208" t="n">
-        <v>0.3554642584760518</v>
+        <v>0.3546515793569184</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1008598439499439</v>
+        <v>0.09871844376047868</v>
       </c>
       <c r="O208" t="n">
-        <v>-0.004788806436067541</v>
+        <v>-0.003850859448588603</v>
       </c>
       <c r="P208" t="n">
-        <v>0.5614510363586392</v>
+        <v>0.5343521428693372</v>
       </c>
       <c r="Q208" t="n">
-        <v>0.0973942454033806</v>
+        <v>0.0967073991024533</v>
       </c>
       <c r="R208" t="n">
-        <v>-0.00259351919617816</v>
+        <v>-0.003750719089209666</v>
       </c>
     </row>
     <row r="209">
       <c r="F209" t="n">
-        <v>0.06810408374055932</v>
+        <v>0.0663433533798248</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1009912391047542</v>
+        <v>0.1006437571708727</v>
       </c>
       <c r="H209" t="n">
-        <v>-0.003789327987083722</v>
+        <v>-0.004777508360721933</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1517862740371615</v>
+        <v>0.1496757182047067</v>
       </c>
       <c r="K209" t="n">
-        <v>0.09779181761606506</v>
+        <v>0.1002711481713273</v>
       </c>
       <c r="L209" t="n">
-        <v>-0.00360283223929275</v>
+        <v>-0.002519035080520511</v>
       </c>
       <c r="M209" t="n">
-        <v>0.355297461278044</v>
+        <v>0.354683281053381</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1016798426812443</v>
+        <v>0.0995210327341411</v>
       </c>
       <c r="O209" t="n">
-        <v>-0.004788806436067541</v>
+        <v>-0.003850859448588603</v>
       </c>
       <c r="P209" t="n">
-        <v>0.5613320249850893</v>
+        <v>0.5350229895792333</v>
       </c>
       <c r="Q209" t="n">
-        <v>0.0981860685367414</v>
+        <v>0.09749363811954642</v>
       </c>
       <c r="R209" t="n">
-        <v>-0.00259351919617816</v>
+        <v>-0.003750719089209666</v>
       </c>
     </row>
     <row r="210">
       <c r="F210" t="n">
-        <v>0.0680508779403185</v>
+        <v>0.06638616499962346</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1018056845814055</v>
+        <v>0.1014554003738637</v>
       </c>
       <c r="H210" t="n">
-        <v>-0.003789327987083722</v>
+        <v>-0.004777030705416922</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1517898355095513</v>
+        <v>0.1498347833212494</v>
       </c>
       <c r="K210" t="n">
-        <v>0.09858046130651721</v>
+        <v>0.1010797864630316</v>
       </c>
       <c r="L210" t="n">
-        <v>-0.00360283223929275</v>
+        <v>-0.002519035080520511</v>
       </c>
       <c r="M210" t="n">
-        <v>0.3553808012787613</v>
+        <v>0.3545600421419337</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1024998414125447</v>
+        <v>0.1003236217078035</v>
       </c>
       <c r="O210" t="n">
-        <v>-0.004788806436067541</v>
+        <v>-0.003850859448588603</v>
       </c>
       <c r="P210" t="n">
-        <v>0.5612067890428597</v>
+        <v>0.5357750918078682</v>
       </c>
       <c r="Q210" t="n">
-        <v>0.09897789167010222</v>
+        <v>0.09827987713663953</v>
       </c>
       <c r="R210" t="n">
-        <v>-0.00259351919617816</v>
+        <v>-0.003750719089209666</v>
       </c>
     </row>
     <row r="211">
       <c r="F211" t="n">
-        <v>0.06800724166869332</v>
+        <v>0.06642883392781596</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1026201300580567</v>
+        <v>0.1022670435768546</v>
       </c>
       <c r="H211" t="n">
-        <v>-0.003789327987083722</v>
+        <v>-0.004777508360721933</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1517932269986935</v>
+        <v>0.1500098989212506</v>
       </c>
       <c r="K211" t="n">
-        <v>0.09936910499696934</v>
+        <v>0.1018884247547358</v>
       </c>
       <c r="L211" t="n">
-        <v>-0.00360283223929275</v>
+        <v>-0.002519035080520511</v>
       </c>
       <c r="M211" t="n">
-        <v>0.355259562771352</v>
+        <v>0.3544333452032632</v>
       </c>
       <c r="N211" t="n">
-        <v>0.103319840143845</v>
+        <v>0.101126210681466</v>
       </c>
       <c r="O211" t="n">
-        <v>-0.004788806436067541</v>
+        <v>-0.003850859448588603</v>
       </c>
       <c r="P211" t="n">
-        <v>0.5608320791384476</v>
+        <v>0.5363715487592942</v>
       </c>
       <c r="Q211" t="n">
-        <v>0.09976971480346304</v>
+        <v>0.09906611615373265</v>
       </c>
       <c r="R211" t="n">
-        <v>-0.00259351919617816</v>
+        <v>-0.003750719089209666</v>
       </c>
     </row>
     <row r="212">
       <c r="F212" t="n">
-        <v>0.06796406262618887</v>
+        <v>0.06644390977069717</v>
       </c>
       <c r="G212" t="n">
-        <v>0.103434575534708</v>
+        <v>0.1030786867798455</v>
       </c>
       <c r="H212" t="n">
-        <v>-0.003429783670415306</v>
+        <v>-0.004377521671102418</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1517964809581098</v>
+        <v>0.150120850299955</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1001577486874215</v>
+        <v>0.1026970630464401</v>
       </c>
       <c r="L212" t="n">
-        <v>-0.003401447555579895</v>
+        <v>-0.002482489435685772</v>
       </c>
       <c r="M212" t="n">
-        <v>0.3550854491004845</v>
+        <v>0.3543537025891244</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1041398388751454</v>
+        <v>0.1019287996551284</v>
       </c>
       <c r="O212" t="n">
-        <v>-0.00449728029943191</v>
+        <v>-0.00354423060356513</v>
       </c>
       <c r="P212" t="n">
-        <v>0.560937741682896</v>
+        <v>0.5372830623838258</v>
       </c>
       <c r="Q212" t="n">
-        <v>0.1005615379368239</v>
+        <v>0.09985235517082577</v>
       </c>
       <c r="R212" t="n">
-        <v>-0.002570850385064867</v>
+        <v>-0.003597421233700085</v>
       </c>
     </row>
     <row r="213">
       <c r="F213" t="n">
-        <v>0.06794941817128577</v>
+        <v>0.06648623718463634</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1042490210113592</v>
+        <v>0.1038903299828364</v>
       </c>
       <c r="H213" t="n">
-        <v>-0.003428754941060052</v>
+        <v>-0.004377521671102418</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1518399938036863</v>
+        <v>0.1502473995504333</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1009463923778736</v>
+        <v>0.1035057013381444</v>
       </c>
       <c r="L213" t="n">
-        <v>-0.003401447555579895</v>
+        <v>-0.002482489435685772</v>
       </c>
       <c r="M213" t="n">
-        <v>0.355111090883637</v>
+        <v>0.3543211613141005</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1049598376064457</v>
+        <v>0.1027313886287908</v>
       </c>
       <c r="O213" t="n">
-        <v>-0.00449728029943191</v>
+        <v>-0.00354423060356513</v>
       </c>
       <c r="P213" t="n">
-        <v>0.5607939793804285</v>
+        <v>0.5377214738303467</v>
       </c>
       <c r="Q213" t="n">
-        <v>0.1013533610701847</v>
+        <v>0.1006385941879189</v>
       </c>
       <c r="R213" t="n">
-        <v>-0.002570850385064867</v>
+        <v>-0.003597421233700085</v>
       </c>
     </row>
     <row r="214">
       <c r="F214" t="n">
-        <v>0.0678891575798167</v>
+        <v>0.06654668603770508</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1050634664880104</v>
+        <v>0.1047019731858273</v>
       </c>
       <c r="H214" t="n">
-        <v>-0.003429783670415306</v>
+        <v>-0.004377959467049123</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1518632529683686</v>
+        <v>0.1504294622346343</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1017350360683257</v>
+        <v>0.1043143396298486</v>
       </c>
       <c r="L214" t="n">
-        <v>-0.003401447555579895</v>
+        <v>-0.002482489435685772</v>
       </c>
       <c r="M214" t="n">
-        <v>0.3550334835575848</v>
+        <v>0.3541844959324639</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1057798363377461</v>
+        <v>0.1035339776024533</v>
       </c>
       <c r="O214" t="n">
-        <v>-0.00449728029943191</v>
+        <v>-0.00354423060356513</v>
       </c>
       <c r="P214" t="n">
-        <v>0.560400946141513</v>
+        <v>0.5385517224790208</v>
       </c>
       <c r="Q214" t="n">
-        <v>0.1021451842035455</v>
+        <v>0.101424833205012</v>
       </c>
       <c r="R214" t="n">
-        <v>-0.002570850385064867</v>
+        <v>-0.003597421233700085</v>
       </c>
     </row>
     <row r="215">
       <c r="F215" t="n">
-        <v>0.06784853481567285</v>
+        <v>0.06658863523314978</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1058779119646617</v>
+        <v>0.1055136163888182</v>
       </c>
       <c r="H215" t="n">
-        <v>-0.003429440760630221</v>
+        <v>-0.004378397262995828</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1518662899706558</v>
+        <v>0.150546623671202</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1025236797587779</v>
+        <v>0.1051229779215529</v>
       </c>
       <c r="L215" t="n">
-        <v>-0.003401447555579895</v>
+        <v>-0.002444496152498027</v>
       </c>
       <c r="M215" t="n">
-        <v>0.3549537313292608</v>
+        <v>0.3540950736952754</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1065998350690464</v>
+        <v>0.1043365665761157</v>
       </c>
       <c r="O215" t="n">
-        <v>-0.00449728029943191</v>
+        <v>-0.003229236259301674</v>
       </c>
       <c r="P215" t="n">
-        <v>0.5604881003186898</v>
+        <v>0.5390634186451517</v>
       </c>
       <c r="Q215" t="n">
-        <v>0.1029370073369063</v>
+        <v>0.1022110722221051</v>
       </c>
       <c r="R215" t="n">
-        <v>-0.002570850385064867</v>
+        <v>-0.003597421233700085</v>
       </c>
     </row>
     <row r="216">
       <c r="F216" t="n">
-        <v>0.06780916184114519</v>
+        <v>0.06662120725185502</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1066923574413129</v>
+        <v>0.1063252595918091</v>
       </c>
       <c r="H216" t="n">
-        <v>-0.003079087326579825</v>
+        <v>-0.003964426661070594</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1518491363596424</v>
+        <v>0.1506988896842535</v>
       </c>
       <c r="K216" t="n">
-        <v>0.10331232344923</v>
+        <v>0.1059316162132571</v>
       </c>
       <c r="L216" t="n">
-        <v>-0.003191196143045453</v>
+        <v>-0.002444496152498027</v>
       </c>
       <c r="M216" t="n">
-        <v>0.354922393355965</v>
+        <v>0.3541537492706742</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1074198338003468</v>
+        <v>0.1051391555497781</v>
       </c>
       <c r="O216" t="n">
-        <v>-0.004186294142623579</v>
+        <v>-0.003229236259301674</v>
       </c>
       <c r="P216" t="n">
-        <v>0.5603260326746853</v>
+        <v>0.5398864392771553</v>
       </c>
       <c r="Q216" t="n">
-        <v>0.1037288304702671</v>
+        <v>0.1029973112391982</v>
       </c>
       <c r="R216" t="n">
-        <v>-0.002545166543555396</v>
+        <v>-0.003428669031760861</v>
       </c>
     </row>
     <row r="217">
       <c r="F217" t="n">
-        <v>0.06776195966124729</v>
+        <v>0.06668104025103239</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1075068029179642</v>
+        <v>0.1071369027948</v>
       </c>
       <c r="H217" t="n">
-        <v>-0.003078471632253374</v>
+        <v>-0.003965616108013609</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1518118236825616</v>
+        <v>0.1508058040580387</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1041009671396822</v>
+        <v>0.1067402545049614</v>
       </c>
       <c r="L217" t="n">
-        <v>-0.003191196143045453</v>
+        <v>-0.002444496152498027</v>
       </c>
       <c r="M217" t="n">
-        <v>0.3547881002233702</v>
+        <v>0.3540581331190078</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1082398325316472</v>
+        <v>0.1059417445234405</v>
       </c>
       <c r="O217" t="n">
-        <v>-0.004186294142623579</v>
+        <v>-0.003229236259301674</v>
       </c>
       <c r="P217" t="n">
-        <v>0.5599149135914804</v>
+        <v>0.5403880370564702</v>
       </c>
       <c r="Q217" t="n">
-        <v>0.1045206536036279</v>
+        <v>0.1037835502562913</v>
       </c>
       <c r="R217" t="n">
-        <v>-0.002545166543555396</v>
+        <v>-0.003428669031760861</v>
       </c>
     </row>
     <row r="218">
       <c r="F218" t="n">
-        <v>0.06775350476726175</v>
+        <v>0.0667039641840402</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1083212483946154</v>
+        <v>0.1079485459977909</v>
       </c>
       <c r="H218" t="n">
-        <v>-0.003078471632253374</v>
+        <v>-0.003964426661070594</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1518754845228277</v>
+        <v>0.1509675442837801</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1048896108301343</v>
+        <v>0.1075488927966656</v>
       </c>
       <c r="L218" t="n">
-        <v>-0.003191196143045453</v>
+        <v>-0.002444496152498027</v>
       </c>
       <c r="M218" t="n">
-        <v>0.3546519101835719</v>
+        <v>0.3539091539338829</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1090598312629475</v>
+        <v>0.106744333497103</v>
       </c>
       <c r="O218" t="n">
-        <v>-0.004186294142623579</v>
+        <v>-0.003229236259301674</v>
       </c>
       <c r="P218" t="n">
-        <v>0.5599027817686142</v>
+        <v>0.5411200401938289</v>
       </c>
       <c r="Q218" t="n">
-        <v>0.1053124767369888</v>
+        <v>0.1045697892733845</v>
       </c>
       <c r="R218" t="n">
-        <v>-0.002545166543555396</v>
+        <v>-0.003428669031760861</v>
       </c>
     </row>
     <row r="219">
       <c r="F219" t="n">
-        <v>0.06769125288988542</v>
+        <v>0.06676331119365694</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1091356938712667</v>
+        <v>0.1087601892007819</v>
       </c>
       <c r="H219" t="n">
-        <v>-0.003078163785090149</v>
+        <v>-0.003558176975924994</v>
       </c>
       <c r="J219" t="n">
-        <v>0.15181813393752</v>
+        <v>0.151063378764374</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1056782545205864</v>
+        <v>0.1083575310883699</v>
       </c>
       <c r="L219" t="n">
-        <v>-0.003191196143045453</v>
+        <v>-0.002444496152498027</v>
       </c>
       <c r="M219" t="n">
-        <v>0.3546148136811117</v>
+        <v>0.3537069130830122</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1098798299942479</v>
+        <v>0.1075469224707654</v>
       </c>
       <c r="O219" t="n">
-        <v>-0.004186294142623579</v>
+        <v>-0.003229236259301674</v>
       </c>
       <c r="P219" t="n">
-        <v>0.5598036119817322</v>
+        <v>0.5416859829170626</v>
       </c>
       <c r="Q219" t="n">
-        <v>0.1061042998703496</v>
+        <v>0.1053560282904776</v>
       </c>
       <c r="R219" t="n">
-        <v>-0.002545166543555396</v>
+        <v>-0.003428669031760861</v>
       </c>
     </row>
     <row r="220">
       <c r="F220" t="n">
-        <v>0.06767739722607821</v>
+        <v>0.06680404442418986</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1099501393479179</v>
+        <v>0.1095718324037728</v>
       </c>
       <c r="H220" t="n">
-        <v>-0.002756098042634898</v>
+        <v>-0.003558532829207915</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1518214559859097</v>
+        <v>0.1511935699735572</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1064668982110386</v>
+        <v>0.1091661693800741</v>
       </c>
       <c r="L220" t="n">
-        <v>-0.002980515861137711</v>
+        <v>-0.002405898023013254</v>
       </c>
       <c r="M220" t="n">
-        <v>0.3545759396617931</v>
+        <v>0.3537537054198489</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1106998287255482</v>
+        <v>0.1083495114444278</v>
       </c>
       <c r="O220" t="n">
-        <v>-0.00386434952530828</v>
+        <v>-0.002925549060201764</v>
       </c>
       <c r="P220" t="n">
-        <v>0.5596174810225462</v>
+        <v>0.5425597533517532</v>
       </c>
       <c r="Q220" t="n">
-        <v>0.1068961230037104</v>
+        <v>0.1061422673075707</v>
       </c>
       <c r="R220" t="n">
-        <v>-0.002514950611919428</v>
+        <v>-0.003247503820290615</v>
       </c>
     </row>
     <row r="221">
       <c r="F221" t="n">
-        <v>0.06763797831697041</v>
+        <v>0.06682612496630014</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1107645848245691</v>
+        <v>0.1103834756067637</v>
       </c>
       <c r="H221" t="n">
-        <v>-0.00275582246038886</v>
+        <v>-0.003559244535773756</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1518451170979785</v>
+        <v>0.151277467525414</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1072555419014907</v>
+        <v>0.1099748076717784</v>
       </c>
       <c r="L221" t="n">
-        <v>-0.002980515861137711</v>
+        <v>-0.002405898023013254</v>
       </c>
       <c r="M221" t="n">
-        <v>0.3543336110077496</v>
+        <v>0.3535962515955063</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1115198274568486</v>
+        <v>0.1091521004180902</v>
       </c>
       <c r="O221" t="n">
-        <v>-0.00386434952530828</v>
+        <v>-0.002925549060201764</v>
       </c>
       <c r="P221" t="n">
-        <v>0.5593444692743562</v>
+        <v>0.5431065155222499</v>
       </c>
       <c r="Q221" t="n">
-        <v>0.1076879461370712</v>
+        <v>0.1069285063246638</v>
       </c>
       <c r="R221" t="n">
-        <v>-0.002514950611919428</v>
+        <v>-0.003247503820290615</v>
       </c>
     </row>
     <row r="222">
       <c r="F222" t="n">
-        <v>0.0676287868356287</v>
+        <v>0.06686626076563215</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1115790303012204</v>
+        <v>0.1111951188097546</v>
       </c>
       <c r="H222" t="n">
-        <v>-0.002756098042634898</v>
+        <v>-0.003558888682490836</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1518689659483326</v>
+        <v>0.1513550702664663</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1080441855919428</v>
+        <v>0.1107834459634826</v>
       </c>
       <c r="L222" t="n">
-        <v>-0.002980515861137711</v>
+        <v>-0.002405898023013254</v>
       </c>
       <c r="M222" t="n">
-        <v>0.3542914485315646</v>
+        <v>0.3534864698770428</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1123398261881489</v>
+        <v>0.1099546893917527</v>
       </c>
       <c r="O222" t="n">
-        <v>-0.00386434952530828</v>
+        <v>-0.002925549060201764</v>
       </c>
       <c r="P222" t="n">
-        <v>0.5592273803576719</v>
+        <v>0.543721174340286</v>
       </c>
       <c r="Q222" t="n">
-        <v>0.1084797692704321</v>
+        <v>0.1077147453417569</v>
       </c>
       <c r="R222" t="n">
-        <v>-0.002514950611919428</v>
+        <v>-0.003247503820290615</v>
       </c>
     </row>
     <row r="223">
       <c r="F223" t="n">
-        <v>0.06759444645762802</v>
+        <v>0.06690608021044109</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1123934757778716</v>
+        <v>0.1120067620127455</v>
       </c>
       <c r="H223" t="n">
-        <v>-0.002483355789213025</v>
+        <v>-0.003558532829207915</v>
       </c>
       <c r="J223" t="n">
-        <v>0.1518324792569811</v>
+        <v>0.1514866023669311</v>
       </c>
       <c r="K223" t="n">
-        <v>0.108832829282395</v>
+        <v>0.1115920842551869</v>
       </c>
       <c r="L223" t="n">
-        <v>-0.002980515861137711</v>
+        <v>-0.002405898023013254</v>
       </c>
       <c r="M223" t="n">
-        <v>0.3542477387480779</v>
+        <v>0.3533740658838243</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1131598249194493</v>
+        <v>0.1107572783654151</v>
       </c>
       <c r="O223" t="n">
-        <v>-0.00386434952530828</v>
+        <v>-0.002925549060201764</v>
       </c>
       <c r="P223" t="n">
-        <v>0.5589425735985077</v>
+        <v>0.5441644723971125</v>
       </c>
       <c r="Q223" t="n">
-        <v>0.1092715924037928</v>
+        <v>0.10850098435885</v>
       </c>
       <c r="R223" t="n">
-        <v>-0.002514950611919428</v>
+        <v>-0.003247503820290615</v>
       </c>
     </row>
     <row r="224">
       <c r="F224" t="n">
-        <v>0.06757220220873977</v>
+        <v>0.06696395794020477</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1132079212545229</v>
+        <v>0.1128184052157364</v>
       </c>
       <c r="H224" t="n">
-        <v>-0.002482859167717333</v>
+        <v>-0.003174921234884157</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1518971712743521</v>
+        <v>0.1515107055918185</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1096214729728471</v>
+        <v>0.1124007225468912</v>
       </c>
       <c r="L224" t="n">
-        <v>-0.002777399697903788</v>
+        <v>-0.002363169302631067</v>
       </c>
       <c r="M224" t="n">
-        <v>0.3541017378732191</v>
+        <v>0.3531584687747682</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1139798236507497</v>
+        <v>0.1115598673390775</v>
       </c>
       <c r="O224" t="n">
-        <v>-0.003539838622001515</v>
+        <v>-0.002651936624707324</v>
       </c>
       <c r="P224" t="n">
-        <v>0.558571062836609</v>
+        <v>0.5448323042982898</v>
       </c>
       <c r="Q224" t="n">
-        <v>0.1100634155371537</v>
+        <v>0.1092872233759432</v>
       </c>
       <c r="R224" t="n">
-        <v>-0.0024824969258939</v>
+        <v>-0.003062137210158911</v>
       </c>
     </row>
     <row r="225">
       <c r="F225" t="n">
-        <v>0.06756224558467427</v>
+        <v>0.06697551366812593</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1140223667311741</v>
+        <v>0.1136300484187273</v>
       </c>
       <c r="H225" t="n">
-        <v>-0.002483107478465179</v>
+        <v>-0.003174921234884157</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1519015919437405</v>
+        <v>0.1516488170585861</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1104101166632993</v>
+        <v>0.1132093608385954</v>
       </c>
       <c r="L225" t="n">
-        <v>-0.002777399697903788</v>
+        <v>-0.002363169302631067</v>
       </c>
       <c r="M225" t="n">
-        <v>0.354105583065807</v>
+        <v>0.3530913656039548</v>
       </c>
       <c r="N225" t="n">
-        <v>0.11479982238205</v>
+        <v>0.11236245631274</v>
       </c>
       <c r="O225" t="n">
-        <v>-0.003539838622001515</v>
+        <v>-0.002651936624707324</v>
       </c>
       <c r="P225" t="n">
-        <v>0.5584363135958875</v>
+        <v>0.5454854048949536</v>
       </c>
       <c r="Q225" t="n">
-        <v>0.1108552386705145</v>
+        <v>0.1100734623930363</v>
       </c>
       <c r="R225" t="n">
-        <v>-0.0024824969258939</v>
+        <v>-0.003062137210158911</v>
       </c>
     </row>
     <row r="226">
       <c r="F226" t="n">
-        <v>0.06751850606111781</v>
+        <v>0.06703269802442224</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1148368122078254</v>
+        <v>0.1144416916217182</v>
       </c>
       <c r="H226" t="n">
-        <v>-0.002482859167717333</v>
+        <v>-0.003174921234884157</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1518861429321283</v>
+        <v>0.1516588436215616</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1111987603537514</v>
+        <v>0.1140179991302997</v>
       </c>
       <c r="L226" t="n">
-        <v>-0.002777399697903788</v>
+        <v>-0.002363169302631067</v>
       </c>
       <c r="M226" t="n">
-        <v>0.3540073100371137</v>
+        <v>0.3530721265773484</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1156198211133504</v>
+        <v>0.1131650452864024</v>
       </c>
       <c r="O226" t="n">
-        <v>-0.003539838622001515</v>
+        <v>-0.002651936624707324</v>
       </c>
       <c r="P226" t="n">
-        <v>0.5581340471950466</v>
+        <v>0.5460430047730891</v>
       </c>
       <c r="Q226" t="n">
-        <v>0.1116470618038753</v>
+        <v>0.1108597014101294</v>
       </c>
       <c r="R226" t="n">
-        <v>-0.0024824969258939</v>
+        <v>-0.003062137210158911</v>
       </c>
     </row>
     <row r="227">
       <c r="F227" t="n">
-        <v>0.06753371308393286</v>
+        <v>0.06707111114919256</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1156512576844766</v>
+        <v>0.1152533348247091</v>
       </c>
       <c r="H227" t="n">
-        <v>-0.002483355789213025</v>
+        <v>-0.002830170454842348</v>
       </c>
       <c r="J227" t="n">
-        <v>0.1518710422812188</v>
+        <v>0.1517623697597589</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1119874040442035</v>
+        <v>0.1148266374220039</v>
       </c>
       <c r="L227" t="n">
-        <v>-0.002777399697903788</v>
+        <v>-0.002363169302631067</v>
       </c>
       <c r="M227" t="n">
-        <v>0.3539078161568074</v>
+        <v>0.3529499304364223</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1164398198446507</v>
+        <v>0.1139676342600648</v>
       </c>
       <c r="O227" t="n">
-        <v>-0.003539838622001515</v>
+        <v>-0.002651936624707324</v>
       </c>
       <c r="P227" t="n">
-        <v>0.5579876178402161</v>
+        <v>0.5466630690378732</v>
       </c>
       <c r="Q227" t="n">
-        <v>0.1124388849372361</v>
+        <v>0.1116459404272225</v>
       </c>
       <c r="R227" t="n">
-        <v>-0.0024824969258939</v>
+        <v>-0.003062137210158911</v>
       </c>
     </row>
     <row r="228">
       <c r="F228" t="n">
-        <v>0.06750628858076765</v>
+        <v>0.0670907155240266</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1164657031611279</v>
+        <v>0.1160649780277</v>
       </c>
       <c r="H228" t="n">
-        <v>-0.002280903815718125</v>
+        <v>-0.002830170454842348</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1518765099907405</v>
+        <v>0.151797835784907</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1127760477346557</v>
+        <v>0.1156352757137082</v>
       </c>
       <c r="L228" t="n">
-        <v>-0.002587959088557803</v>
+        <v>-0.002318074013930661</v>
       </c>
       <c r="M228" t="n">
-        <v>0.3538071784469825</v>
+        <v>0.3527751938860968</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1172598185759511</v>
+        <v>0.1147702232337272</v>
       </c>
       <c r="O228" t="n">
-        <v>-0.003224116975853243</v>
+        <v>-0.002427861126046517</v>
       </c>
       <c r="P228" t="n">
-        <v>0.5579161365406392</v>
+        <v>0.5471851806342866</v>
       </c>
       <c r="Q228" t="n">
-        <v>0.1132307080705969</v>
+        <v>0.1124321794443156</v>
       </c>
       <c r="R228" t="n">
-        <v>-0.002447303317119809</v>
+        <v>-0.002876813296391936</v>
       </c>
     </row>
     <row r="229">
       <c r="F229" t="n">
-        <v>0.06750119258222309</v>
+        <v>0.06715597038278673</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1172801486377791</v>
+        <v>0.1168766212306909</v>
       </c>
       <c r="H229" t="n">
-        <v>-0.002280903815718125</v>
+        <v>-0.002829604533935561</v>
       </c>
       <c r="J229" t="n">
-        <v>0.151862203682635</v>
+        <v>0.1518457206297399</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1135646914251078</v>
+        <v>0.1164439140054124</v>
       </c>
       <c r="L229" t="n">
-        <v>-0.002587959088557803</v>
+        <v>-0.002318074013930661</v>
       </c>
       <c r="M229" t="n">
-        <v>0.3537054739297329</v>
+        <v>0.3525982856695957</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1180798173072515</v>
+        <v>0.1155728122073897</v>
       </c>
       <c r="O229" t="n">
-        <v>-0.003224116975853243</v>
+        <v>-0.002427861126046517</v>
       </c>
       <c r="P229" t="n">
-        <v>0.5574350450048745</v>
+        <v>0.5476877672842518</v>
       </c>
       <c r="Q229" t="n">
-        <v>0.1140225312039578</v>
+        <v>0.1132184184614087</v>
       </c>
       <c r="R229" t="n">
-        <v>-0.002447303317119809</v>
+        <v>-0.002876813296391936</v>
       </c>
     </row>
     <row r="230">
       <c r="F230" t="n">
-        <v>0.06750000005056012</v>
+        <v>0.06718396003156596</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1180945941144303</v>
+        <v>0.1176882644336819</v>
       </c>
       <c r="H230" t="n">
-        <v>-0.002281360042103907</v>
+        <v>-0.002830170454842348</v>
       </c>
       <c r="J230" t="n">
-        <v>0.151908909403299</v>
+        <v>0.1519260155753129</v>
       </c>
       <c r="K230" t="n">
-        <v>0.11435333511556</v>
+        <v>0.1172525522971167</v>
       </c>
       <c r="L230" t="n">
-        <v>-0.002587959088557803</v>
+        <v>-0.002318074013930661</v>
       </c>
       <c r="M230" t="n">
-        <v>0.3534517290033893</v>
+        <v>0.3525197712534115</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1188998160385518</v>
+        <v>0.1163754011810521</v>
       </c>
       <c r="O230" t="n">
-        <v>-0.003224116975853243</v>
+        <v>-0.002427861126046517</v>
       </c>
       <c r="P230" t="n">
-        <v>0.5572712752759944</v>
+        <v>0.5479302573513413</v>
       </c>
       <c r="Q230" t="n">
-        <v>0.1148143543373186</v>
+        <v>0.1140046574785019</v>
       </c>
       <c r="R230" t="n">
-        <v>-0.002447303317119809</v>
+        <v>-0.002876813296391936</v>
       </c>
     </row>
     <row r="231">
       <c r="F231" t="n">
-        <v>0.06751850700979509</v>
+        <v>0.06722073124259492</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1189090395910816</v>
+        <v>0.1184999076366728</v>
       </c>
       <c r="H231" t="n">
-        <v>-0.002281360042103907</v>
+        <v>-0.002829604533935561</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1518753387229367</v>
+        <v>0.1519173776114772</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1151419788060121</v>
+        <v>0.1180611905888209</v>
       </c>
       <c r="L231" t="n">
-        <v>-0.002587959088557803</v>
+        <v>-0.002318074013930661</v>
       </c>
       <c r="M231" t="n">
-        <v>0.3534991725613356</v>
+        <v>0.3522884743270526</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1197198147698522</v>
+        <v>0.1171779901547145</v>
       </c>
       <c r="O231" t="n">
-        <v>-0.003224116975853243</v>
+        <v>-0.002427861126046517</v>
       </c>
       <c r="P231" t="n">
-        <v>0.5570210462506215</v>
+        <v>0.5484699972697021</v>
       </c>
       <c r="Q231" t="n">
-        <v>0.1156061774706794</v>
+        <v>0.114790896495595</v>
       </c>
       <c r="R231" t="n">
-        <v>-0.002447303317119809</v>
+        <v>-0.002876813296391936</v>
       </c>
     </row>
     <row r="232">
       <c r="F232" t="n">
-        <v>0.06751854134448732</v>
+        <v>0.06725705578585126</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1197234850677328</v>
+        <v>0.1193115508396637</v>
       </c>
       <c r="H232" t="n">
-        <v>-0.002138049782948879</v>
+        <v>-0.002544102098069977</v>
       </c>
       <c r="J232" t="n">
-        <v>0.151943228181672</v>
+        <v>0.1519609205668705</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1159306224964642</v>
+        <v>0.1188698288805252</v>
       </c>
       <c r="L232" t="n">
-        <v>-0.002421880202716991</v>
+        <v>-0.002267635405379914</v>
       </c>
       <c r="M232" t="n">
-        <v>0.3533947297543758</v>
+        <v>0.3522561288608527</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1205398135011525</v>
+        <v>0.117980579128377</v>
       </c>
       <c r="O232" t="n">
-        <v>-0.002925000296091252</v>
+        <v>-0.002273887709705171</v>
       </c>
       <c r="P232" t="n">
-        <v>0.5569264870879496</v>
+        <v>0.549066691366254</v>
       </c>
       <c r="Q232" t="n">
-        <v>0.1163980006040402</v>
+        <v>0.1155771355126881</v>
       </c>
       <c r="R232" t="n">
-        <v>-0.002410353976122284</v>
+        <v>-0.002698568978479649</v>
       </c>
     </row>
     <row r="233">
       <c r="F233" t="n">
-        <v>0.06750012511546907</v>
+        <v>0.06728369081651853</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1205379305443841</v>
+        <v>0.1201231940426546</v>
       </c>
       <c r="H233" t="n">
-        <v>-0.002138049782948879</v>
+        <v>-0.002544102098069977</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1519309020682689</v>
+        <v>0.1519615242270663</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1167192661869164</v>
+        <v>0.1196784671722294</v>
       </c>
       <c r="L233" t="n">
-        <v>-0.002421880202716991</v>
+        <v>-0.002267635405379914</v>
       </c>
       <c r="M233" t="n">
-        <v>0.3531888904502771</v>
+        <v>0.3521716096662839</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1213598122324529</v>
+        <v>0.1187831681020394</v>
       </c>
       <c r="O233" t="n">
-        <v>-0.002925000296091252</v>
+        <v>-0.002273887709705171</v>
       </c>
       <c r="P233" t="n">
-        <v>0.5565035632602646</v>
+        <v>0.5492396961527874</v>
       </c>
       <c r="Q233" t="n">
-        <v>0.117189823737401</v>
+        <v>0.1163633745297812</v>
       </c>
       <c r="R233" t="n">
-        <v>-0.002410353976122284</v>
+        <v>-0.002698568978479649</v>
       </c>
     </row>
     <row r="234">
       <c r="F234" t="n">
-        <v>0.06749103039952675</v>
+        <v>0.0673283069661067</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1213523760210353</v>
+        <v>0.1209348372456455</v>
       </c>
       <c r="H234" t="n">
-        <v>-0.002138263566548814</v>
+        <v>-0.002543847713298648</v>
       </c>
       <c r="J234" t="n">
-        <v>0.1518989589725016</v>
+        <v>0.1519816030487487</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1175079098773685</v>
+        <v>0.1204871054639337</v>
       </c>
       <c r="L234" t="n">
-        <v>-0.002421880202716991</v>
+        <v>-0.002267635405379914</v>
       </c>
       <c r="M234" t="n">
-        <v>0.3531333367025639</v>
+        <v>0.3519843445848596</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1221798109637532</v>
+        <v>0.1195857570757018</v>
       </c>
       <c r="O234" t="n">
-        <v>-0.002925000296091252</v>
+        <v>-0.002273887709705171</v>
       </c>
       <c r="P234" t="n">
-        <v>0.5561557347648864</v>
+        <v>0.5498669246751396</v>
       </c>
       <c r="Q234" t="n">
-        <v>0.1179816468707618</v>
+        <v>0.1171496135468743</v>
       </c>
       <c r="R234" t="n">
-        <v>-0.002410353976122284</v>
+        <v>-0.002698568978479649</v>
       </c>
     </row>
     <row r="235">
       <c r="F235" t="n">
-        <v>0.06750977940688579</v>
+        <v>0.06737244004856144</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1221668214976866</v>
+        <v>0.1217464804486364</v>
       </c>
       <c r="H235" t="n">
-        <v>-0.002138049782948879</v>
+        <v>-0.002544356482841308</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1519281997401806</v>
+        <v>0.1520003196968929</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1182965535678206</v>
+        <v>0.1212957437556379</v>
       </c>
       <c r="L235" t="n">
-        <v>-0.002421880202716991</v>
+        <v>-0.002267635405379914</v>
       </c>
       <c r="M235" t="n">
-        <v>0.3530268594514003</v>
+        <v>0.3517781580462271</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1229998096950536</v>
+        <v>0.1203883460493643</v>
       </c>
       <c r="O235" t="n">
-        <v>-0.002925000296091252</v>
+        <v>-0.002273887709705171</v>
       </c>
       <c r="P235" t="n">
-        <v>0.556044140389649</v>
+        <v>0.5500678070876688</v>
       </c>
       <c r="Q235" t="n">
-        <v>0.1187734700041227</v>
+        <v>0.1179358525639674</v>
       </c>
       <c r="R235" t="n">
-        <v>-0.00237045224049784</v>
+        <v>-0.0025323901124478</v>
       </c>
     </row>
     <row r="236">
       <c r="F236" t="n">
-        <v>0.06749164388664317</v>
+        <v>0.0673975977664531</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1229812669743378</v>
+        <v>0.1225581236516273</v>
       </c>
       <c r="H236" t="n">
-        <v>-0.001997097258883466</v>
+        <v>-0.002334568889360815</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1519782775897096</v>
+        <v>0.151994231551894</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1190851972582728</v>
+        <v>0.1221043820473422</v>
       </c>
       <c r="L236" t="n">
-        <v>-0.002286344526533655</v>
+        <v>-0.002213341221991586</v>
       </c>
       <c r="M236" t="n">
-        <v>0.3528695676434604</v>
+        <v>0.3515452210648395</v>
       </c>
       <c r="N236" t="n">
-        <v>0.123819808426354</v>
+        <v>0.1211909350230267</v>
       </c>
       <c r="O236" t="n">
-        <v>-0.002652484762627548</v>
+        <v>-0.002176683363197295</v>
       </c>
       <c r="P236" t="n">
-        <v>0.5556045762020729</v>
+        <v>0.5505610113441414</v>
       </c>
       <c r="Q236" t="n">
-        <v>0.1195652931374835</v>
+        <v>0.1187220915810605</v>
       </c>
       <c r="R236" t="n">
-        <v>-0.00237045224049784</v>
+        <v>-0.0025323901124478</v>
       </c>
     </row>
     <row r="237">
       <c r="F237" t="n">
-        <v>0.0675013963752697</v>
+        <v>0.06742222961186195</v>
       </c>
       <c r="G237" t="n">
-        <v>0.123795712450989</v>
+        <v>0.1233697668546182</v>
       </c>
       <c r="H237" t="n">
-        <v>-0.001997496678335242</v>
+        <v>-0.002333868658740131</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1519482541589376</v>
+        <v>0.1519229877480877</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1198738409487249</v>
+        <v>0.1229130203390464</v>
       </c>
       <c r="L237" t="n">
-        <v>-0.002286344526533655</v>
+        <v>-0.002213341221991586</v>
       </c>
       <c r="M237" t="n">
-        <v>0.3527118467388404</v>
+        <v>0.3514865550994096</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1246398071576543</v>
+        <v>0.1219935239966891</v>
       </c>
       <c r="O237" t="n">
-        <v>-0.002652484762627548</v>
+        <v>-0.002176683363197295</v>
       </c>
       <c r="P237" t="n">
-        <v>0.5553206448788472</v>
+        <v>0.5506251165852535</v>
       </c>
       <c r="Q237" t="n">
-        <v>0.1203571162708443</v>
+        <v>0.1195083305981537</v>
       </c>
       <c r="R237" t="n">
-        <v>-0.00237045224049784</v>
+        <v>-0.0025323901124478</v>
       </c>
     </row>
     <row r="238">
       <c r="F238" t="n">
-        <v>0.06751130883892953</v>
+        <v>0.06746481238101126</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1246101579276403</v>
+        <v>0.1241814100576091</v>
       </c>
       <c r="H238" t="n">
-        <v>-0.001996897549157577</v>
+        <v>-0.00233433547915392</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1519615242270663</v>
+        <v>0.1519683144908562</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1206624846391771</v>
+        <v>0.1237216586307507</v>
       </c>
       <c r="L238" t="n">
-        <v>-0.002286344526533655</v>
+        <v>-0.002213341221991586</v>
       </c>
       <c r="M238" t="n">
-        <v>0.352704570155411</v>
+        <v>0.3511513087731309</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1254598058889547</v>
+        <v>0.1227961129703515</v>
       </c>
       <c r="O238" t="n">
-        <v>-0.002652484762627548</v>
+        <v>-0.002176683363197295</v>
       </c>
       <c r="P238" t="n">
-        <v>0.5552727117682611</v>
+        <v>0.5510595044812413</v>
       </c>
       <c r="Q238" t="n">
-        <v>0.1211489394042051</v>
+        <v>0.1202945696152468</v>
       </c>
       <c r="R238" t="n">
-        <v>-0.00237045224049784</v>
+        <v>-0.0025323901124478</v>
       </c>
     </row>
     <row r="239">
       <c r="F239" t="n">
-        <v>0.06749365254057627</v>
+        <v>0.06750000000000003</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1254246034042915</v>
+        <v>0.1249930532606</v>
       </c>
       <c r="H239" t="n">
-        <v>-0.001997296968609354</v>
+        <v>-0.002334102068947026</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1519759212652627</v>
+        <v>0.1519484402578625</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1214511283296292</v>
+        <v>0.1245302969224549</v>
       </c>
       <c r="L239" t="n">
-        <v>-0.002178390015619986</v>
+        <v>-0.002213341221991586</v>
       </c>
       <c r="M239" t="n">
-        <v>0.3525461899715622</v>
+        <v>0.3509911105813289</v>
       </c>
       <c r="N239" t="n">
-        <v>0.126279804620255</v>
+        <v>0.1235987019440139</v>
       </c>
       <c r="O239" t="n">
-        <v>-0.002652484762627548</v>
+        <v>-0.002176683363197295</v>
       </c>
       <c r="P239" t="n">
-        <v>0.5549776459048655</v>
+        <v>0.5513826655667534</v>
       </c>
       <c r="Q239" t="n">
-        <v>0.1219407625375659</v>
+        <v>0.1210808086323399</v>
       </c>
       <c r="R239" t="n">
-        <v>-0.00237045224049784</v>
+        <v>-0.0025323901124478</v>
       </c>
     </row>
     <row r="240">
       <c r="F240" t="n">
-        <v>0.06749470065497318</v>
+        <v>0.06751140918417703</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1262390488809428</v>
+        <v>0.1258046964635909</v>
       </c>
       <c r="H240" t="n">
-        <v>-0.001859197865945272</v>
+        <v>-0.002208074230738589</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1520276588214711</v>
+        <v>0.1518835486355218</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1222397720200813</v>
+        <v>0.1253389352141592</v>
       </c>
       <c r="L240" t="n">
-        <v>-0.002178390015619986</v>
+        <v>-0.00215322477829039</v>
       </c>
       <c r="M240" t="n">
-        <v>0.352488099483269</v>
+        <v>0.3505555471523072</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1270998033515554</v>
+        <v>0.1244012909176764</v>
       </c>
       <c r="O240" t="n">
-        <v>-0.002416436175182336</v>
+        <v>-0.002084975528610603</v>
       </c>
       <c r="P240" t="n">
-        <v>0.5545161889640006</v>
+        <v>0.5515132056508035</v>
       </c>
       <c r="Q240" t="n">
-        <v>0.1227325856709268</v>
+        <v>0.121867047649433</v>
       </c>
       <c r="R240" t="n">
-        <v>-0.002328593681969179</v>
+        <v>-0.002384651836064206</v>
       </c>
     </row>
     <row r="241">
       <c r="F241" t="n">
-        <v>0.0674959748496145</v>
+        <v>0.06754349620440039</v>
       </c>
       <c r="G241" t="n">
-        <v>0.127053494357594</v>
+        <v>0.1266163396665819</v>
       </c>
       <c r="H241" t="n">
-        <v>-0.001858826063552323</v>
+        <v>-0.002208515845584737</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1520942819615991</v>
+        <v>0.151894747094538</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1230284157105335</v>
+        <v>0.1261475735058634</v>
       </c>
       <c r="L241" t="n">
-        <v>-0.002178390015619986</v>
+        <v>-0.00215322477829039</v>
       </c>
       <c r="M241" t="n">
-        <v>0.3523796118479333</v>
+        <v>0.3502957937318968</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1279198020828557</v>
+        <v>0.1252038798913388</v>
       </c>
       <c r="O241" t="n">
-        <v>-0.002416436175182336</v>
+        <v>-0.002084975528610603</v>
       </c>
       <c r="P241" t="n">
-        <v>0.5542906541933608</v>
+        <v>0.5517704839738288</v>
       </c>
       <c r="Q241" t="n">
-        <v>0.1235244088042876</v>
+        <v>0.1226532866665262</v>
       </c>
       <c r="R241" t="n">
-        <v>-0.002328593681969179</v>
+        <v>-0.002384651836064206</v>
       </c>
     </row>
     <row r="242">
       <c r="F242" t="n">
-        <v>0.06750674787850899</v>
+        <v>0.06760316497860866</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1278679398342453</v>
+        <v>0.1274279828695727</v>
       </c>
       <c r="H242" t="n">
-        <v>-0.001859383767141747</v>
+        <v>-0.002208074230738589</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1521148270143689</v>
+        <v>0.1518003366916293</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1238170594009856</v>
+        <v>0.1269562117975677</v>
       </c>
       <c r="L242" t="n">
-        <v>-0.002178390015619986</v>
+        <v>-0.00215322477829039</v>
       </c>
       <c r="M242" t="n">
-        <v>0.3522710586989457</v>
+        <v>0.3500619418452764</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1287398008141561</v>
+        <v>0.1260064688650012</v>
       </c>
       <c r="O242" t="n">
-        <v>-0.002416436175182336</v>
+        <v>-0.002084975528610603</v>
       </c>
       <c r="P242" t="n">
-        <v>0.5538988397392044</v>
+        <v>0.5518327267430565</v>
       </c>
       <c r="Q242" t="n">
-        <v>0.1243162319376484</v>
+        <v>0.1234395256836193</v>
       </c>
       <c r="R242" t="n">
-        <v>-0.002328593681969179</v>
+        <v>-0.002384651836064206</v>
       </c>
     </row>
     <row r="243">
       <c r="F243" t="n">
-        <v>0.0675085406505791</v>
+        <v>0.06762560948416863</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1286823853108965</v>
+        <v>0.1282396260725637</v>
       </c>
       <c r="H243" t="n">
-        <v>-0.001725829629728503</v>
+        <v>-0.002208074230738589</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1522304299690918</v>
+        <v>0.1517819535542038</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1246057030914377</v>
+        <v>0.1277648500892719</v>
       </c>
       <c r="L243" t="n">
-        <v>-0.002178390015619986</v>
+        <v>-0.00215322477829039</v>
       </c>
       <c r="M243" t="n">
-        <v>0.3522127282812813</v>
+        <v>0.349654494341013</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1295597995454565</v>
+        <v>0.1268090578386637</v>
       </c>
       <c r="O243" t="n">
-        <v>-0.002416436175182336</v>
+        <v>-0.002084975528610603</v>
       </c>
       <c r="P243" t="n">
-        <v>0.5535820332242054</v>
+        <v>0.5518590625987273</v>
       </c>
       <c r="Q243" t="n">
-        <v>0.1251080550710092</v>
+        <v>0.1242257647007124</v>
       </c>
       <c r="R243" t="n">
-        <v>-0.002328593681969179</v>
+        <v>-0.002384651836064206</v>
       </c>
     </row>
     <row r="244">
       <c r="F244" t="n">
-        <v>0.06751062576979106</v>
+        <v>0.06763858298665576</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1294968307875478</v>
+        <v>0.1290512692755546</v>
       </c>
       <c r="H244" t="n">
-        <v>-0.001726002195434905</v>
+        <v>-0.002102501702453838</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1522588045671127</v>
+        <v>0.1517588318632474</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1253943467818899</v>
+        <v>0.1285734883809762</v>
       </c>
       <c r="L244" t="n">
-        <v>-0.002075205704562768</v>
+        <v>-0.002089721770553117</v>
       </c>
       <c r="M244" t="n">
-        <v>0.3521042643039406</v>
+        <v>0.3491740836320907</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1303797982767568</v>
+        <v>0.1276116468123261</v>
       </c>
       <c r="O244" t="n">
-        <v>-0.002226047241232012</v>
+        <v>-0.001996532756667032</v>
       </c>
       <c r="P244" t="n">
-        <v>0.553420490145405</v>
+        <v>0.5519615242270663</v>
       </c>
       <c r="Q244" t="n">
-        <v>0.12589987820437</v>
+        <v>0.1250120037178055</v>
       </c>
       <c r="R244" t="n">
-        <v>-0.002284354233030039</v>
+        <v>-0.002260261762856985</v>
       </c>
     </row>
     <row r="245">
       <c r="F245" t="n">
-        <v>0.06752227662010563</v>
+        <v>0.06769768053481789</v>
       </c>
       <c r="G245" t="n">
-        <v>0.130311276264199</v>
+        <v>0.1298629124785455</v>
       </c>
       <c r="H245" t="n">
-        <v>-0.001726002195434905</v>
+        <v>-0.002102501702453838</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1523613767658746</v>
+        <v>0.1517107784802307</v>
       </c>
       <c r="K245" t="n">
-        <v>0.126182990472342</v>
+        <v>0.1293821266726805</v>
       </c>
       <c r="L245" t="n">
-        <v>-0.002075205704562768</v>
+        <v>-0.002089721770553117</v>
       </c>
       <c r="M245" t="n">
-        <v>0.3519949286437765</v>
+        <v>0.3489205890596538</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1311997970080572</v>
+        <v>0.1284142357859885</v>
       </c>
       <c r="O245" t="n">
-        <v>-0.002226047241232012</v>
+        <v>-0.001996532756667032</v>
       </c>
       <c r="P245" t="n">
-        <v>0.5529322791526197</v>
+        <v>0.5518795799948524</v>
       </c>
       <c r="Q245" t="n">
-        <v>0.1266917013377309</v>
+        <v>0.1257982427348986</v>
       </c>
       <c r="R245" t="n">
-        <v>-0.002284354233030039</v>
+        <v>-0.002260261762856985</v>
       </c>
     </row>
     <row r="246">
       <c r="F246" t="n">
-        <v>0.0675065097992191</v>
+        <v>0.06771950656699952</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1311257217408502</v>
+        <v>0.1306745556815364</v>
       </c>
       <c r="H246" t="n">
-        <v>-0.001726002195434905</v>
+        <v>-0.002102501702453838</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1525176554963082</v>
+        <v>0.1516176213872639</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1269716341627941</v>
+        <v>0.1301907649643847</v>
       </c>
       <c r="L246" t="n">
-        <v>-0.002075205704562768</v>
+        <v>-0.002089721770553117</v>
       </c>
       <c r="M246" t="n">
-        <v>0.3518305116111986</v>
+        <v>0.3484951285675428</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1320197957393575</v>
+        <v>0.129216824759651</v>
       </c>
       <c r="O246" t="n">
-        <v>-0.002226047241232012</v>
+        <v>-0.001996532756667032</v>
       </c>
       <c r="P246" t="n">
-        <v>0.5526796406395489</v>
+        <v>0.5518776572043412</v>
       </c>
       <c r="Q246" t="n">
-        <v>0.1274835244710917</v>
+        <v>0.1265844817519917</v>
       </c>
       <c r="R246" t="n">
-        <v>-0.002284354233030039</v>
+        <v>-0.002260261762856985</v>
       </c>
     </row>
     <row r="247">
       <c r="F247" t="n">
-        <v>0.06752810791017083</v>
+        <v>0.06773184306315094</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1319401672175015</v>
+        <v>0.1314861988845273</v>
       </c>
       <c r="H247" t="n">
-        <v>-0.001725657064022101</v>
+        <v>-0.00210187107806798</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1526058087623305</v>
+        <v>0.151580162582976</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1277602778532463</v>
+        <v>0.130999403256089</v>
       </c>
       <c r="L247" t="n">
-        <v>-0.001975199959957614</v>
+        <v>-0.002089721770553117</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3517110697917848</v>
+        <v>0.3479483387856917</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1328397944706579</v>
+        <v>0.1300194137333134</v>
       </c>
       <c r="O247" t="n">
-        <v>-0.002226047241232012</v>
+        <v>-0.001996532756667032</v>
       </c>
       <c r="P247" t="n">
-        <v>0.552180941260332</v>
+        <v>0.5519399167170003</v>
       </c>
       <c r="Q247" t="n">
-        <v>0.1282753476044525</v>
+        <v>0.1273707207690848</v>
       </c>
       <c r="R247" t="n">
-        <v>-0.002284354233030039</v>
+        <v>-0.002154501801284518</v>
       </c>
     </row>
     <row r="248">
       <c r="F248" t="n">
-        <v>0.06754083581290748</v>
+        <v>0.06778106366952563</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1327546126941527</v>
+        <v>0.1322978420875182</v>
       </c>
       <c r="H248" t="n">
-        <v>-0.001598154007552061</v>
+        <v>-0.002000806665972247</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1528078316382206</v>
+        <v>0.1514975672450272</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1285489215436984</v>
+        <v>0.1318080415477932</v>
       </c>
       <c r="L248" t="n">
-        <v>-0.001975199959957614</v>
+        <v>-0.002022348288705996</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3515865301632257</v>
+        <v>0.3475296998180705</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1336597932019583</v>
+        <v>0.1308220027069758</v>
       </c>
       <c r="O248" t="n">
-        <v>-0.002057701605399971</v>
+        <v>-0.001912856935887876</v>
       </c>
       <c r="P248" t="n">
-        <v>0.5520771729568051</v>
+        <v>0.55206731856156</v>
       </c>
       <c r="Q248" t="n">
-        <v>0.1290671707378133</v>
+        <v>0.1281569597861779</v>
       </c>
       <c r="R248" t="n">
-        <v>-0.002239315321961422</v>
+        <v>-0.002154501801284518</v>
       </c>
     </row>
     <row r="249">
       <c r="F249" t="n">
-        <v>0.06751695680205266</v>
+        <v>0.06779296015816152</v>
       </c>
       <c r="G249" t="n">
-        <v>0.133569058170804</v>
+        <v>0.1331094852905091</v>
       </c>
       <c r="H249" t="n">
-        <v>-0.001598154007552061</v>
+        <v>-0.002001006746638845</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1529612767476164</v>
+        <v>0.151490721900055</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1293375652341505</v>
+        <v>0.1326166798394975</v>
       </c>
       <c r="L249" t="n">
-        <v>-0.001975199959957614</v>
+        <v>-0.002022348288705996</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3513567277844909</v>
+        <v>0.3469907475933172</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1344797919332586</v>
+        <v>0.1316245916806383</v>
       </c>
       <c r="O249" t="n">
-        <v>-0.002057701605399971</v>
+        <v>-0.001912856935887876</v>
       </c>
       <c r="P249" t="n">
-        <v>0.551580769408401</v>
+        <v>0.5519389760018317</v>
       </c>
       <c r="Q249" t="n">
-        <v>0.1298589938711741</v>
+        <v>0.1289431988032711</v>
       </c>
       <c r="R249" t="n">
-        <v>-0.002239315321961422</v>
+        <v>-0.002154501801284518</v>
       </c>
     </row>
     <row r="250">
       <c r="F250" t="n">
-        <v>0.0675305123350679</v>
+        <v>0.06783247573956808</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1343835036474552</v>
+        <v>0.1339211284935</v>
       </c>
       <c r="H250" t="n">
-        <v>-0.001597994224107995</v>
+        <v>-0.002001006746638845</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1531265982592236</v>
+        <v>0.1514185539749834</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1301262089246027</v>
+        <v>0.1334253181312017</v>
       </c>
       <c r="L250" t="n">
-        <v>-0.001975199959957614</v>
+        <v>-0.002022348288705996</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3512223687101347</v>
+        <v>0.3465804813380792</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1352997906645589</v>
+        <v>0.1324271806543006</v>
       </c>
       <c r="O250" t="n">
-        <v>-0.002057701605399971</v>
+        <v>-0.001912856935887876</v>
       </c>
       <c r="P250" t="n">
-        <v>0.5508941264906418</v>
+        <v>0.5517151717897549</v>
       </c>
       <c r="Q250" t="n">
-        <v>0.1306508170045349</v>
+        <v>0.1297294378203642</v>
       </c>
       <c r="R250" t="n">
-        <v>-0.002239315321961422</v>
+        <v>-0.002154501801284518</v>
       </c>
     </row>
     <row r="251">
       <c r="F251" t="n">
-        <v>0.0675445156905024</v>
+        <v>0.0678810619516024</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1351979491241064</v>
+        <v>0.1347327716964909</v>
       </c>
       <c r="H251" t="n">
-        <v>-0.001597834440663929</v>
+        <v>-0.002000806665972247</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1532628099583454</v>
+        <v>0.1512811057562762</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1309148526150548</v>
+        <v>0.134233956422906</v>
       </c>
       <c r="L251" t="n">
-        <v>-0.001975199959957614</v>
+        <v>-0.002022348288705996</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3511834887493139</v>
+        <v>0.3459021281778591</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1361197893958593</v>
+        <v>0.1332297696279631</v>
       </c>
       <c r="O251" t="n">
-        <v>-0.002057701605399971</v>
+        <v>-0.001912856935887876</v>
       </c>
       <c r="P251" t="n">
-        <v>0.5505010987470008</v>
+        <v>0.5517966681917883</v>
       </c>
       <c r="Q251" t="n">
-        <v>0.1314426401378957</v>
+        <v>0.1305156768374573</v>
       </c>
       <c r="R251" t="n">
-        <v>-0.002239315321961422</v>
+        <v>-0.002154501801284518</v>
       </c>
     </row>
     <row r="252">
       <c r="F252" t="n">
-        <v>0.06754973504017747</v>
+        <v>0.06788298918751909</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1360123946007577</v>
+        <v>0.1355444148994819</v>
       </c>
       <c r="H252" t="n">
-        <v>-0.001477876351794864</v>
+        <v>-0.001905113460704813</v>
       </c>
       <c r="J252" t="n">
-        <v>0.153430500624539</v>
+        <v>0.1512192818413793</v>
       </c>
       <c r="K252" t="n">
-        <v>0.131703496305507</v>
+        <v>0.1350425947146102</v>
       </c>
       <c r="L252" t="n">
-        <v>-0.001878755593644457</v>
+        <v>-0.001950501854015024</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3510397222108109</v>
+        <v>0.3453532810626682</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1369397881271597</v>
+        <v>0.1340323586016255</v>
       </c>
       <c r="O252" t="n">
-        <v>-0.001895516208595303</v>
+        <v>-0.001834982924471888</v>
       </c>
       <c r="P252" t="n">
-        <v>0.549764387365646</v>
+        <v>0.5517824259566706</v>
       </c>
       <c r="Q252" t="n">
-        <v>0.1322344632712566</v>
+        <v>0.1313019158545504</v>
       </c>
       <c r="R252" t="n">
-        <v>-0.002178534771477439</v>
+        <v>-0.002051053432170463</v>
       </c>
     </row>
     <row r="253">
       <c r="F253" t="n">
-        <v>0.06755544551896375</v>
+        <v>0.06793113169919662</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1368268400774089</v>
+        <v>0.1363560581024728</v>
       </c>
       <c r="H253" t="n">
-        <v>-0.001477728578936971</v>
+        <v>-0.001904922949358743</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1536701197047894</v>
+        <v>0.1511323935499185</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1324921399959591</v>
+        <v>0.1358512330063145</v>
       </c>
       <c r="L253" t="n">
-        <v>-0.001878755593644457</v>
+        <v>-0.001950501854015024</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3508413558908922</v>
+        <v>0.3448349380889651</v>
       </c>
       <c r="N253" t="n">
-        <v>0.13775978685846</v>
+        <v>0.1348349475752879</v>
       </c>
       <c r="O253" t="n">
-        <v>-0.001895516208595303</v>
+        <v>-0.001834982924471888</v>
       </c>
       <c r="P253" t="n">
-        <v>0.548688082153822</v>
+        <v>0.55151204206938</v>
       </c>
       <c r="Q253" t="n">
-        <v>0.1330262864046174</v>
+        <v>0.1320881548716435</v>
       </c>
       <c r="R253" t="n">
-        <v>-0.002178534771477439</v>
+        <v>-0.002051053432170463</v>
       </c>
     </row>
     <row r="254">
       <c r="F254" t="n">
-        <v>0.06754315872770464</v>
+        <v>0.06796975987802401</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1376412855540602</v>
+        <v>0.1371677013054637</v>
       </c>
       <c r="H254" t="n">
-        <v>-0.001477728578936971</v>
+        <v>-0.001904922949358743</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1538795893533207</v>
+        <v>0.1510807564612053</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1332807836864112</v>
+        <v>0.1366598712980187</v>
       </c>
       <c r="L254" t="n">
-        <v>-0.001878755593644457</v>
+        <v>-0.001950501854015024</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3507888274979646</v>
+        <v>0.3441991077335032</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1385797855897604</v>
+        <v>0.1356375365489504</v>
       </c>
       <c r="O254" t="n">
-        <v>-0.001895516208595303</v>
+        <v>-0.001834982924471888</v>
       </c>
       <c r="P254" t="n">
-        <v>0.5477551517217738</v>
+        <v>0.5513060552835982</v>
       </c>
       <c r="Q254" t="n">
-        <v>0.1338181095379782</v>
+        <v>0.1328743938887367</v>
       </c>
       <c r="R254" t="n">
-        <v>-0.002178534771477439</v>
+        <v>-0.002051053432170463</v>
       </c>
     </row>
     <row r="255">
       <c r="F255" t="n">
-        <v>0.06757768411564691</v>
+        <v>0.06797096766607172</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1384557310307114</v>
+        <v>0.1379793445084546</v>
       </c>
       <c r="H255" t="n">
-        <v>-0.001478024124652758</v>
+        <v>-0.001815762114081504</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1541196740057514</v>
+        <v>0.1509638179646413</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1340694273768634</v>
+        <v>0.137468509589723</v>
       </c>
       <c r="L255" t="n">
-        <v>-0.00178793474547988</v>
+        <v>-0.001950501854015024</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3505817944509968</v>
+        <v>0.3435946994358888</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1393997843210607</v>
+        <v>0.1364401255226128</v>
       </c>
       <c r="O255" t="n">
-        <v>-0.001895516208595303</v>
+        <v>-0.001834982924471888</v>
       </c>
       <c r="P255" t="n">
-        <v>0.5467291416291425</v>
+        <v>0.5513245572422734</v>
       </c>
       <c r="Q255" t="n">
-        <v>0.134609932671339</v>
+        <v>0.1336606329058298</v>
       </c>
       <c r="R255" t="n">
-        <v>-0.002178534771477439</v>
+        <v>-0.002051053432170463</v>
       </c>
     </row>
     <row r="256">
       <c r="F256" t="n">
-        <v>0.06755723126877838</v>
+        <v>0.06802772637652299</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1392701765073626</v>
+        <v>0.1387909877114455</v>
       </c>
       <c r="H256" t="n">
-        <v>-0.001366379475691786</v>
+        <v>-0.001816125302823195</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1543288163852649</v>
+        <v>0.1508418966182132</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1348580710673155</v>
+        <v>0.1382771478814272</v>
       </c>
       <c r="L256" t="n">
-        <v>-0.00178793474547988</v>
+        <v>-0.001875385855855277</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3504707009878557</v>
+        <v>0.3431205952577511</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1402197830523611</v>
+        <v>0.1372427144962752</v>
       </c>
       <c r="O256" t="n">
-        <v>-0.001739758280182396</v>
+        <v>-0.001763215097372522</v>
       </c>
       <c r="P256" t="n">
-        <v>0.5456134787755106</v>
+        <v>0.5510065258557474</v>
       </c>
       <c r="Q256" t="n">
-        <v>0.1354017558046998</v>
+        <v>0.1344468719229229</v>
       </c>
       <c r="R256" t="n">
-        <v>-0.002101917102193988</v>
+        <v>-0.001951334438510146</v>
       </c>
     </row>
     <row r="257">
       <c r="F257" t="n">
-        <v>0.06757438295966903</v>
+        <v>0.06805635066036267</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1400846219840139</v>
+        <v>0.1396026309144364</v>
       </c>
       <c r="H257" t="n">
-        <v>-0.001366242865066342</v>
+        <v>-0.001815943708452349</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1545269970396277</v>
+        <v>0.1507751917843367</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1356467147577677</v>
+        <v>0.1390857861731315</v>
       </c>
       <c r="L257" t="n">
-        <v>-0.00178793474547988</v>
+        <v>-0.001875385855855277</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3502054629378769</v>
+        <v>0.342481249197289</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1410397817836614</v>
+        <v>0.1380453034699377</v>
       </c>
       <c r="O257" t="n">
-        <v>-0.001739758280182396</v>
+        <v>-0.001763215097372522</v>
       </c>
       <c r="P257" t="n">
-        <v>0.5444115900604608</v>
+        <v>0.5508325835579279</v>
       </c>
       <c r="Q257" t="n">
-        <v>0.1361935789380607</v>
+        <v>0.135233110940016</v>
       </c>
       <c r="R257" t="n">
-        <v>-0.002101917102193988</v>
+        <v>-0.001951334438510146</v>
       </c>
     </row>
     <row r="258">
       <c r="F258" t="n">
-        <v>0.06758287948891639</v>
+        <v>0.06807542487558044</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1408990674606652</v>
+        <v>0.1404142741174273</v>
       </c>
       <c r="H258" t="n">
-        <v>-0.001366379475691786</v>
+        <v>-0.00181630689719404</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1547957233624048</v>
+        <v>0.1506030830952997</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1364353584482198</v>
+        <v>0.1398944244648357</v>
       </c>
       <c r="L258" t="n">
-        <v>-0.00178793474547988</v>
+        <v>-0.001875385855855277</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3500863695606636</v>
+        <v>0.3416776955090778</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1418597805149618</v>
+        <v>0.1388478924436001</v>
       </c>
       <c r="O258" t="n">
-        <v>-0.001739758280182396</v>
+        <v>-0.001763215097372522</v>
       </c>
       <c r="P258" t="n">
-        <v>0.5431269023835757</v>
+        <v>0.5506423572364836</v>
       </c>
       <c r="Q258" t="n">
-        <v>0.1369854020714215</v>
+        <v>0.1360193499571091</v>
       </c>
       <c r="R258" t="n">
-        <v>-0.002101917102193988</v>
+        <v>-0.001951334438510146</v>
       </c>
     </row>
     <row r="259">
       <c r="F259" t="n">
-        <v>0.06761051798665857</v>
+        <v>0.06809424689838406</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1417135129373164</v>
+        <v>0.1412259173204182</v>
       </c>
       <c r="H259" t="n">
-        <v>-0.001365969643815454</v>
+        <v>-0.001815762114081504</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1550938772668568</v>
+        <v>0.1505061758676439</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1372240021386719</v>
+        <v>0.14070306275654</v>
       </c>
       <c r="L259" t="n">
-        <v>-0.00178793474547988</v>
+        <v>-0.001875385855855277</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3499634249325368</v>
+        <v>0.3411038419967225</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1426797792462622</v>
+        <v>0.1396504814172625</v>
       </c>
       <c r="O259" t="n">
-        <v>-0.001739758280182396</v>
+        <v>-0.001763215097372522</v>
       </c>
       <c r="P259" t="n">
-        <v>0.5418420268471226</v>
+        <v>0.5504357226656426</v>
       </c>
       <c r="Q259" t="n">
-        <v>0.1377772252047823</v>
+        <v>0.1368055889742022</v>
       </c>
       <c r="R259" t="n">
-        <v>-0.002101917102193988</v>
+        <v>-0.001951334438510146</v>
       </c>
     </row>
     <row r="260">
       <c r="F260" t="n">
-        <v>0.06759250515803913</v>
+        <v>0.0681407503315416</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1425279584139676</v>
+        <v>0.1420375605234091</v>
       </c>
       <c r="H260" t="n">
-        <v>-0.001265339676332708</v>
+        <v>-0.00173534568911961</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1553390800469773</v>
+        <v>0.1503841134948444</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1380126458291241</v>
+        <v>0.1415117010482442</v>
       </c>
       <c r="L260" t="n">
-        <v>-0.001702337052647454</v>
+        <v>-0.00179607667826256</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3496868383129496</v>
+        <v>0.3403177999446965</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1434997779775625</v>
+        <v>0.1404530703909249</v>
       </c>
       <c r="O260" t="n">
-        <v>-0.001590917871718926</v>
+        <v>-0.001698283776639871</v>
       </c>
       <c r="P260" t="n">
-        <v>0.5404809181182159</v>
+        <v>0.5503726141366091</v>
       </c>
       <c r="Q260" t="n">
-        <v>0.1385690483381431</v>
+        <v>0.1375918279912954</v>
       </c>
       <c r="R260" t="n">
-        <v>-0.002009712328985531</v>
+        <v>-0.001855482884672236</v>
       </c>
     </row>
     <row r="261">
       <c r="F261" t="n">
-        <v>0.06760293759395816</v>
+        <v>0.06815906715363093</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1433424038906189</v>
+        <v>0.1428492037264</v>
       </c>
       <c r="H261" t="n">
-        <v>-0.001265213155017206</v>
+        <v>-0.001735172154550698</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1555718750289096</v>
+        <v>0.1502569356374956</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1388012895195762</v>
+        <v>0.1423203393399485</v>
       </c>
       <c r="L261" t="n">
-        <v>-0.001702337052647454</v>
+        <v>-0.00179607667826256</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3495066405576768</v>
+        <v>0.3397125938785965</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1443197767088629</v>
+        <v>0.1412556593645874</v>
       </c>
       <c r="O261" t="n">
-        <v>-0.001590917871718926</v>
+        <v>-0.001698283776639871</v>
       </c>
       <c r="P261" t="n">
-        <v>0.5388892034980841</v>
+        <v>0.5499727318726844</v>
       </c>
       <c r="Q261" t="n">
-        <v>0.1393608714715039</v>
+        <v>0.1383780670083885</v>
       </c>
       <c r="R261" t="n">
-        <v>-0.002009712328985531</v>
+        <v>-0.001855482884672236</v>
       </c>
     </row>
     <row r="262">
       <c r="F262" t="n">
-        <v>0.06762332210597113</v>
+        <v>0.06819575802979344</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1441568493672701</v>
+        <v>0.143660846929391</v>
       </c>
       <c r="H262" t="n">
-        <v>-0.001265086633701704</v>
+        <v>-0.001735172154550698</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1558536039289317</v>
+        <v>0.1501246196416509</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1395899332100284</v>
+        <v>0.1431289776316527</v>
       </c>
       <c r="L262" t="n">
-        <v>-0.001702337052647454</v>
+        <v>-0.00179607667826256</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3492730430997517</v>
+        <v>0.3389944627464265</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1451397754401632</v>
+        <v>0.1420582483382498</v>
       </c>
       <c r="O262" t="n">
-        <v>-0.001590917871718926</v>
+        <v>-0.001698283776639871</v>
       </c>
       <c r="P262" t="n">
-        <v>0.5373861615354921</v>
+        <v>0.5498760864203857</v>
       </c>
       <c r="Q262" t="n">
-        <v>0.1401526946048647</v>
+        <v>0.1391643060254816</v>
       </c>
       <c r="R262" t="n">
-        <v>-0.002009712328985531</v>
+        <v>-0.001855482884672236</v>
       </c>
     </row>
     <row r="263">
       <c r="F263" t="n">
-        <v>0.06762589377666717</v>
+        <v>0.06819491365426067</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1449712948439214</v>
+        <v>0.1444724901323819</v>
       </c>
       <c r="H263" t="n">
-        <v>-0.001176155162221906</v>
+        <v>-0.00166374525339077</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1561428694847757</v>
+        <v>0.1499871428533636</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1403785769004805</v>
+        <v>0.143937615923357</v>
       </c>
       <c r="L263" t="n">
-        <v>-0.001702337052647454</v>
+        <v>-0.00179607667826256</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3491858728487405</v>
+        <v>0.3383107602772581</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1459597741714636</v>
+        <v>0.1428608373119122</v>
       </c>
       <c r="O263" t="n">
-        <v>-0.001590917871718926</v>
+        <v>-0.001698283776639871</v>
       </c>
       <c r="P263" t="n">
-        <v>0.5357385530544219</v>
+        <v>0.5495225696298426</v>
       </c>
       <c r="Q263" t="n">
-        <v>0.1409445177382256</v>
+        <v>0.1399505450425747</v>
       </c>
       <c r="R263" t="n">
-        <v>-0.002009712328985531</v>
+        <v>-0.001855482884672236</v>
       </c>
     </row>
     <row r="264">
       <c r="F264" t="n">
-        <v>0.06765699122718982</v>
+        <v>0.06824040659467984</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1457857403205726</v>
+        <v>0.1452841333353728</v>
       </c>
       <c r="H264" t="n">
-        <v>-0.001176155162221906</v>
+        <v>-0.00166374525339077</v>
       </c>
       <c r="J264" t="n">
-        <v>0.156480630140641</v>
+        <v>0.149844482618687</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1411672205909326</v>
+        <v>0.1447462542150613</v>
       </c>
       <c r="L264" t="n">
-        <v>-0.001623714371585816</v>
+        <v>-0.001714072062520618</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3489956031161243</v>
+        <v>0.3374179882387937</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1467797729027639</v>
+        <v>0.1436634262855747</v>
       </c>
       <c r="O264" t="n">
-        <v>-0.001449050514814589</v>
+        <v>-0.001641758535215724</v>
       </c>
       <c r="P264" t="n">
-        <v>0.5341070895902073</v>
+        <v>0.5491520781684808</v>
       </c>
       <c r="Q264" t="n">
-        <v>0.1417363408715864</v>
+        <v>0.1407367840596678</v>
       </c>
       <c r="R264" t="n">
-        <v>-0.001904404089084805</v>
+        <v>-0.001763462634948658</v>
       </c>
     </row>
     <row r="265">
       <c r="F265" t="n">
-        <v>0.06765178556867671</v>
+        <v>0.06826699348876317</v>
       </c>
       <c r="G265" t="n">
-        <v>0.1466001857972239</v>
+        <v>0.1460957765383637</v>
       </c>
       <c r="H265" t="n">
-        <v>-0.001176272789500856</v>
+        <v>-0.001663911644555225</v>
       </c>
       <c r="J265" t="n">
-        <v>0.1567633526886815</v>
+        <v>0.1496766466220462</v>
       </c>
       <c r="K265" t="n">
-        <v>0.1419558642813848</v>
+        <v>0.1455548925067655</v>
       </c>
       <c r="L265" t="n">
-        <v>-0.001623714371585816</v>
+        <v>-0.001714072062520618</v>
       </c>
       <c r="M265" t="n">
-        <v>0.3487523396956768</v>
+        <v>0.3367555496572572</v>
       </c>
       <c r="N265" t="n">
-        <v>0.1475997716340643</v>
+        <v>0.1444660152592371</v>
       </c>
       <c r="O265" t="n">
-        <v>-0.001449050514814589</v>
+        <v>-0.001641758535215724</v>
       </c>
       <c r="P265" t="n">
-        <v>0.5321035772789282</v>
+        <v>0.5490041702156127</v>
       </c>
       <c r="Q265" t="n">
-        <v>0.1425281640049472</v>
+        <v>0.1415230230767609</v>
       </c>
       <c r="R265" t="n">
-        <v>-0.001904404089084805</v>
+        <v>-0.001763462634948658</v>
       </c>
     </row>
     <row r="266">
       <c r="F266" t="n">
-        <v>0.06768442254722778</v>
+        <v>0.06828398367537775</v>
       </c>
       <c r="G266" t="n">
-        <v>0.1474146312738751</v>
+        <v>0.1469074197413546</v>
       </c>
       <c r="H266" t="n">
-        <v>-0.001176508044058756</v>
+        <v>-0.00166374525339077</v>
       </c>
       <c r="J266" t="n">
-        <v>0.1570939652125242</v>
+        <v>0.1495834298986183</v>
       </c>
       <c r="K266" t="n">
-        <v>0.1427445079718369</v>
+        <v>0.1463635307984698</v>
       </c>
       <c r="L266" t="n">
-        <v>-0.001623714371585816</v>
+        <v>-0.001714072062520618</v>
       </c>
       <c r="M266" t="n">
-        <v>0.3486058247219703</v>
+        <v>0.3359826022299169</v>
       </c>
       <c r="N266" t="n">
-        <v>0.1484197703653647</v>
+        <v>0.1452686042328995</v>
       </c>
       <c r="O266" t="n">
-        <v>-0.001449050514814589</v>
+        <v>-0.001641758535215724</v>
       </c>
       <c r="P266" t="n">
-        <v>0.5305139736629585</v>
+        <v>0.5485194147218313</v>
       </c>
       <c r="Q266" t="n">
-        <v>0.143319987138308</v>
+        <v>0.1423092620938541</v>
       </c>
       <c r="R266" t="n">
-        <v>-0.001904404089084805</v>
+        <v>-0.001763462634948658</v>
       </c>
     </row>
     <row r="267">
       <c r="F267" t="n">
-        <v>0.06769932761547592</v>
+        <v>0.06830069723439799</v>
       </c>
       <c r="G267" t="n">
-        <v>0.1482290767505264</v>
+        <v>0.1477190629443455</v>
       </c>
       <c r="H267" t="n">
-        <v>-0.001176390416779806</v>
+        <v>-0.001664078035719681</v>
       </c>
       <c r="J267" t="n">
-        <v>0.1574308440236308</v>
+        <v>0.1494051132143248</v>
       </c>
       <c r="K267" t="n">
-        <v>0.143533151662289</v>
+        <v>0.147172169090174</v>
       </c>
       <c r="L267" t="n">
-        <v>-0.001623714371585816</v>
+        <v>-0.001714072062520618</v>
       </c>
       <c r="M267" t="n">
-        <v>0.3483068775831091</v>
+        <v>0.3351970983537358</v>
       </c>
       <c r="N267" t="n">
-        <v>0.149239769096665</v>
+        <v>0.146071193206562</v>
       </c>
       <c r="O267" t="n">
-        <v>-0.001449050514814589</v>
+        <v>-0.001641758535215724</v>
       </c>
       <c r="P267" t="n">
-        <v>0.5284041984401471</v>
+        <v>0.5483366934015804</v>
       </c>
       <c r="Q267" t="n">
-        <v>0.1441118102716688</v>
+        <v>0.1430955011109472</v>
       </c>
       <c r="R267" t="n">
-        <v>-0.001904404089084805</v>
+        <v>-0.001763462634948658</v>
       </c>
     </row>
     <row r="268">
       <c r="F268" t="n">
-        <v>0.06772432564584199</v>
+        <v>0.06833579829825293</v>
       </c>
       <c r="G268" t="n">
-        <v>0.1490435222271776</v>
+        <v>0.1485307061473364</v>
       </c>
       <c r="H268" t="n">
-        <v>-0.001101024325183987</v>
+        <v>-0.001603625758749028</v>
       </c>
       <c r="J268" t="n">
-        <v>0.1577321150280787</v>
+        <v>0.149221554137155</v>
       </c>
       <c r="K268" t="n">
-        <v>0.1443217953527412</v>
+        <v>0.1479808073818783</v>
       </c>
       <c r="L268" t="n">
-        <v>-0.001551310448247861</v>
+        <v>-0.001629335632796545</v>
       </c>
       <c r="M268" t="n">
-        <v>0.348204503973679</v>
+        <v>0.3343026268663004</v>
       </c>
       <c r="N268" t="n">
-        <v>0.1500597678279654</v>
+        <v>0.1468737821802244</v>
       </c>
       <c r="O268" t="n">
-        <v>-0.001315293084589801</v>
+        <v>-0.001593528491360226</v>
       </c>
       <c r="P268" t="n">
-        <v>0.5266353121532288</v>
+        <v>0.5479767224394511</v>
       </c>
       <c r="Q268" t="n">
-        <v>0.1449036334050297</v>
+        <v>0.1438817401280403</v>
       </c>
       <c r="R268" t="n">
-        <v>-0.001788809220765916</v>
+        <v>-0.001675945342040554</v>
       </c>
     </row>
     <row r="269">
       <c r="F269" t="n">
-        <v>0.0677130825156663</v>
+        <v>0.06837062687827647</v>
       </c>
       <c r="G269" t="n">
-        <v>0.1498579677038288</v>
+        <v>0.1493423493503273</v>
       </c>
       <c r="H269" t="n">
-        <v>-0.001100804142337235</v>
+        <v>-0.001603465396173153</v>
       </c>
       <c r="J269" t="n">
-        <v>0.1580804653021195</v>
+        <v>0.1490924473887045</v>
       </c>
       <c r="K269" t="n">
-        <v>0.1451104390431933</v>
+        <v>0.1487894456735825</v>
       </c>
       <c r="L269" t="n">
-        <v>-0.001551310448247861</v>
+        <v>-0.001629335632796545</v>
       </c>
       <c r="M269" t="n">
-        <v>0.3480496012995209</v>
+        <v>0.3335419032644481</v>
       </c>
       <c r="N269" t="n">
-        <v>0.1508797665592657</v>
+        <v>0.1476763711538868</v>
       </c>
       <c r="O269" t="n">
-        <v>-0.001315293084589801</v>
+        <v>-0.001593528491360226</v>
       </c>
       <c r="P269" t="n">
-        <v>0.5245106997373284</v>
+        <v>0.5476788493743046</v>
       </c>
       <c r="Q269" t="n">
-        <v>0.1456954565383905</v>
+        <v>0.1446679791451334</v>
       </c>
       <c r="R269" t="n">
-        <v>-0.001788809220765916</v>
+        <v>-0.001675945342040554</v>
       </c>
     </row>
     <row r="270">
       <c r="F270" t="n">
-        <v>0.06774906545678333</v>
+        <v>0.06837716383054965</v>
       </c>
       <c r="G270" t="n">
-        <v>0.1506724131804801</v>
+        <v>0.1501539925533182</v>
       </c>
       <c r="H270" t="n">
-        <v>-0.001100914233760611</v>
+        <v>-0.001603946483900778</v>
       </c>
       <c r="J270" t="n">
-        <v>0.1583715734751849</v>
+        <v>0.1488585123754188</v>
       </c>
       <c r="K270" t="n">
-        <v>0.1458990827336455</v>
+        <v>0.1495980839652868</v>
       </c>
       <c r="L270" t="n">
-        <v>-0.001551310448247861</v>
+        <v>-0.001629335632796545</v>
       </c>
       <c r="M270" t="n">
-        <v>0.3477925723325604</v>
+        <v>0.3327698385319559</v>
       </c>
       <c r="N270" t="n">
-        <v>0.1516997652905661</v>
+        <v>0.1484789601275492</v>
       </c>
       <c r="O270" t="n">
-        <v>-0.001315293084589801</v>
+        <v>-0.001593528491360226</v>
       </c>
       <c r="P270" t="n">
-        <v>0.5227314957799766</v>
+        <v>0.5470442693555191</v>
       </c>
       <c r="Q270" t="n">
-        <v>0.1464872796717513</v>
+        <v>0.1454542181622265</v>
       </c>
       <c r="R270" t="n">
-        <v>-0.001788809220765916</v>
+        <v>-0.001675945342040554</v>
       </c>
     </row>
     <row r="271">
       <c r="F271" t="n">
-        <v>0.06774884093818073</v>
+        <v>0.06842077152680986</v>
       </c>
       <c r="G271" t="n">
-        <v>0.1514868586571313</v>
+        <v>0.1509656357563091</v>
       </c>
       <c r="H271" t="n">
-        <v>-0.001040430253821566</v>
+        <v>-0.001603625758749028</v>
       </c>
       <c r="J271" t="n">
-        <v>0.1587508999730444</v>
+        <v>0.1487186914276872</v>
       </c>
       <c r="K271" t="n">
-        <v>0.1466877264240976</v>
+        <v>0.150406722256991</v>
       </c>
       <c r="L271" t="n">
-        <v>-0.001551310448247861</v>
+        <v>-0.001629335632796545</v>
       </c>
       <c r="M271" t="n">
-        <v>0.3476326718253694</v>
+        <v>0.3318905103091885</v>
       </c>
       <c r="N271" t="n">
-        <v>0.1525197640218665</v>
+        <v>0.1492815491012117</v>
       </c>
       <c r="O271" t="n">
-        <v>-0.001315293084589801</v>
+        <v>-0.001593528491360226</v>
       </c>
       <c r="P271" t="n">
-        <v>0.5206046018769572</v>
+        <v>0.5468700593969046</v>
       </c>
       <c r="Q271" t="n">
-        <v>0.1472791028051121</v>
+        <v>0.1462404571793196</v>
       </c>
       <c r="R271" t="n">
-        <v>-0.001788809220765916</v>
+        <v>-0.001675945342040554</v>
       </c>
     </row>
     <row r="272">
       <c r="F272" t="n">
-        <v>0.0677959081197608</v>
+        <v>0.06845475856312283</v>
       </c>
       <c r="G272" t="n">
-        <v>0.1523013041337826</v>
+        <v>0.1517772789593</v>
       </c>
       <c r="H272" t="n">
-        <v>-0.001040430253821566</v>
+        <v>-0.00155560333278814</v>
       </c>
       <c r="J272" t="n">
-        <v>0.1590721830711133</v>
+        <v>0.1485337295854821</v>
       </c>
       <c r="K272" t="n">
-        <v>0.1474763701145497</v>
+        <v>0.1512153605486953</v>
       </c>
       <c r="L272" t="n">
-        <v>-0.001487295498760037</v>
+        <v>-0.001541244302771399</v>
       </c>
       <c r="M272" t="n">
-        <v>0.3473709612599243</v>
+        <v>0.331145403908953</v>
       </c>
       <c r="N272" t="n">
-        <v>0.1533397627531668</v>
+        <v>0.1500841380748741</v>
       </c>
       <c r="O272" t="n">
-        <v>-0.00119009108363609</v>
+        <v>-0.001555763281695457</v>
       </c>
       <c r="P272" t="n">
-        <v>0.518520136339127</v>
+        <v>0.5463590557090627</v>
       </c>
       <c r="Q272" t="n">
-        <v>0.1480709259384729</v>
+        <v>0.1470266961964128</v>
       </c>
       <c r="R272" t="n">
-        <v>-0.001665439535838712</v>
+        <v>-0.001591591926385072</v>
       </c>
     </row>
     <row r="273">
       <c r="F273" t="n">
-        <v>0.06779752125719027</v>
+        <v>0.06847911435122583</v>
       </c>
       <c r="G273" t="n">
-        <v>0.1531157496104338</v>
+        <v>0.1525889221622909</v>
       </c>
       <c r="H273" t="n">
-        <v>-0.001040326231600628</v>
+        <v>-0.00155560333278814</v>
       </c>
       <c r="J273" t="n">
-        <v>0.1594185390548351</v>
+        <v>0.1483235475178829</v>
       </c>
       <c r="K273" t="n">
-        <v>0.1482650138050019</v>
+        <v>0.1520239988403995</v>
       </c>
       <c r="L273" t="n">
-        <v>-0.001487295498760037</v>
+        <v>-0.001541244302771399</v>
       </c>
       <c r="M273" t="n">
-        <v>0.3471071063078157</v>
+        <v>0.3301980766622502</v>
       </c>
       <c r="N273" t="n">
-        <v>0.1541597614844672</v>
+        <v>0.1508867270485365</v>
       </c>
       <c r="O273" t="n">
-        <v>-0.00119009108363609</v>
+        <v>-0.001555763281695457</v>
       </c>
       <c r="P273" t="n">
-        <v>0.5162510035262209</v>
+        <v>0.5459095720529014</v>
       </c>
       <c r="Q273" t="n">
-        <v>0.1488627490718337</v>
+        <v>0.1478129352135059</v>
       </c>
       <c r="R273" t="n">
-        <v>-0.001665439535838712</v>
+        <v>-0.001591591926385072</v>
       </c>
     </row>
     <row r="274">
       <c r="F274" t="n">
-        <v>0.06783720838409377</v>
+        <v>0.06849382847626273</v>
       </c>
       <c r="G274" t="n">
-        <v>0.1539301950870851</v>
+        <v>0.1534005653652819</v>
       </c>
       <c r="H274" t="n">
-        <v>-0.00104022220937969</v>
+        <v>-0.001555292274333273</v>
       </c>
       <c r="J274" t="n">
-        <v>0.1597268138313271</v>
+        <v>0.1481079940715624</v>
       </c>
       <c r="K274" t="n">
-        <v>0.149053657495454</v>
+        <v>0.1528326371321038</v>
       </c>
       <c r="L274" t="n">
-        <v>-0.001487295498760037</v>
+        <v>-0.001541244302771399</v>
       </c>
       <c r="M274" t="n">
-        <v>0.3469902913083931</v>
+        <v>0.3294334846130202</v>
       </c>
       <c r="N274" t="n">
-        <v>0.1549797602157675</v>
+        <v>0.1516893160221989</v>
       </c>
       <c r="O274" t="n">
-        <v>-0.00119009108363609</v>
+        <v>-0.001555763281695457</v>
       </c>
       <c r="P274" t="n">
-        <v>0.5141075908032028</v>
+        <v>0.5452827406506998</v>
       </c>
       <c r="Q274" t="n">
-        <v>0.1496545722051946</v>
+        <v>0.148599174230599</v>
       </c>
       <c r="R274" t="n">
-        <v>-0.001665439535838712</v>
+        <v>-0.001591591926385072</v>
       </c>
     </row>
     <row r="275">
       <c r="F275" t="n">
-        <v>0.06784074492457742</v>
+        <v>0.06850824152404544</v>
       </c>
       <c r="G275" t="n">
-        <v>0.1547446405637363</v>
+        <v>0.1542122085682728</v>
       </c>
       <c r="H275" t="n">
-        <v>-0.001040430253821566</v>
+        <v>-0.001555447803560706</v>
       </c>
       <c r="J275" t="n">
-        <v>0.1601225224544088</v>
+        <v>0.14792663354681</v>
       </c>
       <c r="K275" t="n">
-        <v>0.1498423011859061</v>
+        <v>0.153641275423808</v>
       </c>
       <c r="L275" t="n">
-        <v>-0.001487295498760037</v>
+        <v>-0.001541244302771399</v>
       </c>
       <c r="M275" t="n">
-        <v>0.3466727660118891</v>
+        <v>0.3285639680111471</v>
       </c>
       <c r="N275" t="n">
-        <v>0.1557997589470679</v>
+        <v>0.1524919049958614</v>
       </c>
       <c r="O275" t="n">
-        <v>-0.00119009108363609</v>
+        <v>-0.001555763281695457</v>
       </c>
       <c r="P275" t="n">
-        <v>0.5121682411626521</v>
+        <v>0.5449556546179659</v>
       </c>
       <c r="Q275" t="n">
-        <v>0.1504463953385554</v>
+        <v>0.1493854132476921</v>
       </c>
       <c r="R275" t="n">
-        <v>-0.001665439535838712</v>
+        <v>-0.001591591926385072</v>
       </c>
     </row>
     <row r="276">
       <c r="F276" t="n">
-        <v>0.06786384414686331</v>
+        <v>0.06855040998558817</v>
       </c>
       <c r="G276" t="n">
-        <v>0.1555590860403876</v>
+        <v>0.1550238517712637</v>
       </c>
       <c r="H276" t="n">
-        <v>-0.0009963580509301248</v>
+        <v>-0.001520228975700467</v>
       </c>
       <c r="J276" t="n">
-        <v>0.1604584367878888</v>
+        <v>0.1477397769481179</v>
       </c>
       <c r="K276" t="n">
-        <v>0.1506309448763583</v>
+        <v>0.1544499137155123</v>
       </c>
       <c r="L276" t="n">
-        <v>-0.001431467414519886</v>
+        <v>-0.001450658561519913</v>
       </c>
       <c r="M276" t="n">
-        <v>0.346552071943478</v>
+        <v>0.3276860255678443</v>
       </c>
       <c r="N276" t="n">
-        <v>0.1566197576783682</v>
+        <v>0.1532944939695238</v>
       </c>
       <c r="O276" t="n">
-        <v>-0.001074109742753724</v>
+        <v>-0.001528685850624334</v>
       </c>
       <c r="P276" t="n">
-        <v>0.5097505672499555</v>
+        <v>0.5444509723379535</v>
       </c>
       <c r="Q276" t="n">
-        <v>0.1512382184719162</v>
+        <v>0.1501716522647852</v>
       </c>
       <c r="R276" t="n">
-        <v>-0.001535622753051867</v>
+        <v>-0.001512079406815353</v>
       </c>
     </row>
     <row r="277">
       <c r="F277" t="n">
-        <v>0.06789725319988982</v>
+        <v>0.06857357425408764</v>
       </c>
       <c r="G277" t="n">
-        <v>0.1563735315170388</v>
+        <v>0.1558354949742546</v>
       </c>
       <c r="H277" t="n">
-        <v>-0.0009965573225403108</v>
+        <v>-0.001520533021495607</v>
       </c>
       <c r="J277" t="n">
-        <v>0.1608182284783313</v>
+        <v>0.1474881476109005</v>
       </c>
       <c r="K277" t="n">
-        <v>0.1514195885668104</v>
+        <v>0.1552585520072165</v>
       </c>
       <c r="L277" t="n">
-        <v>-0.001431467414519886</v>
+        <v>-0.001450658561519913</v>
       </c>
       <c r="M277" t="n">
-        <v>0.3462806987802914</v>
+        <v>0.3267047754239082</v>
       </c>
       <c r="N277" t="n">
-        <v>0.1574397564096686</v>
+        <v>0.1540970829431862</v>
       </c>
       <c r="O277" t="n">
-        <v>-0.001074109742753724</v>
+        <v>-0.001528685850624334</v>
       </c>
       <c r="P277" t="n">
-        <v>0.5075438102188916</v>
+        <v>0.5438482571896996</v>
       </c>
       <c r="Q277" t="n">
-        <v>0.152030041605277</v>
+        <v>0.1509578912818783</v>
       </c>
       <c r="R277" t="n">
-        <v>-0.001535622753051867</v>
+        <v>-0.001512079406815353</v>
       </c>
     </row>
     <row r="278">
       <c r="F278" t="n">
-        <v>0.06791312777576497</v>
+        <v>0.06856835955275947</v>
       </c>
       <c r="G278" t="n">
-        <v>0.15718797699369</v>
+        <v>0.1566471381772455</v>
       </c>
       <c r="H278" t="n">
-        <v>-0.0009962584151250319</v>
+        <v>-0.001520380998598037</v>
       </c>
       <c r="J278" t="n">
-        <v>0.1612016718438968</v>
+        <v>0.1472705622230902</v>
       </c>
       <c r="K278" t="n">
-        <v>0.1522082322572626</v>
+        <v>0.1560671902989208</v>
       </c>
       <c r="L278" t="n">
-        <v>-0.001431467414519886</v>
+        <v>-0.001450658561519913</v>
       </c>
       <c r="M278" t="n">
-        <v>0.3459581645129523</v>
+        <v>0.3258115372330276</v>
       </c>
       <c r="N278" t="n">
-        <v>0.158259755140969</v>
+        <v>0.1548996719168486</v>
       </c>
       <c r="O278" t="n">
-        <v>-0.001074109742753724</v>
+        <v>-0.001528685850624334</v>
       </c>
       <c r="P278" t="n">
-        <v>0.5055494117172591</v>
+        <v>0.5434648700206198</v>
       </c>
       <c r="Q278" t="n">
-        <v>0.1528218647386378</v>
+        <v>0.1517441302989714</v>
       </c>
       <c r="R278" t="n">
-        <v>-0.001535622753051867</v>
+        <v>-0.001512079406815353</v>
       </c>
     </row>
     <row r="279">
       <c r="F279" t="n">
-        <v>0.06794865028087335</v>
+        <v>0.06861898271730407</v>
       </c>
       <c r="G279" t="n">
-        <v>0.1580024224703413</v>
+        <v>0.1574587813802364</v>
       </c>
       <c r="H279" t="n">
-        <v>-0.0009962584151250319</v>
+        <v>-0.001520076952802897</v>
       </c>
       <c r="J279" t="n">
-        <v>0.1615662336403741</v>
+        <v>0.1470671608481012</v>
       </c>
       <c r="K279" t="n">
-        <v>0.1529968759477147</v>
+        <v>0.156875828590625</v>
       </c>
       <c r="L279" t="n">
-        <v>-0.001431467414519886</v>
+        <v>-0.001450658561519913</v>
       </c>
       <c r="M279" t="n">
-        <v>0.3458325449551596</v>
+        <v>0.3249112518977899</v>
       </c>
       <c r="N279" t="n">
-        <v>0.1590797538722693</v>
+        <v>0.1557022608905111</v>
       </c>
       <c r="O279" t="n">
-        <v>-0.001074109742753724</v>
+        <v>-0.001528685850624334</v>
       </c>
       <c r="P279" t="n">
-        <v>0.5032415733971496</v>
+        <v>0.5427452657137332</v>
       </c>
       <c r="Q279" t="n">
-        <v>0.1536136878719987</v>
+        <v>0.1525303693160646</v>
       </c>
       <c r="R279" t="n">
-        <v>-0.001535622753051867</v>
+        <v>-0.001437361513458874</v>
       </c>
     </row>
     <row r="280">
       <c r="F280" t="n">
-        <v>0.06795737552608075</v>
+        <v>0.06861313394337973</v>
       </c>
       <c r="G280" t="n">
-        <v>0.1588168679469925</v>
+        <v>0.1582704245832273</v>
       </c>
       <c r="H280" t="n">
-        <v>-0.0009703215337198475</v>
+        <v>-0.001500195347668942</v>
       </c>
       <c r="J280" t="n">
-        <v>0.1619538532183569</v>
+        <v>0.1468581683829048</v>
       </c>
       <c r="K280" t="n">
-        <v>0.1537855196381668</v>
+        <v>0.1576844668823293</v>
       </c>
       <c r="L280" t="n">
-        <v>-0.00138472667646178</v>
+        <v>-0.001357480043101453</v>
       </c>
       <c r="M280" t="n">
-        <v>0.3456559075600234</v>
+        <v>0.3240517788601174</v>
       </c>
       <c r="N280" t="n">
-        <v>0.1598997526035697</v>
+        <v>0.1565048498641735</v>
       </c>
       <c r="O280" t="n">
-        <v>-0.0009670639172820423</v>
+        <v>-0.001513176065242841</v>
       </c>
       <c r="P280" t="n">
-        <v>0.5008516809029285</v>
+        <v>0.542165303756111</v>
       </c>
       <c r="Q280" t="n">
-        <v>0.1544055110053595</v>
+        <v>0.1533166083331577</v>
       </c>
       <c r="R280" t="n">
-        <v>-0.00140192734124081</v>
+        <v>-0.001437361513458874</v>
       </c>
     </row>
     <row r="281">
       <c r="F281" t="n">
-        <v>0.06800439691111793</v>
+        <v>0.06864441479990574</v>
       </c>
       <c r="G281" t="n">
-        <v>0.1596313134236438</v>
+        <v>0.1590820677862182</v>
       </c>
       <c r="H281" t="n">
-        <v>-0.0009706126592925207</v>
+        <v>-0.001500045343134628</v>
       </c>
       <c r="J281" t="n">
-        <v>0.1622581676381059</v>
+        <v>0.1466435605052505</v>
       </c>
       <c r="K281" t="n">
-        <v>0.154574163328619</v>
+        <v>0.1584931051740336</v>
       </c>
       <c r="L281" t="n">
-        <v>-0.00138472667646178</v>
+        <v>-0.001357480043101453</v>
       </c>
       <c r="M281" t="n">
-        <v>0.3452798374003376</v>
+        <v>0.3230913758105637</v>
       </c>
       <c r="N281" t="n">
-        <v>0.16071975133487</v>
+        <v>0.1573074388378359</v>
       </c>
       <c r="O281" t="n">
-        <v>-0.0009670639172820423</v>
+        <v>-0.001513176065242841</v>
       </c>
       <c r="P281" t="n">
-        <v>0.498683309719598</v>
+        <v>0.5416453552876693</v>
       </c>
       <c r="Q281" t="n">
-        <v>0.1551973341387203</v>
+        <v>0.1541028473502508</v>
       </c>
       <c r="R281" t="n">
-        <v>-0.00140192734124081</v>
+        <v>-0.001437361513458874</v>
       </c>
     </row>
     <row r="282">
       <c r="F282" t="n">
-        <v>0.06804325898171118</v>
+        <v>0.06867538197775902</v>
       </c>
       <c r="G282" t="n">
-        <v>0.160445758900295</v>
+        <v>0.1598937109892091</v>
       </c>
       <c r="H282" t="n">
-        <v>-0.0009703215337198475</v>
+        <v>-0.001500045343134628</v>
       </c>
       <c r="J282" t="n">
-        <v>0.1626272546549971</v>
+        <v>0.1463447671224014</v>
       </c>
       <c r="K282" t="n">
-        <v>0.1553628070190711</v>
+        <v>0.1593017434657378</v>
       </c>
       <c r="L282" t="n">
-        <v>-0.00138472667646178</v>
+        <v>-0.001357480043101453</v>
       </c>
       <c r="M282" t="n">
-        <v>0.3451008054892796</v>
+        <v>0.322172703066736</v>
       </c>
       <c r="N282" t="n">
-        <v>0.1615397500661704</v>
+        <v>0.1581100278114984</v>
       </c>
       <c r="O282" t="n">
-        <v>-0.0009670639172820423</v>
+        <v>-0.001513176065242841</v>
       </c>
       <c r="P282" t="n">
-        <v>0.4965139363609566</v>
+        <v>0.541026920993233</v>
       </c>
       <c r="Q282" t="n">
-        <v>0.1559891572720811</v>
+        <v>0.1548890863673439</v>
       </c>
       <c r="R282" t="n">
-        <v>-0.00140192734124081</v>
+        <v>-0.001437361513458874</v>
       </c>
     </row>
     <row r="283">
       <c r="F283" t="n">
-        <v>0.06805536422329872</v>
+        <v>0.06868729481267613</v>
       </c>
       <c r="G283" t="n">
-        <v>0.1612602043769462</v>
+        <v>0.1607053541922</v>
       </c>
       <c r="H283" t="n">
-        <v>-0.0009637090748201627</v>
+        <v>-0.001495204816143903</v>
       </c>
       <c r="J283" t="n">
-        <v>0.1630185091260364</v>
+        <v>0.1461189535968205</v>
       </c>
       <c r="K283" t="n">
-        <v>0.1561514507095232</v>
+        <v>0.160110381757442</v>
       </c>
       <c r="L283" t="n">
-        <v>-0.001356270592050928</v>
+        <v>-0.00128647045549267</v>
       </c>
       <c r="M283" t="n">
-        <v>0.3449207051993375</v>
+        <v>0.3212488191948724</v>
       </c>
       <c r="N283" t="n">
-        <v>0.1623597487974708</v>
+        <v>0.1589126167851608</v>
       </c>
       <c r="O283" t="n">
-        <v>-0.0008933147876600743</v>
+        <v>-0.001509098517921752</v>
       </c>
       <c r="P283" t="n">
-        <v>0.49419814895894</v>
+        <v>0.5403100621463439</v>
       </c>
       <c r="Q283" t="n">
-        <v>0.1567809804054419</v>
+        <v>0.155675325384437</v>
       </c>
       <c r="R283" t="n">
-        <v>-0.001300570320011851</v>
+        <v>-0.001384017953423194</v>
       </c>
     </row>
     <row r="284">
       <c r="F284" t="n">
-        <v>0.06807794127500003</v>
+        <v>0.06871762082500005</v>
       </c>
       <c r="G284" t="n">
-        <v>0.1620746498535975</v>
+        <v>0.161516997395191</v>
       </c>
       <c r="H284" t="n">
-        <v>-0.0009637090748201627</v>
+        <v>-0.001495055295662288</v>
       </c>
       <c r="J284" t="n">
-        <v>0.1633676919458568</v>
+        <v>0.1459070406789821</v>
       </c>
       <c r="K284" t="n">
-        <v>0.1569400943999754</v>
+        <v>0.1609190200491463</v>
       </c>
       <c r="L284" t="n">
-        <v>-0.001356270592050928</v>
+        <v>-0.00128647045549267</v>
       </c>
       <c r="M284" t="n">
-        <v>0.3446901885955957</v>
+        <v>0.320367215217373</v>
       </c>
       <c r="N284" t="n">
-        <v>0.1631797475287711</v>
+        <v>0.1597152057588232</v>
       </c>
       <c r="O284" t="n">
-        <v>-0.0008933147876600743</v>
+        <v>-0.001509098517921752</v>
       </c>
       <c r="P284" t="n">
-        <v>0.4918891102129299</v>
+        <v>0.5397317475150265</v>
       </c>
       <c r="Q284" t="n">
-        <v>0.1575728035388027</v>
+        <v>0.1564615644015301</v>
       </c>
       <c r="R284" t="n">
-        <v>-0.001300570320011851</v>
+        <v>-0.001384017953423194</v>
       </c>
     </row>
   </sheetData>
